--- a/docs/鍵盤設計規格_台語方音.xlsx
+++ b/docs/鍵盤設計規格_台語方音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF2C451-B671-4A69-BE8D-30F04B1FB152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2588C-86E8-4E13-ADE3-5C959F19DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -560,6 +560,20 @@
   <si>
     <t>-h4</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  alphabet: </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  initials: </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-7</t>
   </si>
 </sst>
 </file>
@@ -581,7 +595,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
@@ -604,7 +617,6 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -676,7 +688,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -800,7 +811,6 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -2454,10 +2464,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AU58"/>
+  <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AV15" sqref="AV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -2635,7 +2645,7 @@
         <v>p</v>
       </c>
       <c r="AA3" s="30" t="str">
-        <f t="shared" ref="AA3:AA44" si="0">Z3</f>
+        <f t="shared" ref="AA3:AA20" si="0">Z3</f>
         <v>p</v>
       </c>
       <c r="AB3" s="31" t="str">
@@ -3187,13 +3197,13 @@
       <c r="AS9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AT9" s="61">
-        <f ca="1">AT9</f>
-        <v>0</v>
+      <c r="AT9" s="61" t="str">
+        <f>AT5</f>
+        <v>-</v>
       </c>
       <c r="AU9" s="45">
-        <f ca="1" xml:space="preserve"> FIND(AT9, AF9)</f>
-        <v>0</v>
+        <f xml:space="preserve"> FIND(AT9, AF9)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="32.25">
@@ -3282,9 +3292,9 @@
         <f xml:space="preserve"> _xlfn.CONCAT(X$3:X$38,X$40:X$44)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻ㄇㄌㄫㄐㄑㄒㄤㄢㆰㆲˋ˪ˊ˫˙</v>
       </c>
-      <c r="AT10" s="55">
-        <f ca="1" xml:space="preserve"> MID(AF10, AU9, 1)</f>
-        <v>0</v>
+      <c r="AT10" s="55" t="str">
+        <f xml:space="preserve"> MID(AF10, AU9, 1)</f>
+        <v>鼻</v>
       </c>
       <c r="AU10" s="45"/>
     </row>
@@ -3802,8 +3812,14 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X16, 表格1_334[方音符號], 0)), "")</f>
         <v>c</v>
       </c>
+      <c r="AD16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" ht="32.25">
+    <row r="17" spans="1:34" ht="32.25">
       <c r="E17" s="2" cm="1">
         <f t="array" ref="E17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>15</v>
@@ -3875,8 +3891,14 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X17, 表格1_334[方音符號], 0)), "")</f>
         <v>u</v>
       </c>
+      <c r="AD17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" ht="32.25">
+    <row r="18" spans="1:34" ht="32.25">
       <c r="E18" s="2" cm="1">
         <f t="array" ref="E18" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>16</v>
@@ -3949,7 +3971,7 @@
         <v>j</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="32.25">
+    <row r="19" spans="1:34" ht="32.25">
       <c r="E19" s="2" cm="1">
         <f t="array" ref="E19" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>17</v>
@@ -4021,8 +4043,17 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X19, 表格1_334[方音符號], 0)), "")</f>
         <v>8</v>
       </c>
+      <c r="AF19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH19" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" ht="32.25">
+    <row r="20" spans="1:34" ht="32.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -4097,8 +4128,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X20, 表格1_334[方音符號], 0)), "")</f>
         <v>o</v>
       </c>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="23" t="str">
+        <f xml:space="preserve"> MID($AF$16, $AE20, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="5" t="str">
+        <f t="shared" ref="AG20:AG61" si="9" xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(AF20, $J$3:$J$44, 0)), "")</f>
+        <v>ㄅ</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" ht="32.25">
+    <row r="21" spans="1:34" ht="32.25">
       <c r="A21" s="12" t="s">
         <v>64</v>
       </c>
@@ -4172,8 +4214,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X21, 表格1_334[方音符號], 0)), "")</f>
         <v>k</v>
       </c>
+      <c r="AE21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="23" t="str">
+        <f t="shared" ref="AF21:AF61" si="10" xml:space="preserve"> MID($AF$16, $AE21, 1)</f>
+        <v>q</v>
+      </c>
+      <c r="AG21" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄆ</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" ht="32.25">
+    <row r="22" spans="1:34" ht="32.25">
       <c r="A22" s="2">
         <f xml:space="preserve"> SEARCH("|",A21,1)</f>
         <v>7</v>
@@ -4248,8 +4301,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X22, 表格1_334[方音符號], 0)), "")</f>
         <v>i</v>
       </c>
+      <c r="AE22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>a</v>
+      </c>
+      <c r="AG22" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄇ</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" ht="32.25">
+    <row r="23" spans="1:34" ht="32.25">
       <c r="A23" s="2">
         <f xml:space="preserve"> SEARCH("|",A21,A22+1)</f>
         <v>34</v>
@@ -4318,15 +4382,26 @@
         <v>I</v>
       </c>
       <c r="AA23" s="30" t="str">
-        <f t="shared" ref="AA23:AA64" si="9">Z23</f>
+        <f t="shared" ref="AA23:AA44" si="11">Z23</f>
         <v>I</v>
       </c>
       <c r="AB23" s="31" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X23, 表格1_334[方音符號], 0)), "")</f>
         <v>9</v>
       </c>
+      <c r="AE23" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>z</v>
+      </c>
+      <c r="AG23" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆠ</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" ht="32.25">
+    <row r="24" spans="1:34" ht="32.25">
       <c r="A24" s="2">
         <f xml:space="preserve"> SEARCH("|",A21,A23+1)</f>
         <v>61</v>
@@ -4395,15 +4470,26 @@
         <v>U</v>
       </c>
       <c r="AA24" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>U</v>
       </c>
       <c r="AB24" s="40" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X24, 表格1_334[方音符號], 0)), "")</f>
         <v>l</v>
       </c>
+      <c r="AE24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AG24" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄉ</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" ht="32.25">
+    <row r="25" spans="1:34" ht="32.25">
       <c r="A25" s="56" t="str">
         <f xml:space="preserve"> MID(A21,A22+1, A24-A23-1)</f>
         <v>pPbtTdkKgcCzshiuaoøeIUBDGN</v>
@@ -4476,15 +4562,26 @@
         <v>G</v>
       </c>
       <c r="AA25" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>G</v>
       </c>
       <c r="AB25" s="31" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X25, 表格1_334[方音符號], 0)), "")</f>
         <v>/</v>
       </c>
+      <c r="AE25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>w</v>
+      </c>
+      <c r="AG25" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄊ</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" ht="32.25">
+    <row r="26" spans="1:34" ht="32.25">
       <c r="A26" s="56" t="str">
         <f xml:space="preserve"> MID(A21,A23+1, A24-A23-1)</f>
         <v>ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ</v>
@@ -4557,15 +4654,26 @@
         <v>D</v>
       </c>
       <c r="AA26" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>D</v>
       </c>
       <c r="AB26" s="40" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X26, 表格1_334[方音符號], 0)), "")</f>
         <v>p</v>
       </c>
+      <c r="AE26" s="2">
+        <v>7</v>
+      </c>
+      <c r="AF26" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>s</v>
+      </c>
+      <c r="AG26" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄋ</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" ht="32.25">
+    <row r="27" spans="1:34" ht="32.25">
       <c r="E27" s="2" cm="1">
         <f t="array" ref="E27" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>25</v>
@@ -4630,15 +4738,26 @@
         <v>B</v>
       </c>
       <c r="AA27" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>B</v>
       </c>
       <c r="AB27" s="50" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X27, 表格1_334[方音符號], 0)), "")</f>
         <v>m</v>
       </c>
+      <c r="AE27" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF27" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="AG27" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄌ</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" ht="32.25">
+    <row r="28" spans="1:34" ht="32.25">
       <c r="E28" s="2" cm="1">
         <f t="array" ref="E28" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>26</v>
@@ -4702,14 +4821,25 @@
         <v>26</v>
       </c>
       <c r="AA28" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
       <c r="AB28" s="50" t="s">
         <v>83</v>
       </c>
+      <c r="AE28" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF28" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>e</v>
+      </c>
+      <c r="AG28" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄍ</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" ht="32.25">
+    <row r="29" spans="1:34" ht="32.25">
       <c r="E29" s="2" cm="1">
         <f t="array" ref="E29" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>27</v>
@@ -4737,11 +4867,11 @@
         <v>27</v>
       </c>
       <c r="N29" s="24" t="str">
-        <f t="shared" ref="N29:N44" si="10" xml:space="preserve"> IFERROR( MID($A$23, $E29, 1), "")</f>
+        <f t="shared" ref="N29:N44" si="12" xml:space="preserve"> IFERROR( MID($A$23, $E29, 1), "")</f>
         <v/>
       </c>
       <c r="O29" s="24" t="str">
-        <f t="shared" ref="O29:O44" si="11" xml:space="preserve"> IFERROR( MID($A$24, $E29, 1), "")</f>
+        <f t="shared" ref="O29:O44" si="13" xml:space="preserve"> IFERROR( MID($A$24, $E29, 1), "")</f>
         <v/>
       </c>
       <c r="Q29" s="2">
@@ -4774,15 +4904,26 @@
         <v>m</v>
       </c>
       <c r="AA29" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>m</v>
       </c>
       <c r="AB29" s="87" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X29, 表格1_334[方音符號], 0)), "")</f>
         <v>a</v>
       </c>
+      <c r="AE29" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF29" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>d</v>
+      </c>
+      <c r="AG29" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄎ</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" ht="32.25">
+    <row r="30" spans="1:34" ht="32.25">
       <c r="E30" s="2" cm="1">
         <f t="array" ref="E30" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>28</v>
@@ -4810,11 +4951,11 @@
         <v>28</v>
       </c>
       <c r="N30" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O30" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q30" s="2">
@@ -4847,15 +4988,26 @@
         <v>d</v>
       </c>
       <c r="AA30" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>d</v>
       </c>
       <c r="AB30" s="89" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X30, 表格1_334[方音符號], 0)), "")</f>
         <v>x</v>
       </c>
+      <c r="AE30" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF30" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>c</v>
+      </c>
+      <c r="AG30" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄏ</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" ht="32.25">
+    <row r="31" spans="1:34" ht="32.25">
       <c r="E31" s="2" cm="1">
         <f t="array" ref="E31" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>29</v>
@@ -4883,11 +5035,11 @@
         <v>29</v>
       </c>
       <c r="N31" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O31" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q31" s="2">
@@ -4920,15 +5072,26 @@
         <v>q</v>
       </c>
       <c r="AA31" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>q</v>
       </c>
       <c r="AB31" s="87" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X31, 表格1_334[方音符號], 0)), "")</f>
         <v>g</v>
       </c>
+      <c r="AE31" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF31" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>r</v>
+      </c>
+      <c r="AG31" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄐ</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" ht="32.25">
+    <row r="32" spans="1:34" ht="32.25">
       <c r="E32" s="2" cm="1">
         <f t="array" ref="E32" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>30</v>
@@ -4956,11 +5119,11 @@
         <v>30</v>
       </c>
       <c r="N32" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O32" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q32" s="2">
@@ -4993,15 +5156,26 @@
         <v>j</v>
       </c>
       <c r="AA32" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="AB32" s="31" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X32, 表格1_334[方音符號], 0)), "")</f>
         <v>r</v>
       </c>
+      <c r="AE32" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF32" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>f</v>
+      </c>
+      <c r="AG32" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄑ</v>
+      </c>
     </row>
-    <row r="33" spans="5:29" ht="32.25">
+    <row r="33" spans="5:33" ht="32.25">
       <c r="E33" s="2" cm="1">
         <f t="array" ref="E33" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>31</v>
@@ -5029,11 +5203,11 @@
         <v>31</v>
       </c>
       <c r="N33" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O33" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q33" s="2">
@@ -5066,15 +5240,26 @@
         <v>J</v>
       </c>
       <c r="AA33" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>J</v>
       </c>
       <c r="AB33" s="40" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X33, 表格1_334[方音符號], 0)), "")</f>
         <v>f</v>
       </c>
+      <c r="AE33" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF33" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>v</v>
+      </c>
+      <c r="AG33" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄒ</v>
+      </c>
     </row>
-    <row r="34" spans="5:29" ht="32.25">
+    <row r="34" spans="5:33" ht="32.25">
       <c r="E34" s="2" cm="1">
         <f t="array" ref="E34" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>32</v>
@@ -5102,11 +5287,11 @@
         <v>32</v>
       </c>
       <c r="N34" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O34" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q34" s="2">
@@ -5139,15 +5324,26 @@
         <v>S</v>
       </c>
       <c r="AA34" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S</v>
       </c>
       <c r="AB34" s="50" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X34, 表格1_334[方音符號], 0)), "")</f>
         <v>v</v>
       </c>
+      <c r="AE34" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF34" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>t</v>
+      </c>
+      <c r="AG34" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆣ</v>
+      </c>
     </row>
-    <row r="35" spans="5:29" ht="32.25">
+    <row r="35" spans="5:33" ht="32.25">
       <c r="E35" s="2" cm="1">
         <f t="array" ref="E35" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>33</v>
@@ -5175,11 +5371,11 @@
         <v>33</v>
       </c>
       <c r="N35" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O35" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q35" s="2">
@@ -5212,15 +5408,26 @@
         <v>Q</v>
       </c>
       <c r="AA35" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Q</v>
       </c>
       <c r="AB35" s="40" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X35, 表格1_334[方音符號], 0)), "")</f>
         <v>;</v>
       </c>
+      <c r="AE35" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF35" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>g</v>
+      </c>
+      <c r="AG35" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄫ</v>
+      </c>
     </row>
-    <row r="36" spans="5:29" ht="32.25">
+    <row r="36" spans="5:33" ht="32.25">
       <c r="E36" s="2" cm="1">
         <f t="array" ref="E36" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>34</v>
@@ -5248,11 +5455,11 @@
         <v>34</v>
       </c>
       <c r="N36" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O36" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q36" s="2">
@@ -5285,15 +5492,26 @@
         <v>L</v>
       </c>
       <c r="AA36" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>L</v>
       </c>
       <c r="AB36" s="40" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X36, 表格1_334[方音符號], 0)), "")</f>
         <v>0</v>
       </c>
+      <c r="AE36" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF36" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>b</v>
+      </c>
+      <c r="AG36" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆡ</v>
+      </c>
     </row>
-    <row r="37" spans="5:29" ht="32.25">
+    <row r="37" spans="5:33" ht="32.25">
       <c r="E37" s="2" cm="1">
         <f t="array" ref="E37" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>35</v>
@@ -5321,11 +5539,11 @@
         <v>35</v>
       </c>
       <c r="N37" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O37" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q37" s="2">
@@ -5358,15 +5576,26 @@
         <v>M</v>
       </c>
       <c r="AA37" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>M</v>
       </c>
       <c r="AB37" s="40" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X37, 表格1_334[方音符號], 0)), "")</f>
         <v>,</v>
       </c>
+      <c r="AE37" s="2">
+        <v>18</v>
+      </c>
+      <c r="AF37" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>y</v>
+      </c>
+      <c r="AG37" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄗ</v>
+      </c>
     </row>
-    <row r="38" spans="5:29" ht="32.25">
+    <row r="38" spans="5:33" ht="32.25">
       <c r="E38" s="2" cm="1">
         <f t="array" ref="E38" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>36</v>
@@ -5394,11 +5623,11 @@
         <v>36</v>
       </c>
       <c r="N38" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O38" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q38" s="2">
@@ -5431,15 +5660,26 @@
         <v>Y</v>
       </c>
       <c r="AA38" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Y</v>
       </c>
       <c r="AB38" s="50" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X38, 表格1_334[方音符號], 0)), "")</f>
         <v>.</v>
       </c>
+      <c r="AE38" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF38" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>h</v>
+      </c>
+      <c r="AG38" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄘ</v>
+      </c>
     </row>
-    <row r="39" spans="5:29" ht="32.25">
+    <row r="39" spans="5:33" ht="32.25">
       <c r="E39" s="2" cm="1">
         <f t="array" ref="E39" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>37</v>
@@ -5467,11 +5707,11 @@
         <v>37</v>
       </c>
       <c r="N39" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O39" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q39" s="2">
@@ -5503,14 +5743,25 @@
         <v>1</v>
       </c>
       <c r="AA39" s="101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB39" s="102" t="s">
         <v>105</v>
       </c>
+      <c r="AE39" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF39" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>n</v>
+      </c>
+      <c r="AG39" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄙ</v>
+      </c>
     </row>
-    <row r="40" spans="5:29" ht="32.25">
+    <row r="40" spans="5:33" ht="32.25">
       <c r="E40" s="2" cm="1">
         <f t="array" ref="E40" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>38</v>
@@ -5538,11 +5789,11 @@
         <v>38</v>
       </c>
       <c r="N40" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O40" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q40" s="2">
@@ -5575,15 +5826,26 @@
         <v>2</v>
       </c>
       <c r="AA40" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AB40" s="31" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X40, 表格1_334[方音符號], 0)), "")</f>
         <v>4</v>
       </c>
+      <c r="AE40" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF40" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>u</v>
+      </c>
+      <c r="AG40" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄧ</v>
+      </c>
     </row>
-    <row r="41" spans="5:29" ht="32.25">
+    <row r="41" spans="5:33" ht="32.25">
       <c r="E41" s="2" cm="1">
         <f t="array" ref="E41" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>39</v>
@@ -5611,11 +5873,11 @@
         <v>39</v>
       </c>
       <c r="N41" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O41" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q41" s="2">
@@ -5648,15 +5910,26 @@
         <v>3</v>
       </c>
       <c r="AA41" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AB41" s="40" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X41, 表格1_334[方音符號], 0)), "")</f>
         <v>3</v>
       </c>
+      <c r="AE41" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF41" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>j</v>
+      </c>
+      <c r="AG41" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄨ</v>
+      </c>
     </row>
-    <row r="42" spans="5:29" ht="32.25">
+    <row r="42" spans="5:33" ht="32.25">
       <c r="E42" s="2" cm="1">
         <f t="array" ref="E42" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>40</v>
@@ -5684,11 +5957,11 @@
         <v>40</v>
       </c>
       <c r="N42" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O42" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q42" s="2">
@@ -5721,15 +5994,26 @@
         <v>5</v>
       </c>
       <c r="AA42" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AB42" s="40" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X42, 表格1_334[方音符號], 0)), "")</f>
         <v>6</v>
       </c>
+      <c r="AE42" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF42" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>m</v>
+      </c>
+      <c r="AG42" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆬ</v>
+      </c>
     </row>
-    <row r="43" spans="5:29" ht="32.25">
+    <row r="43" spans="5:33" ht="32.25">
       <c r="E43" s="2" cm="1">
         <f t="array" ref="E43" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>41</v>
@@ -5757,11 +6041,11 @@
         <v>41</v>
       </c>
       <c r="N43" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O43" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q43" s="2">
@@ -5794,7 +6078,7 @@
         <v>7</v>
       </c>
       <c r="AA43" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AB43" s="40" t="str">
@@ -5802,8 +6086,19 @@
         <v>5</v>
       </c>
       <c r="AC43" s="104"/>
+      <c r="AE43" s="2">
+        <v>24</v>
+      </c>
+      <c r="AF43" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AG43" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄚ</v>
+      </c>
     </row>
-    <row r="44" spans="5:29" ht="32.25">
+    <row r="44" spans="5:33" ht="32.25">
       <c r="E44" s="2" cm="1">
         <f t="array" ref="E44" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>42</v>
@@ -5831,11 +6126,11 @@
         <v>42</v>
       </c>
       <c r="N44" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O44" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q44" s="2">
@@ -5867,14 +6162,25 @@
         <v>0</v>
       </c>
       <c r="AA44" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB44" s="50">
         <v>7</v>
       </c>
+      <c r="AE44" s="2">
+        <v>25</v>
+      </c>
+      <c r="AF44" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>i</v>
+      </c>
+      <c r="AG44" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆦ</v>
+      </c>
     </row>
-    <row r="45" spans="5:29" ht="32.25">
+    <row r="45" spans="5:33" ht="32.25">
       <c r="O45" s="2"/>
       <c r="W45" s="105" cm="1">
         <f t="array" ref="W45">ROW() - ROW($2:$2)</f>
@@ -5895,8 +6201,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X45, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE45" s="2">
+        <v>26</v>
+      </c>
+      <c r="AF45" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>k</v>
+      </c>
+      <c r="AG45" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄜ</v>
+      </c>
     </row>
-    <row r="46" spans="5:29" ht="32.25">
+    <row r="46" spans="5:33" ht="32.25">
       <c r="T46" s="106" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(S3:S38, S40:S44)</f>
         <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570</v>
@@ -5920,8 +6237,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X46, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE46" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF46" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>,</v>
+      </c>
+      <c r="AG46" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆰ</v>
+      </c>
     </row>
-    <row r="47" spans="5:29" ht="32.25">
+    <row r="47" spans="5:33" ht="32.25">
       <c r="T47" s="106" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(T3:T38, T40:T44)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
@@ -5945,8 +6273,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X47, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE47" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF47" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AG47" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄞ</v>
+      </c>
     </row>
-    <row r="48" spans="5:29" ht="32.25">
+    <row r="48" spans="5:33" ht="32.25">
       <c r="R48" s="107" t="str">
         <f xml:space="preserve"> "xlit|" &amp; T46 &amp; "|" &amp; T47 &amp; "|"</f>
         <v>xlit|pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．|</v>
@@ -5970,8 +6309,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X48, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE48" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>o</v>
+      </c>
+      <c r="AG48" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆤ</v>
+      </c>
     </row>
-    <row r="49" spans="23:28" ht="32.25">
+    <row r="49" spans="23:33" ht="32.25">
       <c r="W49" s="93" cm="1">
         <f t="array" ref="W49">ROW() - ROW($2:$2)</f>
         <v>47</v>
@@ -5991,8 +6341,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X49, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE49" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF49" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>l</v>
+      </c>
+      <c r="AG49" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄠ</v>
+      </c>
     </row>
-    <row r="50" spans="23:28" ht="32.25">
+    <row r="50" spans="23:33" ht="32.25">
       <c r="W50" s="93" cm="1">
         <f t="array" ref="W50">ROW() - ROW($2:$2)</f>
         <v>48</v>
@@ -6012,8 +6373,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X50, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE50" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF50" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>.</v>
+      </c>
+      <c r="AG50" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆲ</v>
+      </c>
     </row>
-    <row r="51" spans="23:28" ht="32.25">
+    <row r="51" spans="23:33" ht="32.25">
       <c r="W51" s="94" cm="1">
         <f t="array" ref="W51">ROW() - ROW($2:$2)</f>
         <v>49</v>
@@ -6033,8 +6405,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X51, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE51" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF51" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄢ</v>
+      </c>
     </row>
-    <row r="52" spans="23:28" ht="32.25">
+    <row r="52" spans="23:33" ht="32.25">
       <c r="W52" s="103" cm="1">
         <f t="array" ref="W52">ROW() - ROW($2:$2)</f>
         <v>50</v>
@@ -6054,8 +6437,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X52, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE52" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF52" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>p</v>
+      </c>
+      <c r="AG52" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄣ</v>
+      </c>
     </row>
-    <row r="53" spans="23:28" ht="32.25">
+    <row r="53" spans="23:33" ht="32.25">
       <c r="W53" s="94" cm="1">
         <f t="array" ref="W53">ROW() - ROW($2:$2)</f>
         <v>51</v>
@@ -6075,8 +6469,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X53, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE53" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF53" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>;</v>
+      </c>
+      <c r="AG53" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㄤ</v>
+      </c>
     </row>
-    <row r="54" spans="23:28" ht="32.25">
+    <row r="54" spans="23:33" ht="32.25">
       <c r="W54" s="103" cm="1">
         <f t="array" ref="W54">ROW() - ROW($2:$2)</f>
         <v>52</v>
@@ -6096,8 +6501,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X54, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE54" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF54" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>/</v>
+      </c>
+      <c r="AG54" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ㆭ</v>
+      </c>
     </row>
-    <row r="55" spans="23:28" ht="32.25">
+    <row r="55" spans="23:33" ht="32.25">
       <c r="W55" s="93" cm="1">
         <f t="array" ref="W55">ROW() - ROW($2:$2)</f>
         <v>53</v>
@@ -6117,8 +6533,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X55, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE55" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF55" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AG55" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ｎ</v>
+      </c>
     </row>
-    <row r="56" spans="23:28" ht="32.25">
+    <row r="56" spans="23:33" ht="32.25">
       <c r="W56" s="93" cm="1">
         <f t="array" ref="W56">ROW() - ROW($2:$2)</f>
         <v>54</v>
@@ -6138,8 +6565,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X56, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE56" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF56" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG56" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
-    <row r="57" spans="23:28" ht="32.25">
+    <row r="57" spans="23:33" ht="32.25">
       <c r="W57" s="93" cm="1">
         <f t="array" ref="W57">ROW() - ROW($2:$2)</f>
         <v>55</v>
@@ -6159,8 +6597,19 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X57, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
+      <c r="AE57" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF57" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AG57" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ˋ</v>
+      </c>
     </row>
-    <row r="58" spans="23:28" ht="32.25">
+    <row r="58" spans="23:33" ht="32.25">
       <c r="W58" s="94" cm="1">
         <f t="array" ref="W58">ROW() - ROW($2:$2)</f>
         <v>56</v>
@@ -6179,6 +6628,56 @@
       <c r="AB58" s="50" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X58, 表格1_334[方音符號], 0)), "")</f>
         <v/>
+      </c>
+      <c r="AE58" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF58" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AG58" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>˪</v>
+      </c>
+    </row>
+    <row r="59" spans="23:33">
+      <c r="AE59" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF59" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AG59" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>ˊ</v>
+      </c>
+    </row>
+    <row r="60" spans="23:33">
+      <c r="AE60" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF60" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AG60" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>˫</v>
+      </c>
+    </row>
+    <row r="61" spans="23:33">
+      <c r="AE61" s="2">
+        <v>42</v>
+      </c>
+      <c r="AF61" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AG61" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>．</v>
       </c>
     </row>
   </sheetData>

--- a/docs/鍵盤設計規格_台語方音.xlsx
+++ b/docs/鍵盤設計規格_台語方音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2588C-86E8-4E13-ADE3-5C959F19DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2A8B7-9509-469A-97C7-0DD751B6D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -20,14 +20,14 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="方音符號" localSheetId="1">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
+    <definedName name="方音符號" localSheetId="1">'RIME對映編碼 (台語方音)'!$U$3:$U$44</definedName>
     <definedName name="方音符號">[1]RIME編碼!$AA$3:$AA$45</definedName>
     <definedName name="字典編碼">[1]RIME編碼!$AB$3:$AB$45</definedName>
     <definedName name="拼音字母" localSheetId="1">'RIME對映編碼 (台語方音)'!#REF!</definedName>
     <definedName name="拼音字母">[1]RIME編碼!$AC$3:$AC$45</definedName>
-    <definedName name="按鍵編碼" localSheetId="1">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
+    <definedName name="按鍵編碼" localSheetId="1">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
     <definedName name="國際音標" localSheetId="1">'RIME對映編碼 (台語方音)'!#REF!</definedName>
-    <definedName name="鍵盤位置" localSheetId="1">'RIME對映編碼 (台語方音)'!$R$3:$R$44</definedName>
+    <definedName name="鍵盤位置" localSheetId="1">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
     <definedName name="鍵盤位置">[1]RIME編碼!$W$3:$W$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -562,18 +562,18 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  alphabet: </t>
+    <t>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</t>
+  </si>
+  <si>
+    <t>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alphabet: </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  initials: </t>
+    <t xml:space="preserve">initials: </t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-7</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -851,6 +851,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1105,7 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1400,6 +1407,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2108,20 +2117,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="R2:T44" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
-    <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="S2:U44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:U44">
+    <sortCondition ref="S3:S44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="2">
+      <calculatedColumnFormula>H3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="1" dataCellStyle="一般 4">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="1" dataCellStyle="一般 4">
-      <calculatedColumnFormula>F3</calculatedColumnFormula>
-    </tableColumn>
     <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="0">
-      <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
+      <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2464,404 +2473,403 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AU61"/>
+  <dimension ref="A1:AV98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AV15" sqref="AV15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="99.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.69921875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="10.09765625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="5.09765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.69921875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.09765625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="5.09765625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="4.69921875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="2"/>
-    <col min="17" max="17" width="4.69921875" style="2" customWidth="1"/>
-    <col min="18" max="20" width="9.796875" style="2" customWidth="1"/>
-    <col min="21" max="22" width="7.8984375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="6.19921875" style="2" customWidth="1"/>
-    <col min="24" max="27" width="11.296875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.69921875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="3.8984375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13" style="2" customWidth="1"/>
-    <col min="31" max="31" width="5.5" style="2" customWidth="1"/>
-    <col min="32" max="45" width="8.796875" style="2"/>
-    <col min="46" max="46" width="8.796875" style="11"/>
-    <col min="47" max="16384" width="8.796875" style="2"/>
+    <col min="3" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.69921875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="8" width="10.09765625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="5.09765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.09765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.09765625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.69921875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.796875" style="2"/>
+    <col min="18" max="18" width="4.69921875" style="2" customWidth="1"/>
+    <col min="19" max="21" width="9.796875" style="2" customWidth="1"/>
+    <col min="22" max="23" width="7.8984375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.19921875" style="2" customWidth="1"/>
+    <col min="25" max="28" width="11.296875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="11.69921875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.8984375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="13" style="2" customWidth="1"/>
+    <col min="32" max="32" width="5.5" style="2" customWidth="1"/>
+    <col min="33" max="46" width="8.796875" style="2"/>
+    <col min="47" max="47" width="8.796875" style="11"/>
+    <col min="48" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="32.25">
+    <row r="1" spans="1:48" ht="32.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="10"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="9"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
-    </row>
-    <row r="2" spans="1:47" ht="25.5">
+      <c r="AC1" s="10"/>
+    </row>
+    <row r="2" spans="1:48" ht="25.5">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="X2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="32.25">
+    <row r="3" spans="1:48" ht="32.25">
       <c r="A3" s="2">
         <f xml:space="preserve"> SEARCH("|",$A$2,1)</f>
         <v>7</v>
       </c>
-      <c r="E3" s="2" cm="1">
-        <f t="array" ref="E3" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F3" s="2" cm="1">
+        <f t="array" ref="F3" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="21" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $E3, 1), "")</f>
+      <c r="G3" s="21" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$6, $F3, 1), "")</f>
         <v>p</v>
       </c>
-      <c r="G3" s="22" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $E3, 1), "")</f>
+      <c r="H3" s="22" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$7, $F3, 1), "")</f>
         <v>1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="23" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $E3, 1), "")</f>
+      <c r="K3" s="23" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$15, $F3, 1), "")</f>
         <v>1</v>
       </c>
-      <c r="K3" s="23" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $E3, 1), "")</f>
+      <c r="L3" s="23" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$16, $F3, 1), "")</f>
         <v>ㄅ</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="N3" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $M3, 1), "")</f>
+      <c r="O3" s="24" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $N3, 1), "")</f>
         <v>p</v>
       </c>
-      <c r="O3" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $M3, 1), "")</f>
+      <c r="P3" s="24" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $N3, 1), "")</f>
         <v>ㄅ</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="5" t="str">
+      <c r="S3" s="5" t="str">
+        <f>H3</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="25" t="str">
         <f>G3</f>
+        <v>p</v>
+      </c>
+      <c r="U3" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="X3" s="27" cm="1">
+        <f t="array" ref="X3">ROW() - ROW($2:$2)</f>
         <v>1</v>
       </c>
-      <c r="S3" s="25" t="str">
-        <f>F3</f>
+      <c r="Y3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y3, 表格1_334[方音符號], 0)), "")</f>
         <v>p</v>
       </c>
-      <c r="T3" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㄅ</v>
-      </c>
-      <c r="W3" s="27" cm="1">
-        <f t="array" ref="W3">ROW() - ROW($2:$2)</f>
+      <c r="AB3" s="30" t="str">
+        <f t="shared" ref="AB3:AB20" si="0">AA3</f>
+        <v>p</v>
+      </c>
+      <c r="AC3" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y3, 表格1_334[方音符號], 0)), "")</f>
         <v>1</v>
       </c>
-      <c r="X3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X3, 表格1_334[方音符號], 0)), "")</f>
-        <v>p</v>
-      </c>
-      <c r="AA3" s="30" t="str">
-        <f t="shared" ref="AA3:AA20" si="0">Z3</f>
-        <v>p</v>
-      </c>
-      <c r="AB3" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X3, 表格1_334[方音符號], 0)), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AE3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="33" t="str">
-        <f xml:space="preserve"> "- xlit|" &amp; AF4 &amp; "|" &amp; AF5 &amp; "|"</f>
+      <c r="AG3" s="33" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; AG4 &amp; "|" &amp; AG5 &amp; "|"</f>
         <v>- xlit|pPbtTnkKgcCzshiuaeoOIUGDBNmdqjJSQLMY123570|1qz2wsedtyhbncuj8oki9l/pm-axgrfv;0,. 43657|</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="32.25">
+    <row r="4" spans="1:48" ht="32.25">
       <c r="A4" s="2">
         <f xml:space="preserve"> SEARCH("|",$A$2,A3+1)</f>
         <v>50</v>
       </c>
-      <c r="E4" s="2" cm="1">
-        <f t="array" ref="E4" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F4" s="2" cm="1">
+        <f t="array" ref="F4" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="34" t="str">
-        <f t="shared" ref="F4:F44" si="1" xml:space="preserve"> IFERROR( MID($A$6, $E4, 1), "")</f>
+      <c r="G4" s="34" t="str">
+        <f t="shared" ref="G4:G44" si="1" xml:space="preserve"> IFERROR( MID($A$6, $F4, 1), "")</f>
         <v>P</v>
       </c>
-      <c r="G4" s="35" t="str">
-        <f t="shared" ref="G4:G44" si="2" xml:space="preserve"> IFERROR( MID($A$7, $E4, 1), "")</f>
+      <c r="H4" s="35" t="str">
+        <f t="shared" ref="H4:H44" si="2" xml:space="preserve"> IFERROR( MID($A$7, $F4, 1), "")</f>
         <v>q</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="23" t="str">
-        <f t="shared" ref="J4:J44" si="3" xml:space="preserve"> IFERROR( MID($A$15, $E4, 1), "")</f>
+      <c r="K4" s="23" t="str">
+        <f t="shared" ref="K4:K44" si="3" xml:space="preserve"> IFERROR( MID($A$15, $F4, 1), "")</f>
         <v>q</v>
       </c>
-      <c r="K4" s="23" t="str">
-        <f t="shared" ref="K4:K44" si="4" xml:space="preserve"> IFERROR( MID($A$16, $E4, 1), "")</f>
+      <c r="L4" s="23" t="str">
+        <f t="shared" ref="L4:L44" si="4" xml:space="preserve"> IFERROR( MID($A$16, $F4, 1), "")</f>
         <v>ㄆ</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="24" t="str">
-        <f t="shared" ref="N4:N28" si="5" xml:space="preserve"> IFERROR( MID($A$25, $M4, 1), "")</f>
+      <c r="O4" s="24" t="str">
+        <f t="shared" ref="O4:O28" si="5" xml:space="preserve"> IFERROR( MID($A$25, $N4, 1), "")</f>
         <v>P</v>
       </c>
-      <c r="O4" s="24" t="str">
-        <f t="shared" ref="O4:O28" si="6" xml:space="preserve"> IFERROR( MID($A$26, $M4, 1), "")</f>
+      <c r="P4" s="24" t="str">
+        <f t="shared" ref="P4:P28" si="6" xml:space="preserve"> IFERROR( MID($A$26, $N4, 1), "")</f>
         <v>ㄆ</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>2</v>
       </c>
-      <c r="R4" s="5" t="str">
-        <f t="shared" ref="R4:R44" si="7">G4</f>
+      <c r="S4" s="5" t="str">
+        <f t="shared" ref="S4:S44" si="7">H4</f>
         <v>q</v>
       </c>
-      <c r="S4" s="25" t="str">
-        <f t="shared" ref="S4:S44" si="8">F4</f>
+      <c r="T4" s="25" t="str">
+        <f t="shared" ref="T4:T44" si="8">G4</f>
         <v>P</v>
       </c>
-      <c r="T4" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U4" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄆ</v>
       </c>
-      <c r="W4" s="36" cm="1">
-        <f t="array" ref="W4">ROW() - ROW($2:$2)</f>
+      <c r="X4" s="36" cm="1">
+        <f t="array" ref="X4">ROW() - ROW($2:$2)</f>
         <v>2</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="Y4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Z4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X4, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA4" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y4, 表格1_334[方音符號], 0)), "")</f>
         <v>P</v>
       </c>
-      <c r="AA4" s="39" t="str">
+      <c r="AB4" s="39" t="str">
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-      <c r="AB4" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X4, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC4" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y4, 表格1_334[方音符號], 0)), "")</f>
         <v>q</v>
       </c>
-      <c r="AD4" s="41" t="s">
+      <c r="AE4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="1">
-        <f xml:space="preserve"> LEN(AF4)</f>
+      <c r="AF4" s="1">
+        <f xml:space="preserve"> LEN(AG4)</f>
         <v>42</v>
       </c>
-      <c r="AF4" s="42" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AA$3:AA$44)</f>
+      <c r="AG4" s="42" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$44)</f>
         <v>pPbtTnkKgcCzshiuaeoOIUGDBNmdqjJSQLMY123570</v>
       </c>
-      <c r="AS4" s="43" t="s">
+      <c r="AT4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AT4" s="44" t="s">
+      <c r="AU4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AU4" s="45">
-        <f xml:space="preserve"> FIND(AT4, AF4)</f>
+      <c r="AV4" s="45">
+        <f xml:space="preserve"> FIND(AU4, AG4)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="32.25">
+    <row r="5" spans="1:48" ht="32.25">
       <c r="A5" s="2">
         <f xml:space="preserve"> SEARCH("|",$A$2,A4+1)</f>
         <v>93</v>
       </c>
-      <c r="E5" s="2" cm="1">
-        <f t="array" ref="E5" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F5" s="2" cm="1">
+        <f t="array" ref="F5" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>3</v>
       </c>
-      <c r="F5" s="34" t="str">
+      <c r="G5" s="34" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="G5" s="35" t="str">
+      <c r="H5" s="35" t="str">
         <f t="shared" si="2"/>
         <v>a</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="J5" s="23" t="str">
+      <c r="K5" s="23" t="str">
         <f t="shared" si="3"/>
         <v>a</v>
       </c>
-      <c r="K5" s="23" t="str">
+      <c r="L5" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄇ</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>3</v>
       </c>
-      <c r="N5" s="24" t="str">
+      <c r="O5" s="24" t="str">
         <f t="shared" si="5"/>
         <v>b</v>
       </c>
-      <c r="O5" s="24" t="str">
+      <c r="P5" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>3</v>
       </c>
-      <c r="R5" s="5" t="str">
+      <c r="S5" s="5" t="str">
         <f t="shared" si="7"/>
         <v>a</v>
       </c>
-      <c r="S5" s="25" t="str">
+      <c r="T5" s="25" t="str">
         <f t="shared" si="8"/>
         <v>m</v>
       </c>
-      <c r="T5" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U5" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄇ</v>
       </c>
-      <c r="W5" s="46" cm="1">
-        <f t="array" ref="W5">ROW() - ROW($2:$2)</f>
+      <c r="X5" s="46" cm="1">
+        <f t="array" ref="X5">ROW() - ROW($2:$2)</f>
         <v>3</v>
       </c>
-      <c r="X5" s="47" t="s">
+      <c r="Y5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="48" t="s">
+      <c r="Z5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X5, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA5" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y5, 表格1_334[方音符號], 0)), "")</f>
         <v>b</v>
       </c>
-      <c r="AA5" s="49" t="str">
+      <c r="AB5" s="49" t="str">
         <f t="shared" si="0"/>
         <v>b</v>
       </c>
-      <c r="AB5" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X5, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC5" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y5, 表格1_334[方音符號], 0)), "")</f>
         <v>z</v>
       </c>
-      <c r="AD5" s="51" t="s">
+      <c r="AE5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="1">
-        <f xml:space="preserve"> LEN(AF5)</f>
+      <c r="AF5" s="1">
+        <f xml:space="preserve"> LEN(AG5)</f>
         <v>42</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AG5" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
       <c r="AI5" s="53"/>
       <c r="AJ5" s="53"/>
       <c r="AK5" s="53"/>
       <c r="AL5" s="53"/>
       <c r="AM5" s="53"/>
-      <c r="AO5" s="54" t="str">
-        <f xml:space="preserve"> MID("/", AE4, 1)</f>
+      <c r="AN5" s="53"/>
+      <c r="AP5" s="54" t="str">
+        <f xml:space="preserve"> MID("/", AF4, 1)</f>
         <v/>
       </c>
-      <c r="AT5" s="55" t="str">
-        <f xml:space="preserve"> MID(AF5, AU4, 1)</f>
+      <c r="AU5" s="55" t="str">
+        <f xml:space="preserve"> MID(AG5, AV4, 1)</f>
         <v>-</v>
       </c>
-      <c r="AU5" s="45"/>
-    </row>
-    <row r="6" spans="1:47" ht="32.25">
+      <c r="AV5" s="45"/>
+    </row>
+    <row r="6" spans="1:48" ht="32.25">
       <c r="A6" s="56" t="str">
         <f xml:space="preserve"> MID($A$2,A3+1, A4-A3-1)</f>
         <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN123570</v>
@@ -2870,86 +2878,86 @@
         <f xml:space="preserve"> LEN(A6)</f>
         <v>42</v>
       </c>
-      <c r="E6" s="2" cm="1">
-        <f t="array" ref="E6" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F6" s="2" cm="1">
+        <f t="array" ref="F6" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="58" t="str">
+      <c r="G6" s="58" t="str">
         <f t="shared" si="1"/>
         <v>b</v>
       </c>
-      <c r="G6" s="59" t="str">
+      <c r="H6" s="59" t="str">
         <f t="shared" si="2"/>
         <v>z</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="23" t="str">
+      <c r="K6" s="23" t="str">
         <f t="shared" si="3"/>
         <v>z</v>
       </c>
-      <c r="K6" s="23" t="str">
+      <c r="L6" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㆠ</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>4</v>
       </c>
-      <c r="N6" s="24" t="str">
+      <c r="O6" s="24" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="O6" s="24" t="str">
+      <c r="P6" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄉ</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>4</v>
       </c>
-      <c r="R6" s="5" t="str">
+      <c r="S6" s="5" t="str">
         <f t="shared" si="7"/>
         <v>z</v>
       </c>
-      <c r="S6" s="25" t="str">
+      <c r="T6" s="25" t="str">
         <f t="shared" si="8"/>
         <v>b</v>
       </c>
-      <c r="T6" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U6" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㆠ</v>
       </c>
-      <c r="W6" s="27" cm="1">
-        <f t="array" ref="W6">ROW() - ROW($2:$2)</f>
+      <c r="X6" s="27" cm="1">
+        <f t="array" ref="X6">ROW() - ROW($2:$2)</f>
         <v>4</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="Y6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="29" t="s">
+      <c r="Z6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X6, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA6" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y6, 表格1_334[方音符號], 0)), "")</f>
         <v>t</v>
       </c>
-      <c r="AA6" s="30" t="str">
+      <c r="AB6" s="30" t="str">
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="AB6" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X6, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC6" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y6, 表格1_334[方音符號], 0)), "")</f>
         <v>2</v>
       </c>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="42" t="str">
-        <f>AF5</f>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="42" t="str">
+        <f>AG5</f>
         <v>1qz2wsedtyhbncuj8oki9l/pm-axgrfv;0,. 43657</v>
       </c>
-      <c r="AO6" s="54"/>
-    </row>
-    <row r="7" spans="1:47" ht="32.25">
+      <c r="AP6" s="54"/>
+    </row>
+    <row r="7" spans="1:48" ht="32.25">
       <c r="A7" s="56" t="str">
         <f xml:space="preserve"> MID($A$2,A4+1, A5-A4-1)</f>
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</v>
@@ -2958,700 +2966,700 @@
         <f xml:space="preserve"> LEN(A7)</f>
         <v>42</v>
       </c>
-      <c r="E7" s="2" cm="1">
-        <f t="array" ref="E7" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F7" s="2" cm="1">
+        <f t="array" ref="F7" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>5</v>
       </c>
-      <c r="F7" s="34" t="str">
+      <c r="G7" s="34" t="str">
         <f t="shared" si="1"/>
         <v>t</v>
       </c>
-      <c r="G7" s="35" t="str">
+      <c r="H7" s="35" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="23" t="str">
+      <c r="K7" s="23" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K7" s="23" t="str">
+      <c r="L7" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄉ</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>5</v>
       </c>
-      <c r="N7" s="24" t="str">
+      <c r="O7" s="24" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="O7" s="24" t="str">
+      <c r="P7" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄊ</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="5" t="str">
+      <c r="S7" s="5" t="str">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="S7" s="25" t="str">
+      <c r="T7" s="25" t="str">
         <f t="shared" si="8"/>
         <v>t</v>
       </c>
-      <c r="T7" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U7" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄉ</v>
       </c>
-      <c r="W7" s="36" cm="1">
-        <f t="array" ref="W7">ROW() - ROW($2:$2)</f>
+      <c r="X7" s="36" cm="1">
+        <f t="array" ref="X7">ROW() - ROW($2:$2)</f>
         <v>5</v>
       </c>
-      <c r="X7" s="37" t="s">
+      <c r="Y7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" s="38" t="s">
+      <c r="Z7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X7, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA7" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y7, 表格1_334[方音符號], 0)), "")</f>
         <v>T</v>
       </c>
-      <c r="AA7" s="39" t="str">
+      <c r="AB7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="AB7" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X7, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC7" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y7, 表格1_334[方音符號], 0)), "")</f>
         <v>w</v>
       </c>
-      <c r="AF7" s="54"/>
-    </row>
-    <row r="8" spans="1:47" ht="32.25">
-      <c r="E8" s="2" cm="1">
-        <f t="array" ref="E8" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="AG7" s="54"/>
+    </row>
+    <row r="8" spans="1:48" ht="32.25">
+      <c r="F8" s="2" cm="1">
+        <f t="array" ref="F8" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>6</v>
       </c>
-      <c r="F8" s="34" t="str">
+      <c r="G8" s="34" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="G8" s="35" t="str">
+      <c r="H8" s="35" t="str">
         <f t="shared" si="2"/>
         <v>w</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>6</v>
       </c>
-      <c r="J8" s="23" t="str">
+      <c r="K8" s="23" t="str">
         <f t="shared" si="3"/>
         <v>w</v>
       </c>
-      <c r="K8" s="23" t="str">
+      <c r="L8" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄊ</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>6</v>
       </c>
-      <c r="N8" s="24" t="str">
+      <c r="O8" s="24" t="str">
         <f t="shared" si="5"/>
         <v>d</v>
       </c>
-      <c r="O8" s="24" t="str">
+      <c r="P8" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄌ</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>6</v>
       </c>
-      <c r="R8" s="5" t="str">
+      <c r="S8" s="5" t="str">
         <f t="shared" si="7"/>
         <v>w</v>
       </c>
-      <c r="S8" s="25" t="str">
+      <c r="T8" s="25" t="str">
         <f t="shared" si="8"/>
         <v>T</v>
       </c>
-      <c r="T8" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U8" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄊ</v>
       </c>
-      <c r="W8" s="46" cm="1">
-        <f t="array" ref="W8">ROW() - ROW($2:$2)</f>
+      <c r="X8" s="46" cm="1">
+        <f t="array" ref="X8">ROW() - ROW($2:$2)</f>
         <v>6</v>
       </c>
-      <c r="X8" s="47" t="s">
+      <c r="Y8" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="Y8" s="48" t="s">
+      <c r="Z8" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="Z8" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X8, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA8" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y8, 表格1_334[方音符號], 0)), "")</f>
         <v>n</v>
       </c>
-      <c r="AA8" s="49" t="str">
+      <c r="AB8" s="49" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="AB8" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X8, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC8" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y8, 表格1_334[方音符號], 0)), "")</f>
         <v>s</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AE8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AF8" s="33" t="str">
-        <f xml:space="preserve"> "- xlit|" &amp; AF9 &amp; "|" &amp; AF10 &amp; "|"</f>
+      <c r="AG8" s="33" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; AG9 &amp; "|" &amp; AG10 &amp; "|"</f>
         <v>- xlit|1qz2wsedtyhbncuj8oki9l/pm-axgrfv;0,.43657|ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻ㄇㄌㄫㄐㄑㄒㄤㄢㆰㆲˋ˪ˊ˫˙|</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="32.25">
-      <c r="E9" s="2" cm="1">
-        <f t="array" ref="E9" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+    <row r="9" spans="1:48" ht="32.25">
+      <c r="F9" s="2" cm="1">
+        <f t="array" ref="F9" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>7</v>
       </c>
-      <c r="F9" s="34" t="str">
+      <c r="G9" s="34" t="str">
         <f t="shared" si="1"/>
         <v>n</v>
       </c>
-      <c r="G9" s="35" t="str">
+      <c r="H9" s="35" t="str">
         <f t="shared" si="2"/>
         <v>s</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>7</v>
       </c>
-      <c r="J9" s="23" t="str">
+      <c r="K9" s="23" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="K9" s="23" t="str">
+      <c r="L9" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄋ</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>7</v>
       </c>
-      <c r="N9" s="24" t="str">
+      <c r="O9" s="24" t="str">
         <f t="shared" si="5"/>
         <v>k</v>
       </c>
-      <c r="O9" s="24" t="str">
+      <c r="P9" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄍ</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>7</v>
       </c>
-      <c r="R9" s="5" t="str">
+      <c r="S9" s="5" t="str">
         <f t="shared" si="7"/>
         <v>s</v>
       </c>
-      <c r="S9" s="25" t="str">
+      <c r="T9" s="25" t="str">
         <f t="shared" si="8"/>
         <v>n</v>
       </c>
-      <c r="T9" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U9" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄋ</v>
       </c>
-      <c r="W9" s="27" cm="1">
-        <f t="array" ref="W9">ROW() - ROW($2:$2)</f>
+      <c r="X9" s="27" cm="1">
+        <f t="array" ref="X9">ROW() - ROW($2:$2)</f>
         <v>7</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="Y9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="29" t="s">
+      <c r="Z9" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X9, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA9" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y9, 表格1_334[方音符號], 0)), "")</f>
         <v>k</v>
       </c>
-      <c r="AA9" s="30" t="str">
+      <c r="AB9" s="30" t="str">
         <f t="shared" si="0"/>
         <v>k</v>
       </c>
-      <c r="AB9" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X9, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC9" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y9, 表格1_334[方音符號], 0)), "")</f>
         <v>e</v>
       </c>
-      <c r="AD9" s="51" t="s">
+      <c r="AE9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AE9" s="1">
-        <f xml:space="preserve"> LEN(AF9)</f>
+      <c r="AF9" s="1">
+        <f xml:space="preserve"> LEN(AG9)</f>
         <v>41</v>
       </c>
-      <c r="AF9" s="42" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$38,AB$40:AB$44)</f>
+      <c r="AG9" s="42" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$38,AC$40:AC$44)</f>
         <v>1qz2wsedtyhbncuj8oki9l/pm-axgrfv;0,.43657</v>
       </c>
-      <c r="AS9" s="43" t="s">
+      <c r="AT9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AT9" s="61" t="str">
-        <f>AT5</f>
+      <c r="AU9" s="61" t="str">
+        <f>AU5</f>
         <v>-</v>
       </c>
-      <c r="AU9" s="45">
-        <f xml:space="preserve"> FIND(AT9, AF9)</f>
+      <c r="AV9" s="45">
+        <f xml:space="preserve"> FIND(AU9, AG9)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="32.25">
+    <row r="10" spans="1:48" ht="32.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2" cm="1">
-        <f t="array" ref="E10" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F10" s="2" cm="1">
+        <f t="array" ref="F10" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>8</v>
       </c>
-      <c r="F10" s="62" t="str">
+      <c r="G10" s="62" t="str">
         <f t="shared" si="1"/>
         <v>d</v>
       </c>
-      <c r="G10" s="63" t="str">
+      <c r="H10" s="63" t="str">
         <f t="shared" si="2"/>
         <v>x</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>8</v>
       </c>
-      <c r="J10" s="23" t="str">
+      <c r="K10" s="23" t="str">
         <f t="shared" si="3"/>
         <v>x</v>
       </c>
-      <c r="K10" s="23" t="str">
+      <c r="L10" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄌ</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>8</v>
       </c>
-      <c r="N10" s="24" t="str">
+      <c r="O10" s="24" t="str">
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-      <c r="O10" s="24" t="str">
+      <c r="P10" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄎ</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>8</v>
       </c>
-      <c r="R10" s="5" t="str">
+      <c r="S10" s="5" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="S10" s="25" t="str">
+      <c r="T10" s="25" t="str">
         <f t="shared" si="8"/>
         <v>d</v>
       </c>
-      <c r="T10" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U10" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄌ</v>
       </c>
-      <c r="W10" s="36" cm="1">
-        <f t="array" ref="W10">ROW() - ROW($2:$2)</f>
+      <c r="X10" s="36" cm="1">
+        <f t="array" ref="X10">ROW() - ROW($2:$2)</f>
         <v>8</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="Y10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="38" t="s">
+      <c r="Z10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X10, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA10" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y10, 表格1_334[方音符號], 0)), "")</f>
         <v>K</v>
       </c>
-      <c r="AA10" s="39" t="str">
+      <c r="AB10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="AB10" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X10, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC10" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y10, 表格1_334[方音符號], 0)), "")</f>
         <v>d</v>
       </c>
-      <c r="AD10" s="64" t="s">
+      <c r="AE10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="1">
-        <f xml:space="preserve"> LEN(AF10)</f>
+      <c r="AF10" s="1">
+        <f xml:space="preserve"> LEN(AG10)</f>
         <v>41</v>
       </c>
-      <c r="AF10" s="42" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(X$3:X$38,X$40:X$44)</f>
+      <c r="AG10" s="42" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(Y$3:Y$38,Y$40:Y$44)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻ㄇㄌㄫㄐㄑㄒㄤㄢㆰㆲˋ˪ˊ˫˙</v>
       </c>
-      <c r="AT10" s="55" t="str">
-        <f xml:space="preserve"> MID(AF10, AU9, 1)</f>
+      <c r="AU10" s="55" t="str">
+        <f xml:space="preserve"> MID(AG10, AV9, 1)</f>
         <v>鼻</v>
       </c>
-      <c r="AU10" s="45"/>
-    </row>
-    <row r="11" spans="1:47" ht="32.25">
+      <c r="AV10" s="45"/>
+    </row>
+    <row r="11" spans="1:48" ht="32.25">
       <c r="A11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" cm="1">
-        <f t="array" ref="E11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F11" s="2" cm="1">
+        <f t="array" ref="F11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>9</v>
       </c>
-      <c r="F11" s="21" t="str">
+      <c r="G11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>k</v>
       </c>
-      <c r="G11" s="22" t="str">
+      <c r="H11" s="22" t="str">
         <f t="shared" si="2"/>
         <v>e</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>9</v>
       </c>
-      <c r="J11" s="23" t="str">
+      <c r="K11" s="23" t="str">
         <f t="shared" si="3"/>
         <v>e</v>
       </c>
-      <c r="K11" s="23" t="str">
+      <c r="L11" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄍ</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>9</v>
       </c>
-      <c r="N11" s="24" t="str">
+      <c r="O11" s="24" t="str">
         <f t="shared" si="5"/>
         <v>g</v>
       </c>
-      <c r="O11" s="24" t="str">
+      <c r="P11" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㆣ</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>9</v>
       </c>
-      <c r="R11" s="5" t="str">
+      <c r="S11" s="5" t="str">
         <f t="shared" si="7"/>
         <v>e</v>
       </c>
-      <c r="S11" s="25" t="str">
+      <c r="T11" s="25" t="str">
         <f t="shared" si="8"/>
         <v>k</v>
       </c>
-      <c r="T11" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U11" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄍ</v>
       </c>
-      <c r="W11" s="46" cm="1">
-        <f t="array" ref="W11">ROW() - ROW($2:$2)</f>
+      <c r="X11" s="46" cm="1">
+        <f t="array" ref="X11">ROW() - ROW($2:$2)</f>
         <v>9</v>
       </c>
-      <c r="X11" s="47" t="s">
+      <c r="Y11" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="48" t="s">
+      <c r="Z11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X11, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA11" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y11, 表格1_334[方音符號], 0)), "")</f>
         <v>g</v>
       </c>
-      <c r="AA11" s="49" t="str">
+      <c r="AB11" s="49" t="str">
         <f t="shared" si="0"/>
         <v>g</v>
       </c>
-      <c r="AB11" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X11, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC11" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y11, 表格1_334[方音符號], 0)), "")</f>
         <v>t</v>
       </c>
-      <c r="AG11" s="65"/>
-    </row>
-    <row r="12" spans="1:47" ht="32.25">
+      <c r="AH11" s="65"/>
+    </row>
+    <row r="12" spans="1:48" ht="32.25">
       <c r="A12" s="2">
         <f xml:space="preserve"> SEARCH("|",$A$11,1)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="2" cm="1">
-        <f t="array" ref="E12" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F12" s="2" cm="1">
+        <f t="array" ref="F12" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>10</v>
       </c>
-      <c r="F12" s="34" t="str">
+      <c r="G12" s="34" t="str">
         <f t="shared" si="1"/>
         <v>K</v>
       </c>
-      <c r="G12" s="35" t="str">
+      <c r="H12" s="35" t="str">
         <f t="shared" si="2"/>
         <v>d</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="23" t="str">
+      <c r="K12" s="23" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
-      <c r="K12" s="23" t="str">
+      <c r="L12" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄎ</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>10</v>
       </c>
-      <c r="N12" s="24" t="str">
+      <c r="O12" s="24" t="str">
         <f t="shared" si="5"/>
         <v>c</v>
       </c>
-      <c r="O12" s="24" t="str">
+      <c r="P12" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄗ</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>10</v>
       </c>
-      <c r="R12" s="5" t="str">
+      <c r="S12" s="5" t="str">
         <f t="shared" si="7"/>
         <v>d</v>
       </c>
-      <c r="S12" s="25" t="str">
+      <c r="T12" s="25" t="str">
         <f t="shared" si="8"/>
         <v>K</v>
       </c>
-      <c r="T12" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U12" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄎ</v>
       </c>
-      <c r="W12" s="27" cm="1">
-        <f t="array" ref="W12">ROW() - ROW($2:$2)</f>
+      <c r="X12" s="27" cm="1">
+        <f t="array" ref="X12">ROW() - ROW($2:$2)</f>
         <v>10</v>
       </c>
-      <c r="X12" s="28" t="s">
+      <c r="Y12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Y12" s="29" t="s">
+      <c r="Z12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X12, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA12" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y12, 表格1_334[方音符號], 0)), "")</f>
         <v>c</v>
       </c>
-      <c r="AA12" s="30" t="str">
+      <c r="AB12" s="30" t="str">
         <f t="shared" si="0"/>
         <v>c</v>
       </c>
-      <c r="AB12" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X12, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC12" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y12, 表格1_334[方音符號], 0)), "")</f>
         <v>y</v>
       </c>
-      <c r="AD12" s="32" t="s">
+      <c r="AE12" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="33" t="str">
-        <f xml:space="preserve"> "- xlit|" &amp; AF10 &amp; "|" &amp; AF9 &amp; "|"</f>
+      <c r="AG12" s="33" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; AG10 &amp; "|" &amp; AG9 &amp; "|"</f>
         <v>- xlit|ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻ㄇㄌㄫㄐㄑㄒㄤㄢㆰㆲˋ˪ˊ˫˙|1qz2wsedtyhbncuj8oki9l/pm-axgrfv;0,.43657|</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="32.25">
+    <row r="13" spans="1:48" ht="32.25">
       <c r="A13" s="2">
         <f xml:space="preserve"> SEARCH("|",$A$11,A12+1)</f>
         <v>49</v>
       </c>
-      <c r="E13" s="2" cm="1">
-        <f t="array" ref="E13" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F13" s="2" cm="1">
+        <f t="array" ref="F13" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>11</v>
       </c>
-      <c r="F13" s="62" t="str">
+      <c r="G13" s="62" t="str">
         <f t="shared" si="1"/>
         <v>h</v>
       </c>
-      <c r="G13" s="63" t="str">
+      <c r="H13" s="63" t="str">
         <f t="shared" si="2"/>
         <v>c</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>11</v>
       </c>
-      <c r="J13" s="23" t="str">
+      <c r="K13" s="23" t="str">
         <f t="shared" si="3"/>
         <v>c</v>
       </c>
-      <c r="K13" s="23" t="str">
+      <c r="L13" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄏ</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>11</v>
       </c>
-      <c r="N13" s="24" t="str">
+      <c r="O13" s="24" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
-      <c r="O13" s="24" t="str">
+      <c r="P13" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄘ</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>11</v>
       </c>
-      <c r="R13" s="5" t="str">
+      <c r="S13" s="5" t="str">
         <f t="shared" si="7"/>
         <v>c</v>
       </c>
-      <c r="S13" s="25" t="str">
+      <c r="T13" s="25" t="str">
         <f t="shared" si="8"/>
         <v>h</v>
       </c>
-      <c r="T13" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U13" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄏ</v>
       </c>
-      <c r="W13" s="36" cm="1">
-        <f t="array" ref="W13">ROW() - ROW($2:$2)</f>
+      <c r="X13" s="36" cm="1">
+        <f t="array" ref="X13">ROW() - ROW($2:$2)</f>
         <v>11</v>
       </c>
-      <c r="X13" s="37" t="s">
+      <c r="Y13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Y13" s="38" t="s">
+      <c r="Z13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z13" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X13, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA13" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y13, 表格1_334[方音符號], 0)), "")</f>
         <v>C</v>
       </c>
-      <c r="AA13" s="39" t="str">
+      <c r="AB13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="AB13" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X13, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC13" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y13, 表格1_334[方音符號], 0)), "")</f>
         <v>h</v>
       </c>
-      <c r="AD13" s="41" t="s">
+      <c r="AE13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="1">
-        <f xml:space="preserve"> LEN(AF13)</f>
+      <c r="AF13" s="1">
+        <f xml:space="preserve"> LEN(AG13)</f>
         <v>26</v>
       </c>
-      <c r="AF13" s="42" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AA3:AA28)</f>
+      <c r="AG13" s="42" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(AB3:AB28)</f>
         <v>pPbtTnkKgcCzshiuaeoOIUGDBN</v>
       </c>
-      <c r="AS13" s="43" t="s">
+      <c r="AT13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AT13" s="61" t="str">
-        <f>AT4</f>
+      <c r="AU13" s="61" t="str">
+        <f>AU4</f>
         <v>N</v>
       </c>
-      <c r="AU13" s="45">
-        <f xml:space="preserve"> FIND(AT13, AF13)</f>
+      <c r="AV13" s="45">
+        <f xml:space="preserve"> FIND(AU13, AG13)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="32.25">
+    <row r="14" spans="1:48" ht="32.25">
       <c r="A14" s="2">
         <f xml:space="preserve"> SEARCH("|",$A$11,A13+1)</f>
         <v>91</v>
       </c>
-      <c r="E14" s="2" cm="1">
-        <f t="array" ref="E14" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F14" s="2" cm="1">
+        <f t="array" ref="F14" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>12</v>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="G14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="H14" s="22" t="str">
         <f t="shared" si="2"/>
         <v>r</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>12</v>
       </c>
-      <c r="J14" s="23" t="str">
+      <c r="K14" s="23" t="str">
         <f t="shared" si="3"/>
         <v>r</v>
       </c>
-      <c r="K14" s="23" t="str">
+      <c r="L14" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄐ</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>12</v>
       </c>
-      <c r="N14" s="24" t="str">
+      <c r="O14" s="24" t="str">
         <f t="shared" si="5"/>
         <v>z</v>
       </c>
-      <c r="O14" s="24" t="str">
+      <c r="P14" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㆡ</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>12</v>
       </c>
-      <c r="R14" s="5" t="str">
+      <c r="S14" s="5" t="str">
         <f t="shared" si="7"/>
         <v>r</v>
       </c>
-      <c r="S14" s="25" t="str">
+      <c r="T14" s="25" t="str">
         <f t="shared" si="8"/>
         <v>j</v>
       </c>
-      <c r="T14" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U14" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄐ</v>
       </c>
-      <c r="W14" s="36" cm="1">
-        <f t="array" ref="W14">ROW() - ROW($2:$2)</f>
+      <c r="X14" s="36" cm="1">
+        <f t="array" ref="X14">ROW() - ROW($2:$2)</f>
         <v>12</v>
       </c>
-      <c r="X14" s="37" t="s">
+      <c r="Y14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="Y14" s="38" t="s">
+      <c r="Z14" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Z14" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X14, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA14" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y14, 表格1_334[方音符號], 0)), "")</f>
         <v>z</v>
       </c>
-      <c r="AA14" s="39" t="str">
+      <c r="AB14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>z</v>
       </c>
-      <c r="AB14" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X14, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC14" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y14, 表格1_334[方音符號], 0)), "")</f>
         <v>b</v>
       </c>
-      <c r="AD14" s="64" t="s">
+      <c r="AE14" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AE14" s="1">
-        <f xml:space="preserve"> LEN(AF14)</f>
+      <c r="AF14" s="1">
+        <f xml:space="preserve"> LEN(AG14)</f>
         <v>26</v>
       </c>
-      <c r="AF14" s="42" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(X3:X28)</f>
+      <c r="AG14" s="42" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(Y3:Y28)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻</v>
       </c>
-      <c r="AT14" s="55" t="str">
-        <f xml:space="preserve"> MID(AF14, AU13, 1)</f>
+      <c r="AU14" s="55" t="str">
+        <f xml:space="preserve"> MID(AG14, AV13, 1)</f>
         <v>鼻</v>
       </c>
-      <c r="AU14" s="45"/>
-    </row>
-    <row r="15" spans="1:47" ht="32.25">
+      <c r="AV14" s="45"/>
+    </row>
+    <row r="15" spans="1:48" ht="32.25">
       <c r="A15" s="56" t="str">
         <f xml:space="preserve"> MID($A$11,A12+1, A13-A12-1)</f>
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
@@ -3660,79 +3668,79 @@
         <f xml:space="preserve"> LEN(A15)</f>
         <v>41</v>
       </c>
-      <c r="E15" s="2" cm="1">
-        <f t="array" ref="E15" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F15" s="2" cm="1">
+        <f t="array" ref="F15" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>13</v>
       </c>
-      <c r="F15" s="34" t="str">
+      <c r="G15" s="34" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="G15" s="35" t="str">
+      <c r="H15" s="35" t="str">
         <f t="shared" si="2"/>
         <v>f</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>13</v>
       </c>
-      <c r="J15" s="23" t="str">
+      <c r="K15" s="23" t="str">
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="K15" s="23" t="str">
+      <c r="L15" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄑ</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>13</v>
       </c>
-      <c r="N15" s="24" t="str">
+      <c r="O15" s="24" t="str">
         <f t="shared" si="5"/>
         <v>s</v>
       </c>
-      <c r="O15" s="24" t="str">
+      <c r="P15" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄙ</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>13</v>
       </c>
-      <c r="R15" s="5" t="str">
+      <c r="S15" s="5" t="str">
         <f t="shared" si="7"/>
         <v>f</v>
       </c>
-      <c r="S15" s="25" t="str">
+      <c r="T15" s="25" t="str">
         <f t="shared" si="8"/>
         <v>J</v>
       </c>
-      <c r="T15" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U15" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄑ</v>
       </c>
-      <c r="W15" s="46" cm="1">
-        <f t="array" ref="W15">ROW() - ROW($2:$2)</f>
+      <c r="X15" s="46" cm="1">
+        <f t="array" ref="X15">ROW() - ROW($2:$2)</f>
         <v>13</v>
       </c>
-      <c r="X15" s="47" t="s">
+      <c r="Y15" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="Y15" s="48" t="s">
+      <c r="Z15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="Z15" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X15, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA15" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y15, 表格1_334[方音符號], 0)), "")</f>
         <v>s</v>
       </c>
-      <c r="AA15" s="49" t="str">
+      <c r="AB15" s="49" t="str">
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
-      <c r="AB15" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X15, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC15" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y15, 表格1_334[方音符號], 0)), "")</f>
         <v>n</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="32.25">
+    <row r="16" spans="1:48" ht="32.25">
       <c r="A16" s="56" t="str">
         <f xml:space="preserve"> MID($A$11,A13+1, A14-A13-1)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
@@ -3741,755 +3749,679 @@
         <f xml:space="preserve"> LEN(A16)</f>
         <v>41</v>
       </c>
-      <c r="E16" s="2" cm="1">
-        <f t="array" ref="E16" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F16" s="2" cm="1">
+        <f t="array" ref="F16" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>14</v>
       </c>
-      <c r="F16" s="58" t="str">
+      <c r="G16" s="58" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="G16" s="59" t="str">
+      <c r="H16" s="59" t="str">
         <f t="shared" si="2"/>
         <v>v</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>14</v>
       </c>
-      <c r="J16" s="23" t="str">
+      <c r="K16" s="23" t="str">
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="K16" s="23" t="str">
+      <c r="L16" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄒ</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>14</v>
       </c>
-      <c r="N16" s="24" t="str">
+      <c r="O16" s="24" t="str">
         <f t="shared" si="5"/>
         <v>h</v>
       </c>
-      <c r="O16" s="24" t="str">
+      <c r="P16" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄏ</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>14</v>
       </c>
-      <c r="R16" s="5" t="str">
+      <c r="S16" s="5" t="str">
         <f t="shared" si="7"/>
         <v>v</v>
       </c>
-      <c r="S16" s="25" t="str">
+      <c r="T16" s="25" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="T16" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U16" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄒ</v>
       </c>
-      <c r="W16" s="66" cm="1">
-        <f t="array" ref="W16">ROW() - ROW($2:$2)</f>
+      <c r="X16" s="66" cm="1">
+        <f t="array" ref="X16">ROW() - ROW($2:$2)</f>
         <v>14</v>
       </c>
-      <c r="X16" s="67" t="s">
+      <c r="Y16" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="Y16" s="68" t="s">
+      <c r="Z16" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="Z16" s="69" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X16, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA16" s="69" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y16, 表格1_334[方音符號], 0)), "")</f>
         <v>h</v>
       </c>
-      <c r="AA16" s="69" t="str">
+      <c r="AB16" s="69" t="str">
         <f t="shared" si="0"/>
         <v>h</v>
       </c>
-      <c r="AB16" s="70" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X16, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC16" s="70" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y16, 表格1_334[方音符號], 0)), "")</f>
         <v>c</v>
       </c>
-      <c r="AD16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="32.25">
-      <c r="E17" s="2" cm="1">
-        <f t="array" ref="E17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+    </row>
+    <row r="17" spans="1:29" ht="32.25">
+      <c r="F17" s="2" cm="1">
+        <f t="array" ref="F17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>15</v>
       </c>
-      <c r="F17" s="21" t="str">
+      <c r="G17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>g</v>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="H17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>t</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>15</v>
       </c>
-      <c r="J17" s="23" t="str">
+      <c r="K17" s="23" t="str">
         <f t="shared" si="3"/>
         <v>t</v>
       </c>
-      <c r="K17" s="23" t="str">
+      <c r="L17" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㆣ</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>15</v>
       </c>
-      <c r="N17" s="24" t="str">
+      <c r="O17" s="24" t="str">
         <f t="shared" si="5"/>
         <v>i</v>
       </c>
-      <c r="O17" s="24" t="str">
+      <c r="P17" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄧ</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <v>15</v>
       </c>
-      <c r="R17" s="5" t="str">
+      <c r="S17" s="5" t="str">
         <f t="shared" si="7"/>
         <v>t</v>
       </c>
-      <c r="S17" s="25" t="str">
+      <c r="T17" s="25" t="str">
         <f t="shared" si="8"/>
         <v>g</v>
       </c>
-      <c r="T17" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U17" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㆣ</v>
       </c>
-      <c r="W17" s="71" cm="1">
-        <f t="array" ref="W17">ROW() - ROW($2:$2)</f>
+      <c r="X17" s="71" cm="1">
+        <f t="array" ref="X17">ROW() - ROW($2:$2)</f>
         <v>15</v>
       </c>
-      <c r="X17" s="28" t="s">
+      <c r="Y17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="Y17" s="29" t="s">
+      <c r="Z17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Z17" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X17, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA17" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y17, 表格1_334[方音符號], 0)), "")</f>
         <v>i</v>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AB17" s="30" t="str">
         <f t="shared" si="0"/>
         <v>i</v>
       </c>
-      <c r="AB17" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X17, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC17" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y17, 表格1_334[方音符號], 0)), "")</f>
         <v>u</v>
       </c>
-      <c r="AD17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="32.25">
-      <c r="E18" s="2" cm="1">
-        <f t="array" ref="E18" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+    </row>
+    <row r="18" spans="1:29" ht="32.25">
+      <c r="F18" s="2" cm="1">
+        <f t="array" ref="F18" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>16</v>
       </c>
-      <c r="F18" s="34" t="str">
+      <c r="G18" s="34" t="str">
         <f t="shared" si="1"/>
         <v>q</v>
       </c>
-      <c r="G18" s="35" t="str">
+      <c r="H18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>g</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>16</v>
       </c>
-      <c r="J18" s="23" t="str">
+      <c r="K18" s="23" t="str">
         <f t="shared" si="3"/>
         <v>g</v>
       </c>
-      <c r="K18" s="23" t="str">
+      <c r="L18" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄫ</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>16</v>
       </c>
-      <c r="N18" s="24" t="str">
+      <c r="O18" s="24" t="str">
         <f t="shared" si="5"/>
         <v>u</v>
       </c>
-      <c r="O18" s="24" t="str">
+      <c r="P18" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄨ</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <v>16</v>
       </c>
-      <c r="R18" s="5" t="str">
+      <c r="S18" s="5" t="str">
         <f t="shared" si="7"/>
         <v>g</v>
       </c>
-      <c r="S18" s="25" t="str">
+      <c r="T18" s="25" t="str">
         <f t="shared" si="8"/>
         <v>q</v>
       </c>
-      <c r="T18" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U18" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄫ</v>
       </c>
-      <c r="W18" s="72" cm="1">
-        <f t="array" ref="W18">ROW() - ROW($2:$2)</f>
+      <c r="X18" s="72" cm="1">
+        <f t="array" ref="X18">ROW() - ROW($2:$2)</f>
         <v>16</v>
       </c>
-      <c r="X18" s="47" t="s">
+      <c r="Y18" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="48" t="s">
+      <c r="Z18" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X18, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA18" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y18, 表格1_334[方音符號], 0)), "")</f>
         <v>u</v>
       </c>
-      <c r="AA18" s="49" t="str">
+      <c r="AB18" s="49" t="str">
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="AB18" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X18, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC18" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y18, 表格1_334[方音符號], 0)), "")</f>
         <v>j</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="32.25">
-      <c r="E19" s="2" cm="1">
-        <f t="array" ref="E19" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+    <row r="19" spans="1:29" ht="32.25">
+      <c r="F19" s="2" cm="1">
+        <f t="array" ref="F19" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>17</v>
       </c>
-      <c r="F19" s="58" t="str">
+      <c r="G19" s="58" t="str">
         <f t="shared" si="1"/>
         <v>z</v>
       </c>
-      <c r="G19" s="59" t="str">
+      <c r="H19" s="59" t="str">
         <f t="shared" si="2"/>
         <v>b</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>17</v>
       </c>
-      <c r="J19" s="23" t="str">
+      <c r="K19" s="23" t="str">
         <f t="shared" si="3"/>
         <v>b</v>
       </c>
-      <c r="K19" s="23" t="str">
+      <c r="L19" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㆡ</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>17</v>
       </c>
-      <c r="N19" s="24" t="str">
+      <c r="O19" s="24" t="str">
         <f t="shared" si="5"/>
         <v>a</v>
       </c>
-      <c r="O19" s="24" t="str">
+      <c r="P19" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄚ</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <v>17</v>
       </c>
-      <c r="R19" s="5" t="str">
+      <c r="S19" s="5" t="str">
         <f t="shared" si="7"/>
         <v>b</v>
       </c>
-      <c r="S19" s="25" t="str">
+      <c r="T19" s="25" t="str">
         <f t="shared" si="8"/>
         <v>z</v>
       </c>
-      <c r="T19" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U19" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㆡ</v>
       </c>
-      <c r="W19" s="71" cm="1">
-        <f t="array" ref="W19">ROW() - ROW($2:$2)</f>
+      <c r="X19" s="71" cm="1">
+        <f t="array" ref="X19">ROW() - ROW($2:$2)</f>
         <v>17</v>
       </c>
-      <c r="X19" s="28" t="s">
+      <c r="Y19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Y19" s="29" t="s">
+      <c r="Z19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Z19" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X19, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA19" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y19, 表格1_334[方音符號], 0)), "")</f>
         <v>a</v>
       </c>
-      <c r="AA19" s="30" t="str">
+      <c r="AB19" s="30" t="str">
         <f t="shared" si="0"/>
         <v>a</v>
       </c>
-      <c r="AB19" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X19, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC19" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y19, 表格1_334[方音符號], 0)), "")</f>
         <v>8</v>
       </c>
-      <c r="AF19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH19" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="32.25">
+    </row>
+    <row r="20" spans="1:29" ht="32.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="2" cm="1">
-        <f t="array" ref="E20" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F20" s="2" cm="1">
+        <f t="array" ref="F20" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>18</v>
       </c>
-      <c r="F20" s="73" t="str">
+      <c r="G20" s="73" t="str">
         <f t="shared" si="1"/>
         <v>c</v>
       </c>
-      <c r="G20" s="74" t="str">
+      <c r="H20" s="74" t="str">
         <f t="shared" si="2"/>
         <v>y</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>18</v>
       </c>
-      <c r="J20" s="23" t="str">
+      <c r="K20" s="23" t="str">
         <f t="shared" si="3"/>
         <v>y</v>
       </c>
-      <c r="K20" s="23" t="str">
+      <c r="L20" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄗ</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>18</v>
       </c>
-      <c r="N20" s="24" t="str">
+      <c r="O20" s="24" t="str">
         <f t="shared" si="5"/>
         <v>o</v>
       </c>
-      <c r="O20" s="24" t="str">
+      <c r="P20" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㆦ</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>18</v>
       </c>
-      <c r="R20" s="5" t="str">
+      <c r="S20" s="5" t="str">
         <f t="shared" si="7"/>
         <v>y</v>
       </c>
-      <c r="S20" s="25" t="str">
+      <c r="T20" s="25" t="str">
         <f t="shared" si="8"/>
         <v>c</v>
       </c>
-      <c r="T20" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U20" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄗ</v>
       </c>
-      <c r="W20" s="75" cm="1">
-        <f t="array" ref="W20">ROW() - ROW($2:$2)</f>
+      <c r="X20" s="75" cm="1">
+        <f t="array" ref="X20">ROW() - ROW($2:$2)</f>
         <v>18</v>
       </c>
-      <c r="X20" s="37" t="s">
+      <c r="Y20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="Y20" s="38" t="s">
+      <c r="Z20" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Z20" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X20, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA20" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y20, 表格1_334[方音符號], 0)), "")</f>
         <v>e</v>
       </c>
-      <c r="AA20" s="39" t="str">
+      <c r="AB20" s="39" t="str">
         <f t="shared" si="0"/>
         <v>e</v>
       </c>
-      <c r="AB20" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X20, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC20" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y20, 表格1_334[方音符號], 0)), "")</f>
         <v>o</v>
       </c>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="23" t="str">
-        <f xml:space="preserve"> MID($AF$16, $AE20, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="AG20" s="5" t="str">
-        <f t="shared" ref="AG20:AG61" si="9" xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(AF20, $J$3:$J$44, 0)), "")</f>
-        <v>ㄅ</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="32.25">
+    </row>
+    <row r="21" spans="1:29" ht="32.25">
       <c r="A21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="2" cm="1">
-        <f t="array" ref="E21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F21" s="2" cm="1">
+        <f t="array" ref="F21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>19</v>
       </c>
-      <c r="F21" s="76" t="str">
+      <c r="G21" s="76" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="G21" s="77" t="str">
+      <c r="H21" s="77" t="str">
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>19</v>
       </c>
-      <c r="J21" s="23" t="str">
+      <c r="K21" s="23" t="str">
         <f t="shared" si="3"/>
         <v>h</v>
       </c>
-      <c r="K21" s="23" t="str">
+      <c r="L21" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄘ</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>19</v>
       </c>
-      <c r="N21" s="24" t="str">
+      <c r="O21" s="24" t="str">
         <f t="shared" si="5"/>
         <v>ø</v>
       </c>
-      <c r="O21" s="24" t="str">
+      <c r="P21" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄜ</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <v>19</v>
       </c>
-      <c r="R21" s="5" t="str">
+      <c r="S21" s="5" t="str">
         <f t="shared" si="7"/>
         <v>h</v>
       </c>
-      <c r="S21" s="25" t="str">
+      <c r="T21" s="25" t="str">
         <f t="shared" si="8"/>
         <v>C</v>
       </c>
-      <c r="T21" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U21" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄘ</v>
       </c>
-      <c r="W21" s="75" cm="1">
-        <f t="array" ref="W21">ROW() - ROW($2:$2)</f>
+      <c r="X21" s="75" cm="1">
+        <f t="array" ref="X21">ROW() - ROW($2:$2)</f>
         <v>19</v>
       </c>
-      <c r="X21" s="37" t="s">
+      <c r="Y21" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="Y21" s="38" t="s">
+      <c r="Z21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="Z21" s="78" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X21, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA21" s="78" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y21, 表格1_334[方音符號], 0)), "")</f>
         <v>ø</v>
       </c>
-      <c r="AA21" s="78" t="s">
+      <c r="AB21" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="AB21" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X21, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC21" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y21, 表格1_334[方音符號], 0)), "")</f>
         <v>k</v>
       </c>
-      <c r="AE21" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF21" s="23" t="str">
-        <f t="shared" ref="AF21:AF61" si="10" xml:space="preserve"> MID($AF$16, $AE21, 1)</f>
-        <v>q</v>
-      </c>
-      <c r="AG21" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄆ</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="32.25">
+    </row>
+    <row r="22" spans="1:29" ht="32.25">
       <c r="A22" s="2">
         <f xml:space="preserve"> SEARCH("|",A21,1)</f>
         <v>7</v>
       </c>
-      <c r="E22" s="2" cm="1">
-        <f t="array" ref="E22" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F22" s="2" cm="1">
+        <f t="array" ref="F22" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>20</v>
       </c>
-      <c r="F22" s="58" t="str">
+      <c r="G22" s="58" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="G22" s="59" t="str">
+      <c r="H22" s="59" t="str">
         <f t="shared" si="2"/>
         <v>n</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>20</v>
       </c>
-      <c r="J22" s="23" t="str">
+      <c r="K22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>n</v>
       </c>
-      <c r="K22" s="23" t="str">
+      <c r="L22" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄙ</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>20</v>
       </c>
-      <c r="N22" s="24" t="str">
+      <c r="O22" s="24" t="str">
         <f t="shared" si="5"/>
         <v>e</v>
       </c>
-      <c r="O22" s="24" t="str">
+      <c r="P22" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㆤ</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <v>20</v>
       </c>
-      <c r="R22" s="5" t="str">
+      <c r="S22" s="5" t="str">
         <f t="shared" si="7"/>
         <v>n</v>
       </c>
-      <c r="S22" s="25" t="str">
+      <c r="T22" s="25" t="str">
         <f t="shared" si="8"/>
         <v>s</v>
       </c>
-      <c r="T22" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U22" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄙ</v>
       </c>
-      <c r="W22" s="72" cm="1">
-        <f t="array" ref="W22">ROW() - ROW($2:$2)</f>
+      <c r="X22" s="72" cm="1">
+        <f t="array" ref="X22">ROW() - ROW($2:$2)</f>
         <v>20</v>
       </c>
-      <c r="X22" s="47" t="s">
+      <c r="Y22" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="Y22" s="48" t="s">
+      <c r="Z22" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="Z22" s="79" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X22, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA22" s="79" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y22, 表格1_334[方音符號], 0)), "")</f>
         <v>o</v>
       </c>
-      <c r="AA22" s="79" t="s">
+      <c r="AB22" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="AB22" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X22, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC22" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y22, 表格1_334[方音符號], 0)), "")</f>
         <v>i</v>
       </c>
-      <c r="AE22" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF22" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>a</v>
-      </c>
-      <c r="AG22" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄇ</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="32.25">
+    </row>
+    <row r="23" spans="1:29" ht="32.25">
       <c r="A23" s="2">
         <f xml:space="preserve"> SEARCH("|",A21,A22+1)</f>
         <v>34</v>
       </c>
-      <c r="E23" s="2" cm="1">
-        <f t="array" ref="E23" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F23" s="2" cm="1">
+        <f t="array" ref="F23" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>21</v>
       </c>
-      <c r="F23" s="80" t="str">
+      <c r="G23" s="80" t="str">
         <f t="shared" si="1"/>
         <v>i</v>
       </c>
-      <c r="G23" s="80" t="str">
+      <c r="H23" s="80" t="str">
         <f t="shared" si="2"/>
         <v>u</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>21</v>
       </c>
-      <c r="J23" s="23" t="str">
+      <c r="K23" s="23" t="str">
         <f t="shared" si="3"/>
         <v>u</v>
       </c>
-      <c r="K23" s="23" t="str">
+      <c r="L23" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄧ</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>21</v>
       </c>
-      <c r="N23" s="24" t="str">
+      <c r="O23" s="24" t="str">
         <f t="shared" si="5"/>
         <v>I</v>
       </c>
-      <c r="O23" s="24" t="str">
+      <c r="P23" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄞ</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <v>21</v>
       </c>
-      <c r="R23" s="5" t="str">
+      <c r="S23" s="5" t="str">
         <f t="shared" si="7"/>
         <v>u</v>
       </c>
-      <c r="S23" s="25" t="str">
+      <c r="T23" s="25" t="str">
         <f t="shared" si="8"/>
         <v>i</v>
       </c>
-      <c r="T23" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U23" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄧ</v>
       </c>
-      <c r="W23" s="71" cm="1">
-        <f t="array" ref="W23">ROW() - ROW($2:$2)</f>
+      <c r="X23" s="71" cm="1">
+        <f t="array" ref="X23">ROW() - ROW($2:$2)</f>
         <v>21</v>
       </c>
-      <c r="X23" s="28" t="s">
+      <c r="Y23" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="Y23" s="29" t="s">
+      <c r="Z23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="Z23" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X23, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA23" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y23, 表格1_334[方音符號], 0)), "")</f>
         <v>I</v>
       </c>
-      <c r="AA23" s="30" t="str">
-        <f t="shared" ref="AA23:AA44" si="11">Z23</f>
+      <c r="AB23" s="30" t="str">
+        <f t="shared" ref="AB23:AB44" si="9">AA23</f>
         <v>I</v>
       </c>
-      <c r="AB23" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X23, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC23" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y23, 表格1_334[方音符號], 0)), "")</f>
         <v>9</v>
       </c>
-      <c r="AE23" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF23" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>z</v>
-      </c>
-      <c r="AG23" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆠ</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="32.25">
+    </row>
+    <row r="24" spans="1:29" ht="32.25">
       <c r="A24" s="2">
         <f xml:space="preserve"> SEARCH("|",A21,A23+1)</f>
         <v>61</v>
       </c>
-      <c r="E24" s="2" cm="1">
-        <f t="array" ref="E24" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F24" s="2" cm="1">
+        <f t="array" ref="F24" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>22</v>
       </c>
-      <c r="F24" s="80" t="str">
+      <c r="G24" s="80" t="str">
         <f t="shared" si="1"/>
         <v>u</v>
       </c>
-      <c r="G24" s="80" t="str">
+      <c r="H24" s="80" t="str">
         <f t="shared" si="2"/>
         <v>j</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>22</v>
       </c>
-      <c r="J24" s="23" t="str">
+      <c r="K24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="K24" s="23" t="str">
+      <c r="L24" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄨ</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>22</v>
       </c>
-      <c r="N24" s="24" t="str">
+      <c r="O24" s="24" t="str">
         <f t="shared" si="5"/>
         <v>U</v>
       </c>
-      <c r="O24" s="24" t="str">
+      <c r="P24" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄠ</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <v>22</v>
       </c>
-      <c r="R24" s="5" t="str">
+      <c r="S24" s="5" t="str">
         <f t="shared" si="7"/>
         <v>j</v>
       </c>
-      <c r="S24" s="25" t="str">
+      <c r="T24" s="25" t="str">
         <f t="shared" si="8"/>
         <v>u</v>
       </c>
-      <c r="T24" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U24" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄨ</v>
       </c>
-      <c r="W24" s="75" cm="1">
-        <f t="array" ref="W24">ROW() - ROW($2:$2)</f>
+      <c r="X24" s="75" cm="1">
+        <f t="array" ref="X24">ROW() - ROW($2:$2)</f>
         <v>22</v>
       </c>
-      <c r="X24" s="37" t="s">
+      <c r="Y24" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="Y24" s="38" t="s">
+      <c r="Z24" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="Z24" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X24, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA24" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y24, 表格1_334[方音符號], 0)), "")</f>
         <v>U</v>
       </c>
-      <c r="AA24" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="AB24" s="39" t="str">
+        <f t="shared" si="9"/>
         <v>U</v>
       </c>
-      <c r="AB24" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X24, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC24" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y24, 表格1_334[方音符號], 0)), "")</f>
         <v>l</v>
       </c>
-      <c r="AE24" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="AG24" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄉ</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="32.25">
+    </row>
+    <row r="25" spans="1:29" ht="32.25">
       <c r="A25" s="56" t="str">
         <f xml:space="preserve"> MID(A21,A22+1, A24-A23-1)</f>
         <v>pPbtTdkKgcCzshiuaoøeIUBDGN</v>
@@ -4498,90 +4430,79 @@
         <f xml:space="preserve"> LEN(A25)</f>
         <v>26</v>
       </c>
-      <c r="E25" s="2" cm="1">
-        <f t="array" ref="E25" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F25" s="2" cm="1">
+        <f t="array" ref="F25" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>23</v>
       </c>
-      <c r="F25" s="80" t="str">
+      <c r="G25" s="80" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="G25" s="80" t="str">
+      <c r="H25" s="80" t="str">
         <f t="shared" si="2"/>
         <v>m</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>23</v>
       </c>
-      <c r="J25" s="23" t="str">
+      <c r="K25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="K25" s="23" t="str">
+      <c r="L25" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㆬ</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>23</v>
       </c>
-      <c r="N25" s="24" t="str">
+      <c r="O25" s="24" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
-      <c r="O25" s="24" t="str">
+      <c r="P25" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㆬ</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="R25" s="2">
         <v>23</v>
       </c>
-      <c r="R25" s="5" t="str">
+      <c r="S25" s="5" t="str">
         <f t="shared" si="7"/>
         <v>m</v>
       </c>
-      <c r="S25" s="25" t="str">
+      <c r="T25" s="25" t="str">
         <f t="shared" si="8"/>
         <v>B</v>
       </c>
-      <c r="T25" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U25" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㆬ</v>
       </c>
-      <c r="W25" s="71" cm="1">
-        <f t="array" ref="W25">ROW() - ROW($2:$2)</f>
+      <c r="X25" s="71" cm="1">
+        <f t="array" ref="X25">ROW() - ROW($2:$2)</f>
         <v>23</v>
       </c>
-      <c r="X25" s="28" t="s">
+      <c r="Y25" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="81" t="s">
+      <c r="Z25" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="Z25" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X25, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA25" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y25, 表格1_334[方音符號], 0)), "")</f>
         <v>G</v>
       </c>
-      <c r="AA25" s="30" t="str">
-        <f t="shared" si="11"/>
+      <c r="AB25" s="30" t="str">
+        <f t="shared" si="9"/>
         <v>G</v>
       </c>
-      <c r="AB25" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X25, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC25" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y25, 表格1_334[方音符號], 0)), "")</f>
         <v>/</v>
       </c>
-      <c r="AE25" s="2">
-        <v>6</v>
-      </c>
-      <c r="AF25" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>w</v>
-      </c>
-      <c r="AG25" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄊ</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="32.25">
+    </row>
+    <row r="26" spans="1:29" ht="32.25">
       <c r="A26" s="56" t="str">
         <f xml:space="preserve"> MID(A21,A23+1, A24-A23-1)</f>
         <v>ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ</v>
@@ -4590,2095 +4511,2811 @@
         <f xml:space="preserve"> LEN(A26)</f>
         <v>26</v>
       </c>
-      <c r="E26" s="2" cm="1">
-        <f t="array" ref="E26" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="F26" s="2" cm="1">
+        <f t="array" ref="F26" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>24</v>
       </c>
-      <c r="F26" s="80" t="str">
+      <c r="G26" s="80" t="str">
         <f t="shared" si="1"/>
         <v>a</v>
       </c>
-      <c r="G26" s="80" t="str">
+      <c r="H26" s="80" t="str">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>24</v>
       </c>
-      <c r="J26" s="23" t="str">
+      <c r="K26" s="23" t="str">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K26" s="23" t="str">
+      <c r="L26" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄚ</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>24</v>
       </c>
-      <c r="N26" s="24" t="str">
+      <c r="O26" s="24" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="O26" s="24" t="str">
+      <c r="P26" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㄣ</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="2">
         <v>24</v>
       </c>
-      <c r="R26" s="5" t="str">
+      <c r="S26" s="5" t="str">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="S26" s="25" t="str">
+      <c r="T26" s="25" t="str">
         <f t="shared" si="8"/>
         <v>a</v>
       </c>
-      <c r="T26" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U26" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄚ</v>
       </c>
-      <c r="W26" s="75" cm="1">
-        <f t="array" ref="W26">ROW() - ROW($2:$2)</f>
+      <c r="X26" s="75" cm="1">
+        <f t="array" ref="X26">ROW() - ROW($2:$2)</f>
         <v>24</v>
       </c>
-      <c r="X26" s="37" t="s">
+      <c r="Y26" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="Y26" s="82" t="s">
+      <c r="Z26" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="Z26" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X26, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA26" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y26, 表格1_334[方音符號], 0)), "")</f>
         <v>D</v>
       </c>
-      <c r="AA26" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="AB26" s="39" t="str">
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="AB26" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X26, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC26" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y26, 表格1_334[方音符號], 0)), "")</f>
         <v>p</v>
       </c>
-      <c r="AE26" s="2">
-        <v>7</v>
-      </c>
-      <c r="AF26" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>s</v>
-      </c>
-      <c r="AG26" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄋ</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="32.25">
-      <c r="E27" s="2" cm="1">
-        <f t="array" ref="E27" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+    </row>
+    <row r="27" spans="1:29" ht="32.25">
+      <c r="F27" s="2" cm="1">
+        <f t="array" ref="F27" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>25</v>
       </c>
-      <c r="F27" s="80" t="str">
+      <c r="G27" s="80" t="str">
         <f t="shared" si="1"/>
         <v>o</v>
       </c>
-      <c r="G27" s="80" t="str">
+      <c r="H27" s="80" t="str">
         <f t="shared" si="2"/>
         <v>i</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>25</v>
       </c>
-      <c r="J27" s="23" t="str">
+      <c r="K27" s="23" t="str">
         <f t="shared" si="3"/>
         <v>i</v>
       </c>
-      <c r="K27" s="23" t="str">
+      <c r="L27" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㆦ</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>25</v>
       </c>
-      <c r="N27" s="24" t="str">
+      <c r="O27" s="24" t="str">
         <f t="shared" si="5"/>
         <v>G</v>
       </c>
-      <c r="O27" s="24" t="str">
+      <c r="P27" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ㆭ</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="2">
         <v>25</v>
       </c>
-      <c r="R27" s="5" t="str">
+      <c r="S27" s="5" t="str">
         <f t="shared" si="7"/>
         <v>i</v>
       </c>
-      <c r="S27" s="25" t="str">
+      <c r="T27" s="25" t="str">
         <f t="shared" si="8"/>
         <v>o</v>
       </c>
-      <c r="T27" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U27" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㆦ</v>
       </c>
-      <c r="W27" s="72" cm="1">
-        <f t="array" ref="W27">ROW() - ROW($2:$2)</f>
+      <c r="X27" s="72" cm="1">
+        <f t="array" ref="X27">ROW() - ROW($2:$2)</f>
         <v>25</v>
       </c>
-      <c r="X27" s="47" t="s">
+      <c r="Y27" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="Y27" s="83" t="s">
+      <c r="Z27" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="Z27" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X27, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA27" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y27, 表格1_334[方音符號], 0)), "")</f>
         <v>B</v>
       </c>
-      <c r="AA27" s="49" t="str">
-        <f t="shared" si="11"/>
+      <c r="AB27" s="49" t="str">
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
-      <c r="AB27" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X27, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC27" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y27, 表格1_334[方音符號], 0)), "")</f>
         <v>m</v>
       </c>
-      <c r="AE27" s="2">
-        <v>8</v>
-      </c>
-      <c r="AF27" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>x</v>
-      </c>
-      <c r="AG27" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄌ</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="32.25">
-      <c r="E28" s="2" cm="1">
-        <f t="array" ref="E28" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+    </row>
+    <row r="28" spans="1:29" ht="32.25">
+      <c r="F28" s="2" cm="1">
+        <f t="array" ref="F28" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>26</v>
       </c>
-      <c r="F28" s="80" t="str">
+      <c r="G28" s="80" t="str">
         <f t="shared" si="1"/>
         <v>ø</v>
       </c>
-      <c r="G28" s="80" t="str">
+      <c r="H28" s="80" t="str">
         <f t="shared" si="2"/>
         <v>k</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>26</v>
       </c>
-      <c r="J28" s="23" t="str">
+      <c r="K28" s="23" t="str">
         <f t="shared" si="3"/>
         <v>k</v>
       </c>
-      <c r="K28" s="23" t="str">
+      <c r="L28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄜ</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>26</v>
       </c>
-      <c r="N28" s="24" t="str">
+      <c r="O28" s="24" t="str">
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
-      <c r="O28" s="24" t="str">
+      <c r="P28" s="24" t="str">
         <f t="shared" si="6"/>
         <v>ｎ</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="2">
         <v>26</v>
       </c>
-      <c r="R28" s="5" t="str">
+      <c r="S28" s="5" t="str">
         <f t="shared" si="7"/>
         <v>k</v>
       </c>
-      <c r="S28" s="25" t="str">
+      <c r="T28" s="25" t="str">
         <f t="shared" si="8"/>
         <v>ø</v>
       </c>
-      <c r="T28" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U28" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㄜ</v>
       </c>
-      <c r="W28" s="72" cm="1">
-        <f t="array" ref="W28">ROW() - ROW($2:$2)</f>
+      <c r="X28" s="72" cm="1">
+        <f t="array" ref="X28">ROW() - ROW($2:$2)</f>
         <v>26</v>
       </c>
-      <c r="X28" s="47" t="s">
+      <c r="Y28" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="Y28" s="84" t="s">
+      <c r="Z28" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="Z28" s="49" t="s">
+      <c r="AA28" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AA28" s="49" t="str">
-        <f t="shared" si="11"/>
+      <c r="AB28" s="49" t="str">
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="AB28" s="50" t="s">
+      <c r="AC28" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="AE28" s="2">
-        <v>9</v>
-      </c>
-      <c r="AF28" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>e</v>
-      </c>
-      <c r="AG28" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄍ</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="32.25">
-      <c r="E29" s="2" cm="1">
-        <f t="array" ref="E29" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+    </row>
+    <row r="29" spans="1:29" ht="32.25">
+      <c r="F29" s="2" cm="1">
+        <f t="array" ref="F29" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>27</v>
       </c>
-      <c r="F29" s="80" t="str">
+      <c r="G29" s="80" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="G29" s="80" t="str">
+      <c r="H29" s="80" t="str">
         <f t="shared" si="2"/>
         <v>,</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>27</v>
       </c>
-      <c r="J29" s="23" t="str">
+      <c r="K29" s="23" t="str">
         <f t="shared" si="3"/>
         <v>,</v>
       </c>
-      <c r="K29" s="23" t="str">
+      <c r="L29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㆰ</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <v>27</v>
       </c>
-      <c r="N29" s="24" t="str">
-        <f t="shared" ref="N29:N44" si="12" xml:space="preserve"> IFERROR( MID($A$23, $E29, 1), "")</f>
+      <c r="O29" s="24" t="str">
+        <f t="shared" ref="O29:O44" si="10" xml:space="preserve"> IFERROR( MID($A$23, $F29, 1), "")</f>
         <v/>
       </c>
-      <c r="O29" s="24" t="str">
-        <f t="shared" ref="O29:O44" si="13" xml:space="preserve"> IFERROR( MID($A$24, $E29, 1), "")</f>
+      <c r="P29" s="24" t="str">
+        <f t="shared" ref="P29:P44" si="11" xml:space="preserve"> IFERROR( MID($A$24, $F29, 1), "")</f>
         <v/>
       </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="2">
         <v>27</v>
       </c>
-      <c r="R29" s="5" t="str">
+      <c r="S29" s="5" t="str">
         <f t="shared" si="7"/>
         <v>,</v>
       </c>
-      <c r="S29" s="25" t="str">
+      <c r="T29" s="25" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="T29" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+      <c r="U29" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
         <v>ㆰ</v>
       </c>
-      <c r="W29" s="85" cm="1">
-        <f t="array" ref="W29">ROW() - ROW($2:$2)</f>
+      <c r="X29" s="85" cm="1">
+        <f t="array" ref="X29">ROW() - ROW($2:$2)</f>
         <v>27</v>
       </c>
-      <c r="X29" s="86" t="s">
+      <c r="Y29" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="Y29" s="38" t="s">
+      <c r="Z29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="Z29" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X29, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AA29" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y29, 表格1_334[方音符號], 0)), "")</f>
         <v>m</v>
       </c>
-      <c r="AA29" s="39" t="str">
-        <f t="shared" si="11"/>
+      <c r="AB29" s="39" t="str">
+        <f t="shared" si="9"/>
         <v>m</v>
       </c>
-      <c r="AB29" s="87" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X29, 表格1_334[方音符號], 0)), "")</f>
+      <c r="AC29" s="87" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y29, 表格1_334[方音符號], 0)), "")</f>
         <v>a</v>
       </c>
-      <c r="AE29" s="2">
-        <v>10</v>
-      </c>
-      <c r="AF29" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>d</v>
-      </c>
-      <c r="AG29" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄎ</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="32.25">
-      <c r="E30" s="2" cm="1">
-        <f t="array" ref="E30" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+    </row>
+    <row r="30" spans="1:29" ht="32.25">
+      <c r="F30" s="2" cm="1">
+        <f t="array" ref="F30" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>28</v>
       </c>
-      <c r="F30" s="80" t="str">
+      <c r="G30" s="80" t="str">
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
-      <c r="G30" s="80" t="str">
+      <c r="H30" s="80" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>28</v>
       </c>
-      <c r="J30" s="23" t="str">
+      <c r="K30" s="23" t="str">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="K30" s="23" t="str">
+      <c r="L30" s="23" t="str">
         <f t="shared" si="4"/>
         <v>ㄞ</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>28</v>
       </c>
-      <c r="N30" s="24" t="str">
+      <c r="O30" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P30" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R30" s="2">
+        <v>28</v>
+      </c>
+      <c r="S30" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="T30" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>I</v>
+      </c>
+      <c r="U30" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="X30" s="88" cm="1">
+        <f t="array" ref="X30">ROW() - ROW($2:$2)</f>
+        <v>28</v>
+      </c>
+      <c r="Y30" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z30" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA30" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y30, 表格1_334[方音符號], 0)), "")</f>
+        <v>d</v>
+      </c>
+      <c r="AB30" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>d</v>
+      </c>
+      <c r="AC30" s="89" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y30, 表格1_334[方音符號], 0)), "")</f>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="32.25">
+      <c r="F31" s="2" cm="1">
+        <f t="array" ref="F31" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>29</v>
+      </c>
+      <c r="G31" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>e</v>
+      </c>
+      <c r="H31" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>o</v>
+      </c>
+      <c r="J31" s="2">
+        <v>29</v>
+      </c>
+      <c r="K31" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>o</v>
+      </c>
+      <c r="L31" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ㆤ</v>
+      </c>
+      <c r="N31" s="2">
+        <v>29</v>
+      </c>
+      <c r="O31" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P31" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R31" s="2">
+        <v>29</v>
+      </c>
+      <c r="S31" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>o</v>
+      </c>
+      <c r="T31" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>e</v>
+      </c>
+      <c r="U31" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="X31" s="85" cm="1">
+        <f t="array" ref="X31">ROW() - ROW($2:$2)</f>
+        <v>29</v>
+      </c>
+      <c r="Y31" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z31" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA31" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y31, 表格1_334[方音符號], 0)), "")</f>
+        <v>q</v>
+      </c>
+      <c r="AB31" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>q</v>
+      </c>
+      <c r="AC31" s="87" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y31, 表格1_334[方音符號], 0)), "")</f>
+        <v>g</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="32.25">
+      <c r="F32" s="2" cm="1">
+        <f t="array" ref="F32" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>30</v>
+      </c>
+      <c r="G32" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>U</v>
+      </c>
+      <c r="H32" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>l</v>
+      </c>
+      <c r="J32" s="2">
+        <v>30</v>
+      </c>
+      <c r="K32" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>l</v>
+      </c>
+      <c r="L32" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ㄠ</v>
+      </c>
+      <c r="N32" s="2">
+        <v>30</v>
+      </c>
+      <c r="O32" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P32" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R32" s="2">
+        <v>30</v>
+      </c>
+      <c r="S32" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>l</v>
+      </c>
+      <c r="T32" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>U</v>
+      </c>
+      <c r="U32" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="X32" s="90" cm="1">
+        <f t="array" ref="X32">ROW() - ROW($2:$2)</f>
+        <v>30</v>
+      </c>
+      <c r="Y32" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z32" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA32" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y32, 表格1_334[方音符號], 0)), "")</f>
+        <v>j</v>
+      </c>
+      <c r="AB32" s="30" t="str">
+        <f t="shared" si="9"/>
+        <v>j</v>
+      </c>
+      <c r="AC32" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y32, 表格1_334[方音符號], 0)), "")</f>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="32.25">
+      <c r="F33" s="2" cm="1">
+        <f t="array" ref="F33" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>31</v>
+      </c>
+      <c r="G33" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="H33" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>.</v>
+      </c>
+      <c r="J33" s="2">
+        <v>31</v>
+      </c>
+      <c r="K33" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>.</v>
+      </c>
+      <c r="L33" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ㆲ</v>
+      </c>
+      <c r="N33" s="2">
+        <v>31</v>
+      </c>
+      <c r="O33" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P33" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R33" s="2">
+        <v>31</v>
+      </c>
+      <c r="S33" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>.</v>
+      </c>
+      <c r="T33" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="U33" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="X33" s="91" cm="1">
+        <f t="array" ref="X33">ROW() - ROW($2:$2)</f>
+        <v>31</v>
+      </c>
+      <c r="Y33" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z33" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA33" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y33, 表格1_334[方音符號], 0)), "")</f>
+        <v>J</v>
+      </c>
+      <c r="AB33" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>J</v>
+      </c>
+      <c r="AC33" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y33, 表格1_334[方音符號], 0)), "")</f>
+        <v>f</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="32.25">
+      <c r="F34" s="2" cm="1">
+        <f t="array" ref="F34" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>32</v>
+      </c>
+      <c r="G34" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+      <c r="H34" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>32</v>
+      </c>
+      <c r="K34" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ㄢ</v>
+      </c>
+      <c r="N34" s="2">
+        <v>32</v>
+      </c>
+      <c r="O34" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P34" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R34" s="2">
+        <v>32</v>
+      </c>
+      <c r="S34" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>L</v>
+      </c>
+      <c r="U34" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="X34" s="92" cm="1">
+        <f t="array" ref="X34">ROW() - ROW($2:$2)</f>
+        <v>32</v>
+      </c>
+      <c r="Y34" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z34" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA34" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y34, 表格1_334[方音符號], 0)), "")</f>
+        <v>S</v>
+      </c>
+      <c r="AB34" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+      <c r="AC34" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y34, 表格1_334[方音符號], 0)), "")</f>
+        <v>v</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="32.25">
+      <c r="F35" s="2" cm="1">
+        <f t="array" ref="F35" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>33</v>
+      </c>
+      <c r="G35" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="H35" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>p</v>
+      </c>
+      <c r="J35" s="2">
+        <v>33</v>
+      </c>
+      <c r="K35" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>p</v>
+      </c>
+      <c r="L35" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ㄣ</v>
+      </c>
+      <c r="N35" s="2">
+        <v>33</v>
+      </c>
+      <c r="O35" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P35" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R35" s="2">
+        <v>33</v>
+      </c>
+      <c r="S35" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>p</v>
+      </c>
+      <c r="T35" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>D</v>
+      </c>
+      <c r="U35" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="X35" s="93" cm="1">
+        <f t="array" ref="X35">ROW() - ROW($2:$2)</f>
+        <v>33</v>
+      </c>
+      <c r="Y35" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z35" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA35" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y35, 表格1_334[方音符號], 0)), "")</f>
+        <v>Q</v>
+      </c>
+      <c r="AB35" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>Q</v>
+      </c>
+      <c r="AC35" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y35, 表格1_334[方音符號], 0)), "")</f>
+        <v>;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="32.25">
+      <c r="F36" s="2" cm="1">
+        <f t="array" ref="F36" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>34</v>
+      </c>
+      <c r="G36" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Q</v>
+      </c>
+      <c r="H36" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>;</v>
+      </c>
+      <c r="J36" s="2">
+        <v>34</v>
+      </c>
+      <c r="K36" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>;</v>
+      </c>
+      <c r="L36" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ㄤ</v>
+      </c>
+      <c r="N36" s="2">
+        <v>34</v>
+      </c>
+      <c r="O36" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P36" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R36" s="2">
+        <v>34</v>
+      </c>
+      <c r="S36" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>;</v>
+      </c>
+      <c r="T36" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>Q</v>
+      </c>
+      <c r="U36" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="X36" s="93" cm="1">
+        <f t="array" ref="X36">ROW() - ROW($2:$2)</f>
+        <v>34</v>
+      </c>
+      <c r="Y36" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z36" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA36" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y36, 表格1_334[方音符號], 0)), "")</f>
+        <v>L</v>
+      </c>
+      <c r="AB36" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>L</v>
+      </c>
+      <c r="AC36" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y36, 表格1_334[方音符號], 0)), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="32.25">
+      <c r="F37" s="2" cm="1">
+        <f t="array" ref="F37" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>35</v>
+      </c>
+      <c r="G37" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>G</v>
+      </c>
+      <c r="H37" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>/</v>
+      </c>
+      <c r="J37" s="2">
+        <v>35</v>
+      </c>
+      <c r="K37" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>/</v>
+      </c>
+      <c r="L37" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ㆭ</v>
+      </c>
+      <c r="N37" s="2">
+        <v>35</v>
+      </c>
+      <c r="O37" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P37" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R37" s="2">
+        <v>35</v>
+      </c>
+      <c r="S37" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>/</v>
+      </c>
+      <c r="T37" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>G</v>
+      </c>
+      <c r="U37" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="X37" s="93" cm="1">
+        <f t="array" ref="X37">ROW() - ROW($2:$2)</f>
+        <v>35</v>
+      </c>
+      <c r="Y37" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z37" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA37" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y37, 表格1_334[方音符號], 0)), "")</f>
+        <v>M</v>
+      </c>
+      <c r="AB37" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>M</v>
+      </c>
+      <c r="AC37" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y37, 表格1_334[方音符號], 0)), "")</f>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="32.25">
+      <c r="F38" s="2" cm="1">
+        <f t="array" ref="F38" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>36</v>
+      </c>
+      <c r="G38" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="H38" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="J38" s="2">
+        <v>36</v>
+      </c>
+      <c r="K38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="L38" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ｎ</v>
+      </c>
+      <c r="N38" s="2">
+        <v>36</v>
+      </c>
+      <c r="O38" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P38" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R38" s="2">
+        <v>36</v>
+      </c>
+      <c r="S38" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="T38" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>N</v>
+      </c>
+      <c r="U38" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ｎ</v>
+      </c>
+      <c r="X38" s="94" cm="1">
+        <f t="array" ref="X38">ROW() - ROW($2:$2)</f>
+        <v>36</v>
+      </c>
+      <c r="Y38" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z38" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA38" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y38, 表格1_334[方音符號], 0)), "")</f>
+        <v>Y</v>
+      </c>
+      <c r="AB38" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>Y</v>
+      </c>
+      <c r="AC38" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y38, 表格1_334[方音符號], 0)), "")</f>
+        <v>.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="32.25">
+      <c r="F39" s="2" cm="1">
+        <f t="array" ref="F39" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>37</v>
+      </c>
+      <c r="G39" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J39" s="2">
+        <v>37</v>
+      </c>
+      <c r="K39" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L39" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ˋ</v>
+      </c>
+      <c r="N39" s="2">
+        <v>37</v>
+      </c>
+      <c r="O39" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P39" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R39" s="2">
+        <v>37</v>
+      </c>
+      <c r="S39" s="95" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T39" s="96" t="str">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U39" s="97" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v/>
+      </c>
+      <c r="X39" s="98" cm="1">
+        <f t="array" ref="X39">ROW() - ROW($2:$2)</f>
+        <v>37</v>
+      </c>
+      <c r="Y39" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z39" s="100">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="101">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="101">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="32.25">
+      <c r="F40" s="2" cm="1">
+        <f t="array" ref="F40" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>38</v>
+      </c>
+      <c r="G40" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J40" s="2">
+        <v>38</v>
+      </c>
+      <c r="K40" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L40" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>˪</v>
+      </c>
+      <c r="N40" s="2">
+        <v>38</v>
+      </c>
+      <c r="O40" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P40" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R40" s="2">
+        <v>38</v>
+      </c>
+      <c r="S40" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T40" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U40" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ˋ</v>
+      </c>
+      <c r="X40" s="103" cm="1">
+        <f t="array" ref="X40">ROW() - ROW($2:$2)</f>
+        <v>38</v>
+      </c>
+      <c r="Y40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z40" s="29">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y40, 表格1_334[方音符號], 0)), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AB40" s="30" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AC40" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y40, 表格1_334[方音符號], 0)), "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="32.25">
+      <c r="F41" s="2" cm="1">
+        <f t="array" ref="F41" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>39</v>
+      </c>
+      <c r="G41" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H41" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>39</v>
+      </c>
+      <c r="K41" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L41" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>ˊ</v>
+      </c>
+      <c r="N41" s="2">
+        <v>39</v>
+      </c>
+      <c r="O41" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P41" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R41" s="2">
+        <v>39</v>
+      </c>
+      <c r="S41" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T41" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U41" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>˪</v>
+      </c>
+      <c r="X41" s="93" cm="1">
+        <f t="array" ref="X41">ROW() - ROW($2:$2)</f>
+        <v>39</v>
+      </c>
+      <c r="Y41" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z41" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y41, 表格1_334[方音符號], 0)), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AB41" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AC41" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y41, 表格1_334[方音符號], 0)), "")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="32.25">
+      <c r="F42" s="2" cm="1">
+        <f t="array" ref="F42" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>40</v>
+      </c>
+      <c r="G42" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H42" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J42" s="2">
+        <v>40</v>
+      </c>
+      <c r="K42" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L42" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>˫</v>
+      </c>
+      <c r="N42" s="2">
+        <v>40</v>
+      </c>
+      <c r="O42" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P42" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R42" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="T42" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U42" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>ˊ</v>
+      </c>
+      <c r="X42" s="93" cm="1">
+        <f t="array" ref="X42">ROW() - ROW($2:$2)</f>
+        <v>40</v>
+      </c>
+      <c r="Y42" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z42" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y42, 表格1_334[方音符號], 0)), "")</f>
+        <v>5</v>
+      </c>
+      <c r="AB42" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AC42" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y42, 表格1_334[方音符號], 0)), "")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="32.25">
+      <c r="F43" s="2" cm="1">
+        <f t="array" ref="F43" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>41</v>
+      </c>
+      <c r="G43" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H43" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J43" s="2">
+        <v>41</v>
+      </c>
+      <c r="K43" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L43" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>．</v>
+      </c>
+      <c r="N43" s="2">
+        <v>41</v>
+      </c>
+      <c r="O43" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P43" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R43" s="2">
+        <v>41</v>
+      </c>
+      <c r="S43" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T43" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="U43" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>˫</v>
+      </c>
+      <c r="X43" s="93" cm="1">
+        <f t="array" ref="X43">ROW() - ROW($2:$2)</f>
+        <v>41</v>
+      </c>
+      <c r="Y43" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z43" s="38">
+        <v>7</v>
+      </c>
+      <c r="AA43" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y43, 表格1_334[方音符號], 0)), "")</f>
+        <v>7</v>
+      </c>
+      <c r="AB43" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AC43" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y43, 表格1_334[方音符號], 0)), "")</f>
+        <v>5</v>
+      </c>
+      <c r="AD43" s="104"/>
+    </row>
+    <row r="44" spans="1:30" ht="32.25">
+      <c r="F44" s="2" cm="1">
+        <f t="array" ref="F44" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>42</v>
+      </c>
+      <c r="G44" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J44" s="2">
+        <v>42</v>
+      </c>
+      <c r="K44" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L44" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N44" s="2">
+        <v>42</v>
+      </c>
+      <c r="O44" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P44" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R44" s="2">
+        <v>42</v>
+      </c>
+      <c r="S44" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T44" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="26" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</f>
+        <v>．</v>
+      </c>
+      <c r="X44" s="94" cm="1">
+        <f t="array" ref="X44">ROW() - ROW($2:$2)</f>
+        <v>42</v>
+      </c>
+      <c r="Y44" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z44" s="48">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="32.25">
+      <c r="P45" s="2"/>
+      <c r="X45" s="105" cm="1">
+        <f t="array" ref="X45">ROW() - ROW($2:$2)</f>
+        <v>43</v>
+      </c>
+      <c r="Y45" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z45" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA45" s="69" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y45, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB45" s="69"/>
+      <c r="AC45" s="70" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y45, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="32.25">
+      <c r="A46" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46" s="106" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(T3:T38, T40:T44)</f>
+        <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570</v>
+      </c>
+      <c r="X46" s="103" cm="1">
+        <f t="array" ref="X46">ROW() - ROW($2:$2)</f>
+        <v>44</v>
+      </c>
+      <c r="Y46" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z46" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA46" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y46, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y46, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="32.25">
+      <c r="A47" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="23" t="str">
+        <f t="shared" ref="C47:C88" si="12" xml:space="preserve"> MID($A$47, $B53, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <f t="shared" ref="D47:D88" si="13" xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(C47, $K$3:$K$44, 0)), "")</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f t="shared" ref="E47:E88" si="14" xml:space="preserve"> IFERROR( INDEX($G$3:$G$44, MATCH($C47, $H$3:$H$44, 0)), "")</f>
+        <v>p</v>
+      </c>
+      <c r="U47" s="106" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(U3:U38, U40:U44)</f>
+        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
+      </c>
+      <c r="X47" s="93" cm="1">
+        <f t="array" ref="X47">ROW() - ROW($2:$2)</f>
+        <v>45</v>
+      </c>
+      <c r="Y47" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z47" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA47" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y47, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y47, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="32.25">
+      <c r="C48" s="23" t="str">
         <f t="shared" si="12"/>
+        <v>q</v>
+      </c>
+      <c r="D48" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄆ</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>P</v>
+      </c>
+      <c r="S48" s="107" t="str">
+        <f xml:space="preserve"> "xlit|" &amp; U46 &amp; "|" &amp; U47 &amp; "|"</f>
+        <v>xlit|pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．|</v>
+      </c>
+      <c r="X48" s="93" cm="1">
+        <f t="array" ref="X48">ROW() - ROW($2:$2)</f>
+        <v>46</v>
+      </c>
+      <c r="Y48" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z48" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA48" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y48, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="O30" s="24" t="str">
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y48, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:47" ht="32.25">
+      <c r="A49" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄇ</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>m</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="X49" s="93" cm="1">
+        <f t="array" ref="X49">ROW() - ROW($2:$2)</f>
+        <v>47</v>
+      </c>
+      <c r="Y49" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z49" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA49" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y49, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y49, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:47" ht="32.25">
+      <c r="A50" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>z</v>
+      </c>
+      <c r="D50" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆠ</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>b</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="X50" s="93" cm="1">
+        <f t="array" ref="X50">ROW() - ROW($2:$2)</f>
+        <v>48</v>
+      </c>
+      <c r="Y50" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z50" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA50" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y50, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y50, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:47" ht="32.25">
+      <c r="C51" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄉ</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>t</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="X51" s="94" cm="1">
+        <f t="array" ref="X51">ROW() - ROW($2:$2)</f>
+        <v>49</v>
+      </c>
+      <c r="Y51" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z51" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA51" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y51, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB51" s="49"/>
+      <c r="AC51" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y51, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:47" ht="32.25">
+      <c r="C52" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>w</v>
+      </c>
+      <c r="D52" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄊ</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>T</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="2"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="2"/>
+      <c r="X52" s="103" cm="1">
+        <f t="array" ref="X52">ROW() - ROW($2:$2)</f>
+        <v>50</v>
+      </c>
+      <c r="Y52" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z52" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA52" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y52, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y52, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:47" ht="32.25">
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>s</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄋ</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>n</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="2"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="2"/>
+      <c r="X53" s="94" cm="1">
+        <f t="array" ref="X53">ROW() - ROW($2:$2)</f>
+        <v>51</v>
+      </c>
+      <c r="Y53" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z53" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA53" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y53, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB53" s="49"/>
+      <c r="AC53" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y53, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:47" ht="32.25">
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>x</v>
+      </c>
+      <c r="D54" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄌ</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>d</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="2"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="2"/>
+      <c r="X54" s="103" cm="1">
+        <f t="array" ref="X54">ROW() - ROW($2:$2)</f>
+        <v>52</v>
+      </c>
+      <c r="Y54" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z54" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA54" s="30" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y54, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="31" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y54, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:47" ht="32.25">
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>e</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄍ</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>k</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="2"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="2"/>
+      <c r="X55" s="93" cm="1">
+        <f t="array" ref="X55">ROW() - ROW($2:$2)</f>
+        <v>53</v>
+      </c>
+      <c r="Y55" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z55" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA55" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y55, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y55, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:47" ht="32.25">
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>d</v>
+      </c>
+      <c r="D56" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄎ</v>
+      </c>
+      <c r="E56" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>K</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="2"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="2"/>
+      <c r="X56" s="93" cm="1">
+        <f t="array" ref="X56">ROW() - ROW($2:$2)</f>
+        <v>54</v>
+      </c>
+      <c r="Y56" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z56" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA56" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y56, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y56, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:47" ht="32.25">
+      <c r="B57" s="2">
+        <v>5</v>
+      </c>
+      <c r="C57" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>c</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄏ</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>h</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="2"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="2"/>
+      <c r="X57" s="93" cm="1">
+        <f t="array" ref="X57">ROW() - ROW($2:$2)</f>
+        <v>55</v>
+      </c>
+      <c r="Y57" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z57" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA57" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y57, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="40" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y57, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:47" ht="32.25">
+      <c r="B58" s="2">
+        <v>6</v>
+      </c>
+      <c r="C58" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>r</v>
+      </c>
+      <c r="D58" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄐ</v>
+      </c>
+      <c r="E58" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>j</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="2"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="2"/>
+      <c r="X58" s="94" cm="1">
+        <f t="array" ref="X58">ROW() - ROW($2:$2)</f>
+        <v>56</v>
+      </c>
+      <c r="Y58" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z58" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA58" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($Y58, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="50" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($Y58, 表格1_334[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:47">
+      <c r="B59" s="2">
+        <v>7</v>
+      </c>
+      <c r="C59" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>f</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄑ</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>J</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="2"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="2"/>
+      <c r="AT59" s="11"/>
+      <c r="AU59" s="2"/>
+    </row>
+    <row r="60" spans="1:47">
+      <c r="B60" s="2">
+        <v>8</v>
+      </c>
+      <c r="C60" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>v</v>
+      </c>
+      <c r="D60" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄒ</v>
+      </c>
+      <c r="E60" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>S</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="2"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="2"/>
+      <c r="AT60" s="11"/>
+      <c r="AU60" s="2"/>
+    </row>
+    <row r="61" spans="1:47">
+      <c r="B61" s="2">
+        <v>9</v>
+      </c>
+      <c r="C61" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>t</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆣ</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>g</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="2"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="2"/>
+      <c r="AT61" s="11"/>
+      <c r="AU61" s="2"/>
+    </row>
+    <row r="62" spans="1:47">
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>g</v>
+      </c>
+      <c r="D62" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄫ</v>
+      </c>
+      <c r="E62" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>q</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="2"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="2"/>
+      <c r="AT62" s="11"/>
+      <c r="AU62" s="2"/>
+    </row>
+    <row r="63" spans="1:47">
+      <c r="B63" s="2">
+        <v>11</v>
+      </c>
+      <c r="C63" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆡ</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>z</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="2"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="2"/>
+      <c r="AT63" s="11"/>
+      <c r="AU63" s="2"/>
+    </row>
+    <row r="64" spans="1:47">
+      <c r="B64" s="2">
+        <v>12</v>
+      </c>
+      <c r="C64" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>y</v>
+      </c>
+      <c r="D64" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄗ</v>
+      </c>
+      <c r="E64" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>c</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="2"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="2"/>
+      <c r="AT64" s="11"/>
+      <c r="AU64" s="2"/>
+    </row>
+    <row r="65" spans="2:47">
+      <c r="B65" s="2">
+        <v>13</v>
+      </c>
+      <c r="C65" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>h</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄘ</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>C</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="2"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="2"/>
+      <c r="AT65" s="11"/>
+      <c r="AU65" s="2"/>
+    </row>
+    <row r="66" spans="2:47">
+      <c r="B66" s="2">
+        <v>14</v>
+      </c>
+      <c r="C66" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>n</v>
+      </c>
+      <c r="D66" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄙ</v>
+      </c>
+      <c r="E66" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>s</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="2"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="2"/>
+      <c r="AT66" s="11"/>
+      <c r="AU66" s="2"/>
+    </row>
+    <row r="67" spans="2:47">
+      <c r="B67" s="2">
+        <v>15</v>
+      </c>
+      <c r="C67" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>u</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄧ</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>i</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="2"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="2"/>
+      <c r="AT67" s="11"/>
+      <c r="AU67" s="2"/>
+    </row>
+    <row r="68" spans="2:47">
+      <c r="B68" s="2">
+        <v>16</v>
+      </c>
+      <c r="C68" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>j</v>
+      </c>
+      <c r="D68" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄨ</v>
+      </c>
+      <c r="E68" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>u</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="2"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="2"/>
+      <c r="AT68" s="11"/>
+      <c r="AU68" s="2"/>
+    </row>
+    <row r="69" spans="2:47">
+      <c r="B69" s="2">
+        <v>17</v>
+      </c>
+      <c r="C69" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>m</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆬ</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>B</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="2"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="2"/>
+      <c r="AT69" s="11"/>
+      <c r="AU69" s="2"/>
+    </row>
+    <row r="70" spans="2:47">
+      <c r="B70" s="2">
+        <v>18</v>
+      </c>
+      <c r="C70" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="D70" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄚ</v>
+      </c>
+      <c r="E70" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>a</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="2"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="2"/>
+      <c r="AT70" s="11"/>
+      <c r="AU70" s="2"/>
+    </row>
+    <row r="71" spans="2:47">
+      <c r="B71" s="2">
+        <v>19</v>
+      </c>
+      <c r="C71" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>i</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆦ</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>o</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="2"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="2"/>
+      <c r="AT71" s="11"/>
+      <c r="AU71" s="2"/>
+    </row>
+    <row r="72" spans="2:47">
+      <c r="B72" s="2">
+        <v>20</v>
+      </c>
+      <c r="C72" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>k</v>
+      </c>
+      <c r="D72" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄜ</v>
+      </c>
+      <c r="E72" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>ø</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="2"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="2"/>
+      <c r="AT72" s="11"/>
+      <c r="AU72" s="2"/>
+    </row>
+    <row r="73" spans="2:47">
+      <c r="B73" s="2">
+        <v>21</v>
+      </c>
+      <c r="C73" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>,</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆰ</v>
+      </c>
+      <c r="E73" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>M</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="2"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="2"/>
+      <c r="AT73" s="11"/>
+      <c r="AU73" s="2"/>
+    </row>
+    <row r="74" spans="2:47">
+      <c r="B74" s="2">
+        <v>22</v>
+      </c>
+      <c r="C74" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="D74" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄞ</v>
+      </c>
+      <c r="E74" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>I</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="2"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="2"/>
+      <c r="AT74" s="11"/>
+      <c r="AU74" s="2"/>
+    </row>
+    <row r="75" spans="2:47">
+      <c r="B75" s="2">
+        <v>23</v>
+      </c>
+      <c r="C75" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>o</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆤ</v>
+      </c>
+      <c r="E75" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>e</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="2"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="2"/>
+      <c r="AT75" s="11"/>
+      <c r="AU75" s="2"/>
+    </row>
+    <row r="76" spans="2:47">
+      <c r="B76" s="2">
+        <v>24</v>
+      </c>
+      <c r="C76" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>l</v>
+      </c>
+      <c r="D76" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄠ</v>
+      </c>
+      <c r="E76" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>U</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="2"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="2"/>
+      <c r="AT76" s="11"/>
+      <c r="AU76" s="2"/>
+    </row>
+    <row r="77" spans="2:47">
+      <c r="B77" s="2">
+        <v>25</v>
+      </c>
+      <c r="C77" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>.</v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆲ</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>Y</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="2"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="2"/>
+      <c r="AT77" s="11"/>
+      <c r="AU77" s="2"/>
+    </row>
+    <row r="78" spans="2:47">
+      <c r="B78" s="2">
+        <v>26</v>
+      </c>
+      <c r="C78" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D78" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄢ</v>
+      </c>
+      <c r="E78" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>L</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="2"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="2"/>
+      <c r="AT78" s="11"/>
+      <c r="AU78" s="2"/>
+    </row>
+    <row r="79" spans="2:47">
+      <c r="B79" s="2">
+        <v>27</v>
+      </c>
+      <c r="C79" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>p</v>
+      </c>
+      <c r="D79" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄣ</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>D</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="2"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="2"/>
+      <c r="AT79" s="11"/>
+      <c r="AU79" s="2"/>
+    </row>
+    <row r="80" spans="2:47">
+      <c r="B80" s="2">
+        <v>28</v>
+      </c>
+      <c r="C80" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>;</v>
+      </c>
+      <c r="D80" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㄤ</v>
+      </c>
+      <c r="E80" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>Q</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="2"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="2"/>
+      <c r="AT80" s="11"/>
+      <c r="AU80" s="2"/>
+    </row>
+    <row r="81" spans="2:47">
+      <c r="B81" s="2">
+        <v>29</v>
+      </c>
+      <c r="C81" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>/</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ㆭ</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>G</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="2"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="2"/>
+      <c r="AT81" s="11"/>
+      <c r="AU81" s="2"/>
+    </row>
+    <row r="82" spans="2:47">
+      <c r="B82" s="2">
+        <v>30</v>
+      </c>
+      <c r="C82" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>-</v>
+      </c>
+      <c r="D82" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>ｎ</v>
+      </c>
+      <c r="E82" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>N</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="2"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="2"/>
+      <c r="AT82" s="11"/>
+      <c r="AU82" s="2"/>
+    </row>
+    <row r="83" spans="2:47">
+      <c r="B83" s="2">
+        <v>31</v>
+      </c>
+      <c r="C83" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D83" s="5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q30" s="2">
-        <v>28</v>
-      </c>
-      <c r="R30" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="S30" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>I</v>
-      </c>
-      <c r="T30" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㄞ</v>
-      </c>
-      <c r="W30" s="88" cm="1">
-        <f t="array" ref="W30">ROW() - ROW($2:$2)</f>
-        <v>28</v>
-      </c>
-      <c r="X30" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y30" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z30" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X30, 表格1_334[方音符號], 0)), "")</f>
-        <v>d</v>
-      </c>
-      <c r="AA30" s="49" t="str">
-        <f t="shared" si="11"/>
-        <v>d</v>
-      </c>
-      <c r="AB30" s="89" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X30, 表格1_334[方音符號], 0)), "")</f>
-        <v>x</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>11</v>
-      </c>
-      <c r="AF30" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>c</v>
-      </c>
-      <c r="AG30" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄏ</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="32.25">
-      <c r="E31" s="2" cm="1">
-        <f t="array" ref="E31" xml:space="preserve"> ROW() - ROW($2:$2)</f>
-        <v>29</v>
-      </c>
-      <c r="F31" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>e</v>
-      </c>
-      <c r="G31" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>o</v>
-      </c>
-      <c r="I31" s="2">
-        <v>29</v>
-      </c>
-      <c r="J31" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>o</v>
-      </c>
-      <c r="K31" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ㆤ</v>
-      </c>
-      <c r="M31" s="2">
-        <v>29</v>
-      </c>
-      <c r="N31" s="24" t="str">
+      <c r="E83" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="2"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="2"/>
+      <c r="AT83" s="11"/>
+      <c r="AU83" s="2"/>
+    </row>
+    <row r="84" spans="2:47">
+      <c r="B84" s="2">
+        <v>32</v>
+      </c>
+      <c r="C84" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O31" s="24" t="str">
+        <v>4</v>
+      </c>
+      <c r="D84" s="5" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q31" s="2">
-        <v>29</v>
-      </c>
-      <c r="R31" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>o</v>
-      </c>
-      <c r="S31" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>e</v>
-      </c>
-      <c r="T31" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㆤ</v>
-      </c>
-      <c r="W31" s="85" cm="1">
-        <f t="array" ref="W31">ROW() - ROW($2:$2)</f>
-        <v>29</v>
-      </c>
-      <c r="X31" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y31" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z31" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X31, 表格1_334[方音符號], 0)), "")</f>
-        <v>q</v>
-      </c>
-      <c r="AA31" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>q</v>
-      </c>
-      <c r="AB31" s="87" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X31, 表格1_334[方音符號], 0)), "")</f>
-        <v>g</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>12</v>
-      </c>
-      <c r="AF31" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>r</v>
-      </c>
-      <c r="AG31" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄐ</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="32.25">
-      <c r="E32" s="2" cm="1">
-        <f t="array" ref="E32" xml:space="preserve"> ROW() - ROW($2:$2)</f>
-        <v>30</v>
-      </c>
-      <c r="F32" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>U</v>
-      </c>
-      <c r="G32" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>l</v>
-      </c>
-      <c r="I32" s="2">
-        <v>30</v>
-      </c>
-      <c r="J32" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>l</v>
-      </c>
-      <c r="K32" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ㄠ</v>
-      </c>
-      <c r="M32" s="2">
-        <v>30</v>
-      </c>
-      <c r="N32" s="24" t="str">
+        <v>ˋ</v>
+      </c>
+      <c r="E84" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="2"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="2"/>
+      <c r="AT84" s="11"/>
+      <c r="AU84" s="2"/>
+    </row>
+    <row r="85" spans="2:47">
+      <c r="B85" s="2">
+        <v>33</v>
+      </c>
+      <c r="C85" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O32" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="D85" s="5" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q32" s="2">
-        <v>30</v>
-      </c>
-      <c r="R32" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>l</v>
-      </c>
-      <c r="S32" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>U</v>
-      </c>
-      <c r="T32" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㄠ</v>
-      </c>
-      <c r="W32" s="90" cm="1">
-        <f t="array" ref="W32">ROW() - ROW($2:$2)</f>
-        <v>30</v>
-      </c>
-      <c r="X32" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y32" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z32" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X32, 表格1_334[方音符號], 0)), "")</f>
-        <v>j</v>
-      </c>
-      <c r="AA32" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>j</v>
-      </c>
-      <c r="AB32" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X32, 表格1_334[方音符號], 0)), "")</f>
-        <v>r</v>
-      </c>
-      <c r="AE32" s="2">
-        <v>13</v>
-      </c>
-      <c r="AF32" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>f</v>
-      </c>
-      <c r="AG32" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄑ</v>
-      </c>
-    </row>
-    <row r="33" spans="5:33" ht="32.25">
-      <c r="E33" s="2" cm="1">
-        <f t="array" ref="E33" xml:space="preserve"> ROW() - ROW($2:$2)</f>
-        <v>31</v>
-      </c>
-      <c r="F33" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-      <c r="G33" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>.</v>
-      </c>
-      <c r="I33" s="2">
-        <v>31</v>
-      </c>
-      <c r="J33" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>.</v>
-      </c>
-      <c r="K33" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ㆲ</v>
-      </c>
-      <c r="M33" s="2">
-        <v>31</v>
-      </c>
-      <c r="N33" s="24" t="str">
+        <v>˪</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="2"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="2"/>
+      <c r="AT85" s="11"/>
+      <c r="AU85" s="2"/>
+    </row>
+    <row r="86" spans="2:47">
+      <c r="B86" s="2">
+        <v>34</v>
+      </c>
+      <c r="C86" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O33" s="24" t="str">
+        <v>6</v>
+      </c>
+      <c r="D86" s="5" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q33" s="2">
-        <v>31</v>
-      </c>
-      <c r="R33" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>.</v>
-      </c>
-      <c r="S33" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>Y</v>
-      </c>
-      <c r="T33" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㆲ</v>
-      </c>
-      <c r="W33" s="91" cm="1">
-        <f t="array" ref="W33">ROW() - ROW($2:$2)</f>
-        <v>31</v>
-      </c>
-      <c r="X33" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y33" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z33" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X33, 表格1_334[方音符號], 0)), "")</f>
-        <v>J</v>
-      </c>
-      <c r="AA33" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>J</v>
-      </c>
-      <c r="AB33" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X33, 表格1_334[方音符號], 0)), "")</f>
-        <v>f</v>
-      </c>
-      <c r="AE33" s="2">
-        <v>14</v>
-      </c>
-      <c r="AF33" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>v</v>
-      </c>
-      <c r="AG33" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄒ</v>
-      </c>
-    </row>
-    <row r="34" spans="5:33" ht="32.25">
-      <c r="E34" s="2" cm="1">
-        <f t="array" ref="E34" xml:space="preserve"> ROW() - ROW($2:$2)</f>
-        <v>32</v>
-      </c>
-      <c r="F34" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
-      </c>
-      <c r="G34" s="80" t="str">
-        <f t="shared" si="2"/>
+        <v>ˊ</v>
+      </c>
+      <c r="E86" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="2"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="2"/>
+      <c r="AT86" s="11"/>
+      <c r="AU86" s="2"/>
+    </row>
+    <row r="87" spans="2:47">
+      <c r="B87" s="2">
+        <v>35</v>
+      </c>
+      <c r="C87" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="D87" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>˫</v>
+      </c>
+      <c r="E87" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="2"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="2"/>
+      <c r="AT87" s="11"/>
+      <c r="AU87" s="2"/>
+    </row>
+    <row r="88" spans="2:47">
+      <c r="B88" s="2">
+        <v>36</v>
+      </c>
+      <c r="C88" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="D88" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>．</v>
+      </c>
+      <c r="E88" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="2">
-        <v>32</v>
-      </c>
-      <c r="J34" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ㄢ</v>
-      </c>
-      <c r="M34" s="2">
-        <v>32</v>
-      </c>
-      <c r="N34" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O34" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q34" s="2">
-        <v>32</v>
-      </c>
-      <c r="R34" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>L</v>
-      </c>
-      <c r="T34" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㄢ</v>
-      </c>
-      <c r="W34" s="92" cm="1">
-        <f t="array" ref="W34">ROW() - ROW($2:$2)</f>
-        <v>32</v>
-      </c>
-      <c r="X34" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y34" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z34" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X34, 表格1_334[方音符號], 0)), "")</f>
-        <v>S</v>
-      </c>
-      <c r="AA34" s="49" t="str">
-        <f t="shared" si="11"/>
-        <v>S</v>
-      </c>
-      <c r="AB34" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X34, 表格1_334[方音符號], 0)), "")</f>
-        <v>v</v>
-      </c>
-      <c r="AE34" s="2">
-        <v>15</v>
-      </c>
-      <c r="AF34" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>t</v>
-      </c>
-      <c r="AG34" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆣ</v>
-      </c>
-    </row>
-    <row r="35" spans="5:33" ht="32.25">
-      <c r="E35" s="2" cm="1">
-        <f t="array" ref="E35" xml:space="preserve"> ROW() - ROW($2:$2)</f>
-        <v>33</v>
-      </c>
-      <c r="F35" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="G35" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>p</v>
-      </c>
-      <c r="I35" s="2">
-        <v>33</v>
-      </c>
-      <c r="J35" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>p</v>
-      </c>
-      <c r="K35" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ㄣ</v>
-      </c>
-      <c r="M35" s="2">
-        <v>33</v>
-      </c>
-      <c r="N35" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O35" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q35" s="2">
-        <v>33</v>
-      </c>
-      <c r="R35" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>p</v>
-      </c>
-      <c r="S35" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
-      </c>
-      <c r="T35" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㄣ</v>
-      </c>
-      <c r="W35" s="93" cm="1">
-        <f t="array" ref="W35">ROW() - ROW($2:$2)</f>
-        <v>33</v>
-      </c>
-      <c r="X35" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y35" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z35" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X35, 表格1_334[方音符號], 0)), "")</f>
-        <v>Q</v>
-      </c>
-      <c r="AA35" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>Q</v>
-      </c>
-      <c r="AB35" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X35, 表格1_334[方音符號], 0)), "")</f>
-        <v>;</v>
-      </c>
-      <c r="AE35" s="2">
-        <v>16</v>
-      </c>
-      <c r="AF35" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>g</v>
-      </c>
-      <c r="AG35" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄫ</v>
-      </c>
-    </row>
-    <row r="36" spans="5:33" ht="32.25">
-      <c r="E36" s="2" cm="1">
-        <f t="array" ref="E36" xml:space="preserve"> ROW() - ROW($2:$2)</f>
-        <v>34</v>
-      </c>
-      <c r="F36" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>Q</v>
-      </c>
-      <c r="G36" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>;</v>
-      </c>
-      <c r="I36" s="2">
-        <v>34</v>
-      </c>
-      <c r="J36" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>;</v>
-      </c>
-      <c r="K36" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ㄤ</v>
-      </c>
-      <c r="M36" s="2">
-        <v>34</v>
-      </c>
-      <c r="N36" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O36" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q36" s="2">
-        <v>34</v>
-      </c>
-      <c r="R36" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>;</v>
-      </c>
-      <c r="S36" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>Q</v>
-      </c>
-      <c r="T36" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㄤ</v>
-      </c>
-      <c r="W36" s="93" cm="1">
-        <f t="array" ref="W36">ROW() - ROW($2:$2)</f>
-        <v>34</v>
-      </c>
-      <c r="X36" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y36" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z36" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X36, 表格1_334[方音符號], 0)), "")</f>
-        <v>L</v>
-      </c>
-      <c r="AA36" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>L</v>
-      </c>
-      <c r="AB36" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X36, 表格1_334[方音符號], 0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF36" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>b</v>
-      </c>
-      <c r="AG36" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆡ</v>
-      </c>
-    </row>
-    <row r="37" spans="5:33" ht="32.25">
-      <c r="E37" s="2" cm="1">
-        <f t="array" ref="E37" xml:space="preserve"> ROW() - ROW($2:$2)</f>
-        <v>35</v>
-      </c>
-      <c r="F37" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>G</v>
-      </c>
-      <c r="G37" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>/</v>
-      </c>
-      <c r="I37" s="2">
-        <v>35</v>
-      </c>
-      <c r="J37" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>/</v>
-      </c>
-      <c r="K37" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ㆭ</v>
-      </c>
-      <c r="M37" s="2">
-        <v>35</v>
-      </c>
-      <c r="N37" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O37" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q37" s="2">
-        <v>35</v>
-      </c>
-      <c r="R37" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>/</v>
-      </c>
-      <c r="S37" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>G</v>
-      </c>
-      <c r="T37" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ㆭ</v>
-      </c>
-      <c r="W37" s="93" cm="1">
-        <f t="array" ref="W37">ROW() - ROW($2:$2)</f>
-        <v>35</v>
-      </c>
-      <c r="X37" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y37" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z37" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X37, 表格1_334[方音符號], 0)), "")</f>
-        <v>M</v>
-      </c>
-      <c r="AA37" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>M</v>
-      </c>
-      <c r="AB37" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X37, 表格1_334[方音符號], 0)), "")</f>
-        <v>,</v>
-      </c>
-      <c r="AE37" s="2">
-        <v>18</v>
-      </c>
-      <c r="AF37" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>y</v>
-      </c>
-      <c r="AG37" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄗ</v>
-      </c>
-    </row>
-    <row r="38" spans="5:33" ht="32.25">
-      <c r="E38" s="2" cm="1">
-        <f t="array" ref="E38" xml:space="preserve"> ROW() - ROW($2:$2)</f>
-        <v>36</v>
-      </c>
-      <c r="F38" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
-      </c>
-      <c r="G38" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="I38" s="2">
-        <v>36</v>
-      </c>
-      <c r="J38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="K38" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ｎ</v>
-      </c>
-      <c r="M38" s="2">
-        <v>36</v>
-      </c>
-      <c r="N38" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O38" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q38" s="2">
-        <v>36</v>
-      </c>
-      <c r="R38" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="S38" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="T38" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ｎ</v>
-      </c>
-      <c r="W38" s="94" cm="1">
-        <f t="array" ref="W38">ROW() - ROW($2:$2)</f>
-        <v>36</v>
-      </c>
-      <c r="X38" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y38" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z38" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X38, 表格1_334[方音符號], 0)), "")</f>
-        <v>Y</v>
-      </c>
-      <c r="AA38" s="49" t="str">
-        <f t="shared" si="11"/>
-        <v>Y</v>
-      </c>
-      <c r="AB38" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X38, 表格1_334[方音符號], 0)), "")</f>
-        <v>.</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF38" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>h</v>
-      </c>
-      <c r="AG38" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄘ</v>
-      </c>
-    </row>
-    <row r="39" spans="5:33" ht="32.25">
-      <c r="E39" s="2" cm="1">
-        <f t="array" ref="E39" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="2"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="2"/>
+      <c r="AT88" s="11"/>
+      <c r="AU88" s="2"/>
+    </row>
+    <row r="89" spans="2:47">
+      <c r="B89" s="2">
         <v>37</v>
       </c>
-      <c r="F39" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G39" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I39" s="2">
-        <v>37</v>
-      </c>
-      <c r="J39" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K39" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ˋ</v>
-      </c>
-      <c r="M39" s="2">
-        <v>37</v>
-      </c>
-      <c r="N39" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O39" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q39" s="2">
-        <v>37</v>
-      </c>
-      <c r="R39" s="95" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S39" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T39" s="97" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="98" cm="1">
-        <f t="array" ref="W39">ROW() - ROW($2:$2)</f>
-        <v>37</v>
-      </c>
-      <c r="X39" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y39" s="100">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="101">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AB39" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF39" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>n</v>
-      </c>
-      <c r="AG39" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄙ</v>
-      </c>
-    </row>
-    <row r="40" spans="5:33" ht="32.25">
-      <c r="E40" s="2" cm="1">
-        <f t="array" ref="E40" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="2"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="2"/>
+      <c r="AT89" s="11"/>
+      <c r="AU89" s="2"/>
+    </row>
+    <row r="90" spans="2:47">
+      <c r="B90" s="2">
         <v>38</v>
       </c>
-      <c r="F40" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G40" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I40" s="2">
-        <v>38</v>
-      </c>
-      <c r="J40" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K40" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>˪</v>
-      </c>
-      <c r="M40" s="2">
-        <v>38</v>
-      </c>
-      <c r="N40" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O40" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q40" s="2">
-        <v>38</v>
-      </c>
-      <c r="R40" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S40" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="T40" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ˋ</v>
-      </c>
-      <c r="W40" s="103" cm="1">
-        <f t="array" ref="W40">ROW() - ROW($2:$2)</f>
-        <v>38</v>
-      </c>
-      <c r="X40" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y40" s="29">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X40, 表格1_334[方音符號], 0)), "")</f>
-        <v>2</v>
-      </c>
-      <c r="AA40" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AB40" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X40, 表格1_334[方音符號], 0)), "")</f>
-        <v>4</v>
-      </c>
-      <c r="AE40" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF40" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>u</v>
-      </c>
-      <c r="AG40" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄧ</v>
-      </c>
-    </row>
-    <row r="41" spans="5:33" ht="32.25">
-      <c r="E41" s="2" cm="1">
-        <f t="array" ref="E41" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="2"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="2"/>
+      <c r="AT90" s="11"/>
+      <c r="AU90" s="2"/>
+    </row>
+    <row r="91" spans="2:47">
+      <c r="B91" s="2">
         <v>39</v>
       </c>
-      <c r="F41" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G41" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I41" s="2">
-        <v>39</v>
-      </c>
-      <c r="J41" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K41" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>ˊ</v>
-      </c>
-      <c r="M41" s="2">
-        <v>39</v>
-      </c>
-      <c r="N41" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O41" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q41" s="2">
-        <v>39</v>
-      </c>
-      <c r="R41" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="S41" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="T41" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>˪</v>
-      </c>
-      <c r="W41" s="93" cm="1">
-        <f t="array" ref="W41">ROW() - ROW($2:$2)</f>
-        <v>39</v>
-      </c>
-      <c r="X41" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y41" s="38">
-        <v>3</v>
-      </c>
-      <c r="Z41" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X41, 表格1_334[方音符號], 0)), "")</f>
-        <v>3</v>
-      </c>
-      <c r="AA41" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AB41" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X41, 表格1_334[方音符號], 0)), "")</f>
-        <v>3</v>
-      </c>
-      <c r="AE41" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF41" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>j</v>
-      </c>
-      <c r="AG41" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄨ</v>
-      </c>
-    </row>
-    <row r="42" spans="5:33" ht="32.25">
-      <c r="E42" s="2" cm="1">
-        <f t="array" ref="E42" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="2"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="2"/>
+      <c r="AT91" s="11"/>
+      <c r="AU91" s="2"/>
+    </row>
+    <row r="92" spans="2:47">
+      <c r="B92" s="2">
         <v>40</v>
       </c>
-      <c r="F42" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G42" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I42" s="2">
-        <v>40</v>
-      </c>
-      <c r="J42" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K42" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>˫</v>
-      </c>
-      <c r="M42" s="2">
-        <v>40</v>
-      </c>
-      <c r="N42" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O42" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q42" s="2">
-        <v>40</v>
-      </c>
-      <c r="R42" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="S42" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T42" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>ˊ</v>
-      </c>
-      <c r="W42" s="93" cm="1">
-        <f t="array" ref="W42">ROW() - ROW($2:$2)</f>
-        <v>40</v>
-      </c>
-      <c r="X42" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y42" s="38">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X42, 表格1_334[方音符號], 0)), "")</f>
-        <v>5</v>
-      </c>
-      <c r="AA42" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AB42" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X42, 表格1_334[方音符號], 0)), "")</f>
-        <v>6</v>
-      </c>
-      <c r="AE42" s="2">
-        <v>23</v>
-      </c>
-      <c r="AF42" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>m</v>
-      </c>
-      <c r="AG42" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆬ</v>
-      </c>
-    </row>
-    <row r="43" spans="5:33" ht="32.25">
-      <c r="E43" s="2" cm="1">
-        <f t="array" ref="E43" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="2"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="2"/>
+      <c r="AT92" s="11"/>
+      <c r="AU92" s="2"/>
+    </row>
+    <row r="93" spans="2:47">
+      <c r="B93" s="2">
         <v>41</v>
       </c>
-      <c r="F43" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G43" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I43" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K43" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>．</v>
-      </c>
-      <c r="M43" s="2">
-        <v>41</v>
-      </c>
-      <c r="N43" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O43" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q43" s="2">
-        <v>41</v>
-      </c>
-      <c r="R43" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="S43" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="T43" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>˫</v>
-      </c>
-      <c r="W43" s="93" cm="1">
-        <f t="array" ref="W43">ROW() - ROW($2:$2)</f>
-        <v>41</v>
-      </c>
-      <c r="X43" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y43" s="38">
-        <v>7</v>
-      </c>
-      <c r="Z43" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X43, 表格1_334[方音符號], 0)), "")</f>
-        <v>7</v>
-      </c>
-      <c r="AA43" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AB43" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X43, 表格1_334[方音符號], 0)), "")</f>
-        <v>5</v>
-      </c>
-      <c r="AC43" s="104"/>
-      <c r="AE43" s="2">
-        <v>24</v>
-      </c>
-      <c r="AF43" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AG43" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄚ</v>
-      </c>
-    </row>
-    <row r="44" spans="5:33" ht="32.25">
-      <c r="E44" s="2" cm="1">
-        <f t="array" ref="E44" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="2"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="2"/>
+      <c r="AT93" s="11"/>
+      <c r="AU93" s="2"/>
+    </row>
+    <row r="94" spans="2:47">
+      <c r="B94" s="2">
         <v>42</v>
       </c>
-      <c r="F44" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="80" t="str">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I44" s="2">
-        <v>42</v>
-      </c>
-      <c r="J44" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K44" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M44" s="2">
-        <v>42</v>
-      </c>
-      <c r="N44" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O44" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q44" s="2">
-        <v>42</v>
-      </c>
-      <c r="R44" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="S44" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
-        <v>．</v>
-      </c>
-      <c r="W44" s="94" cm="1">
-        <f t="array" ref="W44">ROW() - ROW($2:$2)</f>
-        <v>42</v>
-      </c>
-      <c r="X44" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y44" s="48">
-        <v>8</v>
-      </c>
-      <c r="Z44" s="49">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="50">
-        <v>7</v>
-      </c>
-      <c r="AE44" s="2">
-        <v>25</v>
-      </c>
-      <c r="AF44" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>i</v>
-      </c>
-      <c r="AG44" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆦ</v>
-      </c>
-    </row>
-    <row r="45" spans="5:33" ht="32.25">
-      <c r="O45" s="2"/>
-      <c r="W45" s="105" cm="1">
-        <f t="array" ref="W45">ROW() - ROW($2:$2)</f>
-        <v>43</v>
-      </c>
-      <c r="X45" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y45" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z45" s="69" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X45, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA45" s="69"/>
-      <c r="AB45" s="70" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X45, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE45" s="2">
-        <v>26</v>
-      </c>
-      <c r="AF45" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>k</v>
-      </c>
-      <c r="AG45" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄜ</v>
-      </c>
-    </row>
-    <row r="46" spans="5:33" ht="32.25">
-      <c r="T46" s="106" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(S3:S38, S40:S44)</f>
-        <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570</v>
-      </c>
-      <c r="W46" s="103" cm="1">
-        <f t="array" ref="W46">ROW() - ROW($2:$2)</f>
-        <v>44</v>
-      </c>
-      <c r="X46" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y46" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z46" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X46, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X46, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE46" s="2">
-        <v>27</v>
-      </c>
-      <c r="AF46" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>,</v>
-      </c>
-      <c r="AG46" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆰ</v>
-      </c>
-    </row>
-    <row r="47" spans="5:33" ht="32.25">
-      <c r="T47" s="106" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(T3:T38, T40:T44)</f>
-        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
-      </c>
-      <c r="W47" s="93" cm="1">
-        <f t="array" ref="W47">ROW() - ROW($2:$2)</f>
-        <v>45</v>
-      </c>
-      <c r="X47" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y47" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z47" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X47, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X47, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE47" s="2">
-        <v>28</v>
-      </c>
-      <c r="AF47" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="AG47" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄞ</v>
-      </c>
-    </row>
-    <row r="48" spans="5:33" ht="32.25">
-      <c r="R48" s="107" t="str">
-        <f xml:space="preserve"> "xlit|" &amp; T46 &amp; "|" &amp; T47 &amp; "|"</f>
-        <v>xlit|pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．|</v>
-      </c>
-      <c r="W48" s="93" cm="1">
-        <f t="array" ref="W48">ROW() - ROW($2:$2)</f>
-        <v>46</v>
-      </c>
-      <c r="X48" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y48" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z48" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X48, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X48, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE48" s="2">
-        <v>29</v>
-      </c>
-      <c r="AF48" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>o</v>
-      </c>
-      <c r="AG48" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆤ</v>
-      </c>
-    </row>
-    <row r="49" spans="23:33" ht="32.25">
-      <c r="W49" s="93" cm="1">
-        <f t="array" ref="W49">ROW() - ROW($2:$2)</f>
-        <v>47</v>
-      </c>
-      <c r="X49" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y49" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z49" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X49, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X49, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE49" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF49" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>l</v>
-      </c>
-      <c r="AG49" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄠ</v>
-      </c>
-    </row>
-    <row r="50" spans="23:33" ht="32.25">
-      <c r="W50" s="93" cm="1">
-        <f t="array" ref="W50">ROW() - ROW($2:$2)</f>
-        <v>48</v>
-      </c>
-      <c r="X50" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y50" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z50" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X50, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X50, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE50" s="2">
-        <v>31</v>
-      </c>
-      <c r="AF50" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>.</v>
-      </c>
-      <c r="AG50" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆲ</v>
-      </c>
-    </row>
-    <row r="51" spans="23:33" ht="32.25">
-      <c r="W51" s="94" cm="1">
-        <f t="array" ref="W51">ROW() - ROW($2:$2)</f>
-        <v>49</v>
-      </c>
-      <c r="X51" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y51" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z51" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X51, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA51" s="49"/>
-      <c r="AB51" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X51, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE51" s="2">
-        <v>32</v>
-      </c>
-      <c r="AF51" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄢ</v>
-      </c>
-    </row>
-    <row r="52" spans="23:33" ht="32.25">
-      <c r="W52" s="103" cm="1">
-        <f t="array" ref="W52">ROW() - ROW($2:$2)</f>
-        <v>50</v>
-      </c>
-      <c r="X52" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y52" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z52" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X52, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X52, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE52" s="2">
-        <v>33</v>
-      </c>
-      <c r="AF52" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>p</v>
-      </c>
-      <c r="AG52" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄣ</v>
-      </c>
-    </row>
-    <row r="53" spans="23:33" ht="32.25">
-      <c r="W53" s="94" cm="1">
-        <f t="array" ref="W53">ROW() - ROW($2:$2)</f>
-        <v>51</v>
-      </c>
-      <c r="X53" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y53" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z53" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X53, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X53, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE53" s="2">
-        <v>34</v>
-      </c>
-      <c r="AF53" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>;</v>
-      </c>
-      <c r="AG53" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄤ</v>
-      </c>
-    </row>
-    <row r="54" spans="23:33" ht="32.25">
-      <c r="W54" s="103" cm="1">
-        <f t="array" ref="W54">ROW() - ROW($2:$2)</f>
-        <v>52</v>
-      </c>
-      <c r="X54" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y54" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z54" s="30" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X54, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="31" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X54, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE54" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF54" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>/</v>
-      </c>
-      <c r="AG54" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ㆭ</v>
-      </c>
-    </row>
-    <row r="55" spans="23:33" ht="32.25">
-      <c r="W55" s="93" cm="1">
-        <f t="array" ref="W55">ROW() - ROW($2:$2)</f>
-        <v>53</v>
-      </c>
-      <c r="X55" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y55" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z55" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X55, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X55, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE55" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF55" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
-      </c>
-      <c r="AG55" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ｎ</v>
-      </c>
-    </row>
-    <row r="56" spans="23:33" ht="32.25">
-      <c r="W56" s="93" cm="1">
-        <f t="array" ref="W56">ROW() - ROW($2:$2)</f>
-        <v>54</v>
-      </c>
-      <c r="X56" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y56" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z56" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X56, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X56, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE56" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AG56" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="23:33" ht="32.25">
-      <c r="W57" s="93" cm="1">
-        <f t="array" ref="W57">ROW() - ROW($2:$2)</f>
-        <v>55</v>
-      </c>
-      <c r="X57" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y57" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z57" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X57, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="40" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X57, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE57" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="AG57" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ˋ</v>
-      </c>
-    </row>
-    <row r="58" spans="23:33" ht="32.25">
-      <c r="W58" s="94" cm="1">
-        <f t="array" ref="W58">ROW() - ROW($2:$2)</f>
-        <v>56</v>
-      </c>
-      <c r="X58" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y58" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z58" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X58, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="50" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X58, 表格1_334[方音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AE58" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AG58" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>˪</v>
-      </c>
-    </row>
-    <row r="59" spans="23:33">
-      <c r="AE59" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="AG59" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>ˊ</v>
-      </c>
-    </row>
-    <row r="60" spans="23:33">
-      <c r="AE60" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="AG60" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>˫</v>
-      </c>
-    </row>
-    <row r="61" spans="23:33">
-      <c r="AE61" s="2">
-        <v>42</v>
-      </c>
-      <c r="AF61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AG61" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>．</v>
-      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="2"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="2"/>
+      <c r="AT94" s="11"/>
+      <c r="AU94" s="2"/>
+    </row>
+    <row r="95" spans="2:47">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="2:47">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="7:8">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/鍵盤設計規格_台語方音.xlsx
+++ b/docs/鍵盤設計規格_台語方音.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2A8B7-9509-469A-97C7-0DD751B6D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB36B9B-88C1-4B3A-A277-EBAEE9F7291F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤" sheetId="2" r:id="rId1"/>
-    <sheet name="RIME對映編碼 (台語方音)" sheetId="1" r:id="rId2"/>
+    <sheet name="台語方音字典編碼" sheetId="3" r:id="rId2"/>
+    <sheet name="RIME對映編碼 (台語方音)" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="方音符號" localSheetId="1">'RIME對映編碼 (台語方音)'!$U$3:$U$44</definedName>
+    <definedName name="方音符號" localSheetId="2">'RIME對映編碼 (台語方音)'!$U$3:$U$44</definedName>
     <definedName name="方音符號">[1]RIME編碼!$AA$3:$AA$45</definedName>
     <definedName name="字典編碼">[1]RIME編碼!$AB$3:$AB$45</definedName>
-    <definedName name="拼音字母" localSheetId="1">'RIME對映編碼 (台語方音)'!#REF!</definedName>
+    <definedName name="拼音字母" localSheetId="2">'RIME對映編碼 (台語方音)'!#REF!</definedName>
     <definedName name="拼音字母">[1]RIME編碼!$AC$3:$AC$45</definedName>
-    <definedName name="按鍵編碼" localSheetId="1">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
-    <definedName name="國際音標" localSheetId="1">'RIME對映編碼 (台語方音)'!#REF!</definedName>
-    <definedName name="鍵盤位置" localSheetId="1">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
+    <definedName name="按鍵編碼" localSheetId="2">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
+    <definedName name="國際音標" localSheetId="2">'RIME對映編碼 (台語方音)'!#REF!</definedName>
+    <definedName name="鍵盤位置" localSheetId="2">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
     <definedName name="鍵盤位置">[1]RIME編碼!$W$3:$W$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="373">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -574,16 +575,806 @@
   <si>
     <t xml:space="preserve">initials: </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ㆭ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ㆬ</t>
+  </si>
+  <si>
+    <t>促聲注音</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒聲注音</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>韻化聲母</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>uang</t>
+  </si>
+  <si>
+    <t>uaG</t>
+  </si>
+  <si>
+    <t>ㄨㄤ</t>
+  </si>
+  <si>
+    <t>iong</t>
+  </si>
+  <si>
+    <t>ioG</t>
+  </si>
+  <si>
+    <t>ㄧㆲ</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>ㄧㄥ</t>
+  </si>
+  <si>
+    <t>iang</t>
+  </si>
+  <si>
+    <t>iaG</t>
+  </si>
+  <si>
+    <t>ㄧㄤ</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>OG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>oG</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>aG</t>
+  </si>
+  <si>
+    <t>ㆭ韻尾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>uaD</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>ㄨㄢ</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>iaD</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>ㄧㄢ</t>
+  </si>
+  <si>
+    <t>h4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>aD</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>k4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>uD</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>ㄨㄣ</t>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>iD</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>ㄧㄣ</t>
+  </si>
+  <si>
+    <t>p4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ㄣ韻尾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>oG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>iam</t>
+  </si>
+  <si>
+    <t>iaB</t>
+  </si>
+  <si>
+    <t>ㄧㆰ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>oB</t>
+  </si>
+  <si>
+    <t>aG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>aB</t>
+  </si>
+  <si>
+    <t>ㆰ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>iB</t>
+  </si>
+  <si>
+    <t>ㄧㆬ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>aD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ㆬ韻尾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>oB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>aB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>NU</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>uainn</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NuI</t>
+  </si>
+  <si>
+    <t>ㄨㆮㆷ</t>
+  </si>
+  <si>
+    <t>ㄨㆮ</t>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>uenn</t>
+  </si>
+  <si>
+    <t>Nue</t>
+  </si>
+  <si>
+    <t>ㄨㆥ</t>
+  </si>
+  <si>
+    <t>NI</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>uann</t>
+  </si>
+  <si>
+    <t>Nua</t>
+  </si>
+  <si>
+    <t>ㄨㆩ</t>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>ㄞ</t>
+  </si>
+  <si>
+    <t>uinn</t>
+  </si>
+  <si>
+    <t>Nui</t>
+  </si>
+  <si>
+    <t>ㄨㆪ</t>
+  </si>
+  <si>
+    <t>Nu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iaunn</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiU</t>
+  </si>
+  <si>
+    <t>ㄧㆯ</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>ionn</t>
+  </si>
+  <si>
+    <t>Nio</t>
+  </si>
+  <si>
+    <t>ㄧㆧ</t>
+  </si>
+  <si>
+    <t>Ni</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>iann</t>
+  </si>
+  <si>
+    <t>Nia</t>
+  </si>
+  <si>
+    <t>ㄧㆩㆷ</t>
+  </si>
+  <si>
+    <t>ㄧㆩ</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>iunn</t>
+  </si>
+  <si>
+    <t>Niu</t>
+  </si>
+  <si>
+    <t>ㄧㆫ</t>
+  </si>
+  <si>
+    <t>Ne</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>aunn</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>ainn</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>enn</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>onn</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Na</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ㄒ</t>
+  </si>
+  <si>
+    <t>韻母</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>uai</t>
+  </si>
+  <si>
+    <t>uI</t>
+  </si>
+  <si>
+    <t>ㄨㄞㆷ</t>
+  </si>
+  <si>
+    <t>ㄨㄞ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>ㄨㆤㆷ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㆤ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>ㄨㄚㆷ</t>
+  </si>
+  <si>
+    <t>ㄨㄚ</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>ㄨㄧㆷ</t>
+  </si>
+  <si>
+    <t>ㄨㄧ</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>iau</t>
+  </si>
+  <si>
+    <t>iU</t>
+  </si>
+  <si>
+    <t>ㄧㄠㆷ</t>
+  </si>
+  <si>
+    <t>ㄧㄠ</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>ㄧㄜㆷ</t>
+  </si>
+  <si>
+    <t>ㄧㄜ</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ak</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak̚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚㆻ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>ㄧㄚㆷ</t>
+  </si>
+  <si>
+    <t>ㄧㄚ</t>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>ㄧㄨㆷ</t>
+  </si>
+  <si>
+    <t>ㄧㄨ</t>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>at̚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚㆴ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>ㄠㆷ</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>ㄞㆷ</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <r>
+      <t>ap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>̚</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆦㆷ</t>
+  </si>
+  <si>
+    <t>ㆦ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ㆤㆷ</t>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>按鍵字元</t>
+  </si>
+  <si>
+    <t>annh</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ã</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆩㆷ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>輸入碼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ã</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆩ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ㄚㆷ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>台羅拼音</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>a?</t>
+  </si>
+  <si>
+    <t>ㄨㆷ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆷ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>國際音標</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>入聲（以 ㄚ 為例）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
+    <numFmt numFmtId="177" formatCode="General;;"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="50">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -858,6 +1649,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Serif TC Medium"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Noto Serif TC Medium"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Serif TC Medium"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -945,7 +1773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1107,12 +1935,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1409,6 +2263,132 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1571,6 +2551,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9028571" cy="3714286"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA03739-29E2-45F9-B0E6-B0262B648735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="3733800"/>
+          <a:ext cx="9028571" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2469,13 +3493,3534 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CCF233-E069-4C88-B15E-9EE0BAC6ED53}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B1:BX72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25"/>
+  <cols>
+    <col min="1" max="1" width="6.3984375" style="110" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" style="110" customWidth="1"/>
+    <col min="3" max="3" width="13" style="8" customWidth="1"/>
+    <col min="4" max="5" width="13" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" style="110" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="110" customWidth="1"/>
+    <col min="9" max="10" width="12.69921875" style="111" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" style="110" customWidth="1"/>
+    <col min="14" max="14" width="6.796875" style="110" customWidth="1"/>
+    <col min="15" max="16" width="12.69921875" style="111" customWidth="1"/>
+    <col min="17" max="17" width="12.69921875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.69921875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="7.59765625" style="110" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="110" customWidth="1"/>
+    <col min="21" max="21" width="27" style="110" customWidth="1"/>
+    <col min="22" max="16384" width="10.8984375" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:76">
+      <c r="B1" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="N1" s="119" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="2:76" s="143" customFormat="1" ht="24" thickBot="1">
+      <c r="B2" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="148" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="147" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q2" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="146" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="144">
+        <v>1</v>
+      </c>
+      <c r="W2" s="144">
+        <f>V2+1</f>
+        <v>2</v>
+      </c>
+      <c r="X2" s="144">
+        <f>W2+1</f>
+        <v>3</v>
+      </c>
+      <c r="Y2" s="144">
+        <f>X2+1</f>
+        <v>4</v>
+      </c>
+      <c r="Z2" s="145">
+        <f>Y2+1</f>
+        <v>5</v>
+      </c>
+      <c r="AA2" s="145">
+        <f>Z2+1</f>
+        <v>6</v>
+      </c>
+      <c r="AB2" s="145">
+        <f>AA2+1</f>
+        <v>7</v>
+      </c>
+      <c r="AC2" s="145">
+        <f>AB2+1</f>
+        <v>8</v>
+      </c>
+      <c r="AD2" s="144">
+        <f>AC2+1</f>
+        <v>9</v>
+      </c>
+      <c r="AE2" s="144">
+        <f>AD2+1</f>
+        <v>10</v>
+      </c>
+      <c r="AF2" s="144">
+        <f>AE2+1</f>
+        <v>11</v>
+      </c>
+      <c r="AG2" s="144">
+        <f>AF2+1</f>
+        <v>12</v>
+      </c>
+      <c r="AH2" s="145">
+        <f>AG2+1</f>
+        <v>13</v>
+      </c>
+      <c r="AI2" s="145">
+        <f>AH2+1</f>
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="145">
+        <f>AI2+1</f>
+        <v>15</v>
+      </c>
+      <c r="AK2" s="145">
+        <f>AJ2+1</f>
+        <v>16</v>
+      </c>
+      <c r="AL2" s="144">
+        <f>AK2+1</f>
+        <v>17</v>
+      </c>
+      <c r="AM2" s="144">
+        <f>AL2+1</f>
+        <v>18</v>
+      </c>
+      <c r="AN2" s="144">
+        <f>AM2+1</f>
+        <v>19</v>
+      </c>
+      <c r="AO2" s="144">
+        <f>AN2+1</f>
+        <v>20</v>
+      </c>
+      <c r="AP2" s="145">
+        <f>AO2+1</f>
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="144">
+        <f>AP2+1</f>
+        <v>22</v>
+      </c>
+      <c r="AR2" s="144">
+        <f>AQ2+1</f>
+        <v>23</v>
+      </c>
+      <c r="AS2" s="144">
+        <f>AR2+1</f>
+        <v>24</v>
+      </c>
+      <c r="AT2" s="144">
+        <f>AS2+1</f>
+        <v>25</v>
+      </c>
+      <c r="AU2" s="144">
+        <f>AT2+1</f>
+        <v>26</v>
+      </c>
+      <c r="AV2" s="144">
+        <f>AU2+1</f>
+        <v>27</v>
+      </c>
+      <c r="AW2" s="144">
+        <f>AV2+1</f>
+        <v>28</v>
+      </c>
+      <c r="AX2" s="144">
+        <f>AW2+1</f>
+        <v>29</v>
+      </c>
+      <c r="AY2" s="144">
+        <f>AX2+1</f>
+        <v>30</v>
+      </c>
+      <c r="AZ2" s="144">
+        <f>AY2+1</f>
+        <v>31</v>
+      </c>
+      <c r="BA2" s="144">
+        <f>AZ2+1</f>
+        <v>32</v>
+      </c>
+      <c r="BB2" s="144">
+        <f>BA2+1</f>
+        <v>33</v>
+      </c>
+      <c r="BC2" s="144">
+        <f>BB2+1</f>
+        <v>34</v>
+      </c>
+      <c r="BD2" s="144">
+        <f>BC2+1</f>
+        <v>35</v>
+      </c>
+      <c r="BE2" s="144">
+        <f>BD2+1</f>
+        <v>36</v>
+      </c>
+      <c r="BF2" s="144">
+        <f>BE2+1</f>
+        <v>37</v>
+      </c>
+      <c r="BG2" s="144">
+        <f>BF2+1</f>
+        <v>38</v>
+      </c>
+      <c r="BH2" s="144">
+        <f>BG2+1</f>
+        <v>39</v>
+      </c>
+      <c r="BI2" s="144">
+        <f>BH2+1</f>
+        <v>40</v>
+      </c>
+      <c r="BJ2" s="144">
+        <f>BI2+1</f>
+        <v>41</v>
+      </c>
+      <c r="BK2" s="144">
+        <f>BJ2+1</f>
+        <v>42</v>
+      </c>
+      <c r="BL2" s="144">
+        <f>BK2+1</f>
+        <v>43</v>
+      </c>
+      <c r="BM2" s="144">
+        <f>BL2+1</f>
+        <v>44</v>
+      </c>
+      <c r="BN2" s="144">
+        <f>BM2+1</f>
+        <v>45</v>
+      </c>
+      <c r="BO2" s="144">
+        <f>BN2+1</f>
+        <v>46</v>
+      </c>
+      <c r="BP2" s="144">
+        <f>BO2+1</f>
+        <v>47</v>
+      </c>
+      <c r="BQ2" s="144">
+        <f>BP2+1</f>
+        <v>48</v>
+      </c>
+      <c r="BR2" s="144">
+        <f>BQ2+1</f>
+        <v>49</v>
+      </c>
+      <c r="BS2" s="144">
+        <f>BR2+1</f>
+        <v>50</v>
+      </c>
+      <c r="BT2" s="144">
+        <f>BS2+1</f>
+        <v>51</v>
+      </c>
+      <c r="BU2" s="144">
+        <f>BT2+1</f>
+        <v>52</v>
+      </c>
+      <c r="BV2" s="144">
+        <f>BU2+1</f>
+        <v>53</v>
+      </c>
+      <c r="BW2" s="144">
+        <f>BV2+1</f>
+        <v>54</v>
+      </c>
+      <c r="BX2" s="144">
+        <f>BW2+1</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:76" ht="33" thickTop="1">
+      <c r="B3" s="114">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="114">
+        <v>1</v>
+      </c>
+      <c r="I3" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>369</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L3" s="123" t="s">
+        <v>281</v>
+      </c>
+      <c r="N3" s="114">
+        <v>1</v>
+      </c>
+      <c r="O3" s="113" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="134" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q3" s="112" t="s">
+        <v>360</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="U3" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="V3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + V$2, COLUMN($C$2)) )</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="W3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="W3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + W$2, COLUMN($C$2)) )</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="X3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="X3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + X$2, COLUMN($C$2)) )</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="Y3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="Y3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + Y$2, COLUMN($C$2)) )</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="Z3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="Z3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + Z$2, COLUMN($C$2)) )</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="AA3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AA3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AA$2, COLUMN($C$2)) )</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="AB3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AB3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AB$2, COLUMN($C$2)) )</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="AC3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AC3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AC$2, COLUMN($C$2)) )</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="AD3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AD3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AD$2, COLUMN($C$2)) )</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="AE3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AE3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AE$2, COLUMN($C$2)) )</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="AF3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AF3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AF$2, COLUMN($C$2)) )</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="AG3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AG3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AG$2, COLUMN($C$2)) )</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="AH3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AH3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AH$2, COLUMN($C$2)) )</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="AI3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AI3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AI$2, COLUMN($C$2)) )</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="AJ3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AJ$2, COLUMN($C$2)) )</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="AK3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AK3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AK$2, COLUMN($C$2)) )</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="AL3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AL3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AL$2, COLUMN($C$2)) )</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="AM3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AM3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AM$2, COLUMN($C$2)) )</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="AN3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AN3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AN$2, COLUMN($C$2)) )</f>
+        <v>ㆢ</v>
+      </c>
+      <c r="AO3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AO3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AO$2, COLUMN($C$2)) )</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="AP3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AP3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AP$2, COLUMN($C$2)) )</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="AQ3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AQ3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AQ$2, COLUMN($C$2)) )</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="AR3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AR3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AR$2, COLUMN($C$2)) )</f>
+        <v>ㆩ</v>
+      </c>
+      <c r="AS3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AS3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AS$2, COLUMN($C$2)) )</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="AT3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AT3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AT$2, COLUMN($C$2)) )</f>
+        <v>ㆧ</v>
+      </c>
+      <c r="AU3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AU3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AU$2, COLUMN($C$2)) )</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="AV3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AV3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AV$2, COLUMN($C$2)) )</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="AW3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AW3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AW$2, COLUMN($C$2)) )</f>
+        <v>ㆥ</v>
+      </c>
+      <c r="AX3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AX3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AX$2, COLUMN($C$2)) )</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="AY3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AY3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AY$2, COLUMN($C$2)) )</f>
+        <v>ㆪ</v>
+      </c>
+      <c r="AZ3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="AZ3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + AZ$2, COLUMN($C$2)) )</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="BA3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BA3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BA$2, COLUMN($C$2)) )</f>
+        <v>ㆫ</v>
+      </c>
+      <c r="BB3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BB3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BB$2, COLUMN($C$2)) )</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="BC3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BC3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BC$2, COLUMN($C$2)) )</f>
+        <v>ㆮ</v>
+      </c>
+      <c r="BD3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BD3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BD$2, COLUMN($C$2)) )</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="BE3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BE3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BE$2, COLUMN($C$2)) )</f>
+        <v>ㆯ</v>
+      </c>
+      <c r="BF3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BF3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BF$2, COLUMN($C$2)) )</f>
+        <v>ㆰ</v>
+      </c>
+      <c r="BG3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BG3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BG$2, COLUMN($C$2)) )</f>
+        <v>ㆱ</v>
+      </c>
+      <c r="BH3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BH3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BH$2, COLUMN($C$2)) )</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="BI3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BI3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BI$2, COLUMN($C$2)) )</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="BJ3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BJ3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BJ$2, COLUMN($C$2)) )</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="BK3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BK3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BK$2, COLUMN($C$2)) )</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="BL3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BL3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BL$2, COLUMN($C$2)) )</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="BM3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BM3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BM$2, COLUMN($C$2)) )</f>
+        <v>ㄥ</v>
+      </c>
+      <c r="BN3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BN3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BN$2, COLUMN($C$2)) )</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="BO3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BO3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BO$2, COLUMN($C$2)) )</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BP3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BP3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BP$2, COLUMN($C$2)) )</f>
+        <v>ˋ</v>
+      </c>
+      <c r="BQ3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BQ3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BQ$2, COLUMN($C$2)) )</f>
+        <v>˪</v>
+      </c>
+      <c r="BR3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BR3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BR$2, COLUMN($C$2)) )</f>
+        <v>ㆴ</v>
+      </c>
+      <c r="BS3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BS3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BS$2, COLUMN($C$2)) )</f>
+        <v>ㆵ</v>
+      </c>
+      <c r="BT3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BT3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BT$2, COLUMN($C$2)) )</f>
+        <v>ㆻ</v>
+      </c>
+      <c r="BU3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BU3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BU$2, COLUMN($C$2)) )</f>
+        <v>ㆷ</v>
+      </c>
+      <c r="BV3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BV3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BV$2, COLUMN($C$2)) )</f>
+        <v>ˊ</v>
+      </c>
+      <c r="BW3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BW3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BW$2, COLUMN($C$2)) )</f>
+        <v>˫</v>
+      </c>
+      <c r="BX3" s="141" t="str" cm="1">
+        <f t="array" aca="1" ref="BX3" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$2) + BX$2, COLUMN($C$2)) )</f>
+        <v>˙</v>
+      </c>
+    </row>
+    <row r="4" spans="2:76">
+      <c r="B4" s="114">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="114">
+        <f>H3+1</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>366</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="123" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="114">
+        <f>N3+1</f>
+        <v>2</v>
+      </c>
+      <c r="O4" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="P4" s="134" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q4" s="112" t="s">
+        <v>360</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="U4" s="140" t="s">
+        <v>363</v>
+      </c>
+      <c r="V4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="V4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + V$2, COLUMN($F$2)) )</f>
+        <v>p</v>
+      </c>
+      <c r="W4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="W4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + W$2, COLUMN($F$2)) )</f>
+        <v>ph</v>
+      </c>
+      <c r="X4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="X4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + X$2, COLUMN($F$2)) )</f>
+        <v>b</v>
+      </c>
+      <c r="Y4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="Y4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + Y$2, COLUMN($F$2)) )</f>
+        <v>m</v>
+      </c>
+      <c r="Z4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="Z4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + Z$2, COLUMN($F$2)) )</f>
+        <v>t</v>
+      </c>
+      <c r="AA4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AA4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AA$2, COLUMN($F$2)) )</f>
+        <v>th</v>
+      </c>
+      <c r="AB4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AB4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AB$2, COLUMN($F$2)) )</f>
+        <v>n</v>
+      </c>
+      <c r="AC4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AC4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AC$2, COLUMN($F$2)) )</f>
+        <v>l</v>
+      </c>
+      <c r="AD4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AD4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AD$2, COLUMN($F$2)) )</f>
+        <v>k</v>
+      </c>
+      <c r="AE4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AE4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AE$2, COLUMN($F$2)) )</f>
+        <v>kh</v>
+      </c>
+      <c r="AF4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AF4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AF$2, COLUMN($F$2)) )</f>
+        <v>g</v>
+      </c>
+      <c r="AG4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AG4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AG$2, COLUMN($F$2)) )</f>
+        <v>ng</v>
+      </c>
+      <c r="AH4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AH4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AH$2, COLUMN($F$2)) )</f>
+        <v>ts</v>
+      </c>
+      <c r="AI4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AI4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AI$2, COLUMN($F$2)) )</f>
+        <v>tsh</v>
+      </c>
+      <c r="AJ4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AJ$2, COLUMN($F$2)) )</f>
+        <v>j</v>
+      </c>
+      <c r="AK4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AK4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AK$2, COLUMN($F$2)) )</f>
+        <v>s</v>
+      </c>
+      <c r="AL4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AL4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AL$2, COLUMN($F$2)) )</f>
+        <v>tsi</v>
+      </c>
+      <c r="AM4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AM4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AM$2, COLUMN($F$2)) )</f>
+        <v>tshi</v>
+      </c>
+      <c r="AN4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AN4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AN$2, COLUMN($F$2)) )</f>
+        <v>ji</v>
+      </c>
+      <c r="AO4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AO4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AO$2, COLUMN($F$2)) )</f>
+        <v>si</v>
+      </c>
+      <c r="AP4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AP4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AP$2, COLUMN($F$2)) )</f>
+        <v>h</v>
+      </c>
+      <c r="AQ4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AQ4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AQ$2, COLUMN($F$2)) )</f>
+        <v>a</v>
+      </c>
+      <c r="AR4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AR4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AR$2, COLUMN($F$2)) )</f>
+        <v>ann</v>
+      </c>
+      <c r="AS4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AS4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AS$2, COLUMN($F$2)) )</f>
+        <v>o</v>
+      </c>
+      <c r="AT4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AT4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AT$2, COLUMN($F$2)) )</f>
+        <v>onn</v>
+      </c>
+      <c r="AU4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AU4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AU$2, COLUMN($F$2)) )</f>
+        <v>o</v>
+      </c>
+      <c r="AV4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AV4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AV$2, COLUMN($F$2)) )</f>
+        <v>e</v>
+      </c>
+      <c r="AW4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AW4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AW$2, COLUMN($F$2)) )</f>
+        <v>enn</v>
+      </c>
+      <c r="AX4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AX4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AX$2, COLUMN($F$2)) )</f>
+        <v>i</v>
+      </c>
+      <c r="AY4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AY4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AY$2, COLUMN($F$2)) )</f>
+        <v>inn</v>
+      </c>
+      <c r="AZ4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="AZ4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + AZ$2, COLUMN($F$2)) )</f>
+        <v>u</v>
+      </c>
+      <c r="BA4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BA4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BA$2, COLUMN($F$2)) )</f>
+        <v>unn</v>
+      </c>
+      <c r="BB4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BB4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BB$2, COLUMN($F$2)) )</f>
+        <v>ai</v>
+      </c>
+      <c r="BC4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BC4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BC$2, COLUMN($F$2)) )</f>
+        <v>ainn</v>
+      </c>
+      <c r="BD4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BD4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BD$2, COLUMN($F$2)) )</f>
+        <v>au</v>
+      </c>
+      <c r="BE4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BE4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BE$2, COLUMN($F$2)) )</f>
+        <v>aunn</v>
+      </c>
+      <c r="BF4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BF4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BF$2, COLUMN($F$2)) )</f>
+        <v>am</v>
+      </c>
+      <c r="BG4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BG4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BG$2, COLUMN($F$2)) )</f>
+        <v>om</v>
+      </c>
+      <c r="BH4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BH4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BH$2, COLUMN($F$2)) )</f>
+        <v>m</v>
+      </c>
+      <c r="BI4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BI4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BI$2, COLUMN($F$2)) )</f>
+        <v>an</v>
+      </c>
+      <c r="BJ4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BJ4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BJ$2, COLUMN($F$2)) )</f>
+        <v>in</v>
+      </c>
+      <c r="BK4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BK4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BK$2, COLUMN($F$2)) )</f>
+        <v>ang</v>
+      </c>
+      <c r="BL4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BL4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BL$2, COLUMN($F$2)) )</f>
+        <v>ong</v>
+      </c>
+      <c r="BM4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BM4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BM$2, COLUMN($F$2)) )</f>
+        <v>-ng</v>
+      </c>
+      <c r="BN4" s="139" cm="1">
+        <f t="array" aca="1" ref="BN4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BN$2, COLUMN($F$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="139" cm="1">
+        <f t="array" aca="1" ref="BO4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BO$2, COLUMN($F$2)) )</f>
+        <v>1</v>
+      </c>
+      <c r="BP4" s="139" cm="1">
+        <f t="array" aca="1" ref="BP4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BP$2, COLUMN($F$2)) )</f>
+        <v>2</v>
+      </c>
+      <c r="BQ4" s="139" cm="1">
+        <f t="array" aca="1" ref="BQ4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BQ$2, COLUMN($F$2)) )</f>
+        <v>3</v>
+      </c>
+      <c r="BR4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BR4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BR$2, COLUMN($F$2)) )</f>
+        <v>p4</v>
+      </c>
+      <c r="BS4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BS4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BS$2, COLUMN($F$2)) )</f>
+        <v>t4</v>
+      </c>
+      <c r="BT4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BT4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BT$2, COLUMN($F$2)) )</f>
+        <v>k4</v>
+      </c>
+      <c r="BU4" s="139" t="str" cm="1">
+        <f t="array" aca="1" ref="BU4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BU$2, COLUMN($F$2)) )</f>
+        <v>h4</v>
+      </c>
+      <c r="BV4" s="139" cm="1">
+        <f t="array" aca="1" ref="BV4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BV$2, COLUMN($F$2)) )</f>
+        <v>5</v>
+      </c>
+      <c r="BW4" s="139" cm="1">
+        <f t="array" aca="1" ref="BW4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BW$2, COLUMN($F$2)) )</f>
+        <v>7</v>
+      </c>
+      <c r="BX4" s="139" cm="1">
+        <f t="array" aca="1" ref="BX4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($F$2) + BX$2, COLUMN($F$2)) )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:76">
+      <c r="B5" s="114">
+        <f>B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="114">
+        <f>H4+1</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="133" t="s">
+        <v>360</v>
+      </c>
+      <c r="L5" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="N5" s="114">
+        <f>N4+1</f>
+        <v>3</v>
+      </c>
+      <c r="O5" s="113" t="s">
+        <v>359</v>
+      </c>
+      <c r="P5" s="134" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q5" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="U5" s="138" t="s">
+        <v>357</v>
+      </c>
+      <c r="V5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="V5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + V$2, COLUMN($E$2)) )</f>
+        <v>p</v>
+      </c>
+      <c r="W5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="W5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + W$2, COLUMN($E$2)) )</f>
+        <v>P</v>
+      </c>
+      <c r="X5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="X5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + X$2, COLUMN($E$2)) )</f>
+        <v>b</v>
+      </c>
+      <c r="Y5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="Y5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + Y$2, COLUMN($E$2)) )</f>
+        <v>b</v>
+      </c>
+      <c r="Z5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="Z5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + Z$2, COLUMN($E$2)) )</f>
+        <v>t</v>
+      </c>
+      <c r="AA5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AA5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AA$2, COLUMN($E$2)) )</f>
+        <v>T</v>
+      </c>
+      <c r="AB5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AB5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AB$2, COLUMN($E$2)) )</f>
+        <v>d</v>
+      </c>
+      <c r="AC5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AC5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AC$2, COLUMN($E$2)) )</f>
+        <v>d</v>
+      </c>
+      <c r="AD5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AD5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AD$2, COLUMN($E$2)) )</f>
+        <v>k</v>
+      </c>
+      <c r="AE5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AE5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AE$2, COLUMN($E$2)) )</f>
+        <v>K</v>
+      </c>
+      <c r="AF5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AF5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AF$2, COLUMN($E$2)) )</f>
+        <v>g</v>
+      </c>
+      <c r="AG5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AG5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AG$2, COLUMN($E$2)) )</f>
+        <v>g</v>
+      </c>
+      <c r="AH5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AH5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AH$2, COLUMN($E$2)) )</f>
+        <v>c</v>
+      </c>
+      <c r="AI5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AI5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AI$2, COLUMN($E$2)) )</f>
+        <v>C</v>
+      </c>
+      <c r="AJ5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AJ$2, COLUMN($E$2)) )</f>
+        <v>j</v>
+      </c>
+      <c r="AK5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AK5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AK$2, COLUMN($E$2)) )</f>
+        <v>s</v>
+      </c>
+      <c r="AL5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AL5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AL$2, COLUMN($E$2)) )</f>
+        <v>c</v>
+      </c>
+      <c r="AM5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AM5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AM$2, COLUMN($E$2)) )</f>
+        <v>C</v>
+      </c>
+      <c r="AN5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AN5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AN$2, COLUMN($E$2)) )</f>
+        <v>j</v>
+      </c>
+      <c r="AO5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AO5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AO$2, COLUMN($E$2)) )</f>
+        <v>s</v>
+      </c>
+      <c r="AP5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AP5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AP$2, COLUMN($E$2)) )</f>
+        <v>h</v>
+      </c>
+      <c r="AQ5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AQ5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AQ$2, COLUMN($E$2)) )</f>
+        <v>a</v>
+      </c>
+      <c r="AR5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AR5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AR$2, COLUMN($E$2)) )</f>
+        <v>Na</v>
+      </c>
+      <c r="AS5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AS5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AS$2, COLUMN($E$2)) )</f>
+        <v>O</v>
+      </c>
+      <c r="AT5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AT5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AT$2, COLUMN($E$2)) )</f>
+        <v>NO</v>
+      </c>
+      <c r="AU5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AU5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AU$2, COLUMN($E$2)) )</f>
+        <v>o</v>
+      </c>
+      <c r="AV5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AV5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AV$2, COLUMN($E$2)) )</f>
+        <v>e</v>
+      </c>
+      <c r="AW5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AW5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AW$2, COLUMN($E$2)) )</f>
+        <v>Ne</v>
+      </c>
+      <c r="AX5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AX5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AX$2, COLUMN($E$2)) )</f>
+        <v>i</v>
+      </c>
+      <c r="AY5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AY5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AY$2, COLUMN($E$2)) )</f>
+        <v>Ni</v>
+      </c>
+      <c r="AZ5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="AZ5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + AZ$2, COLUMN($E$2)) )</f>
+        <v>u</v>
+      </c>
+      <c r="BA5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BA5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BA$2, COLUMN($E$2)) )</f>
+        <v>Nu</v>
+      </c>
+      <c r="BB5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BB5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BB$2, COLUMN($E$2)) )</f>
+        <v>I</v>
+      </c>
+      <c r="BC5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BC5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BC$2, COLUMN($E$2)) )</f>
+        <v>NI</v>
+      </c>
+      <c r="BD5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BD5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BD$2, COLUMN($E$2)) )</f>
+        <v>U</v>
+      </c>
+      <c r="BE5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BE5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BE$2, COLUMN($E$2)) )</f>
+        <v>NU</v>
+      </c>
+      <c r="BF5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BF5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BF$2, COLUMN($E$2)) )</f>
+        <v>aB</v>
+      </c>
+      <c r="BG5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BG5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BG$2, COLUMN($E$2)) )</f>
+        <v>oB</v>
+      </c>
+      <c r="BH5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BH5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BH$2, COLUMN($E$2)) )</f>
+        <v>B</v>
+      </c>
+      <c r="BI5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BI5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BI$2, COLUMN($E$2)) )</f>
+        <v>aD</v>
+      </c>
+      <c r="BJ5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BJ5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BJ$2, COLUMN($E$2)) )</f>
+        <v>iD</v>
+      </c>
+      <c r="BK5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BK5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BK$2, COLUMN($E$2)) )</f>
+        <v>aG</v>
+      </c>
+      <c r="BL5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BL5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BL$2, COLUMN($E$2)) )</f>
+        <v>OG</v>
+      </c>
+      <c r="BM5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BM5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BM$2, COLUMN($E$2)) )</f>
+        <v>oG</v>
+      </c>
+      <c r="BN5" s="137" t="str" cm="1">
+        <f t="array" aca="1" ref="BN5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BN$2, COLUMN($E$2)) )</f>
+        <v>G</v>
+      </c>
+      <c r="BO5" s="137" cm="1">
+        <f t="array" aca="1" ref="BO5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BO$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BP5" s="137" cm="1">
+        <f t="array" aca="1" ref="BP5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BP$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="137" cm="1">
+        <f t="array" aca="1" ref="BQ5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BQ$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BR5" s="137" cm="1">
+        <f t="array" aca="1" ref="BR5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BR$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BS5" s="137" cm="1">
+        <f t="array" aca="1" ref="BS5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BS$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BT5" s="137" cm="1">
+        <f t="array" aca="1" ref="BT5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BT$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BU5" s="137" cm="1">
+        <f t="array" aca="1" ref="BU5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BU$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BV5" s="137" cm="1">
+        <f t="array" aca="1" ref="BV5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BV$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BW5" s="137" cm="1">
+        <f t="array" aca="1" ref="BW5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BW$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BX5" s="137" cm="1">
+        <f t="array" aca="1" ref="BX5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($E$2) + BX$2, COLUMN($E$2)) )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:76">
+      <c r="B6" s="114">
+        <f>B5+1</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="114">
+        <f>H5+1</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>344</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="123" t="s">
+        <v>355</v>
+      </c>
+      <c r="N6" s="114">
+        <f>N5+1</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="P6" s="134" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q6" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="U6" s="136" t="s">
+        <v>351</v>
+      </c>
+      <c r="V6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="V6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + V$2, COLUMN($D$2)) )</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="W6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + W$2, COLUMN($D$2)) )</f>
+        <v>a</v>
+      </c>
+      <c r="X6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="X6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + X$2, COLUMN($D$2)) )</f>
+        <v>q</v>
+      </c>
+      <c r="Y6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="Y6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + Y$2, COLUMN($D$2)) )</f>
+        <v>2</v>
+      </c>
+      <c r="Z6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="Z6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + Z$2, COLUMN($D$2)) )</f>
+        <v>w</v>
+      </c>
+      <c r="AA6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AA6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AA$2, COLUMN($D$2)) )</f>
+        <v>s</v>
+      </c>
+      <c r="AB6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AB6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AB$2, COLUMN($D$2)) )</f>
+        <v>x</v>
+      </c>
+      <c r="AC6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AC6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AC$2, COLUMN($D$2)) )</f>
+        <v>e</v>
+      </c>
+      <c r="AD6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AD6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AD$2, COLUMN($D$2)) )</f>
+        <v>E</v>
+      </c>
+      <c r="AE6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AE6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AE$2, COLUMN($D$2)) )</f>
+        <v>D</v>
+      </c>
+      <c r="AF6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AF6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AF$2, COLUMN($D$2)) )</f>
+        <v>d</v>
+      </c>
+      <c r="AG6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AG6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AG$2, COLUMN($D$2)) )</f>
+        <v>c</v>
+      </c>
+      <c r="AH6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AH6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AH$2, COLUMN($D$2)) )</f>
+        <v>Y</v>
+      </c>
+      <c r="AI6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AI6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AI$2, COLUMN($D$2)) )</f>
+        <v>n</v>
+      </c>
+      <c r="AJ6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AJ$2, COLUMN($D$2)) )</f>
+        <v>h</v>
+      </c>
+      <c r="AK6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AK6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AK$2, COLUMN($D$2)) )</f>
+        <v>8</v>
+      </c>
+      <c r="AL6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AL6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AL$2, COLUMN($D$2)) )</f>
+        <v>R</v>
+      </c>
+      <c r="AM6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AM6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AM$2, COLUMN($D$2)) )</f>
+        <v>v</v>
+      </c>
+      <c r="AN6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AN6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AN$2, COLUMN($D$2)) )</f>
+        <v>f</v>
+      </c>
+      <c r="AO6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AO6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AO$2, COLUMN($D$2)) )</f>
+        <v>y</v>
+      </c>
+      <c r="AP6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AP6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AP$2, COLUMN($D$2)) )</f>
+        <v>r</v>
+      </c>
+      <c r="AQ6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AQ6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AQ$2, COLUMN($D$2)) )</f>
+        <v>*</v>
+      </c>
+      <c r="AR6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AR6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AR$2, COLUMN($D$2)) )</f>
+        <v>i</v>
+      </c>
+      <c r="AS6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AS6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AS$2, COLUMN($D$2)) )</f>
+        <v>I</v>
+      </c>
+      <c r="AT6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AT6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AT$2, COLUMN($D$2)) )</f>
+        <v>k</v>
+      </c>
+      <c r="AU6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AU6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AU$2, COLUMN($D$2)) )</f>
+        <v>o</v>
+      </c>
+      <c r="AV6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AV6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AV$2, COLUMN($D$2)) )</f>
+        <v>O</v>
+      </c>
+      <c r="AW6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AW6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AW$2, COLUMN($D$2)) )</f>
+        <v>9</v>
+      </c>
+      <c r="AX6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AX6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AX$2, COLUMN($D$2)) )</f>
+        <v>U</v>
+      </c>
+      <c r="AY6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AY6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AY$2, COLUMN($D$2)) )</f>
+        <v>j</v>
+      </c>
+      <c r="AZ6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="AZ6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + AZ$2, COLUMN($D$2)) )</f>
+        <v>J</v>
+      </c>
+      <c r="BA6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BA6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BA$2, COLUMN($D$2)) )</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BB6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BB$2, COLUMN($D$2)) )</f>
+        <v>(</v>
+      </c>
+      <c r="BC6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BC6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BC$2, COLUMN($D$2)) )</f>
+        <v>l</v>
+      </c>
+      <c r="BD6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BD6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BD$2, COLUMN($D$2)) )</f>
+        <v>L</v>
+      </c>
+      <c r="BE6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BE6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BE$2, COLUMN($D$2)) )</f>
+        <v>,</v>
+      </c>
+      <c r="BF6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BF6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BF$2, COLUMN($D$2)) )</f>
+        <v>&lt;</v>
+      </c>
+      <c r="BG6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BG6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BG$2, COLUMN($D$2)) )</f>
+        <v>m</v>
+      </c>
+      <c r="BH6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BH6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BH$2, COLUMN($D$2)) )</f>
+        <v>0</v>
+      </c>
+      <c r="BI6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BI6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BI$2, COLUMN($D$2)) )</f>
+        <v>p</v>
+      </c>
+      <c r="BJ6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BJ6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BJ$2, COLUMN($D$2)) )</f>
+        <v>;</v>
+      </c>
+      <c r="BK6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BK6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BK$2, COLUMN($D$2)) )</f>
+        <v>:</v>
+      </c>
+      <c r="BL6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BL6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BL$2, COLUMN($D$2)) )</f>
+        <v>/</v>
+      </c>
+      <c r="BM6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BM6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BM$2, COLUMN($D$2)) )</f>
+        <v>-</v>
+      </c>
+      <c r="BN6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BN6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BN$2, COLUMN($D$2)) )</f>
+        <v>u</v>
+      </c>
+      <c r="BO6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BO6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BO$2, COLUMN($D$2)) )</f>
+        <v>4</v>
+      </c>
+      <c r="BP6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BP6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BP$2, COLUMN($D$2)) )</f>
+        <v>3</v>
+      </c>
+      <c r="BQ6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BQ6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BQ$2, COLUMN($D$2)) )</f>
+        <v>b</v>
+      </c>
+      <c r="BR6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BR6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BR$2, COLUMN($D$2)) )</f>
+        <v>t</v>
+      </c>
+      <c r="BS6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BS6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BS$2, COLUMN($D$2)) )</f>
+        <v>g</v>
+      </c>
+      <c r="BT6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BT6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BT$2, COLUMN($D$2)) )</f>
+        <v>z</v>
+      </c>
+      <c r="BU6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BU6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BU$2, COLUMN($D$2)) )</f>
+        <v>6</v>
+      </c>
+      <c r="BV6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BV6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BV$2, COLUMN($D$2)) )</f>
+        <v>5</v>
+      </c>
+      <c r="BW6" s="135" t="str" cm="1">
+        <f t="array" aca="1" ref="BW6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BW$2, COLUMN($D$2)) )</f>
+        <v>7</v>
+      </c>
+      <c r="BX6" s="135" cm="1">
+        <f t="array" aca="1" ref="BX6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($D$2) + BX$2, COLUMN($D$2)) )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:76">
+      <c r="B7" s="132">
+        <f>B6+1</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="125" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="114">
+        <f>H6+1</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="113" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="114">
+        <f>N6+1</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:76">
+      <c r="B8" s="85">
+        <f>B7+1</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="114">
+        <f>H7+1</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" s="113" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="L8" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="N8" s="114">
+        <f>N7+1</f>
+        <v>6</v>
+      </c>
+      <c r="O8" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="P8" s="134" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q8" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="2:76">
+      <c r="B9" s="85">
+        <f>B8+1</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="85">
+        <f>H8+1</f>
+        <v>7</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="113" t="s">
+        <v>340</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="L9" s="123" t="s">
+        <v>339</v>
+      </c>
+      <c r="N9" s="114">
+        <f>N8+1</f>
+        <v>7</v>
+      </c>
+      <c r="O9" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:76">
+      <c r="B10" s="88">
+        <f>B9+1</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="85">
+        <f>H9+1</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="113" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="123" t="s">
+        <v>335</v>
+      </c>
+      <c r="N10" s="114">
+        <f>N9+1</f>
+        <v>8</v>
+      </c>
+      <c r="O10" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="P10" s="134" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q10" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="2:76">
+      <c r="B11" s="114">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="114">
+        <f>H10+1</f>
+        <v>9</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L11" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="N11" s="114">
+        <f>N10+1</f>
+        <v>9</v>
+      </c>
+      <c r="O11" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="134" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:76">
+      <c r="B12" s="114">
+        <f>B11+1</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="114">
+        <f>H11+1</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="L12" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="N12" s="114">
+        <f>N11+1</f>
+        <v>10</v>
+      </c>
+      <c r="O12" s="113" t="s">
+        <v>321</v>
+      </c>
+      <c r="P12" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q12" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="2:76">
+      <c r="B13" s="114">
+        <f>B12+1</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="114">
+        <f>H12+1</f>
+        <v>11</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="L13" s="123" t="s">
+        <v>315</v>
+      </c>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+    </row>
+    <row r="14" spans="2:76">
+      <c r="B14" s="114">
+        <f>B13+1</f>
+        <v>12</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="114">
+        <f>H13+1</f>
+        <v>12</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="J14" s="113" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" s="133" t="s">
+        <v>311</v>
+      </c>
+      <c r="L14" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+    </row>
+    <row r="15" spans="2:76">
+      <c r="B15" s="132">
+        <f>B14+1</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="125" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="85">
+        <f>H14+1</f>
+        <v>13</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" s="113" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="L15" s="123" t="s">
+        <v>306</v>
+      </c>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+    </row>
+    <row r="16" spans="2:76">
+      <c r="B16" s="85">
+        <f>B15+1</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="85">
+        <f>H15+1</f>
+        <v>14</v>
+      </c>
+      <c r="I16" s="113" t="s">
+        <v>305</v>
+      </c>
+      <c r="J16" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="123" t="s">
+        <v>303</v>
+      </c>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="85">
+        <f>B16+1</f>
+        <v>15</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="85">
+        <f>H16+1</f>
+        <v>15</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>301</v>
+      </c>
+      <c r="J17" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L17" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="88">
+        <f>B17+1</f>
+        <v>16</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="85">
+        <f>H17+1</f>
+        <v>16</v>
+      </c>
+      <c r="I18" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="J18" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L18" s="123" t="s">
+        <v>294</v>
+      </c>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="114">
+        <f>B18+1</f>
+        <v>17</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="114">
+        <f>B19+1</f>
+        <v>18</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="114">
+        <f>B20+1</f>
+        <v>19</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+    </row>
+    <row r="22" spans="2:18" ht="33" thickBot="1">
+      <c r="B22" s="114">
+        <f>B21+1</f>
+        <v>20</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+    </row>
+    <row r="23" spans="2:18" ht="33" thickTop="1">
+      <c r="B23" s="131">
+        <f>B22+1</f>
+        <v>21</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="114">
+        <v>1</v>
+      </c>
+      <c r="I23" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="113"/>
+      <c r="K23" s="112" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="126">
+        <f>B23+1</f>
+        <v>22</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="114">
+        <f>H23+1</f>
+        <v>2</v>
+      </c>
+      <c r="I24" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="113"/>
+      <c r="K24" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="114">
+        <f>B24+1</f>
+        <v>23</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="114">
+        <f>H24+1</f>
+        <v>3</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I25, IF(LEN(I25)=1, 1, LEN(I25)-1)) &amp; "ㆷ"</f>
+        <v>ㆩㆷ</v>
+      </c>
+      <c r="K25" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="114">
+        <f>B25+1</f>
+        <v>24</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="114">
+        <f>H25+1</f>
+        <v>4</v>
+      </c>
+      <c r="I26" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I26, IF(LEN(I26)=1, 1, LEN(I26)-1)) &amp; "ㆷ"</f>
+        <v>ㆧㆷ</v>
+      </c>
+      <c r="K26" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="114">
+        <f>B26+1</f>
+        <v>25</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="114">
+        <f>H26+1</f>
+        <v>5</v>
+      </c>
+      <c r="I27" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I27, IF(LEN(I27)=1, 1, LEN(I27)-1)) &amp; "ㆷ"</f>
+        <v>ㆥㆷ</v>
+      </c>
+      <c r="K27" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="114">
+        <f>B27+1</f>
+        <v>26</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="114">
+        <f>H27+1</f>
+        <v>6</v>
+      </c>
+      <c r="I28" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="113"/>
+      <c r="K28" s="112" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="114">
+        <f>B28+1</f>
+        <v>27</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="85">
+        <f>H28+1</f>
+        <v>7</v>
+      </c>
+      <c r="I29" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I29, IF(LEN(I29)=1, 1, LEN(I29)-1)) &amp; "ㆷ"</f>
+        <v>ㆯㆷ</v>
+      </c>
+      <c r="K29" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="122">
+        <f>B29+1</f>
+        <v>28</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="85">
+        <f>H29+1</f>
+        <v>8</v>
+      </c>
+      <c r="I30" s="113" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" s="113"/>
+      <c r="K30" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="126">
+        <f>B30+1</f>
+        <v>29</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="125" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="114">
+        <f>H30+1</f>
+        <v>9</v>
+      </c>
+      <c r="I31" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="114">
+        <f>B31+1</f>
+        <v>30</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" s="123" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="114">
+        <f>H31+1</f>
+        <v>10</v>
+      </c>
+      <c r="I32" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" s="113"/>
+      <c r="K32" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="114">
+        <f>B32+1</f>
+        <v>31</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="114">
+        <f>H32+1</f>
+        <v>11</v>
+      </c>
+      <c r="I33" s="113" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" s="113"/>
+      <c r="K33" s="112" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="122">
+        <f>B33+1</f>
+        <v>32</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="114">
+        <f>H33+1</f>
+        <v>12</v>
+      </c>
+      <c r="I34" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="113"/>
+      <c r="K34" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" s="110"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="114">
+        <f>B34+1</f>
+        <v>33</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="114">
+        <f>H34+1</f>
+        <v>13</v>
+      </c>
+      <c r="I35" s="128" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="128"/>
+      <c r="K35" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="114">
+        <f>B35+1</f>
+        <v>34</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="114">
+        <f>H35+1</f>
+        <v>14</v>
+      </c>
+      <c r="I36" s="128" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" s="128"/>
+      <c r="K36" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O36" s="110"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="110"/>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="114">
+        <f>B36+1</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="114">
+        <f>H36+1</f>
+        <v>15</v>
+      </c>
+      <c r="I37" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" s="128" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="L37" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="O37" s="110"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="114">
+        <f>B37+1</f>
+        <v>36</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="114">
+        <f>B38+1</f>
+        <v>37</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="114">
+        <f>B39+1</f>
+        <v>38</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="110"/>
+    </row>
+    <row r="41" spans="2:18" ht="33" thickBot="1">
+      <c r="B41" s="114">
+        <f>B40+1</f>
+        <v>39</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+    </row>
+    <row r="42" spans="2:18" ht="33" thickTop="1">
+      <c r="B42" s="114">
+        <f>B41+1</f>
+        <v>40</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="114">
+        <v>1</v>
+      </c>
+      <c r="I42" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="J42" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I42, IF(LEN(I42)=1, 1, LEN(I42)-1)) &amp; "ㆴ"</f>
+        <v>ㄧㆴ</v>
+      </c>
+      <c r="K42" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O42" s="110"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="110"/>
+      <c r="R42" s="110"/>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43" s="114">
+        <f>B42+1</f>
+        <v>41</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="123" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="114">
+        <f>H42+1</f>
+        <v>2</v>
+      </c>
+      <c r="I43" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I43, IF(LEN(I43)=1, 1, LEN(I43)-1)) &amp; "ㆴ"</f>
+        <v>ㆰㆴ</v>
+      </c>
+      <c r="K43" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="O43" s="110"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="110"/>
+      <c r="R43" s="110"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="114">
+        <f>B43+1</f>
+        <v>42</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="114">
+        <f>H43+1</f>
+        <v>3</v>
+      </c>
+      <c r="I44" s="113" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I44, IF(LEN(I44)=1, 1, LEN(I44)-1)) &amp; "ㆴ"</f>
+        <v>ㆱㆴ</v>
+      </c>
+      <c r="K44" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L44" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="O44" s="110"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="110"/>
+      <c r="R44" s="110"/>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" s="114">
+        <f>B44+1</f>
+        <v>43</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="114">
+        <f>H44+1</f>
+        <v>4</v>
+      </c>
+      <c r="I45" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="J45" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I45, IF(LEN(I45)=1, 1, LEN(I45)-1)) &amp; "ㆴ"</f>
+        <v>ㄧㆴ</v>
+      </c>
+      <c r="K45" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" s="114">
+        <f>B45+1</f>
+        <v>44</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47" s="114">
+        <f>B46+1</f>
+        <v>45</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="123"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48" s="126">
+        <f>B47+1</f>
+        <v>46</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="30"/>
+      <c r="F48" s="124">
+        <v>1</v>
+      </c>
+      <c r="H48" s="119" t="s">
+        <v>194</v>
+      </c>
+      <c r="O48" s="110"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="110"/>
+    </row>
+    <row r="49" spans="2:18" ht="33" thickBot="1">
+      <c r="B49" s="114">
+        <f>B48+1</f>
+        <v>47</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="39"/>
+      <c r="F49" s="123">
+        <v>2</v>
+      </c>
+      <c r="H49" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="110"/>
+    </row>
+    <row r="50" spans="2:18" ht="33" thickTop="1">
+      <c r="B50" s="114">
+        <f>B49+1</f>
+        <v>48</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="39"/>
+      <c r="F50" s="123">
+        <v>3</v>
+      </c>
+      <c r="H50" s="114">
+        <v>1</v>
+      </c>
+      <c r="I50" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I50, IF(LEN(I50)=1, 1, LEN(I50)-1)) &amp; "ㆵ"</f>
+        <v>ㄣㆵ</v>
+      </c>
+      <c r="K50" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
+      <c r="R50" s="110"/>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="114">
+        <f>B50+1</f>
+        <v>49</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="39"/>
+      <c r="F51" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="114">
+        <f>H50+1</f>
+        <v>2</v>
+      </c>
+      <c r="I51" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I51, IF(LEN(I51)=1, 1, LEN(I51)-1)) &amp; "ㆵ"</f>
+        <v>ㄧㆵ</v>
+      </c>
+      <c r="K51" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="L51" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="O51" s="110"/>
+      <c r="P51" s="110"/>
+      <c r="Q51" s="110"/>
+      <c r="R51" s="110"/>
+    </row>
+    <row r="52" spans="2:18">
+      <c r="B52" s="114">
+        <f>B51+1</f>
+        <v>50</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="39"/>
+      <c r="F52" s="123" t="s">
+        <v>185</v>
+      </c>
+      <c r="H52" s="114">
+        <f>H51+1</f>
+        <v>3</v>
+      </c>
+      <c r="I52" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="J52" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I52, IF(LEN(I52)=1, 1, LEN(I52)-1)) &amp; "ㆵ"</f>
+        <v>ㄨㆵ</v>
+      </c>
+      <c r="K52" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="L52" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="110"/>
+      <c r="R52" s="110"/>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="114">
+        <f>B52+1</f>
+        <v>51</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="H53" s="114">
+        <f>H52+1</f>
+        <v>4</v>
+      </c>
+      <c r="I53" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I53, IF(LEN(I53)=1, 1, LEN(I53)-1)) &amp; "ㆵ"</f>
+        <v>ㄢㆵ</v>
+      </c>
+      <c r="K53" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L53" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="O53" s="110"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="110"/>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="B54" s="114">
+        <f>B53+1</f>
+        <v>52</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="114">
+        <f>H53+1</f>
+        <v>5</v>
+      </c>
+      <c r="I54" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="J54" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I54, IF(LEN(I54)=1, 1, LEN(I54)-1)) &amp; "ㆵ"</f>
+        <v>ㄧㆵ</v>
+      </c>
+      <c r="K54" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="L54" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="O54" s="110"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="110"/>
+      <c r="R54" s="110"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="114">
+        <f>B54+1</f>
+        <v>53</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="39"/>
+      <c r="F55" s="123">
+        <v>5</v>
+      </c>
+      <c r="H55" s="114">
+        <f>H54+1</f>
+        <v>6</v>
+      </c>
+      <c r="I55" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="J55" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I55, IF(LEN(I55)=1, 1, LEN(I55)-1)) &amp; "ㆵ"</f>
+        <v>ㄨㆵ</v>
+      </c>
+      <c r="K55" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="L55" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="O55" s="110"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="110"/>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="114">
+        <f>B55+1</f>
+        <v>54</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="39"/>
+      <c r="F56" s="123">
+        <v>7</v>
+      </c>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="122">
+        <f>B56+1</f>
+        <v>55</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="89"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="121">
+        <v>8</v>
+      </c>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+    </row>
+    <row r="58" spans="2:18">
+      <c r="H58" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="O58" s="110"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="110"/>
+    </row>
+    <row r="59" spans="2:18" ht="33" thickBot="1">
+      <c r="H59" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="110"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="110"/>
+      <c r="R59" s="110"/>
+    </row>
+    <row r="60" spans="2:18" ht="33" thickTop="1">
+      <c r="H60" s="114">
+        <v>1</v>
+      </c>
+      <c r="I60" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I60, IF(LEN(I60)=1, 1, LEN(I60)-1)) &amp; "ㆻ"</f>
+        <v>ㄤㆻ</v>
+      </c>
+      <c r="K60" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="L60" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="O60" s="110"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="110"/>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="H61" s="114">
+        <f>H60+1</f>
+        <v>2</v>
+      </c>
+      <c r="I61" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="J61" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I61, IF(LEN(I61)=1, 1, LEN(I61)-1)) &amp; "ㆻ"</f>
+        <v>ㄥㆻ</v>
+      </c>
+      <c r="K61" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="L61" s="38"/>
+      <c r="O61" s="110"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="110"/>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="H62" s="114">
+        <f>H61+1</f>
+        <v>3</v>
+      </c>
+      <c r="I62" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="J62" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I62, IF(LEN(I62)=1, 1, LEN(I62)-1)) &amp; "ㆻ"</f>
+        <v>ㆲㆻ</v>
+      </c>
+      <c r="K62" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="L62" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="O62" s="110"/>
+      <c r="P62" s="110"/>
+      <c r="Q62" s="110"/>
+      <c r="R62" s="110"/>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="H63" s="114">
+        <f>H62+1</f>
+        <v>4</v>
+      </c>
+      <c r="I63" s="113" t="s">
+        <v>161</v>
+      </c>
+      <c r="J63" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I63, IF(LEN(I63)=1, 1, LEN(I63)-1)) &amp; "ㆻ"</f>
+        <v>ㄧㆻ</v>
+      </c>
+      <c r="K63" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="L63" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="O63" s="110"/>
+      <c r="P63" s="110"/>
+      <c r="Q63" s="110"/>
+      <c r="R63" s="110"/>
+    </row>
+    <row r="64" spans="2:18">
+      <c r="H64" s="114">
+        <f>H63+1</f>
+        <v>5</v>
+      </c>
+      <c r="I64" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="J64" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I64, IF(LEN(I64)=1, 1, LEN(I64)-1)) &amp; "ㆻ"</f>
+        <v>ㄧㆻ</v>
+      </c>
+      <c r="K64" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="L64" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="O64" s="110"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="110"/>
+    </row>
+    <row r="65" spans="8:18">
+      <c r="H65" s="114">
+        <f>H64+1</f>
+        <v>6</v>
+      </c>
+      <c r="I65" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="J65" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I65, IF(LEN(I65)=1, 1, LEN(I65)-1)) &amp; "ㆻ"</f>
+        <v>ㄧㆻ</v>
+      </c>
+      <c r="K65" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="L65" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+    </row>
+    <row r="66" spans="8:18">
+      <c r="H66" s="114">
+        <v>7</v>
+      </c>
+      <c r="I66" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I66, IF(LEN(I66)=1, 1, LEN(I66)-1)) &amp; "ㆻ"</f>
+        <v>ㄨㆻ</v>
+      </c>
+      <c r="K66" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="L66" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="O66" s="110"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="R66" s="110"/>
+    </row>
+    <row r="67" spans="8:18">
+      <c r="O67" s="110"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="110"/>
+      <c r="R67" s="110"/>
+    </row>
+    <row r="68" spans="8:18">
+      <c r="O68" s="110"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="110"/>
+      <c r="R68" s="110"/>
+    </row>
+    <row r="69" spans="8:18">
+      <c r="H69" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="O69" s="110"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
+      <c r="R69" s="110"/>
+    </row>
+    <row r="70" spans="8:18" ht="33" thickBot="1">
+      <c r="H70" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="J70" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="K70" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="O70" s="110"/>
+      <c r="P70" s="110"/>
+      <c r="Q70" s="110"/>
+      <c r="R70" s="110"/>
+    </row>
+    <row r="71" spans="8:18" ht="33" thickTop="1">
+      <c r="H71" s="114">
+        <v>1</v>
+      </c>
+      <c r="I71" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="J71" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I71, IF(LEN(I71)=1, 1, LEN(I71)-1)) &amp; "ㆷ"</f>
+        <v>ㆬㆷ</v>
+      </c>
+      <c r="K71" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="L71" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="O71" s="110"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
+      <c r="R71" s="110"/>
+    </row>
+    <row r="72" spans="8:18">
+      <c r="H72" s="114">
+        <f>H71+1</f>
+        <v>2</v>
+      </c>
+      <c r="I72" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="J72" s="113" t="str">
+        <f xml:space="preserve"> LEFT(I72, IF(LEN(I72)=1, 1, LEN(I72)-1)) &amp; "ㆷ"</f>
+        <v>ㆭㆷ</v>
+      </c>
+      <c r="K72" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="L72" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="O72" s="110"/>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="110"/>
+      <c r="R72" s="110"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB83FFDB-DA3B-4DC3-9ABB-CC495E031F87}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AV98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>

--- a/docs/鍵盤設計規格_台語方音.xlsx
+++ b/docs/鍵盤設計規格_台語方音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1BE469-3CA7-4548-ABAE-6D910F7BEEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9B48D-5F6B-4ADB-BFFE-040D1AC98AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="657">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2667,10 +2667,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> = co</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2679,6 +2675,26 @@
   </si>
   <si>
     <t>ci-</t>
+  </si>
+  <si>
+    <t>ㄣ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2689,7 +2705,7 @@
     <numFmt numFmtId="176" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
     <numFmt numFmtId="177" formatCode="General;;"/>
   </numFmts>
-  <fonts count="158">
+  <fonts count="159">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -3746,6 +3762,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -4182,7 +4205,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="468">
+  <cellXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5285,69 +5308,6 @@
     <xf numFmtId="0" fontId="143" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="144" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5357,7 +5317,6 @@
     <xf numFmtId="0" fontId="146" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="119" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="70" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -5474,6 +5433,91 @@
     </xf>
     <xf numFmtId="0" fontId="157" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5505,108 +5549,6 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFF00"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF0070C0"/>
-        <name val="Noto Serif TC SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Iansui 094"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5822,6 +5764,108 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF0070C0"/>
+        <name val="Noto Serif TC SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7145,54 +7189,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F95EEBA-DAA3-4529-9F77-47C4D0A27E24}" name="表格1_33411" displayName="表格1_33411" ref="U2:X54" totalsRowShown="0" headerRowDxfId="3" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F95EEBA-DAA3-4529-9F77-47C4D0A27E24}" name="表格1_33411" displayName="表格1_33411" ref="U2:X54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U3:X54">
     <sortCondition ref="U3:U54" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="16">
       <calculatedColumnFormula xml:space="preserve"> 使用按鍵解析!C11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="注音符號" dataDxfId="6" dataCellStyle="一般 4">
+    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="注音符號" dataDxfId="15" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="5" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="14" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="拼音字母" dataDxfId="4" dataCellStyle="一般 4"/>
+    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="拼音字母" dataDxfId="13" dataCellStyle="一般 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8316A4BE-CA72-47DE-AE0C-9F97AD29E366}" name="表格1" displayName="表格1" ref="C4:G56" totalsRowShown="0" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8316A4BE-CA72-47DE-AE0C-9F97AD29E366}" name="表格1" displayName="表格1" ref="C4:G56" totalsRowShown="0" tableBorderDxfId="12">
   <autoFilter ref="C4:G56" xr:uid="{CBD99B6E-1695-45CA-A35A-919D424705A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23C441A4-A9BF-4AF3-9A00-C54EFA849863}" name="按鍵字元" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{BF68382C-29B0-42B3-B1E7-6BBFB43FDBF8}" name="注音符號" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{53638260-1BF6-4965-A4AE-956982740802}" name="方音符號" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{DCF6B5DB-F2BF-4A75-8F81-445A20F5EFEC}" name="音標編碼" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{138EEA27-F029-4B76-B6E7-B073EAAE87F1}" name="台語音標" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{23C441A4-A9BF-4AF3-9A00-C54EFA849863}" name="按鍵字元" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BF68382C-29B0-42B3-B1E7-6BBFB43FDBF8}" name="注音符號" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{53638260-1BF6-4965-A4AE-956982740802}" name="方音符號" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DCF6B5DB-F2BF-4A75-8F81-445A20F5EFEC}" name="音標編碼" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{138EEA27-F029-4B76-B6E7-B073EAAE87F1}" name="台語音標" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="S2:U44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:U44">
     <sortCondition ref="S3:S44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="5">
       <calculatedColumnFormula>H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="10" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="4" dataCellStyle="一般 4">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="3">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7519,7 +7563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF596A5C-558F-454E-B716-9DFE8C108629}">
   <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7533,22 +7577,22 @@
       <c r="B2" t="s">
         <v>633</v>
       </c>
-      <c r="C2" s="426" t="s">
+      <c r="C2" s="404" t="s">
         <v>634</v>
       </c>
-      <c r="D2" s="426"/>
-      <c r="E2" s="426"/>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="426"/>
-      <c r="I2" s="426"/>
-      <c r="J2" s="426"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="404"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>635</v>
       </c>
-      <c r="C4" s="427" t="s">
+      <c r="C4" s="405" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7576,23 +7620,23 @@
       <c r="B7" t="s">
         <v>638</v>
       </c>
-      <c r="C7" s="426" t="str">
+      <c r="C7" s="404" t="str">
         <f xml:space="preserve"> MID(C2, C5, C6-C5+1)</f>
         <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657</v>
       </c>
-      <c r="D7" s="426"/>
-      <c r="E7" s="426"/>
-      <c r="F7" s="426"/>
-      <c r="G7" s="426"/>
-      <c r="H7" s="426"/>
-      <c r="I7" s="426"/>
-      <c r="J7" s="426"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
+      <c r="F7" s="404"/>
+      <c r="G7" s="404"/>
+      <c r="H7" s="404"/>
+      <c r="I7" s="404"/>
+      <c r="J7" s="404"/>
     </row>
     <row r="8" spans="2:10" ht="25.5">
       <c r="B8" t="s">
         <v>639</v>
       </c>
-      <c r="C8" s="428">
+      <c r="C8" s="406">
         <f xml:space="preserve"> LEN(C7)</f>
         <v>52</v>
       </c>
@@ -8133,12 +8177,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:AW99"/>
+  <dimension ref="B1:CX99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AG42" sqref="AG42"/>
+      <selection pane="bottomLeft" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -8161,20 +8205,23 @@
     <col min="19" max="19" width="8.796875" style="2"/>
     <col min="20" max="20" width="4.69921875" style="2" customWidth="1"/>
     <col min="21" max="23" width="9.796875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="9.796875" style="429" customWidth="1"/>
+    <col min="24" max="24" width="9.796875" style="407" customWidth="1"/>
     <col min="26" max="26" width="6.3984375" style="2" customWidth="1"/>
-    <col min="27" max="29" width="10.59765625" style="446" customWidth="1"/>
-    <col min="30" max="30" width="10.59765625" style="429" customWidth="1"/>
+    <col min="27" max="29" width="10.59765625" style="424" customWidth="1"/>
+    <col min="30" max="30" width="10.59765625" style="407" customWidth="1"/>
     <col min="31" max="31" width="11.69921875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="13.5" style="446" customWidth="1"/>
+    <col min="32" max="32" width="13.5" style="424" customWidth="1"/>
     <col min="33" max="33" width="4.296875" style="2" customWidth="1"/>
     <col min="34" max="34" width="5.5" style="2" customWidth="1"/>
     <col min="35" max="48" width="8.796875" style="2"/>
     <col min="49" max="49" width="8.796875" style="11"/>
-    <col min="50" max="16384" width="8.796875" style="2"/>
+    <col min="50" max="50" width="8.796875" style="2"/>
+    <col min="51" max="53" width="3.69921875" style="467" customWidth="1"/>
+    <col min="54" max="102" width="3.69921875" style="2" customWidth="1"/>
+    <col min="103" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" ht="32.25">
+    <row r="1" spans="2:102" ht="32.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8201,8 +8248,8 @@
       <c r="AV1" s="11"/>
       <c r="AW1" s="2"/>
     </row>
-    <row r="2" spans="2:49" ht="26.25" thickBot="1">
-      <c r="B2" s="430" t="s">
+    <row r="2" spans="2:102" ht="26.25" thickBot="1">
+      <c r="B2" s="408" t="s">
         <v>640</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -8223,20 +8270,20 @@
       <c r="R2" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="U2" s="445" t="s">
+      <c r="U2" s="423" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="445" t="s">
+      <c r="V2" s="423" t="s">
         <v>642</v>
       </c>
-      <c r="W2" s="445" t="s">
+      <c r="W2" s="423" t="s">
         <v>643</v>
       </c>
-      <c r="X2" s="445" t="s">
+      <c r="X2" s="423" t="s">
         <v>383</v>
       </c>
-      <c r="Y2" s="445"/>
-      <c r="Z2" s="444" t="s">
+      <c r="Y2" s="423"/>
+      <c r="Z2" s="422" t="s">
         <v>14</v>
       </c>
       <c r="AA2" s="396" t="s">
@@ -8254,7 +8301,7 @@
       <c r="AV2" s="11"/>
       <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="2:49" ht="33" thickTop="1">
+    <row r="3" spans="2:102" ht="33" thickTop="1">
       <c r="B3" s="2">
         <f xml:space="preserve"> SEARCH("|",$B$2,1)</f>
         <v>8</v>
@@ -8296,23 +8343,23 @@
       <c r="T3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" s="431" t="str">
+      <c r="U3" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C11</f>
         <v>1</v>
       </c>
-      <c r="V3" s="432" t="str" cm="1">
+      <c r="V3" s="410" t="str" cm="1">
         <f t="array" ref="V3" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄅ</v>
       </c>
-      <c r="W3" s="433" t="str" cm="1">
+      <c r="W3" s="411" t="str" cm="1">
         <f t="array" ref="W3" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>p</v>
       </c>
-      <c r="X3" s="434" t="s">
+      <c r="X3" s="412" t="s">
         <v>21</v>
       </c>
       <c r="Y3" s="24"/>
-      <c r="Z3" s="435">
+      <c r="Z3" s="413">
         <f>ROW() - 2</f>
         <v>1</v>
       </c>
@@ -8325,25 +8372,25 @@
       <c r="AC3" s="379" t="s">
         <v>217</v>
       </c>
-      <c r="AD3" s="455" t="s">
+      <c r="AD3" s="433" t="s">
         <v>217</v>
       </c>
       <c r="AF3" s="361" t="str">
-        <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(AA$3:AA$54) &amp; "'"</f>
-        <v xml:space="preserve">  alphabet: '1q!a2wsxedE?cyhnbYHNBuj8ik,9l.UJ*I&lt;(Lmp/OA0;:- 43657'</v>
-      </c>
-      <c r="AG3" s="463"/>
-      <c r="AH3" s="463"/>
-      <c r="AI3" s="463"/>
-      <c r="AJ3" s="463"/>
-      <c r="AK3" s="463"/>
-      <c r="AL3" s="463"/>
-      <c r="AM3" s="463"/>
-      <c r="AN3" s="463"/>
+        <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(AA$3:AA$52) &amp; "'"</f>
+        <v xml:space="preserve">  alphabet: '1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657'</v>
+      </c>
+      <c r="AG3" s="441"/>
+      <c r="AH3" s="441"/>
+      <c r="AI3" s="441"/>
+      <c r="AJ3" s="441"/>
+      <c r="AK3" s="441"/>
+      <c r="AL3" s="441"/>
+      <c r="AM3" s="441"/>
+      <c r="AN3" s="441"/>
       <c r="AV3" s="11"/>
       <c r="AW3" s="2"/>
     </row>
-    <row r="4" spans="2:49" ht="32.25">
+    <row r="4" spans="2:102" ht="32.25">
       <c r="B4" s="2">
         <f xml:space="preserve"> SEARCH("|",$B$2,B3+1)</f>
         <v>61</v>
@@ -8364,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="21" t="str">
-        <f t="shared" ref="M4:M54" si="3" xml:space="preserve"> IFERROR( MID($B$15, $H4, 1), "")</f>
+        <f t="shared" ref="M4:M19" si="3" xml:space="preserve"> IFERROR( MID($B$15, $H4, 1), "")</f>
         <v>!</v>
       </c>
       <c r="N4" s="21" t="str">
@@ -8385,24 +8432,24 @@
       <c r="T4" s="2">
         <v>2</v>
       </c>
-      <c r="U4" s="431" t="str">
+      <c r="U4" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C12</f>
         <v>!</v>
       </c>
-      <c r="V4" s="432" t="str" cm="1">
+      <c r="V4" s="410" t="str" cm="1">
         <f t="array" ref="V4" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆠ</v>
       </c>
-      <c r="W4" s="433" t="str" cm="1">
+      <c r="W4" s="411" t="str" cm="1">
         <f t="array" ref="W4" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>b</v>
       </c>
-      <c r="X4" s="434" t="s">
+      <c r="X4" s="412" t="s">
         <v>28</v>
       </c>
       <c r="Y4" s="24"/>
-      <c r="Z4" s="435">
-        <f t="shared" ref="Z4:Z58" si="7">ROW() - 2</f>
+      <c r="Z4" s="413">
+        <f t="shared" ref="Z4:Z61" si="7">ROW() - 2</f>
         <v>2</v>
       </c>
       <c r="AA4" s="71" t="s">
@@ -8414,25 +8461,25 @@
       <c r="AC4" s="379" t="s">
         <v>400</v>
       </c>
-      <c r="AD4" s="455" t="s">
+      <c r="AD4" s="433" t="s">
         <v>392</v>
       </c>
       <c r="AF4" s="361" t="str">
-        <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$48) &amp; "'"</f>
-        <v xml:space="preserve">  initials: '1q!a2wsxedE?cyhnbYHNBuj8ik,9l.UJ*I&lt;(Lmp/OA0;:-'</v>
-      </c>
-      <c r="AG4" s="463"/>
-      <c r="AH4" s="463"/>
-      <c r="AI4" s="463"/>
-      <c r="AJ4" s="463"/>
-      <c r="AK4" s="463"/>
-      <c r="AL4" s="463"/>
-      <c r="AM4" s="463"/>
-      <c r="AN4" s="463"/>
+        <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$46) &amp; "'"</f>
+        <v xml:space="preserve">  initials: '1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:.'</v>
+      </c>
+      <c r="AG4" s="441"/>
+      <c r="AH4" s="441"/>
+      <c r="AI4" s="441"/>
+      <c r="AJ4" s="441"/>
+      <c r="AK4" s="441"/>
+      <c r="AL4" s="441"/>
+      <c r="AM4" s="441"/>
+      <c r="AN4" s="441"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="2"/>
     </row>
-    <row r="5" spans="2:49" ht="32.25">
+    <row r="5" spans="2:102" ht="32.25">
       <c r="B5" s="2">
         <f xml:space="preserve"> SEARCH("|",$B$2,B4+1)</f>
         <v>114</v>
@@ -8474,23 +8521,23 @@
       <c r="T5" s="2">
         <v>3</v>
       </c>
-      <c r="U5" s="431" t="str">
+      <c r="U5" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C13</f>
         <v>q</v>
       </c>
-      <c r="V5" s="432" t="str" cm="1">
+      <c r="V5" s="410" t="str" cm="1">
         <f t="array" ref="V5" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄆ</v>
       </c>
-      <c r="W5" s="433" t="str" cm="1">
+      <c r="W5" s="411" t="str" cm="1">
         <f t="array" ref="W5" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>P</v>
       </c>
-      <c r="X5" s="434" t="s">
+      <c r="X5" s="412" t="s">
         <v>24</v>
       </c>
       <c r="Y5" s="24"/>
-      <c r="Z5" s="435">
+      <c r="Z5" s="413">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -8503,25 +8550,25 @@
       <c r="AC5" s="379" t="s">
         <v>190</v>
       </c>
-      <c r="AD5" s="455" t="s">
+      <c r="AD5" s="433" t="s">
         <v>190</v>
       </c>
       <c r="AF5" s="361" t="str">
-        <f xml:space="preserve"> "  finals:   '" &amp; _xlfn.CONCAT(AA$49:AA$54) &amp; "'"</f>
+        <f xml:space="preserve"> "  finals:   '" &amp; _xlfn.CONCAT(AA$47:AA$52) &amp; "'"</f>
         <v xml:space="preserve">  finals:   ' 43657'</v>
       </c>
-      <c r="AG5" s="463"/>
-      <c r="AH5" s="463"/>
-      <c r="AI5" s="463"/>
-      <c r="AJ5" s="463"/>
-      <c r="AK5" s="463"/>
-      <c r="AL5" s="463"/>
-      <c r="AM5" s="463"/>
-      <c r="AN5" s="463"/>
+      <c r="AG5" s="441"/>
+      <c r="AH5" s="441"/>
+      <c r="AI5" s="441"/>
+      <c r="AJ5" s="441"/>
+      <c r="AK5" s="441"/>
+      <c r="AL5" s="441"/>
+      <c r="AM5" s="441"/>
+      <c r="AN5" s="441"/>
       <c r="AV5" s="11"/>
       <c r="AW5" s="2"/>
     </row>
-    <row r="6" spans="2:49" ht="32.25">
+    <row r="6" spans="2:102" ht="32.25">
       <c r="B6" s="50" t="str">
         <f xml:space="preserve"> MID($B$2,B3+1, B4-B3-1)</f>
         <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@N[WRIUAQEYX}{]123570</v>
@@ -8567,23 +8614,23 @@
       <c r="T6" s="2">
         <v>4</v>
       </c>
-      <c r="U6" s="431" t="str">
+      <c r="U6" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C14</f>
         <v>a</v>
       </c>
-      <c r="V6" s="432" t="str" cm="1">
+      <c r="V6" s="410" t="str" cm="1">
         <f t="array" ref="V6" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="W6" s="433" t="str" cm="1">
+      <c r="W6" s="411" t="str" cm="1">
         <f t="array" ref="W6" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>m</v>
       </c>
-      <c r="X6" s="434" t="s">
+      <c r="X6" s="412" t="s">
         <v>84</v>
       </c>
       <c r="Y6" s="24"/>
-      <c r="Z6" s="435">
+      <c r="Z6" s="413">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -8596,13 +8643,13 @@
       <c r="AC6" s="379" t="s">
         <v>143</v>
       </c>
-      <c r="AD6" s="455" t="s">
+      <c r="AD6" s="433" t="s">
         <v>143</v>
       </c>
       <c r="AV6" s="11"/>
       <c r="AW6" s="2"/>
     </row>
-    <row r="7" spans="2:49" ht="32.25">
+    <row r="7" spans="2:102" ht="32.25">
       <c r="B7" s="50" t="str">
         <f xml:space="preserve"> MID($B$2,B4+1, B5-B4-1)</f>
         <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657</v>
@@ -8648,23 +8695,23 @@
       <c r="T7" s="2">
         <v>5</v>
       </c>
-      <c r="U7" s="431" t="str">
+      <c r="U7" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C15</f>
         <v>2</v>
       </c>
-      <c r="V7" s="432" t="str" cm="1">
+      <c r="V7" s="410" t="str" cm="1">
         <f t="array" ref="V7" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄉ</v>
       </c>
-      <c r="W7" s="433" t="str" cm="1">
+      <c r="W7" s="411" t="str" cm="1">
         <f t="array" ref="W7" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>t</v>
       </c>
-      <c r="X7" s="434" t="s">
+      <c r="X7" s="412" t="s">
         <v>340</v>
       </c>
       <c r="Y7" s="24"/>
-      <c r="Z7" s="435">
+      <c r="Z7" s="413">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -8677,13 +8724,13 @@
       <c r="AC7" s="379" t="s">
         <v>30</v>
       </c>
-      <c r="AD7" s="455" t="s">
+      <c r="AD7" s="433" t="s">
         <v>30</v>
       </c>
       <c r="AV7" s="11"/>
       <c r="AW7" s="2"/>
     </row>
-    <row r="8" spans="2:49" ht="32.25">
+    <row r="8" spans="2:102" ht="32.25">
       <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8721,23 +8768,23 @@
       <c r="T8" s="2">
         <v>6</v>
       </c>
-      <c r="U8" s="431" t="str">
+      <c r="U8" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C16</f>
         <v>w</v>
       </c>
-      <c r="V8" s="432" t="str" cm="1">
+      <c r="V8" s="410" t="str" cm="1">
         <f t="array" ref="V8" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄊ</v>
       </c>
-      <c r="W8" s="433" t="str" cm="1">
+      <c r="W8" s="411" t="str" cm="1">
         <f t="array" ref="W8" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>T</v>
       </c>
-      <c r="X8" s="434" t="s">
+      <c r="X8" s="412" t="s">
         <v>605</v>
       </c>
       <c r="Y8" s="24"/>
-      <c r="Z8" s="435">
+      <c r="Z8" s="413">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -8750,15 +8797,15 @@
       <c r="AC8" s="379" t="s">
         <v>408</v>
       </c>
-      <c r="AD8" s="455" t="s">
+      <c r="AD8" s="433" t="s">
         <v>32</v>
       </c>
-      <c r="AF8" s="447" t="s">
+      <c r="AF8" s="425" t="s">
         <v>22</v>
       </c>
       <c r="AH8" s="137" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AH9 &amp; "|" &amp; AH10 &amp; "|"</f>
-        <v>- xlit|pPbmtTnlkKgwhzcsjZCSJiuaOoeyxBIUAQEYXMNW}{@[]R123570|1q!a2wsxedE?cyhnbYHNBuj8ik,9l.UJ*I&lt;(Lmp/OA0;:- 43657|</v>
+        <v>- xlit|pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LHB123570|1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657|</v>
       </c>
       <c r="AI8" s="47"/>
       <c r="AJ8" s="47"/>
@@ -8771,8 +8818,216 @@
       <c r="AQ8" s="47"/>
       <c r="AV8" s="11"/>
       <c r="AW8" s="2"/>
-    </row>
-    <row r="9" spans="2:49" ht="32.25">
+      <c r="AY8" s="472" cm="1">
+        <f t="array" ref="AY8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="472" cm="1">
+        <f t="array" ref="AZ8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>2</v>
+      </c>
+      <c r="BA8" s="472" cm="1">
+        <f t="array" ref="BA8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>3</v>
+      </c>
+      <c r="BB8" s="472" cm="1">
+        <f t="array" ref="BB8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>4</v>
+      </c>
+      <c r="BC8" s="472" cm="1">
+        <f t="array" ref="BC8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>5</v>
+      </c>
+      <c r="BD8" s="472" cm="1">
+        <f t="array" ref="BD8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>6</v>
+      </c>
+      <c r="BE8" s="472" cm="1">
+        <f t="array" ref="BE8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>7</v>
+      </c>
+      <c r="BF8" s="472" cm="1">
+        <f t="array" ref="BF8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>8</v>
+      </c>
+      <c r="BG8" s="472" cm="1">
+        <f t="array" ref="BG8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>9</v>
+      </c>
+      <c r="BH8" s="472" cm="1">
+        <f t="array" ref="BH8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>10</v>
+      </c>
+      <c r="BI8" s="472" cm="1">
+        <f t="array" ref="BI8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>11</v>
+      </c>
+      <c r="BJ8" s="472" cm="1">
+        <f t="array" ref="BJ8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>12</v>
+      </c>
+      <c r="BK8" s="472" cm="1">
+        <f t="array" ref="BK8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>13</v>
+      </c>
+      <c r="BL8" s="472" cm="1">
+        <f t="array" ref="BL8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>14</v>
+      </c>
+      <c r="BM8" s="472" cm="1">
+        <f t="array" ref="BM8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>15</v>
+      </c>
+      <c r="BN8" s="472" cm="1">
+        <f t="array" ref="BN8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>16</v>
+      </c>
+      <c r="BO8" s="472" cm="1">
+        <f t="array" ref="BO8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>17</v>
+      </c>
+      <c r="BP8" s="472" cm="1">
+        <f t="array" ref="BP8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>18</v>
+      </c>
+      <c r="BQ8" s="472" cm="1">
+        <f t="array" ref="BQ8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>19</v>
+      </c>
+      <c r="BR8" s="472" cm="1">
+        <f t="array" ref="BR8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>20</v>
+      </c>
+      <c r="BS8" s="472" cm="1">
+        <f t="array" ref="BS8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>21</v>
+      </c>
+      <c r="BT8" s="472" cm="1">
+        <f t="array" ref="BT8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>22</v>
+      </c>
+      <c r="BU8" s="472" cm="1">
+        <f t="array" ref="BU8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>23</v>
+      </c>
+      <c r="BV8" s="472" cm="1">
+        <f t="array" ref="BV8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>24</v>
+      </c>
+      <c r="BW8" s="472" cm="1">
+        <f t="array" ref="BW8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>25</v>
+      </c>
+      <c r="BX8" s="472" cm="1">
+        <f t="array" ref="BX8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>26</v>
+      </c>
+      <c r="BY8" s="472" cm="1">
+        <f t="array" ref="BY8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>27</v>
+      </c>
+      <c r="BZ8" s="472" cm="1">
+        <f t="array" ref="BZ8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>28</v>
+      </c>
+      <c r="CA8" s="472" cm="1">
+        <f t="array" ref="CA8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>29</v>
+      </c>
+      <c r="CB8" s="472" cm="1">
+        <f t="array" ref="CB8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>30</v>
+      </c>
+      <c r="CC8" s="472" cm="1">
+        <f t="array" ref="CC8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>31</v>
+      </c>
+      <c r="CD8" s="472" cm="1">
+        <f t="array" ref="CD8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>32</v>
+      </c>
+      <c r="CE8" s="472" cm="1">
+        <f t="array" ref="CE8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>33</v>
+      </c>
+      <c r="CF8" s="472" cm="1">
+        <f t="array" ref="CF8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>34</v>
+      </c>
+      <c r="CG8" s="472" cm="1">
+        <f t="array" ref="CG8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>35</v>
+      </c>
+      <c r="CH8" s="472" cm="1">
+        <f t="array" ref="CH8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>36</v>
+      </c>
+      <c r="CI8" s="472" cm="1">
+        <f t="array" ref="CI8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>37</v>
+      </c>
+      <c r="CJ8" s="472" cm="1">
+        <f t="array" ref="CJ8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>38</v>
+      </c>
+      <c r="CK8" s="472" cm="1">
+        <f t="array" ref="CK8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>39</v>
+      </c>
+      <c r="CL8" s="472" cm="1">
+        <f t="array" ref="CL8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>40</v>
+      </c>
+      <c r="CM8" s="472" cm="1">
+        <f t="array" ref="CM8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>41</v>
+      </c>
+      <c r="CN8" s="472" cm="1">
+        <f t="array" ref="CN8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>42</v>
+      </c>
+      <c r="CO8" s="472" cm="1">
+        <f t="array" ref="CO8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>43</v>
+      </c>
+      <c r="CP8" s="472" cm="1">
+        <f t="array" ref="CP8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>44</v>
+      </c>
+      <c r="CQ8" s="472" cm="1">
+        <f t="array" ref="CQ8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>45</v>
+      </c>
+      <c r="CR8" s="472" cm="1">
+        <f t="array" ref="CR8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>46</v>
+      </c>
+      <c r="CS8" s="472" cm="1">
+        <f t="array" ref="CS8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>47</v>
+      </c>
+      <c r="CT8" s="472" cm="1">
+        <f t="array" ref="CT8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>48</v>
+      </c>
+      <c r="CU8" s="472" cm="1">
+        <f t="array" ref="CU8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>49</v>
+      </c>
+      <c r="CV8" s="472" cm="1">
+        <f t="array" ref="CV8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>50</v>
+      </c>
+      <c r="CW8" s="472" cm="1">
+        <f t="array" ref="CW8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>51</v>
+      </c>
+      <c r="CX8" s="472" cm="1">
+        <f t="array" ref="CX8" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:102" ht="32.25">
       <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8810,23 +9065,23 @@
       <c r="T9" s="2">
         <v>7</v>
       </c>
-      <c r="U9" s="431" t="str">
+      <c r="U9" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C17</f>
         <v>s</v>
       </c>
-      <c r="V9" s="432" t="str" cm="1">
+      <c r="V9" s="410" t="str" cm="1">
         <f t="array" ref="V9" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄋ</v>
       </c>
-      <c r="W9" s="433" t="str" cm="1">
+      <c r="W9" s="411" t="str" cm="1">
         <f t="array" ref="W9" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>n</v>
       </c>
-      <c r="X9" s="434" t="s">
+      <c r="X9" s="412" t="s">
         <v>372</v>
       </c>
       <c r="Y9" s="24"/>
-      <c r="Z9" s="435">
+      <c r="Z9" s="413">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -8839,19 +9094,19 @@
       <c r="AC9" s="379" t="s">
         <v>34</v>
       </c>
-      <c r="AD9" s="455" t="s">
+      <c r="AD9" s="433" t="s">
         <v>34</v>
       </c>
-      <c r="AF9" s="448" t="s">
+      <c r="AF9" s="426" t="s">
         <v>643</v>
       </c>
       <c r="AG9" s="1">
         <f xml:space="preserve"> LEN(AH9)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="37" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$54)</f>
-        <v>pPbmtTnlkKgwhzcsjZCSJiuaOoeyxBIUAQEYXMNW}{@[]R123570</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$52)</f>
+        <v>pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LHB123570</v>
       </c>
       <c r="AU9" s="38" t="s">
         <v>25</v>
@@ -8861,10 +9116,218 @@
       </c>
       <c r="AW9" s="40">
         <f xml:space="preserve"> FIND(AV9, AH9)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:49" ht="32.25">
+        <v>49</v>
+      </c>
+      <c r="AY9" s="468" t="str">
+        <f xml:space="preserve"> MID($AH$9, AY$13, 1)</f>
+        <v>p</v>
+      </c>
+      <c r="AZ9" s="468" t="str">
+        <f t="shared" ref="AZ9:CX9" si="8" xml:space="preserve"> MID($AH$9, AZ$13, 1)</f>
+        <v>P</v>
+      </c>
+      <c r="BA9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>b</v>
+      </c>
+      <c r="BB9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>m</v>
+      </c>
+      <c r="BC9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>t</v>
+      </c>
+      <c r="BD9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="BE9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>n</v>
+      </c>
+      <c r="BF9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>l</v>
+      </c>
+      <c r="BG9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>k</v>
+      </c>
+      <c r="BH9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>K</v>
+      </c>
+      <c r="BI9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>g</v>
+      </c>
+      <c r="BJ9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>w</v>
+      </c>
+      <c r="BK9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>h</v>
+      </c>
+      <c r="BL9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>z</v>
+      </c>
+      <c r="BM9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>c</v>
+      </c>
+      <c r="BN9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>s</v>
+      </c>
+      <c r="BO9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>j</v>
+      </c>
+      <c r="BP9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>Z</v>
+      </c>
+      <c r="BQ9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="BR9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+      <c r="BS9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>J</v>
+      </c>
+      <c r="BT9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>i</v>
+      </c>
+      <c r="BU9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>u</v>
+      </c>
+      <c r="BV9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>a</v>
+      </c>
+      <c r="BW9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>O</v>
+      </c>
+      <c r="BX9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>o</v>
+      </c>
+      <c r="BY9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>e</v>
+      </c>
+      <c r="BZ9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>y</v>
+      </c>
+      <c r="CA9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>x</v>
+      </c>
+      <c r="CB9" s="471" t="str">
+        <f t="shared" si="8"/>
+        <v>R</v>
+      </c>
+      <c r="CC9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>I</v>
+      </c>
+      <c r="CD9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>U</v>
+      </c>
+      <c r="CE9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="CF9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>Q</v>
+      </c>
+      <c r="CG9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>E</v>
+      </c>
+      <c r="CH9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="CI9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="CJ9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="CK9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>N</v>
+      </c>
+      <c r="CL9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>W</v>
+      </c>
+      <c r="CM9" s="471" t="str">
+        <f t="shared" si="8"/>
+        <v>@</v>
+      </c>
+      <c r="CN9" s="471" t="str">
+        <f t="shared" si="8"/>
+        <v>L</v>
+      </c>
+      <c r="CO9" s="471" t="str">
+        <f t="shared" si="8"/>
+        <v>H</v>
+      </c>
+      <c r="CP9" s="471" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="CQ9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="CR9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="CS9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="CT9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="CU9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="CV9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CW9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="CX9" s="468" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:102" ht="32.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -8905,23 +9368,23 @@
       <c r="T10" s="2">
         <v>8</v>
       </c>
-      <c r="U10" s="431" t="str">
+      <c r="U10" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C18</f>
         <v>x</v>
       </c>
-      <c r="V10" s="432" t="str" cm="1">
+      <c r="V10" s="410" t="str" cm="1">
         <f t="array" ref="V10" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄌ</v>
       </c>
-      <c r="W10" s="433" t="str" cm="1">
+      <c r="W10" s="411" t="str" cm="1">
         <f t="array" ref="W10" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>l</v>
       </c>
-      <c r="X10" s="434" t="s">
+      <c r="X10" s="412" t="s">
         <v>496</v>
       </c>
       <c r="Y10" s="24"/>
-      <c r="Z10" s="435">
+      <c r="Z10" s="413">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -8934,19 +9397,19 @@
       <c r="AC10" s="379" t="s">
         <v>86</v>
       </c>
-      <c r="AD10" s="455" t="s">
+      <c r="AD10" s="433" t="s">
         <v>86</v>
       </c>
-      <c r="AF10" s="449" t="s">
+      <c r="AF10" s="427" t="s">
         <v>11</v>
       </c>
       <c r="AG10" s="1">
         <f xml:space="preserve"> LEN(AH10)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH10" s="37" t="str">
-        <f>_xlfn.CONCAT(AA3:AA54)</f>
-        <v>1q!a2wsxedE?cyhnbYHNBuj8ik,9l.UJ*I&lt;(Lmp/OA0;:- 43657</v>
+        <f>_xlfn.CONCAT(AA3:AA52)</f>
+        <v>1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657</v>
       </c>
       <c r="AQ10" s="48" t="str">
         <f xml:space="preserve"> MID("/", AG9, 1)</f>
@@ -8957,9 +9420,217 @@
         <v>5</v>
       </c>
       <c r="AW10" s="40"/>
-    </row>
-    <row r="11" spans="2:49" ht="32.25">
-      <c r="B11" s="430" t="s">
+      <c r="AY10" s="468" t="str">
+        <f xml:space="preserve"> MID($AH$10, AY$13, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="468" t="str">
+        <f t="shared" ref="AZ10:CX10" si="9" xml:space="preserve"> MID($AH$10, AZ$13, 1)</f>
+        <v>q</v>
+      </c>
+      <c r="BA10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>!</v>
+      </c>
+      <c r="BB10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>a</v>
+      </c>
+      <c r="BC10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BD10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>w</v>
+      </c>
+      <c r="BE10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>s</v>
+      </c>
+      <c r="BF10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="BG10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>e</v>
+      </c>
+      <c r="BH10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>d</v>
+      </c>
+      <c r="BI10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="BJ10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>?</v>
+      </c>
+      <c r="BK10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>c</v>
+      </c>
+      <c r="BL10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>y</v>
+      </c>
+      <c r="BM10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>h</v>
+      </c>
+      <c r="BN10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>n</v>
+      </c>
+      <c r="BO10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>b</v>
+      </c>
+      <c r="BP10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>Y</v>
+      </c>
+      <c r="BQ10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>H</v>
+      </c>
+      <c r="BR10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>N</v>
+      </c>
+      <c r="BS10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="BT10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>u</v>
+      </c>
+      <c r="BU10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>j</v>
+      </c>
+      <c r="BV10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="BW10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>i</v>
+      </c>
+      <c r="BX10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>k</v>
+      </c>
+      <c r="BY10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>,</v>
+      </c>
+      <c r="BZ10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="CA10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>l</v>
+      </c>
+      <c r="CB10" s="471" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="CC10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>U</v>
+      </c>
+      <c r="CD10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>J</v>
+      </c>
+      <c r="CE10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>*</v>
+      </c>
+      <c r="CF10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>I</v>
+      </c>
+      <c r="CG10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;</v>
+      </c>
+      <c r="CH10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>(</v>
+      </c>
+      <c r="CI10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>L</v>
+      </c>
+      <c r="CJ10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>m</v>
+      </c>
+      <c r="CK10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>p</v>
+      </c>
+      <c r="CL10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>/</v>
+      </c>
+      <c r="CM10" s="471" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CN10" s="471" t="str">
+        <f t="shared" si="9"/>
+        <v>;</v>
+      </c>
+      <c r="CO10" s="471" t="str">
+        <f t="shared" si="9"/>
+        <v>:</v>
+      </c>
+      <c r="CP10" s="471" t="str">
+        <f t="shared" si="9"/>
+        <v>.</v>
+      </c>
+      <c r="CQ10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CR10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="CS10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="CT10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="CU10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="CV10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CW10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="CX10" s="468" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:102" ht="32.25">
+      <c r="B11" s="408" t="s">
         <v>644</v>
       </c>
       <c r="H11" s="2">
@@ -8999,23 +9670,23 @@
       <c r="T11" s="2">
         <v>9</v>
       </c>
-      <c r="U11" s="431" t="str">
+      <c r="U11" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C19</f>
         <v>e</v>
       </c>
-      <c r="V11" s="432" t="str" cm="1">
+      <c r="V11" s="410" t="str" cm="1">
         <f t="array" ref="V11" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄍ</v>
       </c>
-      <c r="W11" s="433" t="str" cm="1">
+      <c r="W11" s="411" t="str" cm="1">
         <f t="array" ref="W11" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>k</v>
       </c>
-      <c r="X11" s="434" t="s">
+      <c r="X11" s="412" t="s">
         <v>321</v>
       </c>
       <c r="Y11" s="24"/>
-      <c r="Z11" s="435">
+      <c r="Z11" s="413">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
@@ -9028,17 +9699,17 @@
       <c r="AC11" s="379" t="s">
         <v>37</v>
       </c>
-      <c r="AD11" s="455" t="s">
+      <c r="AD11" s="433" t="s">
         <v>37</v>
       </c>
-      <c r="AF11" s="450"/>
+      <c r="AF11" s="428"/>
       <c r="AG11" s="37"/>
       <c r="AH11" s="37"/>
       <c r="AQ11" s="48"/>
       <c r="AV11" s="11"/>
       <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="2:49" ht="32.25">
+    <row r="12" spans="2:102" ht="32.25">
       <c r="B12" s="2">
         <f xml:space="preserve"> SEARCH("|",$B$11,1)</f>
         <v>8</v>
@@ -9080,23 +9751,23 @@
       <c r="T12" s="2">
         <v>10</v>
       </c>
-      <c r="U12" s="431" t="str">
+      <c r="U12" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C20</f>
         <v>E</v>
       </c>
-      <c r="V12" s="432" t="str" cm="1">
+      <c r="V12" s="410" t="str" cm="1">
         <f t="array" ref="V12" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆣ</v>
       </c>
-      <c r="W12" s="433" t="str" cm="1">
+      <c r="W12" s="411" t="str" cm="1">
         <f t="array" ref="W12" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>g</v>
       </c>
-      <c r="X12" s="434" t="s">
+      <c r="X12" s="412" t="s">
         <v>42</v>
       </c>
       <c r="Y12" s="24"/>
-      <c r="Z12" s="435">
+      <c r="Z12" s="413">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
@@ -9109,14 +9780,14 @@
       <c r="AC12" s="379" t="s">
         <v>425</v>
       </c>
-      <c r="AD12" s="455" t="s">
+      <c r="AD12" s="433" t="s">
         <v>418</v>
       </c>
       <c r="AH12" s="48"/>
       <c r="AV12" s="11"/>
       <c r="AW12" s="2"/>
     </row>
-    <row r="13" spans="2:49" ht="32.25">
+    <row r="13" spans="2:102" ht="32.25">
       <c r="B13" s="2">
         <f xml:space="preserve"> SEARCH("|",$B$11,B12+1)</f>
         <v>60</v>
@@ -9158,23 +9829,23 @@
       <c r="T13" s="2">
         <v>11</v>
       </c>
-      <c r="U13" s="431" t="str">
+      <c r="U13" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C21</f>
         <v>d</v>
       </c>
-      <c r="V13" s="432" t="str" cm="1">
+      <c r="V13" s="410" t="str" cm="1">
         <f t="array" ref="V13" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄎ</v>
       </c>
-      <c r="W13" s="433" t="str" cm="1">
+      <c r="W13" s="411" t="str" cm="1">
         <f t="array" ref="W13" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>K</v>
       </c>
-      <c r="X13" s="434" t="s">
+      <c r="X13" s="412" t="s">
         <v>39</v>
       </c>
       <c r="Y13" s="24"/>
-      <c r="Z13" s="435">
+      <c r="Z13" s="413">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
@@ -9187,15 +9858,15 @@
       <c r="AC13" s="379" t="s">
         <v>184</v>
       </c>
-      <c r="AD13" s="455" t="s">
+      <c r="AD13" s="433" t="s">
         <v>184</v>
       </c>
-      <c r="AF13" s="447" t="s">
+      <c r="AF13" s="425" t="s">
         <v>35</v>
       </c>
-      <c r="AH13" s="443" t="str">
+      <c r="AH13" s="421" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AH14 &amp; "|" &amp; AH15 &amp; "|"</f>
-        <v>- xlit|1q!a2wsxedE?cyhnbYHNBuj8ik,9l.UJ*I&lt;(Lmp/OA0;:-43657|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠｎㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㆱㆰㄢㄤㆲㆨˋ˪ˊ˫˙|</v>
+        <v>- xlit|1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲｎˉˋ˪ˊ˫˙|</v>
       </c>
       <c r="AI13" s="47"/>
       <c r="AJ13" s="47"/>
@@ -9208,8 +9879,216 @@
       <c r="AQ13" s="47"/>
       <c r="AV13" s="11"/>
       <c r="AW13" s="2"/>
-    </row>
-    <row r="14" spans="2:49" ht="32.25">
+      <c r="AY13" s="472" cm="1">
+        <f t="array" ref="AY13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="472" cm="1">
+        <f t="array" ref="AZ13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>2</v>
+      </c>
+      <c r="BA13" s="472" cm="1">
+        <f t="array" ref="BA13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>3</v>
+      </c>
+      <c r="BB13" s="472" cm="1">
+        <f t="array" ref="BB13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>4</v>
+      </c>
+      <c r="BC13" s="472" cm="1">
+        <f t="array" ref="BC13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>5</v>
+      </c>
+      <c r="BD13" s="472" cm="1">
+        <f t="array" ref="BD13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>6</v>
+      </c>
+      <c r="BE13" s="472" cm="1">
+        <f t="array" ref="BE13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>7</v>
+      </c>
+      <c r="BF13" s="472" cm="1">
+        <f t="array" ref="BF13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>8</v>
+      </c>
+      <c r="BG13" s="472" cm="1">
+        <f t="array" ref="BG13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>9</v>
+      </c>
+      <c r="BH13" s="472" cm="1">
+        <f t="array" ref="BH13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>10</v>
+      </c>
+      <c r="BI13" s="472" cm="1">
+        <f t="array" ref="BI13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>11</v>
+      </c>
+      <c r="BJ13" s="472" cm="1">
+        <f t="array" ref="BJ13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>12</v>
+      </c>
+      <c r="BK13" s="472" cm="1">
+        <f t="array" ref="BK13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>13</v>
+      </c>
+      <c r="BL13" s="472" cm="1">
+        <f t="array" ref="BL13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>14</v>
+      </c>
+      <c r="BM13" s="472" cm="1">
+        <f t="array" ref="BM13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>15</v>
+      </c>
+      <c r="BN13" s="472" cm="1">
+        <f t="array" ref="BN13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>16</v>
+      </c>
+      <c r="BO13" s="472" cm="1">
+        <f t="array" ref="BO13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>17</v>
+      </c>
+      <c r="BP13" s="472" cm="1">
+        <f t="array" ref="BP13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>18</v>
+      </c>
+      <c r="BQ13" s="472" cm="1">
+        <f t="array" ref="BQ13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>19</v>
+      </c>
+      <c r="BR13" s="472" cm="1">
+        <f t="array" ref="BR13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>20</v>
+      </c>
+      <c r="BS13" s="472" cm="1">
+        <f t="array" ref="BS13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>21</v>
+      </c>
+      <c r="BT13" s="472" cm="1">
+        <f t="array" ref="BT13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>22</v>
+      </c>
+      <c r="BU13" s="472" cm="1">
+        <f t="array" ref="BU13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>23</v>
+      </c>
+      <c r="BV13" s="472" cm="1">
+        <f t="array" ref="BV13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>24</v>
+      </c>
+      <c r="BW13" s="472" cm="1">
+        <f t="array" ref="BW13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>25</v>
+      </c>
+      <c r="BX13" s="472" cm="1">
+        <f t="array" ref="BX13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>26</v>
+      </c>
+      <c r="BY13" s="472" cm="1">
+        <f t="array" ref="BY13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>27</v>
+      </c>
+      <c r="BZ13" s="472" cm="1">
+        <f t="array" ref="BZ13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>28</v>
+      </c>
+      <c r="CA13" s="472" cm="1">
+        <f t="array" ref="CA13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>29</v>
+      </c>
+      <c r="CB13" s="472" cm="1">
+        <f t="array" ref="CB13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>30</v>
+      </c>
+      <c r="CC13" s="472" cm="1">
+        <f t="array" ref="CC13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>31</v>
+      </c>
+      <c r="CD13" s="472" cm="1">
+        <f t="array" ref="CD13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>32</v>
+      </c>
+      <c r="CE13" s="472" cm="1">
+        <f t="array" ref="CE13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>33</v>
+      </c>
+      <c r="CF13" s="472" cm="1">
+        <f t="array" ref="CF13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>34</v>
+      </c>
+      <c r="CG13" s="472" cm="1">
+        <f t="array" ref="CG13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>35</v>
+      </c>
+      <c r="CH13" s="472" cm="1">
+        <f t="array" ref="CH13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>36</v>
+      </c>
+      <c r="CI13" s="472" cm="1">
+        <f t="array" ref="CI13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>37</v>
+      </c>
+      <c r="CJ13" s="472" cm="1">
+        <f t="array" ref="CJ13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>38</v>
+      </c>
+      <c r="CK13" s="472" cm="1">
+        <f t="array" ref="CK13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>39</v>
+      </c>
+      <c r="CL13" s="472" cm="1">
+        <f t="array" ref="CL13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>40</v>
+      </c>
+      <c r="CM13" s="472" cm="1">
+        <f t="array" ref="CM13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>41</v>
+      </c>
+      <c r="CN13" s="472" cm="1">
+        <f t="array" ref="CN13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>42</v>
+      </c>
+      <c r="CO13" s="472" cm="1">
+        <f t="array" ref="CO13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>43</v>
+      </c>
+      <c r="CP13" s="472" cm="1">
+        <f t="array" ref="CP13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>44</v>
+      </c>
+      <c r="CQ13" s="472" cm="1">
+        <f t="array" ref="CQ13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>45</v>
+      </c>
+      <c r="CR13" s="472" cm="1">
+        <f t="array" ref="CR13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>46</v>
+      </c>
+      <c r="CS13" s="472" cm="1">
+        <f t="array" ref="CS13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>47</v>
+      </c>
+      <c r="CT13" s="472" cm="1">
+        <f t="array" ref="CT13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>48</v>
+      </c>
+      <c r="CU13" s="472" cm="1">
+        <f t="array" ref="CU13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>49</v>
+      </c>
+      <c r="CV13" s="472" cm="1">
+        <f t="array" ref="CV13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>50</v>
+      </c>
+      <c r="CW13" s="472" cm="1">
+        <f t="array" ref="CW13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>51</v>
+      </c>
+      <c r="CX13" s="472" cm="1">
+        <f t="array" ref="CX13" xml:space="preserve"> COLUMN() - COLUMN($AX:$AX)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:102" ht="32.25">
       <c r="B14" s="2">
         <f xml:space="preserve"> SEARCH("|",$B$11,B13+1)</f>
         <v>112</v>
@@ -9251,23 +10130,23 @@
       <c r="T14" s="2">
         <v>12</v>
       </c>
-      <c r="U14" s="431" t="str">
+      <c r="U14" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C22</f>
         <v>c</v>
       </c>
-      <c r="V14" s="432" t="str" cm="1">
+      <c r="V14" s="410" t="str" cm="1">
         <f t="array" ref="V14" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄏ</v>
       </c>
-      <c r="W14" s="433" t="str" cm="1">
+      <c r="W14" s="411" t="str" cm="1">
         <f t="array" ref="W14" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>h</v>
       </c>
-      <c r="X14" s="434" t="s">
+      <c r="X14" s="412" t="s">
         <v>53</v>
       </c>
       <c r="Y14" s="24"/>
-      <c r="Z14" s="435">
+      <c r="Z14" s="413">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
@@ -9280,19 +10159,19 @@
       <c r="AC14" s="387" t="s">
         <v>341</v>
       </c>
-      <c r="AD14" s="456" t="s">
+      <c r="AD14" s="434" t="s">
         <v>613</v>
       </c>
-      <c r="AF14" s="449" t="s">
+      <c r="AF14" s="427" t="s">
         <v>11</v>
       </c>
       <c r="AG14" s="1">
         <f xml:space="preserve"> LEN(AH14)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH14" s="37" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AA$3:AA$48,AA$50:AA$54)</f>
-        <v>1q!a2wsxedE?cyhnbYHNBuj8ik,9l.UJ*I&lt;(Lmp/OA0;:-43657</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(AA$3:AA$52)</f>
+        <v>1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657</v>
       </c>
       <c r="AU14" s="38" t="s">
         <v>25</v>
@@ -9303,10 +10182,218 @@
       </c>
       <c r="AW14" s="40">
         <f xml:space="preserve"> FIND(AV14, AH14)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:49" ht="32.25">
+        <v>49</v>
+      </c>
+      <c r="AY14" s="468" t="str">
+        <f xml:space="preserve"> MID($AH$14, AY$13, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="469" t="str">
+        <f t="shared" ref="AZ14:CX14" si="10" xml:space="preserve"> MID($AH$14, AZ$13, 1)</f>
+        <v>q</v>
+      </c>
+      <c r="BA14" s="469" t="str">
+        <f t="shared" si="10"/>
+        <v>!</v>
+      </c>
+      <c r="BB14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>a</v>
+      </c>
+      <c r="BC14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BD14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>w</v>
+      </c>
+      <c r="BE14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>s</v>
+      </c>
+      <c r="BF14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="BG14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>e</v>
+      </c>
+      <c r="BH14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>d</v>
+      </c>
+      <c r="BI14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="BJ14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>?</v>
+      </c>
+      <c r="BK14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>c</v>
+      </c>
+      <c r="BL14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>y</v>
+      </c>
+      <c r="BM14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>h</v>
+      </c>
+      <c r="BN14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>n</v>
+      </c>
+      <c r="BO14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>b</v>
+      </c>
+      <c r="BP14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>Y</v>
+      </c>
+      <c r="BQ14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>H</v>
+      </c>
+      <c r="BR14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="BS14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="BT14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>u</v>
+      </c>
+      <c r="BU14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>j</v>
+      </c>
+      <c r="BV14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="BW14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>i</v>
+      </c>
+      <c r="BX14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>k</v>
+      </c>
+      <c r="BY14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>,</v>
+      </c>
+      <c r="BZ14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="CA14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>l</v>
+      </c>
+      <c r="CB14" s="471" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="CC14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>U</v>
+      </c>
+      <c r="CD14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>J</v>
+      </c>
+      <c r="CE14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>*</v>
+      </c>
+      <c r="CF14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>I</v>
+      </c>
+      <c r="CG14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;</v>
+      </c>
+      <c r="CH14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>(</v>
+      </c>
+      <c r="CI14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>L</v>
+      </c>
+      <c r="CJ14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>m</v>
+      </c>
+      <c r="CK14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>p</v>
+      </c>
+      <c r="CL14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>/</v>
+      </c>
+      <c r="CM14" s="471" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CN14" s="471" t="str">
+        <f t="shared" si="10"/>
+        <v>;</v>
+      </c>
+      <c r="CO14" s="471" t="str">
+        <f t="shared" si="10"/>
+        <v>:</v>
+      </c>
+      <c r="CP14" s="471" t="str">
+        <f t="shared" si="10"/>
+        <v>.</v>
+      </c>
+      <c r="CQ14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CR14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="CS14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="CT14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="CU14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="CV14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="CW14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="CX14" s="470" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:102" ht="32.25">
       <c r="B15" s="50" t="str">
         <f xml:space="preserve"> MID($B$11,B12+1, B13-B12-1)</f>
         <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA:43657</v>
@@ -9323,14 +10410,14 @@
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="J15" s="436" t="str">
+      <c r="J15" s="414" t="str">
         <f t="shared" si="2"/>
         <v>b</v>
       </c>
       <c r="L15" s="2">
         <v>13</v>
       </c>
-      <c r="M15" s="437" t="str">
+      <c r="M15" s="415" t="str">
         <f t="shared" si="3"/>
         <v>b</v>
       </c>
@@ -9352,23 +10439,23 @@
       <c r="T15" s="2">
         <v>13</v>
       </c>
-      <c r="U15" s="431" t="str">
+      <c r="U15" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C23</f>
         <v>b</v>
       </c>
-      <c r="V15" s="432" t="str" cm="1">
+      <c r="V15" s="410" t="str" cm="1">
         <f t="array" ref="V15" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆡ</v>
       </c>
-      <c r="W15" s="433" t="str" cm="1">
+      <c r="W15" s="411" t="str" cm="1">
         <f t="array" ref="W15" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>j</v>
       </c>
-      <c r="X15" s="434" t="s">
+      <c r="X15" s="412" t="s">
         <v>49</v>
       </c>
       <c r="Y15" s="24"/>
-      <c r="Z15" s="435">
+      <c r="Z15" s="413">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -9381,28 +10468,236 @@
       <c r="AC15" s="379" t="s">
         <v>422</v>
       </c>
-      <c r="AD15" s="455" t="s">
+      <c r="AD15" s="433" t="s">
         <v>422</v>
       </c>
-      <c r="AF15" s="451" t="s">
+      <c r="AF15" s="429" t="s">
         <v>13</v>
       </c>
       <c r="AG15" s="1">
         <f xml:space="preserve"> LEN(AH15)</f>
-        <v>51</v>
-      </c>
-      <c r="AH15" s="442" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$48,AB$50:AB$54)</f>
-        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠｎㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㆱㆰㄢㄤㆲㆨˋ˪ˊ˫˙</v>
+        <v>50</v>
+      </c>
+      <c r="AH15" s="420" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$52)</f>
+        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲｎˉˋ˪ˊ˫˙</v>
       </c>
       <c r="AV15" s="49" t="str">
         <f xml:space="preserve"> MID(AH15, AW14, 1)</f>
         <v>˫</v>
       </c>
       <c r="AW15" s="40"/>
-    </row>
-    <row r="16" spans="2:49" ht="32.25">
-      <c r="B16" s="438" t="str">
+      <c r="AY15" s="468" t="str">
+        <f xml:space="preserve"> MID($AH$15, AY$13, 1)</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="AZ15" s="469" t="str">
+        <f t="shared" ref="AZ15:CX15" si="11" xml:space="preserve"> MID($AH$15, AZ$13, 1)</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="BA15" s="469" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆠ</v>
+      </c>
+      <c r="BB15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄇ</v>
+      </c>
+      <c r="BC15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄉ</v>
+      </c>
+      <c r="BD15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄊ</v>
+      </c>
+      <c r="BE15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄋ</v>
+      </c>
+      <c r="BF15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄌ</v>
+      </c>
+      <c r="BG15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄍ</v>
+      </c>
+      <c r="BH15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄎ</v>
+      </c>
+      <c r="BI15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆣ</v>
+      </c>
+      <c r="BJ15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄥ</v>
+      </c>
+      <c r="BK15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄏ</v>
+      </c>
+      <c r="BL15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄗ</v>
+      </c>
+      <c r="BM15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄘ</v>
+      </c>
+      <c r="BN15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄙ</v>
+      </c>
+      <c r="BO15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆡ</v>
+      </c>
+      <c r="BP15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄐ</v>
+      </c>
+      <c r="BQ15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄑ</v>
+      </c>
+      <c r="BR15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄒ</v>
+      </c>
+      <c r="BS15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆢ</v>
+      </c>
+      <c r="BT15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄧ</v>
+      </c>
+      <c r="BU15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄨ</v>
+      </c>
+      <c r="BV15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄚ</v>
+      </c>
+      <c r="BW15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆦ</v>
+      </c>
+      <c r="BX15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄜ</v>
+      </c>
+      <c r="BY15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆤ</v>
+      </c>
+      <c r="BZ15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄞ</v>
+      </c>
+      <c r="CA15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄠ</v>
+      </c>
+      <c r="CB15" s="471" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆨ</v>
+      </c>
+      <c r="CC15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆪ</v>
+      </c>
+      <c r="CD15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆫ</v>
+      </c>
+      <c r="CE15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆩ</v>
+      </c>
+      <c r="CF15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆧ</v>
+      </c>
+      <c r="CG15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆥ</v>
+      </c>
+      <c r="CH15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆮ</v>
+      </c>
+      <c r="CI15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆯ</v>
+      </c>
+      <c r="CJ15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆬ</v>
+      </c>
+      <c r="CK15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄣ</v>
+      </c>
+      <c r="CL15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆭ</v>
+      </c>
+      <c r="CM15" s="471" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄢ</v>
+      </c>
+      <c r="CN15" s="471" t="str">
+        <f t="shared" si="11"/>
+        <v>ㄤ</v>
+      </c>
+      <c r="CO15" s="471" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆲ</v>
+      </c>
+      <c r="CP15" s="471" t="str">
+        <f t="shared" si="11"/>
+        <v>ｎ</v>
+      </c>
+      <c r="CQ15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ˉ</v>
+      </c>
+      <c r="CR15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ˋ</v>
+      </c>
+      <c r="CS15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>˪</v>
+      </c>
+      <c r="CT15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>ˊ</v>
+      </c>
+      <c r="CU15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>˫</v>
+      </c>
+      <c r="CV15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v>˙</v>
+      </c>
+      <c r="CW15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="CX15" s="470" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:102" ht="32.25">
+      <c r="B16" s="416" t="str">
         <f xml:space="preserve"> MID($B$11,B13+1, B14-B13-1)</f>
         <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㄇㄚㄛㄜㄝㄞㄠｎㄢㄣㄤㄥㄦㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˋˇˊ+˙</v>
       </c>
@@ -9447,23 +10742,23 @@
       <c r="T16" s="2">
         <v>14</v>
       </c>
-      <c r="U16" s="431" t="str">
+      <c r="U16" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C24</f>
         <v>y</v>
       </c>
-      <c r="V16" s="432" t="str" cm="1">
+      <c r="V16" s="410" t="str" cm="1">
         <f t="array" ref="V16" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄗ</v>
       </c>
-      <c r="W16" s="433" t="str" cm="1">
+      <c r="W16" s="411" t="str" cm="1">
         <f t="array" ref="W16" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>z</v>
       </c>
-      <c r="X16" s="434" t="s">
+      <c r="X16" s="412" t="s">
         <v>366</v>
       </c>
       <c r="Y16" s="24"/>
-      <c r="Z16" s="435">
+      <c r="Z16" s="413">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
@@ -9476,7 +10771,7 @@
       <c r="AC16" s="383" t="s">
         <v>179</v>
       </c>
-      <c r="AD16" s="457" t="s">
+      <c r="AD16" s="435" t="s">
         <v>366</v>
       </c>
       <c r="AI16" s="54"/>
@@ -9521,23 +10816,23 @@
       <c r="T17" s="2">
         <v>15</v>
       </c>
-      <c r="U17" s="431" t="str">
+      <c r="U17" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C25</f>
         <v>h</v>
       </c>
-      <c r="V17" s="432" t="str" cm="1">
+      <c r="V17" s="410" t="str" cm="1">
         <f t="array" ref="V17" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄘ</v>
       </c>
-      <c r="W17" s="433" t="str" cm="1">
+      <c r="W17" s="411" t="str" cm="1">
         <f t="array" ref="W17" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>c</v>
       </c>
-      <c r="X17" s="434" t="s">
+      <c r="X17" s="412" t="s">
         <v>287</v>
       </c>
       <c r="Y17" s="24"/>
-      <c r="Z17" s="435">
+      <c r="Z17" s="413">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
@@ -9550,15 +10845,15 @@
       <c r="AC17" s="383" t="s">
         <v>305</v>
       </c>
-      <c r="AD17" s="457" t="s">
+      <c r="AD17" s="435" t="s">
         <v>287</v>
       </c>
-      <c r="AF17" s="447" t="s">
+      <c r="AF17" s="425" t="s">
         <v>45</v>
       </c>
       <c r="AH17" s="137" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AH18 &amp; "|" &amp; AH19 &amp; "|"</f>
-        <v>- xlit|pPbmtTnlkKgwhzcsjZCSJiuaOoeyxBIUAQEYXMNW}{@[]R123570|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠｎㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㆱㆰㄢㄤㆲㆨˉˋ˪ˊ˫˙|</v>
+        <v>- xlit|pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LHB123570|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲｎˉˋ˪ˊ˫˙|</v>
       </c>
       <c r="AI17" s="47"/>
       <c r="AJ17" s="47"/>
@@ -9610,23 +10905,23 @@
       <c r="T18" s="2">
         <v>16</v>
       </c>
-      <c r="U18" s="431" t="str">
+      <c r="U18" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C26</f>
         <v>n</v>
       </c>
-      <c r="V18" s="432" t="str" cm="1">
+      <c r="V18" s="410" t="str" cm="1">
         <f t="array" ref="V18" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄙ</v>
       </c>
-      <c r="W18" s="433" t="str" cm="1">
+      <c r="W18" s="411" t="str" cm="1">
         <f t="array" ref="W18" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>s</v>
       </c>
-      <c r="X18" s="434" t="s">
+      <c r="X18" s="412" t="s">
         <v>51</v>
       </c>
       <c r="Y18" s="24"/>
-      <c r="Z18" s="435">
+      <c r="Z18" s="413">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
@@ -9639,19 +10934,19 @@
       <c r="AC18" s="383" t="s">
         <v>338</v>
       </c>
-      <c r="AD18" s="457" t="s">
+      <c r="AD18" s="435" t="s">
         <v>338</v>
       </c>
-      <c r="AF18" s="448" t="s">
+      <c r="AF18" s="426" t="s">
         <v>585</v>
       </c>
       <c r="AG18" s="1">
         <f xml:space="preserve"> LEN(AH18)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH18" s="37" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$54)</f>
-        <v>pPbmtTnlkKgwhzcsjZCSJiuaOoeyxBIUAQEYXMNW}{@[]R123570</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$52)</f>
+        <v>pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LHB123570</v>
       </c>
       <c r="AU18" s="38" t="s">
         <v>25</v>
@@ -9662,7 +10957,7 @@
       </c>
       <c r="AW18" s="40">
         <f xml:space="preserve"> FIND(AV18, AH18)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:49" ht="32.25">
@@ -9674,14 +10969,14 @@
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="J19" s="436" t="str">
+      <c r="J19" s="414" t="str">
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="L19" s="2">
         <v>17</v>
       </c>
-      <c r="M19" s="437" t="str">
+      <c r="M19" s="415" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
@@ -9703,23 +10998,23 @@
       <c r="T19" s="2">
         <v>17</v>
       </c>
-      <c r="U19" s="431" t="str">
+      <c r="U19" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C27</f>
         <v>B</v>
       </c>
-      <c r="V19" s="432" t="str" cm="1">
+      <c r="V19" s="410" t="str" cm="1">
         <f t="array" ref="V19" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆢ</v>
       </c>
-      <c r="W19" s="433" t="str" cm="1">
+      <c r="W19" s="411" t="str" cm="1">
         <f t="array" ref="W19" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>J</v>
       </c>
-      <c r="X19" s="434" t="s">
+      <c r="X19" s="412" t="s">
         <v>583</v>
       </c>
       <c r="Y19" s="24"/>
-      <c r="Z19" s="435">
+      <c r="Z19" s="413">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
@@ -9732,19 +11027,19 @@
       <c r="AC19" s="379" t="s">
         <v>254</v>
       </c>
-      <c r="AD19" s="455" t="s">
+      <c r="AD19" s="433" t="s">
         <v>254</v>
       </c>
-      <c r="AF19" s="451" t="s">
+      <c r="AF19" s="429" t="s">
         <v>642</v>
       </c>
       <c r="AG19" s="1">
         <f xml:space="preserve"> LEN(AH19)</f>
-        <v>52</v>
-      </c>
-      <c r="AH19" s="452" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AB3:AB54)</f>
-        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠｎㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㆱㆰㄢㄤㆲㆨˉˋ˪ˊ˫˙</v>
+        <v>50</v>
+      </c>
+      <c r="AH19" s="430" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(AB3:AB52)</f>
+        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲｎˉˋ˪ˊ˫˙</v>
       </c>
       <c r="AV19" s="49" t="str">
         <f xml:space="preserve"> MID(AH19, AW18, 1)</f>
@@ -9764,15 +11059,15 @@
         <f t="shared" si="1"/>
         <v>Z</v>
       </c>
-      <c r="J20" s="436" t="str">
+      <c r="J20" s="414" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="L20" s="2">
         <v>18</v>
       </c>
-      <c r="M20" s="437" t="str">
-        <f t="shared" ref="M20:M22" si="8">J20</f>
+      <c r="M20" s="415" t="str">
+        <f t="shared" ref="M20:M22" si="12">J20</f>
         <v>Y</v>
       </c>
       <c r="N20" s="21" t="str">
@@ -9793,23 +11088,23 @@
       <c r="T20" s="2">
         <v>18</v>
       </c>
-      <c r="U20" s="431" t="str">
+      <c r="U20" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C28</f>
         <v>Y</v>
       </c>
-      <c r="V20" s="432" t="str" cm="1">
+      <c r="V20" s="410" t="str" cm="1">
         <f t="array" ref="V20" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄐ</v>
       </c>
-      <c r="W20" s="433" t="str" cm="1">
+      <c r="W20" s="411" t="str" cm="1">
         <f t="array" ref="W20" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>Z</v>
       </c>
-      <c r="X20" s="434" t="s">
+      <c r="X20" s="412" t="s">
         <v>450</v>
       </c>
       <c r="Y20" s="24"/>
-      <c r="Z20" s="435">
+      <c r="Z20" s="413">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
@@ -9822,8 +11117,8 @@
       <c r="AC20" s="387" t="s">
         <v>449</v>
       </c>
-      <c r="AD20" s="456" t="s">
-        <v>651</v>
+      <c r="AD20" s="434" t="s">
+        <v>650</v>
       </c>
       <c r="AV20" s="11"/>
       <c r="AW20" s="2"/>
@@ -9840,15 +11135,15 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="J21" s="436" t="str">
+      <c r="J21" s="414" t="str">
         <f t="shared" si="2"/>
         <v>H</v>
       </c>
       <c r="L21" s="2">
         <v>19</v>
       </c>
-      <c r="M21" s="437" t="str">
-        <f t="shared" si="8"/>
+      <c r="M21" s="415" t="str">
+        <f t="shared" si="12"/>
         <v>H</v>
       </c>
       <c r="N21" s="21" t="str">
@@ -9869,23 +11164,23 @@
       <c r="T21" s="2">
         <v>19</v>
       </c>
-      <c r="U21" s="431" t="str">
+      <c r="U21" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C29</f>
         <v>H</v>
       </c>
-      <c r="V21" s="432" t="str" cm="1">
+      <c r="V21" s="410" t="str" cm="1">
         <f t="array" ref="V21" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄑ</v>
       </c>
-      <c r="W21" s="433" t="str" cm="1">
+      <c r="W21" s="411" t="str" cm="1">
         <f t="array" ref="W21" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>C</v>
       </c>
-      <c r="X21" s="434" t="s">
+      <c r="X21" s="412" t="s">
         <v>457</v>
       </c>
       <c r="Y21" s="24"/>
-      <c r="Z21" s="435">
+      <c r="Z21" s="413">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
@@ -9898,8 +11193,8 @@
       <c r="AC21" s="388" t="s">
         <v>456</v>
       </c>
-      <c r="AD21" s="456" t="s">
-        <v>652</v>
+      <c r="AD21" s="434" t="s">
+        <v>651</v>
       </c>
       <c r="AV21" s="11"/>
       <c r="AW21" s="2"/>
@@ -9917,15 +11212,15 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="J22" s="436" t="str">
+      <c r="J22" s="414" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="L22" s="2">
         <v>20</v>
       </c>
-      <c r="M22" s="437" t="str">
-        <f t="shared" si="8"/>
+      <c r="M22" s="415" t="str">
+        <f t="shared" si="12"/>
         <v>N</v>
       </c>
       <c r="N22" s="21" t="str">
@@ -9946,23 +11241,23 @@
       <c r="T22" s="2">
         <v>20</v>
       </c>
-      <c r="U22" s="431" t="str">
+      <c r="U22" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C30</f>
         <v>N</v>
       </c>
-      <c r="V22" s="432" t="str" cm="1">
+      <c r="V22" s="410" t="str" cm="1">
         <f t="array" ref="V22" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄒ</v>
       </c>
-      <c r="W22" s="433" t="str" cm="1">
+      <c r="W22" s="411" t="str" cm="1">
         <f t="array" ref="W22" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>S</v>
       </c>
-      <c r="X22" s="434" t="s">
+      <c r="X22" s="412" t="s">
         <v>606</v>
       </c>
       <c r="Y22" s="24"/>
-      <c r="Z22" s="435">
+      <c r="Z22" s="413">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
@@ -9975,7 +11270,7 @@
       <c r="AC22" s="388" t="s">
         <v>460</v>
       </c>
-      <c r="AD22" s="456" t="s">
+      <c r="AD22" s="434" t="s">
         <v>461</v>
       </c>
       <c r="AV22" s="11"/>
@@ -10002,7 +11297,7 @@
         <v>21</v>
       </c>
       <c r="M23" s="21" t="str">
-        <f t="shared" ref="M23:M73" si="9" xml:space="preserve"> IFERROR( MID($B$15, $H23, 1), "")</f>
+        <f t="shared" ref="M23:M54" si="13" xml:space="preserve"> IFERROR( MID($B$15, $H23, 1), "")</f>
         <v>?</v>
       </c>
       <c r="N23" s="21" t="str">
@@ -10023,23 +11318,23 @@
       <c r="T23" s="2">
         <v>21</v>
       </c>
-      <c r="U23" s="431" t="str">
+      <c r="U23" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C31</f>
         <v>?</v>
       </c>
-      <c r="V23" s="432" t="str" cm="1">
+      <c r="V23" s="410" t="str" cm="1">
         <f t="array" ref="V23" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄥ</v>
       </c>
-      <c r="W23" s="433" t="str" cm="1">
+      <c r="W23" s="411" t="str" cm="1">
         <f t="array" ref="W23" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>w</v>
       </c>
-      <c r="X23" s="439" t="s">
+      <c r="X23" s="417" t="s">
         <v>599</v>
       </c>
       <c r="Y23" s="24"/>
-      <c r="Z23" s="435">
+      <c r="Z23" s="413">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
@@ -10052,7 +11347,7 @@
       <c r="AC23" s="383" t="s">
         <v>249</v>
       </c>
-      <c r="AD23" s="457" t="s">
+      <c r="AD23" s="435" t="s">
         <v>607</v>
       </c>
       <c r="AV23" s="11"/>
@@ -10079,7 +11374,7 @@
         <v>22</v>
       </c>
       <c r="M24" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>u</v>
       </c>
       <c r="N24" s="21" t="str">
@@ -10100,19 +11395,19 @@
       <c r="T24" s="2">
         <v>22</v>
       </c>
-      <c r="U24" s="431" t="str">
+      <c r="U24" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C32</f>
         <v>u</v>
       </c>
-      <c r="V24" s="432" t="str" cm="1">
+      <c r="V24" s="410" t="str" cm="1">
         <f t="array" ref="V24" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄧ</v>
       </c>
-      <c r="W24" s="433" t="str" cm="1">
+      <c r="W24" s="411" t="str" cm="1">
         <f t="array" ref="W24" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>i</v>
       </c>
-      <c r="X24" s="434" t="s">
+      <c r="X24" s="412" t="s">
         <v>55</v>
       </c>
       <c r="Y24" s="24"/>
@@ -10129,7 +11424,7 @@
       <c r="AC24" s="379" t="s">
         <v>279</v>
       </c>
-      <c r="AD24" s="455" t="s">
+      <c r="AD24" s="433" t="s">
         <v>279</v>
       </c>
       <c r="AV24" s="11"/>
@@ -10160,7 +11455,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="N25" s="21" t="str">
@@ -10181,19 +11476,19 @@
       <c r="T25" s="2">
         <v>23</v>
       </c>
-      <c r="U25" s="431" t="str">
+      <c r="U25" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C33</f>
         <v>j</v>
       </c>
-      <c r="V25" s="432" t="str" cm="1">
+      <c r="V25" s="410" t="str" cm="1">
         <f t="array" ref="V25" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄨ</v>
       </c>
-      <c r="W25" s="433" t="str" cm="1">
+      <c r="W25" s="411" t="str" cm="1">
         <f t="array" ref="W25" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>u</v>
       </c>
-      <c r="X25" s="434" t="s">
+      <c r="X25" s="412" t="s">
         <v>57</v>
       </c>
       <c r="Y25" s="24"/>
@@ -10210,7 +11505,7 @@
       <c r="AC25" s="390" t="s">
         <v>196</v>
       </c>
-      <c r="AD25" s="455" t="s">
+      <c r="AD25" s="433" t="s">
         <v>196</v>
       </c>
       <c r="AV25" s="11"/>
@@ -10241,7 +11536,7 @@
         <v>24</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>m</v>
       </c>
       <c r="N26" s="21" t="str">
@@ -10262,19 +11557,19 @@
       <c r="T26" s="2">
         <v>24</v>
       </c>
-      <c r="U26" s="431" t="str">
+      <c r="U26" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C34</f>
         <v>m</v>
       </c>
-      <c r="V26" s="432" t="str" cm="1">
+      <c r="V26" s="410" t="str" cm="1">
         <f t="array" ref="V26" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="W26" s="433" t="str" cm="1">
+      <c r="W26" s="411" t="str" cm="1">
         <f t="array" ref="W26" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>M</v>
       </c>
-      <c r="X26" s="439" t="s">
+      <c r="X26" s="417" t="s">
         <v>79</v>
       </c>
       <c r="Y26" s="24"/>
@@ -10291,7 +11586,7 @@
       <c r="AC26" s="379" t="s">
         <v>351</v>
       </c>
-      <c r="AD26" s="455" t="s">
+      <c r="AD26" s="433" t="s">
         <v>351</v>
       </c>
       <c r="AV26" s="11"/>
@@ -10314,7 +11609,7 @@
         <v>25</v>
       </c>
       <c r="M27" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N27" s="21" t="str">
@@ -10335,19 +11630,19 @@
       <c r="T27" s="2">
         <v>25</v>
       </c>
-      <c r="U27" s="431" t="str">
+      <c r="U27" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C35</f>
         <v>8</v>
       </c>
-      <c r="V27" s="432" t="str" cm="1">
+      <c r="V27" s="410" t="str" cm="1">
         <f t="array" ref="V27" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄚ</v>
       </c>
-      <c r="W27" s="433" t="str" cm="1">
+      <c r="W27" s="411" t="str" cm="1">
         <f t="array" ref="W27" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>a</v>
       </c>
-      <c r="X27" s="434" t="s">
+      <c r="X27" s="412" t="s">
         <v>59</v>
       </c>
       <c r="Y27" s="24"/>
@@ -10364,7 +11659,7 @@
       <c r="AC27" s="379" t="s">
         <v>267</v>
       </c>
-      <c r="AD27" s="455" t="s">
+      <c r="AD27" s="433" t="s">
         <v>346</v>
       </c>
       <c r="AV27" s="11"/>
@@ -10387,7 +11682,7 @@
         <v>26</v>
       </c>
       <c r="M28" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>i</v>
       </c>
       <c r="N28" s="21" t="str">
@@ -10408,19 +11703,19 @@
       <c r="T28" s="2">
         <v>26</v>
       </c>
-      <c r="U28" s="431" t="str">
+      <c r="U28" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C36</f>
         <v>i</v>
       </c>
-      <c r="V28" s="432" t="str" cm="1">
+      <c r="V28" s="410" t="str" cm="1">
         <f t="array" ref="V28" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄛ</v>
       </c>
-      <c r="W28" s="433" t="str" cm="1">
+      <c r="W28" s="411" t="str" cm="1">
         <f t="array" ref="W28" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>O</v>
       </c>
-      <c r="X28" s="434" t="s">
+      <c r="X28" s="412" t="s">
         <v>68</v>
       </c>
       <c r="Y28" s="24"/>
@@ -10437,7 +11732,7 @@
       <c r="AC28" s="379" t="s">
         <v>65</v>
       </c>
-      <c r="AD28" s="455" t="s">
+      <c r="AD28" s="433" t="s">
         <v>65</v>
       </c>
       <c r="AV28" s="11"/>
@@ -10460,7 +11755,7 @@
         <v>27</v>
       </c>
       <c r="M29" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>k</v>
       </c>
       <c r="N29" s="21" t="str">
@@ -10481,19 +11776,19 @@
       <c r="T29" s="2">
         <v>27</v>
       </c>
-      <c r="U29" s="431" t="str">
+      <c r="U29" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C37</f>
         <v>k</v>
       </c>
-      <c r="V29" s="432" t="str" cm="1">
+      <c r="V29" s="410" t="str" cm="1">
         <f t="array" ref="V29" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄜ</v>
       </c>
-      <c r="W29" s="433" t="str" cm="1">
+      <c r="W29" s="411" t="str" cm="1">
         <f t="array" ref="W29" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>o</v>
       </c>
-      <c r="X29" s="434" t="s">
+      <c r="X29" s="412" t="s">
         <v>66</v>
       </c>
       <c r="Y29" s="24"/>
@@ -10510,7 +11805,7 @@
       <c r="AC29" s="379" t="s">
         <v>329</v>
       </c>
-      <c r="AD29" s="455" t="s">
+      <c r="AD29" s="433" t="s">
         <v>329</v>
       </c>
       <c r="AV29" s="11"/>
@@ -10533,7 +11828,7 @@
         <v>28</v>
       </c>
       <c r="M30" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>,</v>
       </c>
       <c r="N30" s="21" t="str">
@@ -10554,19 +11849,19 @@
       <c r="T30" s="2">
         <v>28</v>
       </c>
-      <c r="U30" s="431" t="str">
+      <c r="U30" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C38</f>
         <v>,</v>
       </c>
-      <c r="V30" s="432" t="str" cm="1">
+      <c r="V30" s="410" t="str" cm="1">
         <f t="array" ref="V30" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄝ</v>
       </c>
-      <c r="W30" s="433" t="str" cm="1">
+      <c r="W30" s="411" t="str" cm="1">
         <f t="array" ref="W30" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>e</v>
       </c>
-      <c r="X30" s="434" t="s">
+      <c r="X30" s="412" t="s">
         <v>62</v>
       </c>
       <c r="Y30" s="24"/>
@@ -10574,16 +11869,16 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="AA30" s="459" t="s">
+      <c r="AA30" s="437" t="s">
         <v>264</v>
       </c>
-      <c r="AB30" s="460" t="s">
+      <c r="AB30" s="438" t="s">
         <v>241</v>
       </c>
-      <c r="AC30" s="461" t="s">
+      <c r="AC30" s="439" t="s">
         <v>590</v>
       </c>
-      <c r="AD30" s="462" t="s">
+      <c r="AD30" s="440" t="s">
         <v>330</v>
       </c>
       <c r="AV30" s="11"/>
@@ -10606,7 +11901,7 @@
         <v>29</v>
       </c>
       <c r="M31" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N31" s="21" t="str">
@@ -10627,19 +11922,19 @@
       <c r="T31" s="2">
         <v>29</v>
       </c>
-      <c r="U31" s="431" t="str">
+      <c r="U31" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C39</f>
         <v>9</v>
       </c>
-      <c r="V31" s="432" t="str" cm="1">
+      <c r="V31" s="410" t="str" cm="1">
         <f t="array" ref="V31" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄞ</v>
       </c>
-      <c r="W31" s="433" t="str" cm="1">
+      <c r="W31" s="411" t="str" cm="1">
         <f t="array" ref="W31" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>y</v>
       </c>
-      <c r="X31" s="434" t="s">
+      <c r="X31" s="412" t="s">
         <v>71</v>
       </c>
       <c r="Y31" s="24"/>
@@ -10647,16 +11942,16 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="AA31" s="459" t="s">
+      <c r="AA31" s="437" t="s">
         <v>86</v>
       </c>
-      <c r="AB31" s="460" t="s">
+      <c r="AB31" s="438" t="s">
         <v>72</v>
       </c>
-      <c r="AC31" s="461" t="s">
+      <c r="AC31" s="439" t="s">
         <v>332</v>
       </c>
-      <c r="AD31" s="462" t="s">
+      <c r="AD31" s="440" t="s">
         <v>326</v>
       </c>
       <c r="AV31" s="11"/>
@@ -10679,7 +11974,7 @@
         <v>30</v>
       </c>
       <c r="M32" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>l</v>
       </c>
       <c r="N32" s="21" t="str">
@@ -10700,19 +11995,19 @@
       <c r="T32" s="2">
         <v>30</v>
       </c>
-      <c r="U32" s="431" t="str">
+      <c r="U32" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C40</f>
         <v>l</v>
       </c>
-      <c r="V32" s="432" t="str" cm="1">
+      <c r="V32" s="410" t="str" cm="1">
         <f t="array" ref="V32" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄠ</v>
       </c>
-      <c r="W32" s="433" t="str" cm="1">
+      <c r="W32" s="411" t="str" cm="1">
         <f t="array" ref="W32" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>x</v>
       </c>
-      <c r="X32" s="434" t="s">
+      <c r="X32" s="412" t="s">
         <v>73</v>
       </c>
       <c r="Y32" s="24"/>
@@ -10721,16 +12016,16 @@
         <v>30</v>
       </c>
       <c r="AA32" s="71" t="s">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="AB32" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AC32" s="379" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD32" s="455" t="s">
-        <v>623</v>
+        <v>560</v>
+      </c>
+      <c r="AD32" s="433" t="s">
+        <v>522</v>
       </c>
       <c r="AV32" s="11"/>
       <c r="AW32" s="2"/>
@@ -10752,7 +12047,7 @@
         <v>31</v>
       </c>
       <c r="M33" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>.</v>
       </c>
       <c r="N33" s="21" t="str">
@@ -10773,19 +12068,19 @@
       <c r="T33" s="2">
         <v>31</v>
       </c>
-      <c r="U33" s="431" t="str">
+      <c r="U33" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C41</f>
         <v>.</v>
       </c>
-      <c r="V33" s="440" t="str" cm="1">
+      <c r="V33" s="418" t="str" cm="1">
         <f t="array" ref="V33" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ｎ</v>
       </c>
-      <c r="W33" s="433" t="str" cm="1">
+      <c r="W33" s="411" t="str" cm="1">
         <f t="array" ref="W33" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>B</v>
       </c>
-      <c r="X33" s="439" t="s">
+      <c r="X33" s="417" t="s">
         <v>601</v>
       </c>
       <c r="Y33" s="24"/>
@@ -10802,7 +12097,7 @@
       <c r="AC33" s="379" t="s">
         <v>275</v>
       </c>
-      <c r="AD33" s="455" t="s">
+      <c r="AD33" s="433" t="s">
         <v>513</v>
       </c>
       <c r="AV33" s="11"/>
@@ -10825,7 +12120,7 @@
         <v>32</v>
       </c>
       <c r="M34" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N34" s="21" t="str">
@@ -10846,19 +12141,19 @@
       <c r="T34" s="2">
         <v>32</v>
       </c>
-      <c r="U34" s="431" t="str">
+      <c r="U34" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C42</f>
         <v>0</v>
       </c>
-      <c r="V34" s="432" t="str" cm="1">
+      <c r="V34" s="410" t="str" cm="1">
         <f t="array" ref="V34" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄢ</v>
       </c>
-      <c r="W34" s="433" t="str" cm="1">
+      <c r="W34" s="411" t="str" cm="1">
         <f t="array" ref="W34" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>@</v>
       </c>
-      <c r="X34" s="434" t="s">
+      <c r="X34" s="412" t="s">
         <v>98</v>
       </c>
       <c r="Y34" s="24"/>
@@ -10875,7 +12170,7 @@
       <c r="AC34" s="379" t="s">
         <v>259</v>
       </c>
-      <c r="AD34" s="455" t="s">
+      <c r="AD34" s="433" t="s">
         <v>518</v>
       </c>
       <c r="AV34" s="11"/>
@@ -10898,7 +12193,7 @@
         <v>33</v>
       </c>
       <c r="M35" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>p</v>
       </c>
       <c r="N35" s="21" t="str">
@@ -10919,19 +12214,19 @@
       <c r="T35" s="2">
         <v>33</v>
       </c>
-      <c r="U35" s="431" t="str">
+      <c r="U35" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C43</f>
         <v>p</v>
       </c>
-      <c r="V35" s="432" t="str" cm="1">
+      <c r="V35" s="410" t="str" cm="1">
         <f t="array" ref="V35" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄣ</v>
       </c>
-      <c r="W35" s="433" t="str" cm="1">
+      <c r="W35" s="411" t="str" cm="1">
         <f t="array" ref="W35" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>N</v>
       </c>
-      <c r="X35" s="439" t="s">
+      <c r="X35" s="417" t="s">
         <v>77</v>
       </c>
       <c r="Y35" s="24"/>
@@ -10948,7 +12243,7 @@
       <c r="AC35" s="379" t="s">
         <v>612</v>
       </c>
-      <c r="AD35" s="455" t="s">
+      <c r="AD35" s="433" t="s">
         <v>276</v>
       </c>
       <c r="AV35" s="11"/>
@@ -10971,7 +12266,7 @@
         <v>34</v>
       </c>
       <c r="M36" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>;</v>
       </c>
       <c r="N36" s="21" t="str">
@@ -10992,19 +12287,19 @@
       <c r="T36" s="2">
         <v>34</v>
       </c>
-      <c r="U36" s="431" t="str">
+      <c r="U36" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C44</f>
         <v>;</v>
       </c>
-      <c r="V36" s="432" t="str" cm="1">
+      <c r="V36" s="410" t="str" cm="1">
         <f t="array" ref="V36" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄤ</v>
       </c>
-      <c r="W36" s="433" t="str" cm="1">
+      <c r="W36" s="411" t="str" cm="1">
         <f t="array" ref="W36" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>[</v>
       </c>
-      <c r="X36" s="434" t="s">
+      <c r="X36" s="412" t="s">
         <v>96</v>
       </c>
       <c r="Y36" s="24"/>
@@ -11021,7 +12316,7 @@
       <c r="AC36" s="379" t="s">
         <v>558</v>
       </c>
-      <c r="AD36" s="455" t="s">
+      <c r="AD36" s="433" t="s">
         <v>273</v>
       </c>
       <c r="AV36" s="11"/>
@@ -11044,7 +12339,7 @@
         <v>35</v>
       </c>
       <c r="M37" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="N37" s="21" t="str">
@@ -11065,19 +12360,19 @@
       <c r="T37" s="2">
         <v>35</v>
       </c>
-      <c r="U37" s="431" t="str">
+      <c r="U37" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C45</f>
         <v>/</v>
       </c>
-      <c r="V37" s="432" t="str" cm="1">
+      <c r="V37" s="410" t="str" cm="1">
         <f t="array" ref="V37" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄥ</v>
       </c>
-      <c r="W37" s="433" t="str" cm="1">
+      <c r="W37" s="411" t="str" cm="1">
         <f t="array" ref="W37" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>W</v>
       </c>
-      <c r="X37" s="439" t="s">
+      <c r="X37" s="417" t="s">
         <v>75</v>
       </c>
       <c r="Y37" s="24"/>
@@ -11094,7 +12389,7 @@
       <c r="AC37" s="379" t="s">
         <v>322</v>
       </c>
-      <c r="AD37" s="455" t="s">
+      <c r="AD37" s="433" t="s">
         <v>270</v>
       </c>
       <c r="AV37" s="11"/>
@@ -11117,7 +12412,7 @@
         <v>36</v>
       </c>
       <c r="M38" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="N38" s="21" t="str">
@@ -11138,19 +12433,19 @@
       <c r="T38" s="2">
         <v>36</v>
       </c>
-      <c r="U38" s="431" t="str">
+      <c r="U38" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C46</f>
         <v>-</v>
       </c>
-      <c r="V38" s="432" t="str" cm="1">
+      <c r="V38" s="410" t="str" cm="1">
         <f t="array" ref="V38" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㄦ</v>
       </c>
-      <c r="W38" s="433" t="str" cm="1">
+      <c r="W38" s="411" t="str" cm="1">
         <f t="array" ref="W38" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>R</v>
       </c>
-      <c r="X38" s="434" t="s">
+      <c r="X38" s="412" t="s">
         <v>600</v>
       </c>
       <c r="Y38" s="24"/>
@@ -11167,7 +12462,7 @@
       <c r="AC38" s="379" t="s">
         <v>447</v>
       </c>
-      <c r="AD38" s="455" t="s">
+      <c r="AD38" s="433" t="s">
         <v>268</v>
       </c>
       <c r="AV38" s="11"/>
@@ -11190,7 +12485,7 @@
         <v>37</v>
       </c>
       <c r="M39" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>U</v>
       </c>
       <c r="N39" s="21" t="str">
@@ -11211,19 +12506,19 @@
       <c r="T39" s="2">
         <v>37</v>
       </c>
-      <c r="U39" s="431" t="str">
+      <c r="U39" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C47</f>
         <v>U</v>
       </c>
-      <c r="V39" s="432" t="str" cm="1">
+      <c r="V39" s="410" t="str" cm="1">
         <f t="array" ref="V39" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆪ</v>
       </c>
-      <c r="W39" s="433" t="str" cm="1">
+      <c r="W39" s="411" t="str" cm="1">
         <f t="array" ref="W39" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>I</v>
       </c>
-      <c r="X39" s="434" t="s">
+      <c r="X39" s="412" t="s">
         <v>112</v>
       </c>
       <c r="Y39" s="24"/>
@@ -11240,7 +12535,7 @@
       <c r="AC39" s="379" t="s">
         <v>569</v>
       </c>
-      <c r="AD39" s="455" t="s">
+      <c r="AD39" s="433" t="s">
         <v>265</v>
       </c>
       <c r="AV39" s="11"/>
@@ -11263,7 +12558,7 @@
         <v>38</v>
       </c>
       <c r="M40" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>J</v>
       </c>
       <c r="N40" s="21" t="str">
@@ -11284,19 +12579,19 @@
       <c r="T40" s="2">
         <v>38</v>
       </c>
-      <c r="U40" s="431" t="str">
+      <c r="U40" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C48</f>
         <v>J</v>
       </c>
-      <c r="V40" s="432" t="str" cm="1">
+      <c r="V40" s="410" t="str" cm="1">
         <f t="array" ref="V40" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆫ</v>
       </c>
-      <c r="W40" s="433" t="str" cm="1">
+      <c r="W40" s="411" t="str" cm="1">
         <f t="array" ref="W40" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>U</v>
       </c>
-      <c r="X40" s="434" t="s">
+      <c r="X40" s="412" t="s">
         <v>114</v>
       </c>
       <c r="Y40" s="24"/>
@@ -11313,7 +12608,7 @@
       <c r="AC40" s="379" t="s">
         <v>525</v>
       </c>
-      <c r="AD40" s="455" t="s">
+      <c r="AD40" s="433" t="s">
         <v>608</v>
       </c>
       <c r="AV40" s="11"/>
@@ -11336,7 +12631,7 @@
         <v>39</v>
       </c>
       <c r="M41" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>*</v>
       </c>
       <c r="N41" s="21" t="str">
@@ -11357,19 +12652,19 @@
       <c r="T41" s="2">
         <v>39</v>
       </c>
-      <c r="U41" s="431" t="str">
+      <c r="U41" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C49</f>
         <v>*</v>
       </c>
-      <c r="V41" s="432" t="str" cm="1">
+      <c r="V41" s="410" t="str" cm="1">
         <f t="array" ref="V41" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆩ</v>
       </c>
-      <c r="W41" s="433" t="str" cm="1">
+      <c r="W41" s="411" t="str" cm="1">
         <f t="array" ref="W41" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>A</v>
       </c>
-      <c r="X41" s="434" t="s">
+      <c r="X41" s="412" t="s">
         <v>116</v>
       </c>
       <c r="Y41" s="24"/>
@@ -11381,12 +12676,12 @@
         <v>217</v>
       </c>
       <c r="AB41" s="32" t="s">
-        <v>76</v>
+        <v>652</v>
       </c>
       <c r="AC41" s="379" t="s">
         <v>571</v>
       </c>
-      <c r="AD41" s="455" t="s">
+      <c r="AD41" s="433" t="s">
         <v>489</v>
       </c>
       <c r="AV41" s="11"/>
@@ -11409,7 +12704,7 @@
         <v>40</v>
       </c>
       <c r="M42" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>I</v>
       </c>
       <c r="N42" s="21" t="str">
@@ -11430,19 +12725,19 @@
       <c r="T42" s="2">
         <v>40</v>
       </c>
-      <c r="U42" s="431" t="str">
+      <c r="U42" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C50</f>
         <v>I</v>
       </c>
-      <c r="V42" s="432" t="str" cm="1">
+      <c r="V42" s="410" t="str" cm="1">
         <f t="array" ref="V42" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆧ</v>
       </c>
-      <c r="W42" s="433" t="str" cm="1">
+      <c r="W42" s="411" t="str" cm="1">
         <f t="array" ref="W42" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>Q</v>
       </c>
-      <c r="X42" s="434" t="s">
+      <c r="X42" s="412" t="s">
         <v>122</v>
       </c>
       <c r="Y42" s="24"/>
@@ -11459,7 +12754,7 @@
       <c r="AC42" s="379" t="s">
         <v>559</v>
       </c>
-      <c r="AD42" s="455" t="s">
+      <c r="AD42" s="433" t="s">
         <v>494</v>
       </c>
       <c r="AV42" s="11"/>
@@ -11482,7 +12777,7 @@
         <v>41</v>
       </c>
       <c r="M43" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>&lt;</v>
       </c>
       <c r="N43" s="21" t="str">
@@ -11503,19 +12798,19 @@
       <c r="T43" s="2">
         <v>41</v>
       </c>
-      <c r="U43" s="431" t="str">
+      <c r="U43" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C51</f>
         <v>&lt;</v>
       </c>
-      <c r="V43" s="432" t="str" cm="1">
+      <c r="V43" s="410" t="str" cm="1">
         <f t="array" ref="V43" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆥ</v>
       </c>
-      <c r="W43" s="433" t="str" cm="1">
+      <c r="W43" s="411" t="str" cm="1">
         <f t="array" ref="W43" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>E</v>
       </c>
-      <c r="X43" s="434" t="s">
+      <c r="X43" s="412" t="s">
         <v>120</v>
       </c>
       <c r="Y43" s="24"/>
@@ -11523,19 +12818,21 @@
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="AA43" s="464" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB43" s="465" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC43" s="466" t="s">
-        <v>621</v>
-      </c>
-      <c r="AD43" s="467" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE43" s="88"/>
+      <c r="AA43" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC43" s="379" t="s">
+        <v>617</v>
+      </c>
+      <c r="AD43" s="433" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE43" s="88" t="s">
+        <v>655</v>
+      </c>
       <c r="AV43" s="11"/>
       <c r="AW43" s="2"/>
     </row>
@@ -11556,7 +12853,7 @@
         <v>42</v>
       </c>
       <c r="M44" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>(</v>
       </c>
       <c r="N44" s="21" t="str">
@@ -11577,19 +12874,19 @@
       <c r="T44" s="2">
         <v>42</v>
       </c>
-      <c r="U44" s="431" t="str">
+      <c r="U44" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C52</f>
         <v>(</v>
       </c>
-      <c r="V44" s="432" t="str" cm="1">
+      <c r="V44" s="410" t="str" cm="1">
         <f t="array" ref="V44" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆮ</v>
       </c>
-      <c r="W44" s="433" t="str" cm="1">
+      <c r="W44" s="411" t="str" cm="1">
         <f t="array" ref="W44" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>Y</v>
       </c>
-      <c r="X44" s="434" t="s">
+      <c r="X44" s="412" t="s">
         <v>118</v>
       </c>
       <c r="Y44" s="24"/>
@@ -11597,17 +12894,20 @@
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="AA44" s="464" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB44" s="465" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC44" s="466" t="s">
-        <v>622</v>
-      </c>
-      <c r="AD44" s="467" t="s">
-        <v>207</v>
+      <c r="AA44" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB44" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC44" s="379" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD44" s="433" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="AV44" s="11"/>
       <c r="AW44" s="2"/>
@@ -11629,7 +12929,7 @@
         <v>43</v>
       </c>
       <c r="M45" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
       <c r="N45" s="21" t="str">
@@ -11640,19 +12940,19 @@
       <c r="T45" s="2">
         <v>43</v>
       </c>
-      <c r="U45" s="431" t="str">
+      <c r="U45" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C53</f>
         <v>L</v>
       </c>
-      <c r="V45" s="432" t="str" cm="1">
+      <c r="V45" s="410" t="str" cm="1">
         <f t="array" ref="V45" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆯ</v>
       </c>
-      <c r="W45" s="433" t="str" cm="1">
+      <c r="W45" s="411" t="str" cm="1">
         <f t="array" ref="W45" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>X</v>
       </c>
-      <c r="X45" s="434" t="s">
+      <c r="X45" s="412" t="s">
         <v>124</v>
       </c>
       <c r="Y45" s="24"/>
@@ -11660,17 +12960,17 @@
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="AA45" s="71">
-        <v>0</v>
+      <c r="AA45" s="71" t="s">
+        <v>206</v>
       </c>
       <c r="AB45" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AC45" s="379" t="s">
-        <v>617</v>
-      </c>
-      <c r="AD45" s="455" t="s">
-        <v>177</v>
+        <v>653</v>
+      </c>
+      <c r="AD45" s="433" t="s">
+        <v>160</v>
       </c>
       <c r="AV45" s="11"/>
       <c r="AW45" s="2"/>
@@ -11688,7 +12988,7 @@
       <c r="F46" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="441"/>
+      <c r="G46" s="419"/>
       <c r="H46" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -11705,7 +13005,7 @@
         <v>44</v>
       </c>
       <c r="M46" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>O</v>
       </c>
       <c r="N46" s="21" t="str">
@@ -11716,19 +13016,19 @@
       <c r="T46" s="2">
         <v>44</v>
       </c>
-      <c r="U46" s="431" t="str">
+      <c r="U46" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C54</f>
         <v>O</v>
       </c>
-      <c r="V46" s="432" t="str" cm="1">
+      <c r="V46" s="410" t="str" cm="1">
         <f t="array" ref="V46" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆱ</v>
       </c>
-      <c r="W46" s="433" t="str" cm="1">
+      <c r="W46" s="411" t="str" cm="1">
         <f t="array" ref="W46" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>}</v>
       </c>
-      <c r="X46" s="434" t="s">
+      <c r="X46" s="412" t="s">
         <v>126</v>
       </c>
       <c r="Y46" s="24"/>
@@ -11737,16 +13037,16 @@
         <v>44</v>
       </c>
       <c r="AA46" s="71" t="s">
-        <v>212</v>
+        <v>500</v>
       </c>
       <c r="AB46" s="32" t="s">
-        <v>95</v>
+        <v>594</v>
       </c>
       <c r="AC46" s="379" t="s">
-        <v>618</v>
-      </c>
-      <c r="AD46" s="455" t="s">
-        <v>163</v>
+        <v>144</v>
+      </c>
+      <c r="AD46" s="433" t="s">
+        <v>623</v>
       </c>
       <c r="AV46" s="11"/>
       <c r="AW46" s="2"/>
@@ -11759,15 +13059,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="21" t="str">
-        <f t="shared" ref="D47:D88" si="10" xml:space="preserve"> MID($B$47, $C47, 1)</f>
+        <f t="shared" ref="D47:D88" si="14" xml:space="preserve"> MID($B$47, $C47, 1)</f>
         <v>1</v>
       </c>
       <c r="E47" s="5" t="str">
-        <f t="shared" ref="E47:E88" si="11" xml:space="preserve"> IFERROR( INDEX($N$3:$N$44, MATCH(D47, $M$3:$M$44, 0)), "")</f>
+        <f t="shared" ref="E47:E88" si="15" xml:space="preserve"> IFERROR( INDEX($N$3:$N$44, MATCH(D47, $M$3:$M$44, 0)), "")</f>
         <v>ㄅ</v>
       </c>
       <c r="F47" s="5" t="str">
-        <f t="shared" ref="F47:F88" si="12" xml:space="preserve"> IFERROR( INDEX($I$3:$I$44, MATCH($D47, $J$3:$J$44, 0)), "")</f>
+        <f t="shared" ref="F47:F88" si="16" xml:space="preserve"> IFERROR( INDEX($I$3:$I$44, MATCH($D47, $J$3:$J$44, 0)), "")</f>
         <v>p</v>
       </c>
       <c r="G47" s="5"/>
@@ -11787,7 +13087,7 @@
         <v>45</v>
       </c>
       <c r="M47" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="N47" s="21" t="str">
@@ -11798,19 +13098,19 @@
       <c r="T47" s="2">
         <v>45</v>
       </c>
-      <c r="U47" s="431" t="str">
+      <c r="U47" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C55</f>
         <v>A</v>
       </c>
-      <c r="V47" s="432" t="str" cm="1">
+      <c r="V47" s="410" t="str" cm="1">
         <f t="array" ref="V47" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆰ</v>
       </c>
-      <c r="W47" s="433" t="str" cm="1">
+      <c r="W47" s="411" t="str" cm="1">
         <f t="array" ref="W47" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>{</v>
       </c>
-      <c r="X47" s="434" t="s">
+      <c r="X47" s="412" t="s">
         <v>100</v>
       </c>
       <c r="Y47" s="24"/>
@@ -11819,16 +13119,16 @@
         <v>45</v>
       </c>
       <c r="AA47" s="71" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="AB47" s="32" t="s">
-        <v>101</v>
+        <v>532</v>
       </c>
       <c r="AC47" s="379" t="s">
-        <v>619</v>
-      </c>
-      <c r="AD47" s="455" t="s">
-        <v>160</v>
+        <v>361</v>
+      </c>
+      <c r="AD47" s="433">
+        <v>1</v>
       </c>
       <c r="AV47" s="11"/>
       <c r="AW47" s="2"/>
@@ -11842,15 +13142,15 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>q</v>
       </c>
       <c r="E48" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄆ</v>
       </c>
       <c r="F48" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>P</v>
       </c>
       <c r="G48" s="5"/>
@@ -11870,7 +13170,7 @@
         <v>46</v>
       </c>
       <c r="M48" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>:</v>
       </c>
       <c r="N48" s="21" t="str">
@@ -11881,19 +13181,19 @@
       <c r="T48" s="2">
         <v>46</v>
       </c>
-      <c r="U48" s="431" t="str">
+      <c r="U48" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C56</f>
         <v>:</v>
       </c>
-      <c r="V48" s="432" t="str" cm="1">
+      <c r="V48" s="410" t="str" cm="1">
         <f t="array" ref="V48" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ㆲ</v>
       </c>
-      <c r="W48" s="433" t="str" cm="1">
+      <c r="W48" s="411" t="str" cm="1">
         <f t="array" ref="W48" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>]</v>
       </c>
-      <c r="X48" s="434" t="s">
+      <c r="X48" s="412" t="s">
         <v>102</v>
       </c>
       <c r="Y48" s="24"/>
@@ -11902,16 +13202,16 @@
         <v>46</v>
       </c>
       <c r="AA48" s="71" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AB48" s="32" t="s">
-        <v>593</v>
+        <v>104</v>
       </c>
       <c r="AC48" s="379" t="s">
-        <v>560</v>
-      </c>
-      <c r="AD48" s="455" t="s">
-        <v>522</v>
+        <v>347</v>
+      </c>
+      <c r="AD48" s="433">
+        <v>2</v>
       </c>
       <c r="AV48" s="11"/>
       <c r="AW48" s="2"/>
@@ -11921,15 +13221,15 @@
         <v>3</v>
       </c>
       <c r="D49" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>a</v>
       </c>
       <c r="E49" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄇ</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>m</v>
       </c>
       <c r="G49" s="5"/>
@@ -11949,7 +13249,7 @@
         <v>47</v>
       </c>
       <c r="M49" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N49" s="21" t="str">
@@ -11960,7 +13260,7 @@
       <c r="T49" s="2">
         <v>47</v>
       </c>
-      <c r="U49" s="431" t="str">
+      <c r="U49" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C57</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -11968,11 +13268,11 @@
         <f t="array" ref="V49" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="W49" s="433" t="str" cm="1">
+      <c r="W49" s="411" t="str" cm="1">
         <f t="array" ref="W49" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>1</v>
       </c>
-      <c r="X49" s="434">
+      <c r="X49" s="412">
         <v>1</v>
       </c>
       <c r="Y49" s="24"/>
@@ -11981,16 +13281,16 @@
         <v>47</v>
       </c>
       <c r="AA49" s="71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AB49" s="32" t="s">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="AC49" s="379" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD49" s="455">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="AD49" s="433">
+        <v>3</v>
       </c>
       <c r="AV49" s="11"/>
       <c r="AW49" s="2"/>
@@ -12000,15 +13300,15 @@
         <v>4</v>
       </c>
       <c r="D50" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>z</v>
       </c>
       <c r="E50" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F50" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G50" s="5"/>
@@ -12028,7 +13328,7 @@
         <v>48</v>
       </c>
       <c r="M50" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N50" s="21" t="str">
@@ -12039,19 +13339,19 @@
       <c r="T50" s="2">
         <v>48</v>
       </c>
-      <c r="U50" s="431" t="str">
+      <c r="U50" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C58</f>
         <v>4</v>
       </c>
-      <c r="V50" s="432" t="str" cm="1">
+      <c r="V50" s="410" t="str" cm="1">
         <f t="array" ref="V50" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ˋ</v>
       </c>
-      <c r="W50" s="433" t="str" cm="1">
+      <c r="W50" s="411" t="str" cm="1">
         <f t="array" ref="W50" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>2</v>
       </c>
-      <c r="X50" s="434">
+      <c r="X50" s="412">
         <v>2</v>
       </c>
       <c r="Y50" s="24"/>
@@ -12060,16 +13360,16 @@
         <v>48</v>
       </c>
       <c r="AA50" s="71" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="AB50" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AC50" s="379" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD50" s="455">
-        <v>2</v>
+        <v>170</v>
+      </c>
+      <c r="AD50" s="433">
+        <v>5</v>
       </c>
       <c r="AV50" s="11"/>
       <c r="AW50" s="2"/>
@@ -12082,15 +13382,15 @@
         <v>5</v>
       </c>
       <c r="D51" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E51" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄉ</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>t</v>
       </c>
       <c r="G51" s="5"/>
@@ -12110,7 +13410,7 @@
         <v>49</v>
       </c>
       <c r="M51" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="N51" s="21" t="str">
@@ -12121,19 +13421,19 @@
       <c r="T51" s="2">
         <v>49</v>
       </c>
-      <c r="U51" s="431" t="str">
+      <c r="U51" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C59</f>
         <v>3</v>
       </c>
-      <c r="V51" s="432" t="str" cm="1">
+      <c r="V51" s="410" t="str" cm="1">
         <f t="array" ref="V51" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ˇ</v>
       </c>
-      <c r="W51" s="433" t="str" cm="1">
+      <c r="W51" s="411" t="str" cm="1">
         <f t="array" ref="W51" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>3</v>
       </c>
-      <c r="X51" s="434">
+      <c r="X51" s="412">
         <v>3</v>
       </c>
       <c r="Y51" s="24"/>
@@ -12142,16 +13442,16 @@
         <v>49</v>
       </c>
       <c r="AA51" s="71" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="AB51" s="32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AC51" s="379" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD51" s="455">
-        <v>3</v>
+        <v>166</v>
+      </c>
+      <c r="AD51" s="433">
+        <v>7</v>
       </c>
       <c r="AV51" s="11"/>
       <c r="AW51" s="2"/>
@@ -12164,15 +13464,15 @@
         <v>6</v>
       </c>
       <c r="D52" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>w</v>
       </c>
       <c r="E52" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄊ</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>T</v>
       </c>
       <c r="G52" s="5"/>
@@ -12192,7 +13492,7 @@
         <v>50</v>
       </c>
       <c r="M52" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N52" s="21" t="str">
@@ -12203,19 +13503,19 @@
       <c r="T52" s="2">
         <v>50</v>
       </c>
-      <c r="U52" s="431" t="str">
+      <c r="U52" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C60</f>
         <v>6</v>
       </c>
-      <c r="V52" s="432" t="str" cm="1">
+      <c r="V52" s="410" t="str" cm="1">
         <f t="array" ref="V52" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>ˊ</v>
       </c>
-      <c r="W52" s="433" t="str" cm="1">
+      <c r="W52" s="411" t="str" cm="1">
         <f t="array" ref="W52" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>5</v>
       </c>
-      <c r="X52" s="434">
+      <c r="X52" s="412">
         <v>5</v>
       </c>
       <c r="Y52" s="24"/>
@@ -12224,16 +13524,16 @@
         <v>50</v>
       </c>
       <c r="AA52" s="71" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AB52" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AC52" s="379" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD52" s="455">
-        <v>5</v>
+        <v>219</v>
+      </c>
+      <c r="AD52" s="433" t="s">
+        <v>609</v>
       </c>
       <c r="AV52" s="11"/>
       <c r="AW52" s="2"/>
@@ -12243,15 +13543,15 @@
         <v>7</v>
       </c>
       <c r="D53" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>s</v>
       </c>
       <c r="E53" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄋ</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>n</v>
       </c>
       <c r="G53" s="5"/>
@@ -12271,7 +13571,7 @@
         <v>51</v>
       </c>
       <c r="M53" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="N53" s="21" t="str">
@@ -12282,19 +13582,19 @@
       <c r="T53" s="2">
         <v>51</v>
       </c>
-      <c r="U53" s="431" t="str">
+      <c r="U53" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C61</f>
         <v>5</v>
       </c>
-      <c r="V53" s="432" t="str" cm="1">
+      <c r="V53" s="410" t="str" cm="1">
         <f t="array" ref="V53" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>+</v>
       </c>
-      <c r="W53" s="433" t="str" cm="1">
+      <c r="W53" s="411" t="str" cm="1">
         <f t="array" ref="W53" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>7</v>
       </c>
-      <c r="X53" s="434">
+      <c r="X53" s="412">
         <v>7</v>
       </c>
       <c r="Y53" s="24"/>
@@ -12302,17 +13602,19 @@
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="AA53" s="71" t="s">
-        <v>170</v>
+      <c r="AA53" s="71" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[鍵盤按鍵], MATCH($AB53, 表格1_33411[注音符號], 0)), "")</f>
+        <v/>
       </c>
       <c r="AB53" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC53" s="379" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD53" s="455">
-        <v>7</v>
+        <v>128</v>
+      </c>
+      <c r="AC53" s="379" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB53, 表格1_33411[注音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AD53" s="436" t="s">
+        <v>645</v>
       </c>
       <c r="AV53" s="11"/>
       <c r="AW53" s="2"/>
@@ -12322,15 +13624,15 @@
         <v>8</v>
       </c>
       <c r="D54" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="E54" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄌ</v>
       </c>
       <c r="F54" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>l</v>
       </c>
       <c r="G54" s="5"/>
@@ -12350,7 +13652,7 @@
         <v>52</v>
       </c>
       <c r="M54" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N54" s="21" t="str">
@@ -12361,19 +13663,19 @@
       <c r="T54" s="2">
         <v>52</v>
       </c>
-      <c r="U54" s="431" t="str">
+      <c r="U54" s="409" t="str">
         <f xml:space="preserve"> 使用按鍵解析!C62</f>
         <v>7</v>
       </c>
-      <c r="V54" s="432" t="str" cm="1">
+      <c r="V54" s="410" t="str" cm="1">
         <f t="array" ref="V54" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</f>
         <v>˙</v>
       </c>
-      <c r="W54" s="433" t="str" cm="1">
+      <c r="W54" s="411" t="str" cm="1">
         <f t="array" ref="W54" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</f>
         <v>0</v>
       </c>
-      <c r="X54" s="434" t="s">
+      <c r="X54" s="412" t="s">
         <v>610</v>
       </c>
       <c r="Y54" s="24"/>
@@ -12381,17 +13683,19 @@
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="AA54" s="71" t="s">
-        <v>166</v>
+      <c r="AA54" s="71" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[鍵盤按鍵], MATCH($AB54, 表格1_33411[注音符號], 0)), "")</f>
+        <v/>
       </c>
       <c r="AB54" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC54" s="379" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD54" s="455" t="s">
-        <v>609</v>
+        <v>130</v>
+      </c>
+      <c r="AC54" s="379" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB54, 表格1_33411[注音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AD54" s="436" t="s">
+        <v>646</v>
       </c>
       <c r="AV54" s="11"/>
       <c r="AW54" s="2"/>
@@ -12401,15 +13705,15 @@
         <v>9</v>
       </c>
       <c r="D55" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>e</v>
       </c>
       <c r="E55" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄍ</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>k</v>
       </c>
       <c r="G55" s="5"/>
@@ -12426,14 +13730,14 @@
         <v/>
       </c>
       <c r="AB55" s="32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AC55" s="379" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB55, 表格1_33411[注音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AD55" s="458" t="s">
-        <v>645</v>
+      <c r="AD55" s="436" t="s">
+        <v>647</v>
       </c>
       <c r="AV55" s="11"/>
       <c r="AW55" s="2"/>
@@ -12443,15 +13747,15 @@
         <v>10</v>
       </c>
       <c r="D56" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>d</v>
       </c>
       <c r="E56" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄎ</v>
       </c>
       <c r="F56" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>K</v>
       </c>
       <c r="G56" s="5"/>
@@ -12468,32 +13772,32 @@
         <v/>
       </c>
       <c r="AB56" s="32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AC56" s="379" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB56, 表格1_33411[注音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AD56" s="458" t="s">
-        <v>646</v>
+      <c r="AD56" s="436" t="s">
+        <v>648</v>
       </c>
       <c r="AV56" s="11"/>
       <c r="AW56" s="2"/>
     </row>
-    <row r="57" spans="2:49" ht="32.25">
+    <row r="57" spans="2:49">
       <c r="C57" s="2">
         <v>11</v>
       </c>
       <c r="D57" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>c</v>
       </c>
       <c r="E57" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄏ</v>
       </c>
       <c r="F57" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>h</v>
       </c>
       <c r="G57" s="5"/>
@@ -12501,41 +13805,23 @@
       <c r="J57" s="2"/>
       <c r="R57" s="2"/>
       <c r="Y57" s="24"/>
-      <c r="Z57" s="98">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="AA57" s="71" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[鍵盤按鍵], MATCH($AB57, 表格1_33411[注音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AB57" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC57" s="379" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB57, 表格1_33411[注音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AD57" s="458" t="s">
-        <v>647</v>
-      </c>
       <c r="AV57" s="11"/>
       <c r="AW57" s="2"/>
     </row>
-    <row r="58" spans="2:49" ht="32.25">
+    <row r="58" spans="2:49">
       <c r="C58" s="2">
         <v>12</v>
       </c>
       <c r="D58" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>r</v>
       </c>
       <c r="E58" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F58" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G58" s="5"/>
@@ -12543,23 +13829,10 @@
       <c r="J58" s="2"/>
       <c r="R58" s="2"/>
       <c r="Y58" s="24"/>
-      <c r="Z58" s="98">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="AA58" s="71" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[鍵盤按鍵], MATCH($AB58, 表格1_33411[注音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AB58" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC58" s="379" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB58, 表格1_33411[注音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AD58" s="458" t="s">
-        <v>648</v>
+      <c r="AB58" s="431"/>
+      <c r="AC58" s="431"/>
+      <c r="AD58" s="432" t="s">
+        <v>649</v>
       </c>
       <c r="AV58" s="11"/>
       <c r="AW58" s="2"/>
@@ -12569,15 +13842,15 @@
         <v>13</v>
       </c>
       <c r="D59" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>f</v>
       </c>
       <c r="E59" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F59" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G59" s="5"/>
@@ -12588,20 +13861,20 @@
       <c r="AV59" s="11"/>
       <c r="AW59" s="2"/>
     </row>
-    <row r="60" spans="2:49">
+    <row r="60" spans="2:49" ht="32.25">
       <c r="C60" s="2">
         <v>14</v>
       </c>
       <c r="D60" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>v</v>
       </c>
       <c r="E60" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F60" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G60" s="5"/>
@@ -12609,32 +13882,39 @@
       <c r="J60" s="2"/>
       <c r="R60" s="2"/>
       <c r="Y60" s="24"/>
-      <c r="AB60" s="453" t="s">
-        <v>649</v>
-      </c>
-      <c r="AC60" s="453" t="s">
-        <v>650</v>
-      </c>
-      <c r="AD60" s="454" t="s">
-        <v>650</v>
+      <c r="Z60" s="98">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="AA60" s="442" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB60" s="443" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC60" s="444" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD60" s="445" t="s">
+        <v>203</v>
       </c>
       <c r="AV60" s="11"/>
       <c r="AW60" s="2"/>
     </row>
-    <row r="61" spans="2:49">
+    <row r="61" spans="2:49" ht="32.25">
       <c r="C61" s="2">
         <v>15</v>
       </c>
       <c r="D61" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>t</v>
       </c>
       <c r="E61" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F61" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G61" s="5"/>
@@ -12642,6 +13922,22 @@
       <c r="J61" s="2"/>
       <c r="R61" s="2"/>
       <c r="Y61" s="24"/>
+      <c r="Z61" s="98">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="AA61" s="442" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB61" s="443" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC61" s="444" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD61" s="445" t="s">
+        <v>207</v>
+      </c>
       <c r="AV61" s="11"/>
       <c r="AW61" s="2"/>
     </row>
@@ -12650,15 +13946,15 @@
         <v>16</v>
       </c>
       <c r="D62" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>g</v>
       </c>
       <c r="E62" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F62" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G62" s="5"/>
@@ -12673,15 +13969,15 @@
         <v>17</v>
       </c>
       <c r="D63" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>b</v>
       </c>
       <c r="E63" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㆡ</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>j</v>
       </c>
       <c r="G63" s="5"/>
@@ -12696,15 +13992,15 @@
         <v>18</v>
       </c>
       <c r="D64" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>y</v>
       </c>
       <c r="E64" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄗ</v>
       </c>
       <c r="F64" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>z</v>
       </c>
       <c r="G64" s="5"/>
@@ -12719,15 +14015,15 @@
         <v>19</v>
       </c>
       <c r="D65" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>h</v>
       </c>
       <c r="E65" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄘ</v>
       </c>
       <c r="F65" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>c</v>
       </c>
       <c r="G65" s="5"/>
@@ -12742,15 +14038,15 @@
         <v>20</v>
       </c>
       <c r="D66" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>n</v>
       </c>
       <c r="E66" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄙ</v>
       </c>
       <c r="F66" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>s</v>
       </c>
       <c r="G66" s="5"/>
@@ -12765,15 +14061,15 @@
         <v>21</v>
       </c>
       <c r="D67" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>u</v>
       </c>
       <c r="E67" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄧ</v>
       </c>
       <c r="F67" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>i</v>
       </c>
       <c r="G67" s="5"/>
@@ -12788,15 +14084,15 @@
         <v>22</v>
       </c>
       <c r="D68" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>j</v>
       </c>
       <c r="E68" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄨ</v>
       </c>
       <c r="F68" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>u</v>
       </c>
       <c r="G68" s="5"/>
@@ -12811,15 +14107,15 @@
         <v>23</v>
       </c>
       <c r="D69" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>m</v>
       </c>
       <c r="E69" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄇ</v>
       </c>
       <c r="F69" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>M</v>
       </c>
       <c r="G69" s="5"/>
@@ -12834,15 +14130,15 @@
         <v>24</v>
       </c>
       <c r="D70" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E70" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄚ</v>
       </c>
       <c r="F70" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>a</v>
       </c>
       <c r="G70" s="5"/>
@@ -12857,15 +14153,15 @@
         <v>25</v>
       </c>
       <c r="D71" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>i</v>
       </c>
       <c r="E71" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄛ</v>
       </c>
       <c r="F71" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>O</v>
       </c>
       <c r="G71" s="5"/>
@@ -12880,15 +14176,15 @@
         <v>26</v>
       </c>
       <c r="D72" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>k</v>
       </c>
       <c r="E72" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄜ</v>
       </c>
       <c r="F72" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>o</v>
       </c>
       <c r="G72" s="5"/>
@@ -12903,15 +14199,15 @@
         <v>27</v>
       </c>
       <c r="D73" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="E73" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄝ</v>
       </c>
       <c r="F73" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>e</v>
       </c>
       <c r="G73" s="5"/>
@@ -12926,15 +14222,15 @@
         <v>28</v>
       </c>
       <c r="D74" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E74" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄞ</v>
       </c>
       <c r="F74" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="G74" s="5"/>
@@ -12949,15 +14245,15 @@
         <v>29</v>
       </c>
       <c r="D75" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>o</v>
       </c>
       <c r="E75" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F75" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G75" s="5"/>
@@ -12972,15 +14268,15 @@
         <v>30</v>
       </c>
       <c r="D76" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>l</v>
       </c>
       <c r="E76" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄠ</v>
       </c>
       <c r="F76" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="G76" s="5"/>
@@ -12995,15 +14291,15 @@
         <v>31</v>
       </c>
       <c r="D77" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>.</v>
       </c>
       <c r="E77" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ｎ</v>
       </c>
       <c r="F77" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>B</v>
       </c>
       <c r="G77" s="5"/>
@@ -13018,15 +14314,15 @@
         <v>32</v>
       </c>
       <c r="D78" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E78" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄢ</v>
       </c>
       <c r="F78" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>@</v>
       </c>
       <c r="G78" s="5"/>
@@ -13041,15 +14337,15 @@
         <v>33</v>
       </c>
       <c r="D79" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>p</v>
       </c>
       <c r="E79" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄣ</v>
       </c>
       <c r="F79" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="G79" s="5"/>
@@ -13064,15 +14360,15 @@
         <v>34</v>
       </c>
       <c r="D80" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>;</v>
       </c>
       <c r="E80" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄤ</v>
       </c>
       <c r="F80" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>[</v>
       </c>
       <c r="G80" s="5"/>
@@ -13087,15 +14383,15 @@
         <v>35</v>
       </c>
       <c r="D81" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E81" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄥ</v>
       </c>
       <c r="F81" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>W</v>
       </c>
       <c r="G81" s="5"/>
@@ -13110,15 +14406,15 @@
         <v>36</v>
       </c>
       <c r="D82" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-</v>
       </c>
       <c r="E82" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ㄦ</v>
       </c>
       <c r="F82" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>R</v>
       </c>
       <c r="G82" s="5"/>
@@ -13133,15 +14429,15 @@
         <v>37</v>
       </c>
       <c r="D83" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E83" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F83" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G83" s="5"/>
@@ -13156,15 +14452,15 @@
         <v>38</v>
       </c>
       <c r="D84" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="E84" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F84" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G84" s="5"/>
@@ -13179,15 +14475,15 @@
         <v>39</v>
       </c>
       <c r="D85" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F85" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G85" s="5"/>
@@ -13202,15 +14498,15 @@
         <v>40</v>
       </c>
       <c r="D86" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="E86" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F86" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G86" s="5"/>
@@ -13225,15 +14521,15 @@
         <v>41</v>
       </c>
       <c r="D87" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="E87" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F87" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G87" s="5"/>
@@ -13248,15 +14544,15 @@
         <v>42</v>
       </c>
       <c r="D88" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E88" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F88" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G88" s="5"/>
@@ -13366,7 +14662,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="AA3:AA58">
+  <conditionalFormatting sqref="AA60:AA61 AA3:AA56">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
@@ -13382,7 +14678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D988227A-E18F-42DC-8F96-79ED3E5EA52C}">
   <dimension ref="B1:BC58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30:D34"/>
     </sheetView>
   </sheetViews>
@@ -13456,7 +14752,7 @@
       <c r="C3" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="421" t="s">
+      <c r="D3" s="400" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="379" t="s">
@@ -13498,7 +14794,7 @@
       <c r="C4" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="421" t="s">
+      <c r="D4" s="400" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="379" t="s">
@@ -13540,7 +14836,7 @@
       <c r="C5" s="71" t="s">
         <v>394</v>
       </c>
-      <c r="D5" s="421" t="s">
+      <c r="D5" s="400" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="379" t="s">
@@ -13558,7 +14854,7 @@
       <c r="C6" s="71" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="421" t="s">
+      <c r="D6" s="400" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="379" t="s">
@@ -13576,7 +14872,7 @@
       <c r="C7" s="71" t="s">
         <v>347</v>
       </c>
-      <c r="D7" s="421" t="s">
+      <c r="D7" s="400" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="379" t="s">
@@ -13597,7 +14893,7 @@
       <c r="C8" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="D8" s="421" t="s">
+      <c r="D8" s="400" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="379" t="s">
@@ -13666,7 +14962,7 @@
       <c r="C9" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="421" t="s">
+      <c r="D9" s="400" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="379" t="s">
@@ -13684,7 +14980,7 @@
       <c r="C10" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="421" t="s">
+      <c r="D10" s="400" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="379" t="s">
@@ -13702,7 +14998,7 @@
       <c r="C11" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="421" t="s">
+      <c r="D11" s="400" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="379" t="s">
@@ -13723,7 +15019,7 @@
       <c r="C12" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="D12" s="421" t="s">
+      <c r="D12" s="400" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="379" t="s">
@@ -13792,7 +15088,7 @@
       <c r="C13" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="421" t="s">
+      <c r="D13" s="400" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="379" t="s">
@@ -13810,7 +15106,7 @@
       <c r="C14" s="71" t="s">
         <v>429</v>
       </c>
-      <c r="D14" s="421" t="s">
+      <c r="D14" s="400" t="s">
         <v>127</v>
       </c>
       <c r="E14" s="379" t="s">
@@ -13828,7 +15124,7 @@
       <c r="C15" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="421" t="s">
+      <c r="D15" s="400" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="379" t="s">
@@ -13849,7 +15145,7 @@
       <c r="C16" s="380" t="s">
         <v>590</v>
       </c>
-      <c r="D16" s="422" t="s">
+      <c r="D16" s="401" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="383" t="s">
@@ -13918,7 +15214,7 @@
       <c r="C17" s="380" t="s">
         <v>422</v>
       </c>
-      <c r="D17" s="422" t="s">
+      <c r="D17" s="401" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="383" t="s">
@@ -13936,7 +15232,7 @@
       <c r="C18" s="380" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="422" t="s">
+      <c r="D18" s="401" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="383" t="s">
@@ -13954,7 +15250,7 @@
       <c r="C19" s="380" t="s">
         <v>447</v>
       </c>
-      <c r="D19" s="422" t="s">
+      <c r="D19" s="401" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="383" t="s">
@@ -13972,7 +15268,7 @@
       <c r="C20" s="384" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="423" t="s">
+      <c r="D20" s="402" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="387" t="s">
@@ -13990,7 +15286,7 @@
       <c r="C21" s="384" t="s">
         <v>602</v>
       </c>
-      <c r="D21" s="423" t="s">
+      <c r="D21" s="402" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="388" t="s">
@@ -14008,7 +15304,7 @@
       <c r="C22" s="384" t="s">
         <v>603</v>
       </c>
-      <c r="D22" s="423" t="s">
+      <c r="D22" s="402" t="s">
         <v>284</v>
       </c>
       <c r="E22" s="388" t="s">
@@ -14026,7 +15322,7 @@
       <c r="C23" s="384" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="423" t="s">
+      <c r="D23" s="402" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="387" t="s">
@@ -14044,7 +15340,7 @@
       <c r="C24" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="421" t="s">
+      <c r="D24" s="400" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="379" t="s">
@@ -14062,7 +15358,7 @@
       <c r="C25" s="389" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="421" t="s">
+      <c r="D25" s="400" t="s">
         <v>111</v>
       </c>
       <c r="E25" s="390" t="s">
@@ -14080,7 +15376,7 @@
       <c r="C26" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="421" t="s">
+      <c r="D26" s="400" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="379" t="s">
@@ -14098,7 +15394,7 @@
       <c r="C27" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="421" t="s">
+      <c r="D27" s="400" t="s">
         <v>113</v>
       </c>
       <c r="E27" s="379" t="s">
@@ -14116,7 +15412,7 @@
       <c r="C28" s="71" t="s">
         <v>591</v>
       </c>
-      <c r="D28" s="421" t="s">
+      <c r="D28" s="400" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="379" t="s">
@@ -14134,7 +15430,7 @@
       <c r="C29" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="421" t="s">
+      <c r="D29" s="400" t="s">
         <v>115</v>
       </c>
       <c r="E29" s="379" t="s">
@@ -14152,7 +15448,7 @@
       <c r="C30" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="421" t="s">
+      <c r="D30" s="400" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="379" t="s">
@@ -14170,7 +15466,7 @@
       <c r="C31" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="421" t="s">
+      <c r="D31" s="400" t="s">
         <v>121</v>
       </c>
       <c r="E31" s="379" t="s">
@@ -14188,7 +15484,7 @@
       <c r="C32" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="421" t="s">
+      <c r="D32" s="400" t="s">
         <v>473</v>
       </c>
       <c r="E32" s="379" t="s">
@@ -14206,7 +15502,7 @@
       <c r="C33" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="421" t="s">
+      <c r="D33" s="400" t="s">
         <v>61</v>
       </c>
       <c r="E33" s="379" t="s">
@@ -14224,7 +15520,7 @@
       <c r="C34" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="D34" s="421" t="s">
+      <c r="D34" s="400" t="s">
         <v>119</v>
       </c>
       <c r="E34" s="379" t="s">
@@ -14242,7 +15538,7 @@
       <c r="C35" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="D35" s="421" t="s">
+      <c r="D35" s="400" t="s">
         <v>241</v>
       </c>
       <c r="E35" s="379" t="s">
@@ -14260,7 +15556,7 @@
       <c r="C36" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="421" t="s">
+      <c r="D36" s="400" t="s">
         <v>117</v>
       </c>
       <c r="E36" s="379" t="s">
@@ -14278,7 +15574,7 @@
       <c r="C37" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="421" t="s">
+      <c r="D37" s="400" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="379" t="s">
@@ -14296,7 +15592,7 @@
       <c r="C38" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="D38" s="421" t="s">
+      <c r="D38" s="400" t="s">
         <v>123</v>
       </c>
       <c r="E38" s="379" t="s">
@@ -14314,7 +15610,7 @@
       <c r="C39" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="421" t="s">
+      <c r="D39" s="400" t="s">
         <v>97</v>
       </c>
       <c r="E39" s="379" t="s">
@@ -14332,7 +15628,7 @@
       <c r="C40" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="D40" s="421" t="s">
+      <c r="D40" s="400" t="s">
         <v>95</v>
       </c>
       <c r="E40" s="379" t="s">
@@ -14350,7 +15646,7 @@
       <c r="C41" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="421" t="s">
+      <c r="D41" s="400" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="379" t="s">
@@ -14368,7 +15664,7 @@
       <c r="C42" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="421" t="s">
+      <c r="D42" s="400" t="s">
         <v>620</v>
       </c>
       <c r="E42" s="379" t="s">
@@ -14386,7 +15682,7 @@
       <c r="C43" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="421" t="s">
+      <c r="D43" s="400" t="s">
         <v>125</v>
       </c>
       <c r="E43" s="379" t="s">
@@ -14404,7 +15700,7 @@
       <c r="C44" s="71" t="s">
         <v>612</v>
       </c>
-      <c r="D44" s="421" t="s">
+      <c r="D44" s="400" t="s">
         <v>99</v>
       </c>
       <c r="E44" s="379" t="s">
@@ -14422,7 +15718,7 @@
       <c r="C45" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="421" t="s">
+      <c r="D45" s="400" t="s">
         <v>145</v>
       </c>
       <c r="E45" s="379" t="s">
@@ -14440,7 +15736,7 @@
       <c r="C46" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D46" s="421" t="s">
+      <c r="D46" s="400" t="s">
         <v>74</v>
       </c>
       <c r="E46" s="379" t="s">
@@ -14458,7 +15754,7 @@
       <c r="C47" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="D47" s="421" t="s">
+      <c r="D47" s="400" t="s">
         <v>76</v>
       </c>
       <c r="E47" s="379" t="s">
@@ -14476,7 +15772,7 @@
       <c r="C48" s="71" t="s">
         <v>596</v>
       </c>
-      <c r="D48" s="421" t="s">
+      <c r="D48" s="400" t="s">
         <v>594</v>
       </c>
       <c r="E48" s="379" t="s">
@@ -14494,7 +15790,7 @@
       <c r="C49" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="421" t="s">
+      <c r="D49" s="400" t="s">
         <v>631</v>
       </c>
       <c r="E49" s="379" t="s">
@@ -14530,7 +15826,7 @@
       <c r="C50" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="421" t="s">
+      <c r="D50" s="400" t="s">
         <v>104</v>
       </c>
       <c r="E50" s="379" t="s">
@@ -14539,14 +15835,14 @@
       <c r="F50" s="33">
         <v>2</v>
       </c>
-      <c r="K50" s="424" t="str">
+      <c r="K50" s="403" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(K49:O49)</f>
         <v>ˋ˪ˊ˫．</v>
       </c>
-      <c r="L50" s="425"/>
-      <c r="M50" s="425"/>
-      <c r="N50" s="425"/>
-      <c r="O50" s="425"/>
+      <c r="L50" s="403"/>
+      <c r="M50" s="403"/>
+      <c r="N50" s="403"/>
+      <c r="O50" s="403"/>
     </row>
     <row r="51" spans="2:15" ht="39">
       <c r="B51" s="391">
@@ -14556,7 +15852,7 @@
       <c r="C51" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="421" t="s">
+      <c r="D51" s="400" t="s">
         <v>105</v>
       </c>
       <c r="E51" s="379" t="s">
@@ -14574,7 +15870,7 @@
       <c r="C52" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="421" t="s">
+      <c r="D52" s="400" t="s">
         <v>106</v>
       </c>
       <c r="E52" s="379" t="s">
@@ -14592,7 +15888,7 @@
       <c r="C53" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="D53" s="421" t="s">
+      <c r="D53" s="400" t="s">
         <v>107</v>
       </c>
       <c r="E53" s="379" t="s">
@@ -14610,7 +15906,7 @@
       <c r="C54" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="421" t="s">
+      <c r="D54" s="400" t="s">
         <v>530</v>
       </c>
       <c r="E54" s="379" t="s">
@@ -14628,7 +15924,7 @@
       <c r="C55" s="71" t="s">
         <v>624</v>
       </c>
-      <c r="D55" s="421" t="s">
+      <c r="D55" s="400" t="s">
         <v>128</v>
       </c>
       <c r="E55" s="379" t="s">
@@ -14646,7 +15942,7 @@
       <c r="C56" s="71" t="s">
         <v>624</v>
       </c>
-      <c r="D56" s="421" t="s">
+      <c r="D56" s="400" t="s">
         <v>130</v>
       </c>
       <c r="E56" s="379" t="s">
@@ -14664,7 +15960,7 @@
       <c r="C57" s="71" t="s">
         <v>624</v>
       </c>
-      <c r="D57" s="421" t="s">
+      <c r="D57" s="400" t="s">
         <v>132</v>
       </c>
       <c r="E57" s="379" t="s">
@@ -14682,7 +15978,7 @@
       <c r="C58" s="71" t="s">
         <v>624</v>
       </c>
-      <c r="D58" s="421" t="s">
+      <c r="D58" s="400" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="379" t="s">
@@ -18522,66 +19818,66 @@
     </row>
     <row r="2" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="239"/>
-      <c r="B2" s="406" t="s">
+      <c r="B2" s="449" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="407"/>
-      <c r="D2" s="408"/>
-      <c r="E2" s="406" t="s">
+      <c r="C2" s="450"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="449" t="s">
         <v>540</v>
       </c>
-      <c r="F2" s="407"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="415" t="s">
+      <c r="F2" s="450"/>
+      <c r="G2" s="451"/>
+      <c r="H2" s="446" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="416"/>
-      <c r="J2" s="417"/>
-      <c r="K2" s="415" t="s">
+      <c r="I2" s="447"/>
+      <c r="J2" s="448"/>
+      <c r="K2" s="446" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="416"/>
-      <c r="M2" s="417"/>
-      <c r="N2" s="418">
+      <c r="L2" s="447"/>
+      <c r="M2" s="448"/>
+      <c r="N2" s="452">
         <v>0.05</v>
       </c>
-      <c r="O2" s="419"/>
-      <c r="P2" s="420"/>
-      <c r="Q2" s="415" t="s">
+      <c r="O2" s="453"/>
+      <c r="P2" s="454"/>
+      <c r="Q2" s="446" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="416"/>
-      <c r="S2" s="417"/>
-      <c r="T2" s="415" t="s">
+      <c r="R2" s="447"/>
+      <c r="S2" s="448"/>
+      <c r="T2" s="446" t="s">
         <v>544</v>
       </c>
-      <c r="U2" s="416"/>
-      <c r="V2" s="417"/>
-      <c r="W2" s="400" t="s">
+      <c r="U2" s="447"/>
+      <c r="V2" s="448"/>
+      <c r="W2" s="457" t="s">
         <v>545</v>
       </c>
-      <c r="X2" s="401"/>
-      <c r="Y2" s="402"/>
-      <c r="Z2" s="400" t="s">
+      <c r="X2" s="458"/>
+      <c r="Y2" s="459"/>
+      <c r="Z2" s="457" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" s="401"/>
-      <c r="AB2" s="402"/>
-      <c r="AC2" s="400" t="s">
+      <c r="AA2" s="458"/>
+      <c r="AB2" s="459"/>
+      <c r="AC2" s="457" t="s">
         <v>547</v>
       </c>
-      <c r="AD2" s="401"/>
-      <c r="AE2" s="402"/>
-      <c r="AF2" s="403" t="s">
+      <c r="AD2" s="458"/>
+      <c r="AE2" s="459"/>
+      <c r="AF2" s="460" t="s">
         <v>548</v>
       </c>
-      <c r="AG2" s="404"/>
-      <c r="AH2" s="405"/>
-      <c r="AI2" s="403" t="s">
+      <c r="AG2" s="461"/>
+      <c r="AH2" s="462"/>
+      <c r="AI2" s="460" t="s">
         <v>549</v>
       </c>
-      <c r="AJ2" s="404"/>
-      <c r="AK2" s="405"/>
+      <c r="AJ2" s="461"/>
+      <c r="AK2" s="462"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="239"/>
@@ -18713,38 +20009,38 @@
       <c r="G4" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="411" t="s">
+      <c r="H4" s="463" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="412"/>
+      <c r="I4" s="464"/>
       <c r="J4" s="272" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="413" t="s">
+      <c r="K4" s="465" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="414"/>
+      <c r="L4" s="466"/>
       <c r="M4" s="272" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="411" t="s">
+      <c r="N4" s="463" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="412"/>
+      <c r="O4" s="464"/>
       <c r="P4" s="272" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="413" t="s">
+      <c r="Q4" s="465" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="414"/>
+      <c r="R4" s="466"/>
       <c r="S4" s="272" t="s">
         <v>555</v>
       </c>
-      <c r="T4" s="411" t="s">
+      <c r="T4" s="463" t="s">
         <v>556</v>
       </c>
-      <c r="U4" s="412"/>
+      <c r="U4" s="464"/>
       <c r="V4" s="272" t="s">
         <v>557</v>
       </c>
@@ -18784,8 +20080,8 @@
         <f ca="1">AW20</f>
         <v>N</v>
       </c>
-      <c r="AI4" s="409"/>
-      <c r="AJ4" s="410"/>
+      <c r="AI4" s="455"/>
+      <c r="AJ4" s="456"/>
       <c r="AK4" s="279"/>
       <c r="AL4" s="267"/>
       <c r="AM4" s="267"/>
@@ -18843,71 +20139,71 @@
     <row r="5" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="239"/>
       <c r="B5" s="239"/>
-      <c r="C5" s="406" t="s">
+      <c r="C5" s="449" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="407"/>
-      <c r="E5" s="408"/>
-      <c r="F5" s="406" t="s">
+      <c r="D5" s="450"/>
+      <c r="E5" s="451"/>
+      <c r="F5" s="449" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="406" t="s">
+      <c r="G5" s="450"/>
+      <c r="H5" s="451"/>
+      <c r="I5" s="449" t="s">
         <v>322</v>
       </c>
-      <c r="J5" s="407"/>
-      <c r="K5" s="408"/>
-      <c r="L5" s="406" t="s">
+      <c r="J5" s="450"/>
+      <c r="K5" s="451"/>
+      <c r="L5" s="449" t="s">
         <v>560</v>
       </c>
-      <c r="M5" s="407"/>
-      <c r="N5" s="408"/>
-      <c r="O5" s="406" t="s">
+      <c r="M5" s="450"/>
+      <c r="N5" s="451"/>
+      <c r="O5" s="449" t="s">
         <v>408</v>
       </c>
-      <c r="P5" s="407"/>
-      <c r="Q5" s="408"/>
-      <c r="R5" s="406" t="s">
+      <c r="P5" s="450"/>
+      <c r="Q5" s="451"/>
+      <c r="R5" s="449" t="s">
         <v>447</v>
       </c>
-      <c r="S5" s="407"/>
-      <c r="T5" s="408"/>
-      <c r="U5" s="400" t="s">
+      <c r="S5" s="450"/>
+      <c r="T5" s="451"/>
+      <c r="U5" s="457" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="401"/>
-      <c r="W5" s="402"/>
-      <c r="X5" s="400" t="s">
+      <c r="V5" s="458"/>
+      <c r="W5" s="459"/>
+      <c r="X5" s="457" t="s">
         <v>275</v>
       </c>
-      <c r="Y5" s="401"/>
-      <c r="Z5" s="402"/>
-      <c r="AA5" s="400" t="s">
+      <c r="Y5" s="458"/>
+      <c r="Z5" s="459"/>
+      <c r="AA5" s="457" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="401"/>
-      <c r="AC5" s="402"/>
-      <c r="AD5" s="400" t="s">
+      <c r="AB5" s="458"/>
+      <c r="AC5" s="459"/>
+      <c r="AD5" s="457" t="s">
         <v>400</v>
       </c>
-      <c r="AE5" s="401"/>
-      <c r="AF5" s="402"/>
-      <c r="AG5" s="400" t="s">
+      <c r="AE5" s="458"/>
+      <c r="AF5" s="459"/>
+      <c r="AG5" s="457" t="s">
         <v>561</v>
       </c>
-      <c r="AH5" s="401"/>
-      <c r="AI5" s="402"/>
-      <c r="AJ5" s="400" t="s">
+      <c r="AH5" s="458"/>
+      <c r="AI5" s="459"/>
+      <c r="AJ5" s="457" t="s">
         <v>562</v>
       </c>
-      <c r="AK5" s="401"/>
-      <c r="AL5" s="402"/>
-      <c r="AM5" s="403" t="s">
+      <c r="AK5" s="458"/>
+      <c r="AL5" s="459"/>
+      <c r="AM5" s="460" t="s">
         <v>563</v>
       </c>
-      <c r="AN5" s="404"/>
-      <c r="AO5" s="405"/>
+      <c r="AN5" s="461"/>
+      <c r="AO5" s="462"/>
       <c r="AP5" s="239"/>
       <c r="AQ5" s="239"/>
       <c r="AR5" s="240"/>
@@ -19155,14 +20451,14 @@
         <f ca="1">AV20</f>
         <v>n</v>
       </c>
-      <c r="AG7" s="409"/>
-      <c r="AH7" s="410"/>
+      <c r="AG7" s="455"/>
+      <c r="AH7" s="456"/>
       <c r="AI7" s="279"/>
-      <c r="AJ7" s="409"/>
-      <c r="AK7" s="410"/>
+      <c r="AJ7" s="455"/>
+      <c r="AK7" s="456"/>
       <c r="AL7" s="279"/>
-      <c r="AM7" s="409"/>
-      <c r="AN7" s="410"/>
+      <c r="AM7" s="455"/>
+      <c r="AN7" s="456"/>
       <c r="AO7" s="279"/>
       <c r="AP7" s="267"/>
       <c r="AQ7" s="267"/>
@@ -19217,61 +20513,61 @@
       <c r="A8" s="239"/>
       <c r="B8" s="239"/>
       <c r="C8" s="289"/>
-      <c r="D8" s="406" t="s">
+      <c r="D8" s="449" t="s">
         <v>401</v>
       </c>
-      <c r="E8" s="407"/>
-      <c r="F8" s="408"/>
-      <c r="G8" s="406" t="s">
+      <c r="E8" s="450"/>
+      <c r="F8" s="451"/>
+      <c r="G8" s="449" t="s">
         <v>460</v>
       </c>
-      <c r="H8" s="407"/>
-      <c r="I8" s="408"/>
-      <c r="J8" s="406" t="s">
+      <c r="H8" s="450"/>
+      <c r="I8" s="451"/>
+      <c r="J8" s="449" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="407"/>
-      <c r="L8" s="408"/>
-      <c r="M8" s="406" t="s">
+      <c r="K8" s="450"/>
+      <c r="L8" s="451"/>
+      <c r="M8" s="449" t="s">
         <v>566</v>
       </c>
-      <c r="N8" s="407"/>
-      <c r="O8" s="408"/>
-      <c r="P8" s="406" t="s">
+      <c r="N8" s="450"/>
+      <c r="O8" s="451"/>
+      <c r="P8" s="449" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="407"/>
-      <c r="R8" s="408"/>
-      <c r="S8" s="406" t="s">
+      <c r="Q8" s="450"/>
+      <c r="R8" s="451"/>
+      <c r="S8" s="449" t="s">
         <v>454</v>
       </c>
-      <c r="T8" s="407"/>
-      <c r="U8" s="408"/>
-      <c r="V8" s="400" t="s">
+      <c r="T8" s="450"/>
+      <c r="U8" s="451"/>
+      <c r="V8" s="457" t="s">
         <v>249</v>
       </c>
-      <c r="W8" s="401"/>
-      <c r="X8" s="402"/>
-      <c r="Y8" s="400" t="s">
+      <c r="W8" s="458"/>
+      <c r="X8" s="459"/>
+      <c r="Y8" s="457" t="s">
         <v>425</v>
       </c>
-      <c r="Z8" s="401"/>
-      <c r="AA8" s="402"/>
-      <c r="AB8" s="400" t="s">
+      <c r="Z8" s="458"/>
+      <c r="AA8" s="459"/>
+      <c r="AB8" s="457" t="s">
         <v>231</v>
       </c>
-      <c r="AC8" s="401"/>
-      <c r="AD8" s="402"/>
-      <c r="AE8" s="400" t="s">
+      <c r="AC8" s="458"/>
+      <c r="AD8" s="459"/>
+      <c r="AE8" s="457" t="s">
         <v>567</v>
       </c>
-      <c r="AF8" s="401"/>
-      <c r="AG8" s="402"/>
-      <c r="AH8" s="403" t="s">
+      <c r="AF8" s="458"/>
+      <c r="AG8" s="459"/>
+      <c r="AH8" s="460" t="s">
         <v>568</v>
       </c>
-      <c r="AI8" s="404"/>
-      <c r="AJ8" s="405"/>
+      <c r="AI8" s="461"/>
+      <c r="AJ8" s="462"/>
       <c r="AK8" s="239"/>
       <c r="AL8" s="239"/>
       <c r="AM8" s="239"/>
@@ -19523,8 +20819,8 @@
         <f ca="1">AR20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="409"/>
-      <c r="AI10" s="410"/>
+      <c r="AH10" s="455"/>
+      <c r="AI10" s="456"/>
       <c r="AJ10" s="279"/>
       <c r="AK10" s="267"/>
       <c r="AL10" s="267"/>
@@ -19585,56 +20881,56 @@
       <c r="B11" s="239"/>
       <c r="C11" s="239"/>
       <c r="D11" s="239"/>
-      <c r="E11" s="406" t="s">
+      <c r="E11" s="449" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" s="406" t="s">
+      <c r="F11" s="450"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="449" t="s">
         <v>569</v>
       </c>
-      <c r="I11" s="407"/>
-      <c r="J11" s="408"/>
-      <c r="K11" s="406" t="s">
+      <c r="I11" s="450"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="449" t="s">
         <v>456</v>
       </c>
-      <c r="L11" s="407"/>
-      <c r="M11" s="408"/>
-      <c r="N11" s="406" t="s">
+      <c r="L11" s="450"/>
+      <c r="M11" s="451"/>
+      <c r="N11" s="449" t="s">
         <v>570</v>
       </c>
-      <c r="O11" s="407"/>
-      <c r="P11" s="408"/>
-      <c r="Q11" s="406" t="s">
+      <c r="O11" s="450"/>
+      <c r="P11" s="451"/>
+      <c r="Q11" s="449" t="s">
         <v>144</v>
       </c>
-      <c r="R11" s="407"/>
-      <c r="S11" s="408"/>
-      <c r="T11" s="406" t="s">
+      <c r="R11" s="450"/>
+      <c r="S11" s="451"/>
+      <c r="T11" s="449" t="s">
         <v>571</v>
       </c>
-      <c r="U11" s="407"/>
-      <c r="V11" s="408"/>
-      <c r="W11" s="400" t="s">
+      <c r="U11" s="450"/>
+      <c r="V11" s="451"/>
+      <c r="W11" s="457" t="s">
         <v>525</v>
       </c>
-      <c r="X11" s="401"/>
-      <c r="Y11" s="402"/>
-      <c r="Z11" s="400" t="s">
+      <c r="X11" s="458"/>
+      <c r="Y11" s="459"/>
+      <c r="Z11" s="457" t="s">
         <v>572</v>
       </c>
-      <c r="AA11" s="401"/>
-      <c r="AB11" s="402"/>
-      <c r="AC11" s="400" t="s">
+      <c r="AA11" s="458"/>
+      <c r="AB11" s="459"/>
+      <c r="AC11" s="457" t="s">
         <v>573</v>
       </c>
-      <c r="AD11" s="401"/>
-      <c r="AE11" s="402"/>
-      <c r="AF11" s="403" t="s">
+      <c r="AD11" s="458"/>
+      <c r="AE11" s="459"/>
+      <c r="AF11" s="460" t="s">
         <v>574</v>
       </c>
-      <c r="AG11" s="404"/>
-      <c r="AH11" s="405"/>
+      <c r="AG11" s="461"/>
+      <c r="AH11" s="462"/>
       <c r="AI11" s="239"/>
       <c r="AJ11" s="239"/>
       <c r="AK11" s="239"/>
@@ -25693,52 +26989,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -25749,6 +26999,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_台語方音.xlsx
+++ b/docs/鍵盤設計規格_台語方音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9B48D-5F6B-4ADB-BFFE-040D1AC98AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A6A08B-528D-4A93-B51C-0E51D9857FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="662">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2696,6 +2696,41 @@
     <t>]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>ㆡ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆱ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ㆰ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>ㆱ</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2705,7 +2740,7 @@
     <numFmt numFmtId="176" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
     <numFmt numFmtId="177" formatCode="General;;"/>
   </numFmts>
-  <fonts count="159">
+  <fonts count="161">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -3769,8 +3804,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3919,6 +3966,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -4205,7 +4258,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="473">
+  <cellXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5518,6 +5571,30 @@
     <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="26" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8179,10 +8256,10 @@
   </sheetPr>
   <dimension ref="B1:CX99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AB19" sqref="AB19"/>
+      <selection pane="bottomLeft" activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -8376,8 +8453,8 @@
         <v>217</v>
       </c>
       <c r="AF3" s="361" t="str">
-        <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(AA$3:AA$52) &amp; "'"</f>
-        <v xml:space="preserve">  alphabet: '1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657'</v>
+        <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(AA$3:AA$54) &amp; "'"</f>
+        <v xml:space="preserve">  alphabet: '1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:OM. 43657'</v>
       </c>
       <c r="AG3" s="441"/>
       <c r="AH3" s="441"/>
@@ -8449,7 +8526,7 @@
       </c>
       <c r="Y4" s="24"/>
       <c r="Z4" s="413">
-        <f t="shared" ref="Z4:Z61" si="7">ROW() - 2</f>
+        <f t="shared" ref="Z4:Z58" si="7">ROW() - 2</f>
         <v>2</v>
       </c>
       <c r="AA4" s="71" t="s">
@@ -8465,8 +8542,8 @@
         <v>392</v>
       </c>
       <c r="AF4" s="361" t="str">
-        <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$46) &amp; "'"</f>
-        <v xml:space="preserve">  initials: '1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:.'</v>
+        <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$48) &amp; "'"</f>
+        <v xml:space="preserve">  initials: '1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:OM.'</v>
       </c>
       <c r="AG4" s="441"/>
       <c r="AH4" s="441"/>
@@ -8554,7 +8631,7 @@
         <v>190</v>
       </c>
       <c r="AF5" s="361" t="str">
-        <f xml:space="preserve"> "  finals:   '" &amp; _xlfn.CONCAT(AA$47:AA$52) &amp; "'"</f>
+        <f xml:space="preserve"> "  finals:   '" &amp; _xlfn.CONCAT(AA$49:AA$54) &amp; "'"</f>
         <v xml:space="preserve">  finals:   ' 43657'</v>
       </c>
       <c r="AG5" s="441"/>
@@ -8805,7 +8882,7 @@
       </c>
       <c r="AH8" s="137" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AH9 &amp; "|" &amp; AH10 &amp; "|"</f>
-        <v>- xlit|pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LHB123570|1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657|</v>
+        <v>- xlit|pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LH}{B123570|1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:OM. 43657|</v>
       </c>
       <c r="AI8" s="47"/>
       <c r="AJ8" s="47"/>
@@ -9102,11 +9179,11 @@
       </c>
       <c r="AG9" s="1">
         <f xml:space="preserve"> LEN(AH9)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH9" s="37" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$52)</f>
-        <v>pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LHB123570</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$54)</f>
+        <v>pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LH}{B123570</v>
       </c>
       <c r="AU9" s="38" t="s">
         <v>25</v>
@@ -9116,7 +9193,7 @@
       </c>
       <c r="AW9" s="40">
         <f xml:space="preserve"> FIND(AV9, AH9)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AY9" s="468" t="str">
         <f xml:space="preserve"> MID($AH$9, AY$13, 1)</f>
@@ -9292,39 +9369,39 @@
       </c>
       <c r="CP9" s="471" t="str">
         <f t="shared" si="8"/>
+        <v>}</v>
+      </c>
+      <c r="CQ9" s="471" t="str">
+        <f t="shared" si="8"/>
+        <v>{</v>
+      </c>
+      <c r="CR9" s="468" t="str">
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
-      <c r="CQ9" s="468" t="str">
+      <c r="CS9" s="468" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="CR9" s="468" t="str">
+      <c r="CT9" s="468" t="str">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="CS9" s="468" t="str">
+      <c r="CU9" s="468" t="str">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="CT9" s="468" t="str">
+      <c r="CV9" s="468" t="str">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="CU9" s="468" t="str">
+      <c r="CW9" s="468" t="str">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="CV9" s="468" t="str">
+      <c r="CX9" s="468" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
-      </c>
-      <c r="CW9" s="468" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="CX9" s="468" t="str">
-        <f t="shared" si="8"/>
-        <v/>
       </c>
     </row>
     <row r="10" spans="2:102" ht="32.25">
@@ -9405,11 +9482,11 @@
       </c>
       <c r="AG10" s="1">
         <f xml:space="preserve"> LEN(AH10)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH10" s="37" t="str">
-        <f>_xlfn.CONCAT(AA3:AA52)</f>
-        <v>1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657</v>
+        <f>_xlfn.CONCAT(AA3:AA54)</f>
+        <v>1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:OM. 43657</v>
       </c>
       <c r="AQ10" s="48" t="str">
         <f xml:space="preserve"> MID("/", AG9, 1)</f>
@@ -9594,39 +9671,39 @@
       </c>
       <c r="CP10" s="471" t="str">
         <f t="shared" si="9"/>
+        <v>O</v>
+      </c>
+      <c r="CQ10" s="471" t="str">
+        <f t="shared" si="9"/>
+        <v>M</v>
+      </c>
+      <c r="CR10" s="468" t="str">
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="CQ10" s="468" t="str">
+      <c r="CS10" s="468" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CR10" s="468" t="str">
+      <c r="CT10" s="468" t="str">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="CS10" s="468" t="str">
+      <c r="CU10" s="468" t="str">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="CT10" s="468" t="str">
+      <c r="CV10" s="468" t="str">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="CU10" s="468" t="str">
+      <c r="CW10" s="468" t="str">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="CV10" s="468" t="str">
+      <c r="CX10" s="468" t="str">
         <f t="shared" si="9"/>
         <v>7</v>
-      </c>
-      <c r="CW10" s="468" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="CX10" s="468" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
     </row>
     <row r="11" spans="2:102" ht="32.25">
@@ -9866,7 +9943,7 @@
       </c>
       <c r="AH13" s="421" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AH14 &amp; "|" &amp; AH15 &amp; "|"</f>
-        <v>- xlit|1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲｎˉˋ˪ˊ˫˙|</v>
+        <v>- xlit|1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:OM. 43657|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄫㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲㆱㆰｎˉˋ˪ˊ˫˙|</v>
       </c>
       <c r="AI13" s="47"/>
       <c r="AJ13" s="47"/>
@@ -10154,7 +10231,7 @@
         <v>429</v>
       </c>
       <c r="AB14" s="385" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="AC14" s="387" t="s">
         <v>341</v>
@@ -10167,11 +10244,11 @@
       </c>
       <c r="AG14" s="1">
         <f xml:space="preserve"> LEN(AH14)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH14" s="37" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AA$3:AA$52)</f>
-        <v>1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:. 43657</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(AA$3:AA$54)</f>
+        <v>1q!a2wsxedE?cyhnbYHNBuj8ik,9l-UJ*I&lt;(Lmp/0;:OM. 43657</v>
       </c>
       <c r="AU14" s="38" t="s">
         <v>25</v>
@@ -10182,7 +10259,7 @@
       </c>
       <c r="AW14" s="40">
         <f xml:space="preserve"> FIND(AV14, AH14)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AY14" s="468" t="str">
         <f xml:space="preserve"> MID($AH$14, AY$13, 1)</f>
@@ -10358,39 +10435,39 @@
       </c>
       <c r="CP14" s="471" t="str">
         <f t="shared" si="10"/>
+        <v>O</v>
+      </c>
+      <c r="CQ14" s="471" t="str">
+        <f t="shared" si="10"/>
+        <v>M</v>
+      </c>
+      <c r="CR14" s="470" t="str">
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
-      <c r="CQ14" s="470" t="str">
+      <c r="CS14" s="470" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CR14" s="470" t="str">
+      <c r="CT14" s="470" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="CS14" s="470" t="str">
+      <c r="CU14" s="470" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="CT14" s="470" t="str">
+      <c r="CV14" s="470" t="str">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="CU14" s="470" t="str">
+      <c r="CW14" s="470" t="str">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="CV14" s="470" t="str">
+      <c r="CX14" s="470" t="str">
         <f t="shared" si="10"/>
         <v>7</v>
-      </c>
-      <c r="CW14" s="470" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CX14" s="470" t="str">
-        <f t="shared" si="10"/>
-        <v/>
       </c>
     </row>
     <row r="15" spans="2:102" ht="32.25">
@@ -10476,11 +10553,11 @@
       </c>
       <c r="AG15" s="1">
         <f xml:space="preserve"> LEN(AH15)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH15" s="420" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$52)</f>
-        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲｎˉˋ˪ˊ˫˙</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$54)</f>
+        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄫㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲㆱㆰｎˉˋ˪ˊ˫˙</v>
       </c>
       <c r="AV15" s="49" t="str">
         <f xml:space="preserve"> MID(AH15, AW14, 1)</f>
@@ -10533,7 +10610,7 @@
       </c>
       <c r="BJ15" s="470" t="str">
         <f t="shared" si="11"/>
-        <v>ㄥ</v>
+        <v>ㄫ</v>
       </c>
       <c r="BK15" s="470" t="str">
         <f t="shared" si="11"/>
@@ -10661,39 +10738,39 @@
       </c>
       <c r="CP15" s="471" t="str">
         <f t="shared" si="11"/>
+        <v>ㆱ</v>
+      </c>
+      <c r="CQ15" s="471" t="str">
+        <f t="shared" si="11"/>
+        <v>ㆰ</v>
+      </c>
+      <c r="CR15" s="470" t="str">
+        <f t="shared" si="11"/>
         <v>ｎ</v>
       </c>
-      <c r="CQ15" s="470" t="str">
+      <c r="CS15" s="470" t="str">
         <f t="shared" si="11"/>
         <v>ˉ</v>
       </c>
-      <c r="CR15" s="470" t="str">
+      <c r="CT15" s="470" t="str">
         <f t="shared" si="11"/>
         <v>ˋ</v>
       </c>
-      <c r="CS15" s="470" t="str">
+      <c r="CU15" s="470" t="str">
         <f t="shared" si="11"/>
         <v>˪</v>
       </c>
-      <c r="CT15" s="470" t="str">
+      <c r="CV15" s="470" t="str">
         <f t="shared" si="11"/>
         <v>ˊ</v>
       </c>
-      <c r="CU15" s="470" t="str">
+      <c r="CW15" s="470" t="str">
         <f t="shared" si="11"/>
         <v>˫</v>
       </c>
-      <c r="CV15" s="470" t="str">
+      <c r="CX15" s="470" t="str">
         <f t="shared" si="11"/>
         <v>˙</v>
-      </c>
-      <c r="CW15" s="470" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="CX15" s="470" t="str">
-        <f t="shared" si="11"/>
-        <v/>
       </c>
     </row>
     <row r="16" spans="2:102" ht="32.25">
@@ -10853,7 +10930,7 @@
       </c>
       <c r="AH17" s="137" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AH18 &amp; "|" &amp; AH19 &amp; "|"</f>
-        <v>- xlit|pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LHB123570|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲｎˉˋ˪ˊ˫˙|</v>
+        <v>- xlit|pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LH}{B123570|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄫㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲㆱㆰｎˉˋ˪ˊ˫˙|</v>
       </c>
       <c r="AI17" s="47"/>
       <c r="AJ17" s="47"/>
@@ -10942,11 +11019,11 @@
       </c>
       <c r="AG18" s="1">
         <f xml:space="preserve"> LEN(AH18)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH18" s="37" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$52)</f>
-        <v>pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LHB123570</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$54)</f>
+        <v>pPbmtTnlkKgwhzcsjZCSJiuaOoeyxRIUAQEYXMNW@LH}{B123570</v>
       </c>
       <c r="AU18" s="38" t="s">
         <v>25</v>
@@ -10957,7 +11034,7 @@
       </c>
       <c r="AW18" s="40">
         <f xml:space="preserve"> FIND(AV18, AH18)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:49" ht="32.25">
@@ -11022,7 +11099,7 @@
         <v>28</v>
       </c>
       <c r="AB19" s="32" t="s">
-        <v>48</v>
+        <v>657</v>
       </c>
       <c r="AC19" s="379" t="s">
         <v>254</v>
@@ -11035,11 +11112,11 @@
       </c>
       <c r="AG19" s="1">
         <f xml:space="preserve"> LEN(AH19)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH19" s="430" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(AB3:AB52)</f>
-        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄥㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲｎˉˋ˪ˊ˫˙</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(AB3:AB54)</f>
+        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄫㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㄞㄠㆨㆪㆫㆩㆧㆥㆮㆯㆬㄣㆭㄢㄤㆲㆱㆰｎˉˋ˪ˊ˫˙</v>
       </c>
       <c r="AV19" s="49" t="str">
         <f xml:space="preserve"> MID(AH19, AW18, 1)</f>
@@ -13036,17 +13113,17 @@
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="AA46" s="71" t="s">
-        <v>500</v>
-      </c>
-      <c r="AB46" s="32" t="s">
-        <v>594</v>
-      </c>
-      <c r="AC46" s="379" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD46" s="433" t="s">
-        <v>623</v>
+      <c r="AA46" s="442" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB46" s="443" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC46" s="444" t="s">
+        <v>658</v>
+      </c>
+      <c r="AD46" s="445" t="s">
+        <v>203</v>
       </c>
       <c r="AV46" s="11"/>
       <c r="AW46" s="2"/>
@@ -13118,17 +13195,17 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="AA47" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB47" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="AC47" s="379" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD47" s="433">
-        <v>1</v>
+      <c r="AA47" s="442" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB47" s="443" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC47" s="444" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD47" s="445" t="s">
+        <v>207</v>
       </c>
       <c r="AV47" s="11"/>
       <c r="AW47" s="2"/>
@@ -13202,16 +13279,16 @@
         <v>46</v>
       </c>
       <c r="AA48" s="71" t="s">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="AB48" s="32" t="s">
-        <v>104</v>
+        <v>594</v>
       </c>
       <c r="AC48" s="379" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD48" s="433">
-        <v>2</v>
+        <v>144</v>
+      </c>
+      <c r="AD48" s="433" t="s">
+        <v>623</v>
       </c>
       <c r="AV48" s="11"/>
       <c r="AW48" s="2"/>
@@ -13281,16 +13358,16 @@
         <v>47</v>
       </c>
       <c r="AA49" s="71" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AB49" s="32" t="s">
-        <v>105</v>
+        <v>532</v>
       </c>
       <c r="AC49" s="379" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
       <c r="AD49" s="433">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV49" s="11"/>
       <c r="AW49" s="2"/>
@@ -13360,16 +13437,16 @@
         <v>48</v>
       </c>
       <c r="AA50" s="71" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AB50" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AC50" s="379" t="s">
-        <v>170</v>
+        <v>347</v>
       </c>
       <c r="AD50" s="433">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV50" s="11"/>
       <c r="AW50" s="2"/>
@@ -13442,16 +13519,16 @@
         <v>49</v>
       </c>
       <c r="AA51" s="71" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="AB51" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC51" s="379" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AD51" s="433">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV51" s="11"/>
       <c r="AW51" s="2"/>
@@ -13524,16 +13601,16 @@
         <v>50</v>
       </c>
       <c r="AA52" s="71" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AB52" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC52" s="379" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD52" s="433" t="s">
-        <v>609</v>
+        <v>170</v>
+      </c>
+      <c r="AD52" s="433">
+        <v>5</v>
       </c>
       <c r="AV52" s="11"/>
       <c r="AW52" s="2"/>
@@ -13602,19 +13679,17 @@
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="AA53" s="71" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[鍵盤按鍵], MATCH($AB53, 表格1_33411[注音符號], 0)), "")</f>
-        <v/>
+      <c r="AA53" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="AB53" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC53" s="379" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB53, 表格1_33411[注音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AD53" s="436" t="s">
-        <v>645</v>
+        <v>107</v>
+      </c>
+      <c r="AC53" s="379" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD53" s="433">
+        <v>7</v>
       </c>
       <c r="AV53" s="11"/>
       <c r="AW53" s="2"/>
@@ -13683,19 +13758,17 @@
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="AA54" s="71" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[鍵盤按鍵], MATCH($AB54, 表格1_33411[注音符號], 0)), "")</f>
-        <v/>
+      <c r="AA54" s="71" t="s">
+        <v>166</v>
       </c>
       <c r="AB54" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC54" s="379" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB54, 表格1_33411[注音符號], 0)), "")</f>
-        <v/>
-      </c>
-      <c r="AD54" s="436" t="s">
-        <v>646</v>
+        <v>108</v>
+      </c>
+      <c r="AC54" s="379" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD54" s="433" t="s">
+        <v>609</v>
       </c>
       <c r="AV54" s="11"/>
       <c r="AW54" s="2"/>
@@ -13730,14 +13803,14 @@
         <v/>
       </c>
       <c r="AB55" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC55" s="379" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB55, 表格1_33411[注音符號], 0)), "")</f>
         <v/>
       </c>
       <c r="AD55" s="436" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AV55" s="11"/>
       <c r="AW55" s="2"/>
@@ -13772,19 +13845,19 @@
         <v/>
       </c>
       <c r="AB56" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AC56" s="379" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB56, 表格1_33411[注音符號], 0)), "")</f>
         <v/>
       </c>
       <c r="AD56" s="436" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AV56" s="11"/>
       <c r="AW56" s="2"/>
     </row>
-    <row r="57" spans="2:49">
+    <row r="57" spans="2:49" ht="32.25">
       <c r="C57" s="2">
         <v>11</v>
       </c>
@@ -13804,11 +13877,41 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="R57" s="2"/>
+      <c r="U57" s="474" t="s">
+        <v>11</v>
+      </c>
+      <c r="V57" s="475" t="s">
+        <v>642</v>
+      </c>
+      <c r="W57" s="475" t="s">
+        <v>643</v>
+      </c>
+      <c r="X57" s="476" t="s">
+        <v>383</v>
+      </c>
       <c r="Y57" s="24"/>
+      <c r="Z57" s="98">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="AA57" s="71" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[鍵盤按鍵], MATCH($AB57, 表格1_33411[注音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB57" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC57" s="379" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB57, 表格1_33411[注音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AD57" s="436" t="s">
+        <v>647</v>
+      </c>
       <c r="AV57" s="11"/>
       <c r="AW57" s="2"/>
     </row>
-    <row r="58" spans="2:49">
+    <row r="58" spans="2:49" ht="32.25">
       <c r="C58" s="2">
         <v>12</v>
       </c>
@@ -13828,11 +13931,36 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="R58" s="2"/>
+      <c r="U58" s="477" t="s">
+        <v>267</v>
+      </c>
+      <c r="V58" s="410" t="s">
+        <v>125</v>
+      </c>
+      <c r="W58" s="411" t="s">
+        <v>621</v>
+      </c>
+      <c r="X58" s="478" t="s">
+        <v>203</v>
+      </c>
       <c r="Y58" s="24"/>
-      <c r="AB58" s="431"/>
-      <c r="AC58" s="431"/>
-      <c r="AD58" s="432" t="s">
-        <v>649</v>
+      <c r="Z58" s="98">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="AA58" s="71" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[鍵盤按鍵], MATCH($AB58, 表格1_33411[注音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB58" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC58" s="379" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_33411[注音編碼], MATCH($AB58, 表格1_33411[注音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AD58" s="436" t="s">
+        <v>648</v>
       </c>
       <c r="AV58" s="11"/>
       <c r="AW58" s="2"/>
@@ -13857,11 +13985,23 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="R59" s="2"/>
+      <c r="U59" s="479" t="s">
+        <v>612</v>
+      </c>
+      <c r="V59" s="410" t="s">
+        <v>99</v>
+      </c>
+      <c r="W59" s="411" t="s">
+        <v>622</v>
+      </c>
+      <c r="X59" s="480" t="s">
+        <v>207</v>
+      </c>
       <c r="Y59" s="24"/>
       <c r="AV59" s="11"/>
       <c r="AW59" s="2"/>
     </row>
-    <row r="60" spans="2:49" ht="32.25">
+    <row r="60" spans="2:49">
       <c r="C60" s="2">
         <v>14</v>
       </c>
@@ -13881,27 +14021,28 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="R60" s="2"/>
+      <c r="U60" s="477" t="s">
+        <v>206</v>
+      </c>
+      <c r="V60" s="410" t="s">
+        <v>101</v>
+      </c>
+      <c r="W60" s="411" t="s">
+        <v>619</v>
+      </c>
+      <c r="X60" s="478" t="s">
+        <v>160</v>
+      </c>
       <c r="Y60" s="24"/>
-      <c r="Z60" s="98">
-        <f t="shared" si="7"/>
-        <v>58</v>
-      </c>
-      <c r="AA60" s="442" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB60" s="443" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC60" s="444" t="s">
-        <v>621</v>
-      </c>
-      <c r="AD60" s="445" t="s">
-        <v>203</v>
+      <c r="AB60" s="431"/>
+      <c r="AC60" s="431"/>
+      <c r="AD60" s="432" t="s">
+        <v>649</v>
       </c>
       <c r="AV60" s="11"/>
       <c r="AW60" s="2"/>
     </row>
-    <row r="61" spans="2:49" ht="32.25">
+    <row r="61" spans="2:49">
       <c r="C61" s="2">
         <v>15</v>
       </c>
@@ -13922,21 +14063,8 @@
       <c r="J61" s="2"/>
       <c r="R61" s="2"/>
       <c r="Y61" s="24"/>
-      <c r="Z61" s="98">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="AA61" s="442" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB61" s="443" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC61" s="444" t="s">
-        <v>622</v>
-      </c>
-      <c r="AD61" s="445" t="s">
-        <v>207</v>
+      <c r="AF61" s="473" t="s">
+        <v>661</v>
       </c>
       <c r="AV61" s="11"/>
       <c r="AW61" s="2"/>
@@ -14662,7 +14790,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="AA60:AA61 AA3:AA56">
+  <conditionalFormatting sqref="AA3:AA58">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
@@ -14678,7 +14806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D988227A-E18F-42DC-8F96-79ED3E5EA52C}">
   <dimension ref="B1:BC58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:D34"/>
     </sheetView>
   </sheetViews>
@@ -27055,8 +27183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C35B75-B358-4C95-B0C2-96EE4C4358A0}">
   <dimension ref="A1:AV76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25" outlineLevelCol="1"/>

--- a/docs/鍵盤設計規格_台語方音.xlsx
+++ b/docs/鍵盤設計規格_台語方音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214F4E2-02CC-4FA2-98E6-E86D6E867C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6231B1C8-106B-4B45-BD83-31B575A2BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="使用按鍵解析" sheetId="9" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RIME設定解析 (2)'!$Z$1:$AH$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">方音符號!$P$2:$T$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'注音符號、電腦鍵盤與音標編碼'!$B$2:$K$56</definedName>
     <definedName name="方音符號" localSheetId="2">RIME設定解析!$V$3:$V$54</definedName>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="669">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -4305,7 +4306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5595,6 +5596,48 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5613,21 +5656,6 @@
     <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5640,32 +5668,14 @@
     <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="156" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="156" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5673,18 +5683,8 @@
     <cellStyle name="一般 3 2" xfId="2" xr:uid="{703AF641-2554-41E3-A1E3-F082EFEA06AE}"/>
     <cellStyle name="一般 4" xfId="1" xr:uid="{D00E67AF-1809-4A9B-A488-D9A10688594D}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -5727,108 +5727,6 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF0070C0"/>
-        <name val="Noto Serif TC SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Iansui 094"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFF00"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6044,6 +5942,108 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF0070C0"/>
+        <name val="Noto Serif TC SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7469,75 +7469,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F95EEBA-DAA3-4529-9F77-47C4D0A27E24}" name="表格1_33411" displayName="表格1_33411" ref="U2:X54" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F95EEBA-DAA3-4529-9F77-47C4D0A27E24}" name="表格1_33411" displayName="表格1_33411" ref="U2:X54" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U3:X54">
     <sortCondition ref="U3:U54" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="24">
       <calculatedColumnFormula xml:space="preserve"> 使用按鍵解析!C11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="注音符號" dataDxfId="24" dataCellStyle="一般 4">
+    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="注音符號" dataDxfId="23" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="23" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="22" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="拼音字母" dataDxfId="22" dataCellStyle="一般 4"/>
+    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="拼音字母" dataDxfId="21" dataCellStyle="一般 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6C9CA8A-8368-4141-B273-59CA62EE3358}" name="表格1_334115" displayName="表格1_334115" ref="U2:X54" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6C9CA8A-8368-4141-B273-59CA62EE3358}" name="表格1_334115" displayName="表格1_334115" ref="U2:X54" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U3:X54">
     <sortCondition ref="U3:U54" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BA62D46E-0A2E-4C2D-8D31-B877DD850063}" name="鍵盤按鍵" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{BA62D46E-0A2E-4C2D-8D31-B877DD850063}" name="鍵盤按鍵" dataDxfId="18">
       <calculatedColumnFormula xml:space="preserve"> 使用按鍵解析!C11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{76FD36F2-8DED-4743-8AA0-A22521DBF75D}" name="注音符號" dataDxfId="8" dataCellStyle="一般 4">
+    <tableColumn id="2" xr3:uid="{76FD36F2-8DED-4743-8AA0-A22521DBF75D}" name="注音符號" dataDxfId="17" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX($N$3:$N$53, MATCH(TRUE, EXACT(表格1_334115[[#This Row],[鍵盤按鍵]], $M$3:$M$53), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AFDBEB5C-2BE7-45F0-8E6B-0F9B07EFAA27}" name="注音編碼" dataDxfId="7" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{AFDBEB5C-2BE7-45F0-8E6B-0F9B07EFAA27}" name="注音編碼" dataDxfId="16" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX($I$3:$I$54, MATCH(TRUE, EXACT(表格1_334115[[#This Row],[鍵盤按鍵]], $J$3:$J$54), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BC42609A-FC9E-4C37-82BF-1D00DF0E516F}" name="拼音字母" dataDxfId="6" dataCellStyle="一般 4"/>
+    <tableColumn id="3" xr3:uid="{BC42609A-FC9E-4C37-82BF-1D00DF0E516F}" name="拼音字母" dataDxfId="15" dataCellStyle="一般 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8316A4BE-CA72-47DE-AE0C-9F97AD29E366}" name="表格1" displayName="表格1" ref="C4:G56" totalsRowShown="0" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8316A4BE-CA72-47DE-AE0C-9F97AD29E366}" name="表格1" displayName="表格1" ref="C4:G56" totalsRowShown="0" tableBorderDxfId="14">
   <autoFilter ref="C4:G56" xr:uid="{CBD99B6E-1695-45CA-A35A-919D424705A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23C441A4-A9BF-4AF3-9A00-C54EFA849863}" name="按鍵字元" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{BF68382C-29B0-42B3-B1E7-6BBFB43FDBF8}" name="注音符號" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{53638260-1BF6-4965-A4AE-956982740802}" name="方音符號" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{DCF6B5DB-F2BF-4A75-8F81-445A20F5EFEC}" name="音標編碼" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{138EEA27-F029-4B76-B6E7-B073EAAE87F1}" name="台語音標" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{23C441A4-A9BF-4AF3-9A00-C54EFA849863}" name="按鍵字元" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{BF68382C-29B0-42B3-B1E7-6BBFB43FDBF8}" name="注音符號" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{53638260-1BF6-4965-A4AE-956982740802}" name="方音符號" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{DCF6B5DB-F2BF-4A75-8F81-445A20F5EFEC}" name="音標編碼" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{138EEA27-F029-4B76-B6E7-B073EAAE87F1}" name="台語音標" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="S2:U44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:U44">
     <sortCondition ref="S3:S44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="7">
       <calculatedColumnFormula>H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="13" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="6" dataCellStyle="一般 4">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8465,7 +8465,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C11:C62">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13428,7 +13428,7 @@
       <c r="D3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="488" t="s">
+      <c r="E3" s="467" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="379" t="s">
@@ -13449,7 +13449,7 @@
       <c r="D4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="488" t="s">
+      <c r="E4" s="467" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="379" t="s">
@@ -13470,7 +13470,7 @@
       <c r="D5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="488" t="s">
+      <c r="E5" s="467" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="379" t="s">
@@ -13491,7 +13491,7 @@
       <c r="D6" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="488" t="s">
+      <c r="E6" s="467" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="379" t="s">
@@ -13512,7 +13512,7 @@
       <c r="D7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="488" t="s">
+      <c r="E7" s="467" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="379" t="s">
@@ -13533,7 +13533,7 @@
       <c r="D8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="488" t="s">
+      <c r="E8" s="467" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="379" t="s">
@@ -13554,7 +13554,7 @@
       <c r="D9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="488" t="s">
+      <c r="E9" s="467" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="379" t="s">
@@ -13575,7 +13575,7 @@
       <c r="D10" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="488" t="s">
+      <c r="E10" s="467" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="379" t="s">
@@ -13596,7 +13596,7 @@
       <c r="D11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="488" t="s">
+      <c r="E11" s="467" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="379" t="s">
@@ -13617,7 +13617,7 @@
       <c r="D12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="488" t="s">
+      <c r="E12" s="467" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="379" t="s">
@@ -13638,7 +13638,7 @@
       <c r="D13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="488" t="s">
+      <c r="E13" s="467" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="379" t="s">
@@ -13659,7 +13659,7 @@
       <c r="D14" s="381" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="488" t="s">
+      <c r="E14" s="467" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="383" t="s">
@@ -13680,7 +13680,7 @@
       <c r="D15" s="385" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="488" t="s">
+      <c r="E15" s="467" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="387" t="s">
@@ -13701,7 +13701,7 @@
       <c r="D16" s="381" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="488" t="s">
+      <c r="E16" s="467" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="383" t="s">
@@ -13722,7 +13722,7 @@
       <c r="D17" s="381" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="488" t="s">
+      <c r="E17" s="467" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="383" t="s">
@@ -13743,7 +13743,7 @@
       <c r="D18" s="381" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="488" t="s">
+      <c r="E18" s="467" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="383" t="s">
@@ -13764,7 +13764,7 @@
       <c r="D19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="488" t="s">
+      <c r="E19" s="467" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="379" t="s">
@@ -13785,7 +13785,7 @@
       <c r="D20" s="385" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="488" t="s">
+      <c r="E20" s="467" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="387" t="s">
@@ -13806,7 +13806,7 @@
       <c r="D21" s="385" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="488" t="s">
+      <c r="E21" s="467" t="s">
         <v>91</v>
       </c>
       <c r="F21" s="388" t="s">
@@ -13827,7 +13827,7 @@
       <c r="D22" s="385" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="488" t="s">
+      <c r="E22" s="467" t="s">
         <v>284</v>
       </c>
       <c r="F22" s="388" t="s">
@@ -13848,7 +13848,7 @@
       <c r="D23" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="488" t="s">
+      <c r="E23" s="467" t="s">
         <v>109</v>
       </c>
       <c r="F23" s="379" t="s">
@@ -13869,7 +13869,7 @@
       <c r="D24" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="488" t="s">
+      <c r="E24" s="467" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="379" t="s">
@@ -13890,7 +13890,7 @@
       <c r="D25" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="488" t="s">
+      <c r="E25" s="467" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="390" t="s">
@@ -13911,7 +13911,7 @@
       <c r="D26" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="488" t="s">
+      <c r="E26" s="467" t="s">
         <v>658</v>
       </c>
       <c r="F26" s="379" t="s">
@@ -13932,7 +13932,7 @@
       <c r="D27" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="488" t="s">
+      <c r="E27" s="467" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="379" t="s">
@@ -13953,7 +13953,7 @@
       <c r="D28" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="488" t="s">
+      <c r="E28" s="467" t="s">
         <v>483</v>
       </c>
       <c r="F28" s="379" t="s">
@@ -13974,7 +13974,7 @@
       <c r="D29" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="E29" s="488" t="s">
+      <c r="E29" s="467" t="s">
         <v>473</v>
       </c>
       <c r="F29" s="379" t="s">
@@ -13995,7 +13995,7 @@
       <c r="D30" s="437" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="488" t="s">
+      <c r="E30" s="467" t="s">
         <v>657</v>
       </c>
       <c r="F30" s="438" t="s">
@@ -14016,7 +14016,7 @@
       <c r="D31" s="437" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="488" t="s">
+      <c r="E31" s="467" t="s">
         <v>241</v>
       </c>
       <c r="F31" s="438" t="s">
@@ -14037,7 +14037,7 @@
       <c r="D32" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="488" t="s">
+      <c r="E32" s="467" t="s">
         <v>72</v>
       </c>
       <c r="F32" s="379" t="s">
@@ -14058,7 +14058,7 @@
       <c r="D33" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="E33" s="488" t="s">
+      <c r="E33" s="467" t="s">
         <v>594</v>
       </c>
       <c r="F33" s="379" t="s">
@@ -14079,7 +14079,7 @@
       <c r="D34" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="488" t="s">
+      <c r="E34" s="467" t="s">
         <v>97</v>
       </c>
       <c r="F34" s="379" t="s">
@@ -14100,7 +14100,7 @@
       <c r="D35" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="488" t="s">
+      <c r="E35" s="467" t="s">
         <v>76</v>
       </c>
       <c r="F35" s="379" t="s">
@@ -14121,7 +14121,7 @@
       <c r="D36" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="488" t="s">
+      <c r="E36" s="467" t="s">
         <v>95</v>
       </c>
       <c r="F36" s="379" t="s">
@@ -14142,7 +14142,7 @@
       <c r="D37" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="488" t="s">
+      <c r="E37" s="467" t="s">
         <v>127</v>
       </c>
       <c r="F37" s="379" t="s">
@@ -14163,7 +14163,7 @@
       <c r="D38" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="E38" s="488" t="s">
+      <c r="E38" s="467" t="s">
         <v>620</v>
       </c>
       <c r="F38" s="379" t="s">
@@ -14184,7 +14184,7 @@
       <c r="D39" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="488" t="s">
+      <c r="E39" s="467" t="s">
         <v>661</v>
       </c>
       <c r="F39" s="379" t="s">
@@ -14205,7 +14205,7 @@
       <c r="D40" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="488" t="s">
+      <c r="E40" s="467" t="s">
         <v>662</v>
       </c>
       <c r="F40" s="379" t="s">
@@ -14226,7 +14226,7 @@
       <c r="D41" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="488" t="s">
+      <c r="E41" s="467" t="s">
         <v>663</v>
       </c>
       <c r="F41" s="379" t="s">
@@ -14247,7 +14247,7 @@
       <c r="D42" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="488" t="s">
+      <c r="E42" s="467" t="s">
         <v>664</v>
       </c>
       <c r="F42" s="379" t="s">
@@ -14268,7 +14268,7 @@
       <c r="D43" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="488" t="s">
+      <c r="E43" s="467" t="s">
         <v>665</v>
       </c>
       <c r="F43" s="379" t="s">
@@ -14289,7 +14289,7 @@
       <c r="D44" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="488" t="s">
+      <c r="E44" s="467" t="s">
         <v>666</v>
       </c>
       <c r="F44" s="379" t="s">
@@ -14310,7 +14310,7 @@
       <c r="D45" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="488" t="s">
+      <c r="E45" s="467" t="s">
         <v>667</v>
       </c>
       <c r="F45" s="379" t="s">
@@ -14331,7 +14331,7 @@
       <c r="D46" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="488" t="s">
+      <c r="E46" s="467" t="s">
         <v>659</v>
       </c>
       <c r="F46" s="379" t="s">
@@ -14352,7 +14352,7 @@
       <c r="D47" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="488" t="s">
+      <c r="E47" s="467" t="s">
         <v>668</v>
       </c>
       <c r="F47" s="379" t="s">
@@ -14373,7 +14373,7 @@
       <c r="D48" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="488" t="s">
+      <c r="E48" s="467" t="s">
         <v>660</v>
       </c>
       <c r="F48" s="379" t="s">
@@ -14394,7 +14394,7 @@
       <c r="D49" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="E49" s="488" t="s">
+      <c r="E49" s="467" t="s">
         <v>532</v>
       </c>
       <c r="F49" s="379" t="s">
@@ -14415,7 +14415,7 @@
       <c r="D50" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="488" t="s">
+      <c r="E50" s="467" t="s">
         <v>104</v>
       </c>
       <c r="F50" s="379" t="s">
@@ -14436,7 +14436,7 @@
       <c r="D51" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="488" t="s">
+      <c r="E51" s="467" t="s">
         <v>105</v>
       </c>
       <c r="F51" s="379" t="s">
@@ -14457,7 +14457,7 @@
       <c r="D52" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="488" t="s">
+      <c r="E52" s="467" t="s">
         <v>106</v>
       </c>
       <c r="F52" s="379" t="s">
@@ -14478,7 +14478,7 @@
       <c r="D53" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="488" t="s">
+      <c r="E53" s="467" t="s">
         <v>107</v>
       </c>
       <c r="F53" s="379" t="s">
@@ -14499,7 +14499,7 @@
       <c r="D54" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="488" t="s">
+      <c r="E54" s="467" t="s">
         <v>108</v>
       </c>
       <c r="F54" s="379" t="s">
@@ -14521,7 +14521,7 @@
       <c r="D55" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="489" t="s">
+      <c r="E55" s="468" t="s">
         <v>128</v>
       </c>
       <c r="F55" s="379" t="str">
@@ -14544,7 +14544,7 @@
       <c r="D56" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="489" t="s">
+      <c r="E56" s="468" t="s">
         <v>130</v>
       </c>
       <c r="F56" s="379" t="str">
@@ -14567,7 +14567,7 @@
       <c r="D57" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="489" t="s">
+      <c r="E57" s="468" t="s">
         <v>132</v>
       </c>
       <c r="F57" s="379" t="str">
@@ -14590,7 +14590,7 @@
       <c r="D58" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="489" t="s">
+      <c r="E58" s="468" t="s">
         <v>134</v>
       </c>
       <c r="F58" s="379" t="str">
@@ -14603,7 +14603,7 @@
     </row>
     <row r="60" spans="2:7" ht="25.5">
       <c r="D60" s="430"/>
-      <c r="E60" s="487"/>
+      <c r="E60" s="466"/>
       <c r="F60" s="430"/>
       <c r="G60" s="431" t="s">
         <v>364</v>
@@ -21249,10 +21249,10 @@
   </sheetPr>
   <dimension ref="B1:CX99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3:AD54"/>
+      <selection pane="bottomLeft" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -21434,7 +21434,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="71" t="str">
-        <f t="shared" ref="AA3:AA34" si="0">U3</f>
+        <f t="shared" ref="AA3" si="0">U3</f>
         <v>1</v>
       </c>
       <c r="AB3" s="32" t="str" cm="1">
@@ -21451,7 +21451,7 @@
       </c>
       <c r="AF3" s="361" t="str">
         <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(AA$3:AA$54) &amp; "'"</f>
-        <v xml:space="preserve">  alphabet: '1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657'</v>
+        <v xml:space="preserve">  alphabet: '1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L 43657'</v>
       </c>
       <c r="AG3" s="440"/>
       <c r="AH3" s="440"/>
@@ -21527,7 +21527,7 @@
         <v>2</v>
       </c>
       <c r="AA4" s="71" t="str">
-        <f t="shared" ref="AA4:AA54" si="9">U4</f>
+        <f t="shared" ref="AA4:AA36" si="9">U4</f>
         <v>!</v>
       </c>
       <c r="AB4" s="32" t="str" cm="1">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="AF4" s="361" t="str">
         <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$48) &amp; "'"</f>
-        <v xml:space="preserve">  initials: '1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA:'</v>
+        <v xml:space="preserve">  initials: '1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L'</v>
       </c>
       <c r="AG4" s="440"/>
       <c r="AH4" s="440"/>
@@ -21899,7 +21899,7 @@
       </c>
       <c r="AH8" s="459" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AH9 &amp; "|" &amp; AH10 &amp; "|"""</f>
-        <v>"xlit|pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@N[WRIUAQEYX}{]123570|1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657|"</v>
+        <v>"xlit|pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGHWRDVIUAQEYX123570|1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L 43657|"</v>
       </c>
       <c r="AI8" s="47"/>
       <c r="AJ8" s="47"/>
@@ -22208,7 +22208,7 @@
       </c>
       <c r="AH9" s="37" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$54)</f>
-        <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@N[WRIUAQEYX}{]123570</v>
+        <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGHWRDVIUAQEYX123570</v>
       </c>
       <c r="AU9" s="38" t="s">
         <v>25</v>
@@ -22354,55 +22354,55 @@
       </c>
       <c r="CF9" s="446" t="str">
         <f t="shared" si="10"/>
-        <v>[</v>
+        <v>G</v>
       </c>
       <c r="CG9" s="446" t="str">
         <f t="shared" si="10"/>
-        <v>W</v>
+        <v>H</v>
       </c>
       <c r="CH9" s="446" t="str">
         <f t="shared" si="10"/>
-        <v>R</v>
+        <v>W</v>
       </c>
       <c r="CI9" s="446" t="str">
         <f t="shared" si="10"/>
-        <v>I</v>
+        <v>R</v>
       </c>
       <c r="CJ9" s="446" t="str">
         <f t="shared" si="10"/>
-        <v>U</v>
+        <v>D</v>
       </c>
       <c r="CK9" s="446" t="str">
         <f t="shared" si="10"/>
-        <v>A</v>
+        <v>V</v>
       </c>
       <c r="CL9" s="446" t="str">
         <f t="shared" si="10"/>
-        <v>Q</v>
+        <v>I</v>
       </c>
       <c r="CM9" s="449" t="str">
         <f t="shared" si="10"/>
-        <v>E</v>
+        <v>U</v>
       </c>
       <c r="CN9" s="449" t="str">
         <f t="shared" si="10"/>
-        <v>Y</v>
+        <v>A</v>
       </c>
       <c r="CO9" s="449" t="str">
         <f t="shared" si="10"/>
-        <v>X</v>
+        <v>Q</v>
       </c>
       <c r="CP9" s="449" t="str">
         <f t="shared" si="10"/>
-        <v>}</v>
+        <v>E</v>
       </c>
       <c r="CQ9" s="449" t="str">
         <f t="shared" si="10"/>
-        <v>{</v>
+        <v>Y</v>
       </c>
       <c r="CR9" s="465" t="str">
         <f t="shared" si="10"/>
-        <v>]</v>
+        <v>X</v>
       </c>
       <c r="CS9" s="446" t="str">
         <f t="shared" si="10"/>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="AH10" s="37" t="str">
         <f>_xlfn.CONCAT(AA3:AA54)</f>
-        <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657</v>
+        <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L 43657</v>
       </c>
       <c r="AQ10" s="48" t="str">
         <f xml:space="preserve"> MID("/", AG9, 1)</f>
@@ -22664,51 +22664,51 @@
       </c>
       <c r="CG10" s="446" t="str">
         <f t="shared" si="11"/>
-        <v>/</v>
+        <v>:</v>
       </c>
       <c r="CH10" s="446" t="str">
         <f t="shared" si="11"/>
-        <v>-</v>
+        <v>/</v>
       </c>
       <c r="CI10" s="446" t="str">
         <f t="shared" si="11"/>
-        <v>U</v>
+        <v>-</v>
       </c>
       <c r="CJ10" s="446" t="str">
         <f t="shared" si="11"/>
-        <v>J</v>
+        <v>O</v>
       </c>
       <c r="CK10" s="446" t="str">
         <f t="shared" si="11"/>
-        <v>*</v>
+        <v>A</v>
       </c>
       <c r="CL10" s="446" t="str">
         <f t="shared" si="11"/>
-        <v>I</v>
+        <v>U</v>
       </c>
       <c r="CM10" s="449" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;</v>
+        <v>J</v>
       </c>
       <c r="CN10" s="449" t="str">
         <f t="shared" si="11"/>
-        <v>(</v>
+        <v>*</v>
       </c>
       <c r="CO10" s="449" t="str">
         <f t="shared" si="11"/>
-        <v>L</v>
+        <v>I</v>
       </c>
       <c r="CP10" s="449" t="str">
         <f t="shared" si="11"/>
-        <v>O</v>
+        <v>&lt;</v>
       </c>
       <c r="CQ10" s="449" t="str">
         <f t="shared" si="11"/>
-        <v>A</v>
+        <v>(</v>
       </c>
       <c r="CR10" s="465" t="str">
         <f t="shared" si="11"/>
-        <v>:</v>
+        <v>L</v>
       </c>
       <c r="CS10" s="446" t="str">
         <f t="shared" si="11"/>
@@ -22982,9 +22982,9 @@
       <c r="AF13" s="424" t="s">
         <v>35</v>
       </c>
-      <c r="AH13" s="460" t="str">
+      <c r="AH13" s="461" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AH14 &amp; "|" &amp; AH15 &amp; "|"""</f>
-        <v>"xlit|1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA:43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˋ˪ˊ˫˙|"</v>
+        <v>"xlit|1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㆨㆱㆰㆪㆫㆩㆧㆥㆮㆯˋ˪ˊ˫˙|"</v>
       </c>
       <c r="AI13" s="47"/>
       <c r="AJ13" s="47"/>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="AH14" s="37" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($AA3:$AA$48, $AA$50:$AA$54)</f>
-        <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA:43657</v>
+        <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L43657</v>
       </c>
       <c r="AU14" s="38" t="s">
         <v>25</v>
@@ -23448,51 +23448,51 @@
       </c>
       <c r="CG14" s="448" t="str">
         <f t="shared" si="12"/>
-        <v>/</v>
+        <v>:</v>
       </c>
       <c r="CH14" s="448" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>/</v>
       </c>
       <c r="CI14" s="448" t="str">
         <f t="shared" si="12"/>
-        <v>U</v>
+        <v>-</v>
       </c>
       <c r="CJ14" s="448" t="str">
         <f t="shared" si="12"/>
-        <v>J</v>
+        <v>O</v>
       </c>
       <c r="CK14" s="448" t="str">
         <f t="shared" si="12"/>
-        <v>*</v>
+        <v>A</v>
       </c>
       <c r="CL14" s="448" t="str">
         <f t="shared" si="12"/>
-        <v>I</v>
+        <v>U</v>
       </c>
       <c r="CM14" s="449" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;</v>
+        <v>J</v>
       </c>
       <c r="CN14" s="449" t="str">
         <f t="shared" si="12"/>
-        <v>(</v>
+        <v>*</v>
       </c>
       <c r="CO14" s="449" t="str">
         <f t="shared" si="12"/>
-        <v>L</v>
+        <v>I</v>
       </c>
       <c r="CP14" s="449" t="str">
         <f t="shared" si="12"/>
-        <v>O</v>
+        <v>&lt;</v>
       </c>
       <c r="CQ14" s="449" t="str">
         <f t="shared" si="12"/>
-        <v>A</v>
+        <v>(</v>
       </c>
       <c r="CR14" s="449" t="str">
         <f t="shared" si="12"/>
-        <v>:</v>
+        <v>L</v>
       </c>
       <c r="CS14" s="448" t="str">
         <f t="shared" si="12"/>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="AH15" s="420" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($AB3:$AB$48, $AB$50:$AB54)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˋ˪ˊ˫˙</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㆨㆱㆰㆪㆫㆩㆧㆥㆮㆯˋ˪ˊ˫˙</v>
       </c>
       <c r="AV15" s="49" t="str">
         <f xml:space="preserve"> MID(AH15, AW14, 1)</f>
@@ -23755,51 +23755,51 @@
       </c>
       <c r="CG15" s="448" t="str">
         <f t="shared" si="13"/>
-        <v>ㆭ</v>
+        <v>ㆲ</v>
       </c>
       <c r="CH15" s="448" t="str">
         <f t="shared" si="13"/>
-        <v>ㆨ</v>
+        <v>ㆭ</v>
       </c>
       <c r="CI15" s="448" t="str">
         <f t="shared" si="13"/>
-        <v>ㆪ</v>
+        <v>ㆨ</v>
       </c>
       <c r="CJ15" s="448" t="str">
         <f t="shared" si="13"/>
-        <v>ㆫ</v>
+        <v>ㆱ</v>
       </c>
       <c r="CK15" s="448" t="str">
         <f t="shared" si="13"/>
-        <v>ㆩ</v>
+        <v>ㆰ</v>
       </c>
       <c r="CL15" s="448" t="str">
         <f t="shared" si="13"/>
-        <v>ㆧ</v>
+        <v>ㆪ</v>
       </c>
       <c r="CM15" s="449" t="str">
         <f t="shared" si="13"/>
-        <v>ㆥ</v>
+        <v>ㆫ</v>
       </c>
       <c r="CN15" s="449" t="str">
         <f t="shared" si="13"/>
-        <v>ㆮ</v>
+        <v>ㆩ</v>
       </c>
       <c r="CO15" s="449" t="str">
         <f t="shared" si="13"/>
-        <v>ㆯ</v>
+        <v>ㆧ</v>
       </c>
       <c r="CP15" s="449" t="str">
         <f t="shared" si="13"/>
-        <v>ㆱ</v>
+        <v>ㆥ</v>
       </c>
       <c r="CQ15" s="449" t="str">
         <f t="shared" si="13"/>
-        <v>ㆰ</v>
+        <v>ㆮ</v>
       </c>
       <c r="CR15" s="449" t="str">
         <f t="shared" si="13"/>
-        <v>ㆲ</v>
+        <v>ㆯ</v>
       </c>
       <c r="CS15" s="448" t="str">
         <f t="shared" si="13"/>
@@ -23991,7 +23991,7 @@
       </c>
       <c r="AH17" s="461" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AH18 &amp; "|" &amp; AH19 &amp; "|"""</f>
-        <v>"xlit|pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@N[WRIUAQEYX}{]123570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˉˋ˪ˊ˫˙|"</v>
+        <v>"xlit|pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGHWRDVIUAQEYX123570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㆨㆱㆰㆪㆫㆩㆧㆥㆮㆯˉˋ˪ˊ˫˙|"</v>
       </c>
       <c r="AI17" s="47"/>
       <c r="AJ17" s="47"/>
@@ -24092,7 +24092,7 @@
       </c>
       <c r="AH18" s="37" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AC$3:AC$54)</f>
-        <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@N[WRIUAQEYX}{]123570</v>
+        <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGHWRDVIUAQEYX123570</v>
       </c>
       <c r="AU18" s="38" t="s">
         <v>25</v>
@@ -24189,7 +24189,7 @@
       </c>
       <c r="AH19" s="429" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AB3:AB54)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˉˋ˪ˊ˫˙</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄥㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㆨㆱㆰㆪㆫㆩㆧㆥㆮㆯˉˋ˪ˊ˫˙</v>
       </c>
       <c r="AV19" s="49" t="str">
         <f xml:space="preserve"> MID(AH19, AW18, 1)</f>
@@ -25559,9 +25559,8 @@
         <f t="array" ref="AB36">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA36,注音編碼對照表!$C$3:$C$54),0))</f>
         <v>ㄤ</v>
       </c>
-      <c r="AC36" s="379" t="str" cm="1">
-        <f t="array" ref="AC36">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA36,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>[</v>
+      <c r="AC36" s="379" t="s">
+        <v>195</v>
       </c>
       <c r="AD36" s="432" t="str" cm="1">
         <f t="array" ref="AD36">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA36,注音編碼對照表!$C$3:$C$54),0))</f>
@@ -25631,21 +25630,20 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="AA37" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>/</v>
-      </c>
-      <c r="AB37" s="32" t="str" cm="1">
+      <c r="AA37" s="490" t="str">
+        <f>U48</f>
+        <v>:</v>
+      </c>
+      <c r="AB37" s="70" t="str" cm="1">
         <f t="array" ref="AB37">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA37,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆭ</v>
-      </c>
-      <c r="AC37" s="379" t="str" cm="1">
-        <f t="array" ref="AC37">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA37,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>W</v>
-      </c>
-      <c r="AD37" s="432" t="str" cm="1">
+        <v>ㆲ</v>
+      </c>
+      <c r="AC37" s="491" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD37" s="492" t="str" cm="1">
         <f t="array" ref="AD37">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA37,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>-ng</v>
+        <v>ong</v>
       </c>
       <c r="AF37" s="423" t="s">
         <v>101</v>
@@ -25712,20 +25710,20 @@
         <v>36</v>
       </c>
       <c r="AA38" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+        <f>U37</f>
+        <v>/</v>
       </c>
       <c r="AB38" s="32" t="str" cm="1">
         <f t="array" ref="AB38">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA38,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆨ</v>
+        <v>ㆭ</v>
       </c>
       <c r="AC38" s="379" t="str" cm="1">
         <f t="array" ref="AC38">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA38,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>R</v>
+        <v>W</v>
       </c>
       <c r="AD38" s="432" t="str" cm="1">
         <f t="array" ref="AD38">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA38,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ir</v>
+        <v>-ng</v>
       </c>
       <c r="AF38" s="423" t="s">
         <v>593</v>
@@ -25792,20 +25790,20 @@
         <v>37</v>
       </c>
       <c r="AA39" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>U</v>
+        <f>U38</f>
+        <v>-</v>
       </c>
       <c r="AB39" s="32" t="str" cm="1">
         <f t="array" ref="AB39">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA39,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆪ</v>
+        <v>ㆨ</v>
       </c>
       <c r="AC39" s="379" t="str" cm="1">
         <f t="array" ref="AC39">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA39,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>I</v>
+        <v>R</v>
       </c>
       <c r="AD39" s="432" t="str" cm="1">
         <f t="array" ref="AD39">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA39,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>inn</v>
+        <v>ir</v>
       </c>
       <c r="AF39" s="423" t="s">
         <v>125</v>
@@ -25871,21 +25869,20 @@
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="AA40" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>J</v>
-      </c>
-      <c r="AB40" s="32" t="str" cm="1">
+      <c r="AA40" s="490" t="str">
+        <f>U46</f>
+        <v>O</v>
+      </c>
+      <c r="AB40" s="70" t="str" cm="1">
         <f t="array" ref="AB40">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA40,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆫ</v>
-      </c>
-      <c r="AC40" s="379" t="str" cm="1">
-        <f t="array" ref="AC40">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA40,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>U</v>
-      </c>
-      <c r="AD40" s="432" t="str" cm="1">
+        <v>ㆱ</v>
+      </c>
+      <c r="AC40" s="491" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD40" s="492" t="str" cm="1">
         <f t="array" ref="AD40">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA40,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>unn</v>
+        <v>om</v>
       </c>
       <c r="AF40" s="423" t="s">
         <v>99</v>
@@ -25951,21 +25948,20 @@
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="AA41" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>*</v>
-      </c>
-      <c r="AB41" s="32" t="str" cm="1">
+      <c r="AA41" s="490" t="str">
+        <f>U47</f>
+        <v>A</v>
+      </c>
+      <c r="AB41" s="70" t="str" cm="1">
         <f t="array" ref="AB41">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA41,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆩ</v>
-      </c>
-      <c r="AC41" s="379" t="str" cm="1">
-        <f t="array" ref="AC41">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA41,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>A</v>
-      </c>
-      <c r="AD41" s="432" t="str" cm="1">
+        <v>ㆰ</v>
+      </c>
+      <c r="AC41" s="491" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD41" s="492" t="str" cm="1">
         <f t="array" ref="AD41">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA41,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ann</v>
+        <v>am</v>
       </c>
       <c r="AF41" s="423" t="s">
         <v>145</v>
@@ -26032,20 +26028,20 @@
         <v>40</v>
       </c>
       <c r="AA42" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>I</v>
+        <f>U39</f>
+        <v>U</v>
       </c>
       <c r="AB42" s="32" t="str" cm="1">
         <f t="array" ref="AB42">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA42,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆧ</v>
+        <v>ㆪ</v>
       </c>
       <c r="AC42" s="379" t="str" cm="1">
         <f t="array" ref="AC42">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA42,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>Q</v>
+        <v>I</v>
       </c>
       <c r="AD42" s="432" t="str" cm="1">
         <f t="array" ref="AD42">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA42,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>onn</v>
+        <v>inn</v>
       </c>
       <c r="AF42" s="423" t="s">
         <v>74</v>
@@ -26112,24 +26108,22 @@
         <v>41</v>
       </c>
       <c r="AA43" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;</v>
+        <f>U40</f>
+        <v>J</v>
       </c>
       <c r="AB43" s="32" t="str" cm="1">
         <f t="array" ref="AB43">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA43,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆥ</v>
+        <v>ㆫ</v>
       </c>
       <c r="AC43" s="379" t="str" cm="1">
         <f t="array" ref="AC43">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA43,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>E</v>
+        <v>U</v>
       </c>
       <c r="AD43" s="432" t="str" cm="1">
         <f t="array" ref="AD43">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA43,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>enn</v>
-      </c>
-      <c r="AE43" s="88" t="s">
-        <v>515</v>
-      </c>
+        <v>unn</v>
+      </c>
+      <c r="AE43" s="88"/>
       <c r="AF43" s="423" t="s">
         <v>76</v>
       </c>
@@ -26195,23 +26189,20 @@
         <v>42</v>
       </c>
       <c r="AA44" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>(</v>
+        <f>U41</f>
+        <v>*</v>
       </c>
       <c r="AB44" s="32" t="str" cm="1">
         <f t="array" ref="AB44">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA44,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆮ</v>
+        <v>ㆩ</v>
       </c>
       <c r="AC44" s="379" t="str" cm="1">
         <f t="array" ref="AC44">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA44,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>Y</v>
+        <v>A</v>
       </c>
       <c r="AD44" s="432" t="str" cm="1">
         <f t="array" ref="AD44">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA44,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ainn</v>
-      </c>
-      <c r="AE44" s="2" t="s">
-        <v>511</v>
+        <v>ann</v>
       </c>
       <c r="AF44" s="423" t="s">
         <v>594</v>
@@ -26268,20 +26259,20 @@
         <v>43</v>
       </c>
       <c r="AA45" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>L</v>
+        <f>U42</f>
+        <v>I</v>
       </c>
       <c r="AB45" s="32" t="str" cm="1">
         <f t="array" ref="AB45">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA45,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆯ</v>
+        <v>ㆧ</v>
       </c>
       <c r="AC45" s="379" t="str" cm="1">
         <f t="array" ref="AC45">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA45,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>X</v>
+        <v>Q</v>
       </c>
       <c r="AD45" s="432" t="str" cm="1">
         <f t="array" ref="AD45">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA45,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>aunn</v>
+        <v>onn</v>
       </c>
       <c r="AV45" s="11"/>
       <c r="AW45" s="2"/>
@@ -26348,20 +26339,20 @@
         <v>44</v>
       </c>
       <c r="AA46" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>O</v>
+        <f>U43</f>
+        <v>&lt;</v>
       </c>
       <c r="AB46" s="32" t="str" cm="1">
         <f t="array" ref="AB46">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA46,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆱ</v>
+        <v>ㆥ</v>
       </c>
       <c r="AC46" s="379" t="str" cm="1">
         <f t="array" ref="AC46">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA46,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>}</v>
+        <v>E</v>
       </c>
       <c r="AD46" s="432" t="str" cm="1">
         <f t="array" ref="AD46">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA46,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>om</v>
+        <v>enn</v>
       </c>
       <c r="AV46" s="11"/>
       <c r="AW46" s="2"/>
@@ -26434,20 +26425,20 @@
         <v>45</v>
       </c>
       <c r="AA47" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>A</v>
+        <f>U44</f>
+        <v>(</v>
       </c>
       <c r="AB47" s="32" t="str" cm="1">
         <f t="array" ref="AB47">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA47,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆰ</v>
+        <v>ㆮ</v>
       </c>
       <c r="AC47" s="379" t="str" cm="1">
         <f t="array" ref="AC47">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA47,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>{</v>
+        <v>Y</v>
       </c>
       <c r="AD47" s="432" t="str" cm="1">
         <f t="array" ref="AD47">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA47,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>am</v>
+        <v>ainn</v>
       </c>
       <c r="AV47" s="11"/>
       <c r="AW47" s="2"/>
@@ -26521,20 +26512,20 @@
         <v>46</v>
       </c>
       <c r="AA48" s="71" t="str">
-        <f t="shared" si="9"/>
-        <v>:</v>
+        <f>U45</f>
+        <v>L</v>
       </c>
       <c r="AB48" s="32" t="str" cm="1">
         <f t="array" ref="AB48">INDEX(注音編碼對照表!$D$3:$D$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA48,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ㆲ</v>
+        <v>ㆯ</v>
       </c>
       <c r="AC48" s="379" t="str" cm="1">
         <f t="array" ref="AC48">INDEX(注音編碼對照表!$F$3:$F$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA48,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>]</v>
+        <v>X</v>
       </c>
       <c r="AD48" s="432" t="str" cm="1">
         <f t="array" ref="AD48">INDEX(注音編碼對照表!$G$3:$G$54,MATCH(TRUE,EXACT('RIME設定解析 (2)'!$AA48,注音編碼對照表!$C$3:$C$54),0))</f>
-        <v>ong</v>
+        <v>aunn</v>
       </c>
       <c r="AV48" s="11"/>
       <c r="AW48" s="2"/>
@@ -26604,7 +26595,7 @@
         <v>47</v>
       </c>
       <c r="AA49" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f>U49</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB49" s="32" t="str" cm="1">
@@ -26687,7 +26678,7 @@
         <v>48</v>
       </c>
       <c r="AA50" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f>U50</f>
         <v>4</v>
       </c>
       <c r="AB50" s="32" t="str" cm="1">
@@ -26773,7 +26764,7 @@
         <v>49</v>
       </c>
       <c r="AA51" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f>U51</f>
         <v>3</v>
       </c>
       <c r="AB51" s="32" t="str" cm="1">
@@ -26859,7 +26850,7 @@
         <v>50</v>
       </c>
       <c r="AA52" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f>U52</f>
         <v>6</v>
       </c>
       <c r="AB52" s="32" t="str" cm="1">
@@ -26942,7 +26933,7 @@
         <v>51</v>
       </c>
       <c r="AA53" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f>U53</f>
         <v>5</v>
       </c>
       <c r="AB53" s="32" t="str" cm="1">
@@ -27025,7 +27016,7 @@
         <v>52</v>
       </c>
       <c r="AA54" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f>U54</f>
         <v>7</v>
       </c>
       <c r="AB54" s="32" t="str" cm="1">
@@ -28059,6 +28050,7 @@
       <c r="AW99" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="Z1:AH58" xr:uid="{7CDD5FA8-BD44-4B3C-8152-F8DC02F9E201}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="AA3:AA58">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -33226,56 +33218,56 @@
       </c>
       <c r="F2" s="473"/>
       <c r="G2" s="474"/>
-      <c r="H2" s="481" t="s">
+      <c r="H2" s="469" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="482"/>
-      <c r="J2" s="483"/>
-      <c r="K2" s="481" t="s">
+      <c r="I2" s="470"/>
+      <c r="J2" s="471"/>
+      <c r="K2" s="469" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="482"/>
-      <c r="M2" s="483"/>
-      <c r="N2" s="484">
+      <c r="L2" s="470"/>
+      <c r="M2" s="471"/>
+      <c r="N2" s="475">
         <v>0.05</v>
       </c>
-      <c r="O2" s="485"/>
-      <c r="P2" s="486"/>
-      <c r="Q2" s="481" t="s">
+      <c r="O2" s="476"/>
+      <c r="P2" s="477"/>
+      <c r="Q2" s="469" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="482"/>
-      <c r="S2" s="483"/>
-      <c r="T2" s="481" t="s">
+      <c r="R2" s="470"/>
+      <c r="S2" s="471"/>
+      <c r="T2" s="469" t="s">
         <v>544</v>
       </c>
-      <c r="U2" s="482"/>
-      <c r="V2" s="483"/>
-      <c r="W2" s="466" t="s">
+      <c r="U2" s="470"/>
+      <c r="V2" s="471"/>
+      <c r="W2" s="480" t="s">
         <v>545</v>
       </c>
-      <c r="X2" s="467"/>
-      <c r="Y2" s="468"/>
-      <c r="Z2" s="466" t="s">
+      <c r="X2" s="481"/>
+      <c r="Y2" s="482"/>
+      <c r="Z2" s="480" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" s="467"/>
-      <c r="AB2" s="468"/>
-      <c r="AC2" s="466" t="s">
+      <c r="AA2" s="481"/>
+      <c r="AB2" s="482"/>
+      <c r="AC2" s="480" t="s">
         <v>547</v>
       </c>
-      <c r="AD2" s="467"/>
-      <c r="AE2" s="468"/>
-      <c r="AF2" s="469" t="s">
+      <c r="AD2" s="481"/>
+      <c r="AE2" s="482"/>
+      <c r="AF2" s="483" t="s">
         <v>548</v>
       </c>
-      <c r="AG2" s="470"/>
-      <c r="AH2" s="471"/>
-      <c r="AI2" s="469" t="s">
+      <c r="AG2" s="484"/>
+      <c r="AH2" s="485"/>
+      <c r="AI2" s="483" t="s">
         <v>549</v>
       </c>
-      <c r="AJ2" s="470"/>
-      <c r="AK2" s="471"/>
+      <c r="AJ2" s="484"/>
+      <c r="AK2" s="485"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="239"/>
@@ -33407,38 +33399,38 @@
       <c r="G4" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="477" t="s">
+      <c r="H4" s="486" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="478"/>
+      <c r="I4" s="487"/>
       <c r="J4" s="272" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="479" t="s">
+      <c r="K4" s="488" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="480"/>
+      <c r="L4" s="489"/>
       <c r="M4" s="272" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="477" t="s">
+      <c r="N4" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="478"/>
+      <c r="O4" s="487"/>
       <c r="P4" s="272" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="479" t="s">
+      <c r="Q4" s="488" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="480"/>
+      <c r="R4" s="489"/>
       <c r="S4" s="272" t="s">
         <v>555</v>
       </c>
-      <c r="T4" s="477" t="s">
+      <c r="T4" s="486" t="s">
         <v>556</v>
       </c>
-      <c r="U4" s="478"/>
+      <c r="U4" s="487"/>
       <c r="V4" s="272" t="s">
         <v>557</v>
       </c>
@@ -33478,8 +33470,8 @@
         <f ca="1">AW20</f>
         <v>N</v>
       </c>
-      <c r="AI4" s="475"/>
-      <c r="AJ4" s="476"/>
+      <c r="AI4" s="478"/>
+      <c r="AJ4" s="479"/>
       <c r="AK4" s="279"/>
       <c r="AL4" s="267"/>
       <c r="AM4" s="267"/>
@@ -33567,41 +33559,41 @@
       </c>
       <c r="S5" s="473"/>
       <c r="T5" s="474"/>
-      <c r="U5" s="466" t="s">
+      <c r="U5" s="480" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="467"/>
-      <c r="W5" s="468"/>
-      <c r="X5" s="466" t="s">
+      <c r="V5" s="481"/>
+      <c r="W5" s="482"/>
+      <c r="X5" s="480" t="s">
         <v>275</v>
       </c>
-      <c r="Y5" s="467"/>
-      <c r="Z5" s="468"/>
-      <c r="AA5" s="466" t="s">
+      <c r="Y5" s="481"/>
+      <c r="Z5" s="482"/>
+      <c r="AA5" s="480" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="467"/>
-      <c r="AC5" s="468"/>
-      <c r="AD5" s="466" t="s">
+      <c r="AB5" s="481"/>
+      <c r="AC5" s="482"/>
+      <c r="AD5" s="480" t="s">
         <v>400</v>
       </c>
-      <c r="AE5" s="467"/>
-      <c r="AF5" s="468"/>
-      <c r="AG5" s="466" t="s">
+      <c r="AE5" s="481"/>
+      <c r="AF5" s="482"/>
+      <c r="AG5" s="480" t="s">
         <v>561</v>
       </c>
-      <c r="AH5" s="467"/>
-      <c r="AI5" s="468"/>
-      <c r="AJ5" s="466" t="s">
+      <c r="AH5" s="481"/>
+      <c r="AI5" s="482"/>
+      <c r="AJ5" s="480" t="s">
         <v>562</v>
       </c>
-      <c r="AK5" s="467"/>
-      <c r="AL5" s="468"/>
-      <c r="AM5" s="469" t="s">
+      <c r="AK5" s="481"/>
+      <c r="AL5" s="482"/>
+      <c r="AM5" s="483" t="s">
         <v>563</v>
       </c>
-      <c r="AN5" s="470"/>
-      <c r="AO5" s="471"/>
+      <c r="AN5" s="484"/>
+      <c r="AO5" s="485"/>
       <c r="AP5" s="239"/>
       <c r="AQ5" s="239"/>
       <c r="AR5" s="240"/>
@@ -33849,14 +33841,14 @@
         <f ca="1">AV20</f>
         <v>n</v>
       </c>
-      <c r="AG7" s="475"/>
-      <c r="AH7" s="476"/>
+      <c r="AG7" s="478"/>
+      <c r="AH7" s="479"/>
       <c r="AI7" s="279"/>
-      <c r="AJ7" s="475"/>
-      <c r="AK7" s="476"/>
+      <c r="AJ7" s="478"/>
+      <c r="AK7" s="479"/>
       <c r="AL7" s="279"/>
-      <c r="AM7" s="475"/>
-      <c r="AN7" s="476"/>
+      <c r="AM7" s="478"/>
+      <c r="AN7" s="479"/>
       <c r="AO7" s="279"/>
       <c r="AP7" s="267"/>
       <c r="AQ7" s="267"/>
@@ -33941,31 +33933,31 @@
       </c>
       <c r="T8" s="473"/>
       <c r="U8" s="474"/>
-      <c r="V8" s="466" t="s">
+      <c r="V8" s="480" t="s">
         <v>249</v>
       </c>
-      <c r="W8" s="467"/>
-      <c r="X8" s="468"/>
-      <c r="Y8" s="466" t="s">
+      <c r="W8" s="481"/>
+      <c r="X8" s="482"/>
+      <c r="Y8" s="480" t="s">
         <v>425</v>
       </c>
-      <c r="Z8" s="467"/>
-      <c r="AA8" s="468"/>
-      <c r="AB8" s="466" t="s">
+      <c r="Z8" s="481"/>
+      <c r="AA8" s="482"/>
+      <c r="AB8" s="480" t="s">
         <v>231</v>
       </c>
-      <c r="AC8" s="467"/>
-      <c r="AD8" s="468"/>
-      <c r="AE8" s="466" t="s">
+      <c r="AC8" s="481"/>
+      <c r="AD8" s="482"/>
+      <c r="AE8" s="480" t="s">
         <v>567</v>
       </c>
-      <c r="AF8" s="467"/>
-      <c r="AG8" s="468"/>
-      <c r="AH8" s="469" t="s">
+      <c r="AF8" s="481"/>
+      <c r="AG8" s="482"/>
+      <c r="AH8" s="483" t="s">
         <v>568</v>
       </c>
-      <c r="AI8" s="470"/>
-      <c r="AJ8" s="471"/>
+      <c r="AI8" s="484"/>
+      <c r="AJ8" s="485"/>
       <c r="AK8" s="239"/>
       <c r="AL8" s="239"/>
       <c r="AM8" s="239"/>
@@ -34217,8 +34209,8 @@
         <f ca="1">AR20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="475"/>
-      <c r="AI10" s="476"/>
+      <c r="AH10" s="478"/>
+      <c r="AI10" s="479"/>
       <c r="AJ10" s="279"/>
       <c r="AK10" s="267"/>
       <c r="AL10" s="267"/>
@@ -34309,26 +34301,26 @@
       </c>
       <c r="U11" s="473"/>
       <c r="V11" s="474"/>
-      <c r="W11" s="466" t="s">
+      <c r="W11" s="480" t="s">
         <v>525</v>
       </c>
-      <c r="X11" s="467"/>
-      <c r="Y11" s="468"/>
-      <c r="Z11" s="466" t="s">
+      <c r="X11" s="481"/>
+      <c r="Y11" s="482"/>
+      <c r="Z11" s="480" t="s">
         <v>572</v>
       </c>
-      <c r="AA11" s="467"/>
-      <c r="AB11" s="468"/>
-      <c r="AC11" s="466" t="s">
+      <c r="AA11" s="481"/>
+      <c r="AB11" s="482"/>
+      <c r="AC11" s="480" t="s">
         <v>573</v>
       </c>
-      <c r="AD11" s="467"/>
-      <c r="AE11" s="468"/>
-      <c r="AF11" s="469" t="s">
+      <c r="AD11" s="481"/>
+      <c r="AE11" s="482"/>
+      <c r="AF11" s="483" t="s">
         <v>574</v>
       </c>
-      <c r="AG11" s="470"/>
-      <c r="AH11" s="471"/>
+      <c r="AG11" s="484"/>
+      <c r="AH11" s="485"/>
       <c r="AI11" s="239"/>
       <c r="AJ11" s="239"/>
       <c r="AK11" s="239"/>
@@ -40387,52 +40379,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -40443,6 +40389,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
